--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C833BE-363A-40FC-8397-47A618DFEDFA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1722,7 +1728,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2200,7 +2206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2236,36 +2242,12 @@
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2309,7 +2291,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
@@ -2322,30 +2304,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="43"/>
-    <cellStyle name="60% - Accent1" xfId="41"/>
-    <cellStyle name="60% - Accent1" xfId="49"/>
-    <cellStyle name="60% - Accent1" xfId="50"/>
-    <cellStyle name="60% - Accent2" xfId="45"/>
-    <cellStyle name="60% - Accent2" xfId="47"/>
-    <cellStyle name="60% - Accent2" xfId="55"/>
-    <cellStyle name="60% - Accent2" xfId="60"/>
-    <cellStyle name="60% - Accent3" xfId="48"/>
-    <cellStyle name="60% - Accent3" xfId="53"/>
-    <cellStyle name="60% - Accent3" xfId="58"/>
-    <cellStyle name="60% - Accent3" xfId="62"/>
-    <cellStyle name="60% - Accent4" xfId="51"/>
-    <cellStyle name="60% - Accent4" xfId="42"/>
-    <cellStyle name="60% - Accent4" xfId="46"/>
-    <cellStyle name="60% - Accent4" xfId="44"/>
-    <cellStyle name="60% - Accent5" xfId="54"/>
-    <cellStyle name="60% - Accent5" xfId="59"/>
-    <cellStyle name="60% - Accent5" xfId="63"/>
-    <cellStyle name="60% - Accent5" xfId="65"/>
-    <cellStyle name="60% - Accent6" xfId="56"/>
-    <cellStyle name="60% - Accent6" xfId="61"/>
-    <cellStyle name="60% - Accent6" xfId="64"/>
-    <cellStyle name="60% - Accent6" xfId="66"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2364,17 +2328,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="38"/>
-    <cellStyle name="Neutral" xfId="37"/>
-    <cellStyle name="Neutral" xfId="35"/>
-    <cellStyle name="Neutral" xfId="39"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="36"/>
-    <cellStyle name="Title" xfId="40"/>
-    <cellStyle name="Title" xfId="52"/>
-    <cellStyle name="Title" xfId="57"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -2403,7 +2361,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2708,39 +2666,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="BI24" sqref="BI24:BI25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
     <col min="4" max="21" width="6" customWidth="1"/>
     <col min="22" max="22" width="6" style="12" customWidth="1"/>
     <col min="23" max="36" width="6" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" customWidth="1"/>
-    <col min="50" max="50" width="90.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" customWidth="1"/>
-    <col min="57" max="57" width="53.5703125" customWidth="1"/>
+    <col min="40" max="42" width="10.26953125" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" customWidth="1"/>
+    <col min="50" max="50" width="90.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.1796875" customWidth="1"/>
+    <col min="57" max="57" width="53.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2866,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>469</v>
       </c>
@@ -3059,36 +3017,39 @@
       <c r="AW2" t="b">
         <v>1</v>
       </c>
-      <c r="AX2" s="4" t="e">
-        <f t="shared" ref="AX2:AX40" ca="1" si="14">_xlfn.CONCAT("{
+      <c r="AX2" s="4" t="str">
+        <f t="shared" ref="AX2:AX40" si="14">_xlfn.CONCAT("{
     'name': """,B2,""",
     'area': ","""",C2,""",",
 "'hours': {
       'sunday-start':","""",H2,"""",", 'sunday-end':","""",I2,"""",", 'monday-start':","""",J2,"""",", 'monday-end':","""",K2,"""",", 'tuesday-start':","""",L2,"""",", 'tuesday-end':","""",M2,""", 'wednesday-start':","""",N2,""", 'wednesday-end':","""",O2,""", 'thursday-start':","""",P2,""", 'thursday-end':","""",Q2,""", 'friday-start':","""",R2,""", 'friday-end':","""",S2,""", 'saturday-start':","""",T2,""", 'saturday-end':","""",U2,"""","},","  'description': ","""",V2,"""",", 'link':","""",AR2,"""",", 'pricing':","""",E2,"""",",   'phone-number': ","""",F2,"""",", 'address': ","""",G2,"""",", 'other-amenities': [","'",AS2,"','",AT2,"','",AU2,"'","]",", 'has-drink':",AV2,", 'has-food':",AW2,"},")</f>
-        <v>#NAME?</v>
+        <v>{
+    'name': "3 Margaritas",
+    'area': "sfoco",'hours': {
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"https://www.3margaritasfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "4010 S College Ave Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':TRUE, 'has-food':TRUE},</v>
       </c>
       <c r="AY2" t="str">
-        <f t="shared" ref="AY2:AY40" si="15">IF(AS2&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
+        <f t="shared" ref="AY2:AY4" si="15">IF(AS2&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
         <v/>
       </c>
       <c r="AZ2" t="str">
-        <f t="shared" ref="AZ2:AZ40" si="16">IF(AT2&gt;0,"&lt;img src=@img/pets.png@&gt;","")</f>
+        <f t="shared" ref="AZ2:AZ4" si="16">IF(AT2&gt;0,"&lt;img src=@img/pets.png@&gt;","")</f>
         <v/>
       </c>
       <c r="BA2" t="str">
-        <f t="shared" ref="BA2:BA40" si="17">IF(AU2="hard","&lt;img src=@img/hard.png@&gt;",IF(AU2="medium","&lt;img src=@img/medium.png@&gt;",IF(AU2="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
+        <f t="shared" ref="BA2:BA4" si="17">IF(AU2="hard","&lt;img src=@img/hard.png@&gt;",IF(AU2="medium","&lt;img src=@img/medium.png@&gt;",IF(AU2="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
         <v>&lt;img src=@img/easy.png@&gt;</v>
       </c>
       <c r="BB2" t="str">
-        <f t="shared" ref="BB2:BB40" si="18">IF(AV2="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
+        <f t="shared" ref="BB2:BB4" si="18">IF(AV2="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
         <v/>
       </c>
       <c r="BC2" t="str">
-        <f t="shared" ref="BC2:BC40" si="19">IF(AW2="true","&lt;img src=@img/foodicon.png@&gt;","")</f>
+        <f t="shared" ref="BC2:BC4" si="19">IF(AW2="true","&lt;img src=@img/foodicon.png@&gt;","")</f>
         <v/>
       </c>
       <c r="BD2" t="str">
-        <f t="shared" ref="BD2:BD40" si="20">CONCATENATE(AY2,AZ2,BA2,BB2,BC2,BK2)</f>
+        <f t="shared" ref="BD2:BD4" si="20">CONCATENATE(AY2,AZ2,BA2,BB2,BC2,BK2)</f>
         <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BE2" t="str">
@@ -3096,7 +3057,7 @@
         <v>easy med sfoco kid</v>
       </c>
       <c r="BF2" t="str">
-        <f t="shared" ref="BF2:BF40" si="21">IF(C2="old","Old Town",IF(C2="campus","Near Campus",IF(C2="sfoco", "South Foco",IF(C2="nfoco","North Foco",IF(C2="midtown","Midtown",IF(C2="cwest","Campus West",""))))))</f>
+        <f t="shared" ref="BF2:BF4" si="21">IF(C2="old","Old Town",IF(C2="campus","Near Campus",IF(C2="sfoco", "South Foco",IF(C2="nfoco","North Foco",IF(C2="midtown","Midtown",IF(C2="cwest","Campus West",""))))))</f>
         <v>South Foco</v>
       </c>
       <c r="BG2">
@@ -3120,7 +3081,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="120.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="120.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>140</v>
       </c>
@@ -3274,9 +3235,12 @@
       <c r="AW3" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX3" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX3" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Ace Gillett's Lounge",
+    'area': "old",'hours': {
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"https://acegilletts.com", 'pricing':"med",   'phone-number': "", 'address': "239 South College Avenue, Fort Collins 80524", 'other-amenities': ['','','hard'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY3" t="str">
         <f t="shared" si="15"/>
@@ -3303,7 +3267,7 @@
         <v>&lt;img src=@img/hard.png@&gt;</v>
       </c>
       <c r="BE3" t="str">
-        <f t="shared" ref="BE3:BE75" si="45">CONCATENATE(IF(AS3&gt;0,"outdoor ",""),IF(AT3&gt;0,"pet ",""),IF(AV3="true","drink ",""),IF(AW3="true","food ",""),AU3," ",E3," ",C3,IF(BJ3=TRUE," kid",""))</f>
+        <f t="shared" ref="BE3:BE4" si="45">CONCATENATE(IF(AS3&gt;0,"outdoor ",""),IF(AT3&gt;0,"pet ",""),IF(AV3="true","drink ",""),IF(AW3="true","food ",""),AU3," ",E3," ",C3,IF(BJ3=TRUE," kid",""))</f>
         <v>hard med old</v>
       </c>
       <c r="BF3" t="str">
@@ -3325,7 +3289,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -3437,9 +3401,12 @@
       <c r="AW4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX4" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX4" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Alley Cat",
+    'area': "campus",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.alleycatcoffeehouse.com", 'pricing':"low",   'phone-number': "", 'address': "120 1/2 W Laurel St, Fort Collins 80524", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY4" t="str">
         <f t="shared" si="15"/>
@@ -3488,7 +3455,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>532</v>
       </c>
@@ -3646,7 +3613,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>149</v>
       </c>
@@ -3764,9 +3731,12 @@
       <c r="AW6" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX6" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX6" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Anheuser-Busch Tour Center",
+    'area': "nfoco",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.budweisertours.com/locations/ft-collins-colorado.html", 'pricing':"med",   'phone-number': "", 'address': "2351 Busch Drive, Fort Collins, CO 80524", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY6" s="23" t="str">
         <f t="shared" ref="AY6:AY69" si="54">IF(AS6&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -3815,7 +3785,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -3975,13 +3945,16 @@
       <c r="AW7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX7" s="22" t="e">
-        <f ca="1">_xlfn.CONCAT("{
+      <c r="AX7" s="22" t="str">
+        <f>_xlfn.CONCAT("{
     'name': """,B7,""",
     'area': ","""",C7,""",",
 "'hours': {
       'sunday-start':","""",H7,"""",", 'sunday-end':","""",I7,"""",", 'monday-start':","""",J7,"""",", 'monday-end':","""",K7,"""",", 'tuesday-start':","""",L7,"""",", 'tuesday-end':","""",M7,""", 'wednesday-start':","""",N7,""", 'wednesday-end':","""",O7,""", 'thursday-start':","""",P7,""", 'thursday-end':","""",Q7,""", 'friday-start':","""",R7,""", 'friday-end':","""",S7,""", 'saturday-start':","""",T7,""", 'saturday-end':","""",U7,"""","},","  'description': ","""",V7,"""",", 'link':","""",AR7,"""",", 'pricing':","""",E7,"""",",   'phone-number': ","""",F7,"""",", 'address': ","""",G7,"""",", 'other-amenities': [","'",AS7,"','",AT7,"','",AU7,"'","]",", 'has-drink':",AV7,", 'has-food':",AW7,"},")</f>
-        <v>#NAME?</v>
+        <v>{
+    'name': "Austin's American Grill",
+    'area': "sfoco",'hours': {
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Monday-Sunday&lt;br&gt;3-6 pm:&lt;br&gt;$5 Martinis, Select Cocktails, Wine&lt;br&gt;$3 Domestic Drafts&lt;br&gt;$3.50 Micro Brewed Drafts", 'link':"http://www.austinsamericangrill.com", 'pricing':"med",   'phone-number': "", 'address': "2815 E Harmony Rd, Fort Collins 80528", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY7" s="23" t="str">
         <f t="shared" si="54"/>
@@ -4030,7 +4003,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>536</v>
       </c>
@@ -4238,7 +4211,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>109</v>
       </c>
@@ -4398,9 +4371,12 @@
       <c r="AW9" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX9" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX9" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Avogadro's Number",
+    'area': "campus",'hours': {
+      'sunday-start':"900", 'sunday-end':"2400", 'monday-start':"1100", 'monday-end':"2400", 'tuesday-start':"1100", 'tuesday-end':"2400", 'wednesday-start':"1100", 'wednesday-end':"2400", 'thursday-start':"1100", 'thursday-end':"2400", 'friday-start':"1100", 'friday-end':"2400", 'saturday-start':"900", 'saturday-end':"2400"},  'description': "Daily Specials", 'link':"http://www.avogadros.com", 'pricing':"med",   'phone-number': "", 'address': "605 S Mason Street, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY9" s="23" t="str">
         <f t="shared" si="54"/>
@@ -4449,7 +4425,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>539</v>
       </c>
@@ -4607,7 +4583,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>541</v>
       </c>
@@ -4762,7 +4738,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>134</v>
       </c>
@@ -4874,9 +4850,12 @@
       <c r="AW12" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX12" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX12" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Bann Thai",
+    'area': "campus",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.bannthairestaurant.net/", 'pricing':"low",   'phone-number': "", 'address': "626 S College Ave, Fort Collins 80524", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY12" s="23" t="str">
         <f t="shared" si="54"/>
@@ -4925,7 +4904,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -5073,9 +5052,12 @@
       <c r="AW13" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX13" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX13" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Bar Louie",
+    'area': "midtown",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$3.50 Drafts &lt;br&gt; $4.50 Wines &lt;br&gt; $5.50 Signature Martinis &lt;br&gt; Half Price Select Apps and Flatbreads", 'link':"http://www.barlouie.com/locations/states/colorado/foothills-mall-fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "321 E Foothills Pkwy, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY13" s="23" t="str">
         <f t="shared" si="54"/>
@@ -5124,7 +5106,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="188.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>56</v>
       </c>
@@ -5284,9 +5266,12 @@
       <c r="AW14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX14" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX14" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Beau Jo's Pizza",
+    'area': "old",'hours': {
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Everyday: $1 off Wells, Wines and Drafts &lt;br&gt; Monday &lt;br&gt; $1 off Domestic Bottles &amp; Drafts &lt;br&gt; Tuesday &lt;br&gt; $1 off Microbrews &lt;br&gt; Wednesday &lt;br&gt; $1 off all Gluten Free beer &lt;br&gt; $3 Glass of House Wine &lt;br&gt; Thursday &lt;br&gt; $3 off Draft Pitchers &lt;br&gt; $3 off Bottles of Wine &lt;br&gt; Friday &lt;br&gt; $6 Fat Tire Pints &lt;br&gt; $3 Refills- Keep the Glass &lt;br&gt; Saturday &lt;br&gt; $3 Seasonal beers &lt;br&gt; Sunday &lt;br&gt; $3 Bloody Marys", 'link':"https://www.beaujos.com/", 'pricing':"med",   'phone-number': "", 'address': "100 N College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY14" s="23" t="str">
         <f t="shared" si="54"/>
@@ -5341,7 +5326,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="159.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>252</v>
       </c>
@@ -5498,9 +5483,12 @@
       <c r="AW15" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX15" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX15" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Big Al's Burgers &amp; Dogs",
+    'area': "old",'hours': {
+      'sunday-start':"1600", 'sunday-end':"2400", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"2400"},  'description': "Well Martini: $6.50 &lt;br&gt; 100% Agave Margarita: $6.50 &lt;br&gt; Draught Pine &amp; Bottled Beer: $1.00 off &lt;br&gt; Wine by the Glass &amp; Well Drinks: $1.00 off &lt;br&gt; Range of small bites and appetizers", 'link':"http://www.bigalsburgersanddogs.com/", 'pricing':"low",   'phone-number': "", 'address': "140 West Mountain Ave, Fort Collins 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY15" s="23" t="str">
         <f t="shared" si="54"/>
@@ -5549,7 +5537,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>52</v>
       </c>
@@ -5661,9 +5649,12 @@
       <c r="AW16" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX16" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX16" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Big City Burrito",
+    'area': "campus",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.bigcityburrito.com/", 'pricing':"low",   'phone-number': "", 'address': "510 S College Ave, Fort Collins 80524", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY16" s="23" t="str">
         <f t="shared" si="54"/>
@@ -5712,7 +5703,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>311</v>
       </c>
@@ -5857,9 +5848,12 @@
       <c r="AW17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX17" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX17" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "BJ's Restaurant &amp; Brewhouse",
+    'area': "sfoco",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$2 Domestic Bottles &lt;br&gt; $3 Wine &lt;br&gt; $4 Calls &lt;br&gt; $1 off draft beer and cocktails &lt;br&gt; 1/2 off most apps and mini pizzas", 'link':"https://www.bjsrestaurants.com/locations/co/fort-collins", 'pricing':"med",   'phone-number': "", 'address': "2670 E Harmony Rd, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY17" s="23" t="str">
         <f t="shared" si="54"/>
@@ -5908,7 +5902,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>151</v>
       </c>
@@ -6068,9 +6062,12 @@
       <c r="AW18" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX18" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX18" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Black Bottle Brewing",
+    'area': "campus",'hours': {
+      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1100", 'monday-end':"1600", 'tuesday-start':"1100", 'tuesday-end':"1600", 'wednesday-start':"1100", 'wednesday-end':"1600", 'thursday-start':"1100", 'thursday-end':"1600", 'friday-start':"1100", 'friday-end':"1600", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Monday-Sunday&lt;br&gt;11am-3pm:&lt;br&gt;$1 off Black Bottle Beers&lt;br&gt;$4 well drinks&lt;br&gt;&lt;br&gt;Toddler Tuesday’s: &lt;br&gt;Kids eat FREE!&lt;br&gt;&lt;br&gt;Wednesday’s and Sunday’s: &lt;br&gt;1/2 PRICE GROWLER FILLS", 'link':"https://blackbottleCraft Beer.com/", 'pricing':"med",   'phone-number': "", 'address': "1611 S. College Ave., Ste 1609, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY18" s="23" t="str">
         <f t="shared" si="54"/>
@@ -6125,7 +6122,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="174" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:64" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>273</v>
       </c>
@@ -6276,9 +6273,12 @@
       <c r="AW19" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX19" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX19" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Blind Pig",
+    'area': "old",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1000", 'monday-end':"1400", 'tuesday-start':"1400", 'tuesday-end':"1900", 'wednesday-start':"1400", 'wednesday-end':"1900", 'thursday-start':"1400", 'thursday-end':"1900", 'friday-start':"1400", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Tues-Fri: &lt;br&gt; $3 select micros &lt;br&gt; $2.50 domestics &lt;br&gt; $3 wells &lt;br&gt; $4 wine &lt;br&gt; $5-7 select appetizers &lt;br&gt; Saturdays: &lt;br&gt; $12 select micro pitchers &lt;br&gt; $10 domestic pitchers &lt;br&gt; $3 select cocktails &lt;br&gt; $1 mimosas &lt;br&gt; $5 build your own bloody mary bar &lt;br&gt; $14 all you can eat brunch. ", 'link':"http://www.blindpigfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "214 Linden St, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY19" s="23" t="str">
         <f t="shared" si="54"/>
@@ -6333,7 +6333,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>180</v>
       </c>
@@ -6481,9 +6481,12 @@
       <c r="AW20" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX20" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX20" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Blue Agave",
+    'area': "old",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Margaritas &lt;br&gt; $2 off Wines &lt;br&gt; $3 Bottled Beer", 'link':"http://www.blueagavegrillcolorado.com/menu/", 'pricing':"med",   'phone-number': "", 'address': "201 S College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY20" s="23" t="str">
         <f t="shared" si="54"/>
@@ -6532,7 +6535,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>274</v>
       </c>
@@ -6662,9 +6665,12 @@
       <c r="AW21" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX21" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX21" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Bondi's Beach Bar",
+    'area': "old",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$2 wells &lt;br&gt; $3 draughts &lt;br&gt; $4 select wines", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "11 Old Town Square #120, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY21" s="23" t="str">
         <f t="shared" si="54"/>
@@ -6713,7 +6719,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
         <v>544</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>182</v>
       </c>
@@ -6982,9 +6988,12 @@
       <c r="AW23" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AX23" s="17" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX23" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Buffalo Wild Wings",
+    'area': "sfoco",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.buffalowildwings.com", 'pricing':"low",   'phone-number': "", 'address': "150 E. Harmony Road, 2A, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY23" s="12" t="str">
         <f t="shared" si="54"/>
@@ -7039,7 +7048,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
         <v>547</v>
       </c>
@@ -7191,7 +7200,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
         <v>549</v>
       </c>
@@ -7331,18 +7340,22 @@
         <f t="shared" si="61"/>
         <v>Near Campus</v>
       </c>
+      <c r="BG25" s="12">
+        <v>40.578358000000001</v>
+      </c>
       <c r="BH25" s="12">
-        <v>40.578358000000001</v>
-      </c>
-      <c r="BI25" s="12">
         <v>-105.085821</v>
+      </c>
+      <c r="BI25" s="12" t="str">
+        <f t="shared" si="22"/>
+        <v>[40.578358,-105.085821],</v>
       </c>
       <c r="BK25" s="12" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>458</v>
       </c>
@@ -7448,9 +7461,12 @@
       <c r="AW26" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX26" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX26" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Cafe mexacali",
+    'area': "midtown",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2925 S College Ave Fort Collins CO", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY26" s="23" t="str">
         <f t="shared" si="54"/>
@@ -7505,7 +7521,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="2:64" s="12" customFormat="1" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
         <v>379</v>
       </c>
@@ -7653,9 +7669,12 @@
       <c r="AW27" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="AX27" s="17" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX27" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Cafe Vino",
+    'area': "campus",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Monday-Friday&lt;br&gt;3-6pm and 9pm-close&lt;br&gt;$6 White Wine&lt;br&gt;$6 Red Wine &lt;br&gt;$2.5 select beers&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;$3 Toasted nuts&lt;br&gt;$4 Hummus naan&lt;br&gt;$4 Olives and peppadews&lt;br&gt;$5 Lunchable", 'link':"http://www.cafevino.com/", 'pricing':"med",   'phone-number': "", 'address': "1200 S College Ave., Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY27" s="12" t="str">
         <f t="shared" si="54"/>
@@ -7704,7 +7723,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="159.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>400</v>
       </c>
@@ -7864,9 +7883,12 @@
       <c r="AW28" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX28" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX28" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Casa Del Matador",
+    'area': "midtown",'hours': {
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Frozen Lime Margarita: $4 &lt;br&gt; Frozen Mango Margarita: $6 &lt;br&gt; Coin Margarita: $5 &lt;br&gt; Coors Light: $4 &lt;br&gt; Tecate: $4 &lt;br&gt; Wine: $5 &lt;br&gt; Street Tacos: $2 for 1, $5 for 3, $8 for 5 &lt;br&gt; Wide Selection of Happy Hour Foods", 'link':"http://matadorrestaurants.com/mexican-food-fort-collins", 'pricing':"med",   'phone-number': "", 'address': "341 E Foothills Pkwy #110 Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY28" s="23" t="str">
         <f t="shared" si="54"/>
@@ -7915,7 +7937,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>282</v>
       </c>
@@ -8069,9 +8091,12 @@
       <c r="AW29" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX29" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX29" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "CB &amp; Potts Restaurant &amp; Craft Beer - Collindale",
+    'area': "",'hours': {
+      'sunday-start':"2100", 'sunday-end':"2300", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"2100", 'saturday-end':"2300"},  'description': "$3.50 18oz house drafts, wells, wine &amp; Potts Teas &lt;br&gt; $3 to $5.50 select appetizers ", 'link':"https://www.cbpotts.com/locations/collindale/", 'pricing':"med",   'phone-number': "", 'address': "1441 E Horsetooth Rd, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY29" s="23" t="str">
         <f t="shared" si="54"/>
@@ -8126,7 +8151,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>281</v>
       </c>
@@ -8274,9 +8299,12 @@
       <c r="AW30" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX30" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX30" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "CB &amp; Potts Restaurant &amp; Craft Beer - Foothills",
+    'area': "midtown",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 drafts &lt;br&gt; $4.50 wells &lt;br&gt; $6 wine", 'link':"https://www.cbpotts.com/locations/foothills/", 'pricing':"med",   'phone-number': "", 'address': "195 E Foothills Parkway, Fort Collins CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY30" s="23" t="str">
         <f t="shared" si="54"/>
@@ -8325,7 +8353,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>126</v>
       </c>
@@ -8440,9 +8468,12 @@
       <c r="AW31" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX31" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX31" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Cheba Hut Toasted Subs",
+    'area': "campus",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://chebahut.com/", 'pricing':"low",   'phone-number': "", 'address': "104 E Laurel St, Fort Collins 80524", 'other-amenities': ['outdooor','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY31" s="23" t="str">
         <f t="shared" si="54"/>
@@ -8491,7 +8522,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -8615,9 +8646,12 @@
       <c r="AW32" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX32" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX32" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Choice City Butcher &amp; Deli",
+    'area': "old",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1200", 'wednesday-end':"2000", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Wed Beer Night! Check out the Facebook page for the weekly deal", 'link':"http://choicecitybutcher.com/beer.html", 'pricing':"med",   'phone-number': "", 'address': "104 W Olive St, Fort Collins 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY32" s="23" t="str">
         <f t="shared" si="54"/>
@@ -8666,7 +8700,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -8778,9 +8812,12 @@
       <c r="AW33" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX33" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX33" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Comet Chicken",
+    'area': "old",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.cometchicken.com", 'pricing':"med",   'phone-number': "", 'address': "126 W. Mountain Avenue, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY33" s="23" t="str">
         <f t="shared" si="54"/>
@@ -8829,7 +8866,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -8980,9 +9017,12 @@
       <c r="AW34" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX34" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX34" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Coopersmith's Pub &amp; Brewing",
+    'area': "old",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Monday-Sunday&lt;br&gt;3-6 pm:&lt;br&gt;$2.50 mugs&lt;br&gt;$3.50 20-oz pints&lt;br&gt;$10 pitchers&lt;br&gt;&lt;br&gt;Monday&lt;br&gt;$10 14-inch pizza&lt;br&gt;&lt;br&gt;Tuesday&lt;br&gt;1 hour free pool with a pitcher of beer or large pizza&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;$2 Pints of Beer after 10 pm&lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;1 hour free pool with a pitcher", 'link':"https://coopersmithspub.com", 'pricing':"med",   'phone-number': "", 'address': "5 Old Town Sq, Fort Collins 80524", 'other-amenities': ['outdoor','pets','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY34" s="23" t="str">
         <f t="shared" si="54"/>
@@ -9031,7 +9071,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>156</v>
       </c>
@@ -9167,9 +9207,12 @@
       <c r="AW35" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX35" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX35" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "CopperMuse Distillery",
+    'area': "old",'hours': {
+      'sunday-start':"1200", 'sunday-end':"1900", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"2100", 'thursday-start':"1600", 'thursday-end':"2100", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Sundays: $2 off Bloody Mary’s &lt;br&gt; Wed-Thur: &lt;br&gt; $6 select cocktails including mules &lt;br&gt; $2 off select appetizers", 'link':"http://www.coppermuse.com/", 'pricing':"med",   'phone-number': "", 'address': "244 N. College Ave, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY35" s="23" t="str">
         <f t="shared" si="54"/>
@@ -9218,7 +9261,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>77</v>
       </c>
@@ -9378,9 +9421,12 @@
       <c r="AW36" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX36" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX36" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Crown Pub",
+    'area': "old",'hours': {
+      'sunday-start':"2200", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"2200", 'friday-end':"2400", 'saturday-start':"2200", 'saturday-end':"2400"},  'description': "Premium Wells: $3.50 &lt;br&gt; Martini’s &amp; Manhattan's: $5.00  &lt;br&gt; Select Draft Beers: $3.50 &lt;br&gt; House Wines: $3.50 &lt;br&gt; A range of food specials", 'link':"http://www.crownpub.net", 'pricing':"med",   'phone-number': "", 'address': "134 S College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY36" s="23" t="str">
         <f t="shared" si="54"/>
@@ -9429,7 +9475,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>459</v>
       </c>
@@ -9571,9 +9617,12 @@
       <c r="AW37" t="b">
         <v>1</v>
       </c>
-      <c r="AX37" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX37" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "DC Oaks",
+    'area': "sfoco",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 select brews &lt;br&gt; $4 wells &lt;br&gt; $5 house wines", 'link':"https://www.dcoakesbrewhouse.com/", 'pricing':"med",   'phone-number': "", 'address': "3581 E. Harmony Road Fort Collins CO", 'other-amenities': ['','','medium'], 'has-drink':TRUE, 'has-food':TRUE},</v>
       </c>
       <c r="AY37" s="23" t="str">
         <f t="shared" si="54"/>
@@ -9628,7 +9677,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>460</v>
       </c>
@@ -9734,9 +9783,12 @@
       <c r="AW38" t="b">
         <v>0</v>
       </c>
-      <c r="AX38" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX38" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Dickies BBQ",
+    'area': "midtown",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2721 S. College Ave. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
       </c>
       <c r="AY38" s="23" t="str">
         <f t="shared" si="54"/>
@@ -9791,7 +9843,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>185</v>
       </c>
@@ -9936,9 +9988,12 @@
       <c r="AW39" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX39" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX39" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "Dominic's Restaurant",
+    'area': "sfoco",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"https://www.domenicsrestaurant.com", 'pricing':"med",   'phone-number': "", 'address': "931 E. Harmony Road, Fort Collins Shopping Cener, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY39" s="23" t="str">
         <f t="shared" si="54"/>
@@ -9987,7 +10042,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>86</v>
       </c>
@@ -10099,9 +10154,12 @@
       <c r="AW40" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX40" s="4" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#NAME?</v>
+      <c r="AX40" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>{
+    'name': "East Moon Asian Bistro",
+    'area': "midtown",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.eastmoonasianbistroco.com", 'pricing':"med",   'phone-number': "", 'address': "1624 S Lemay Ave, Fort Collins 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY40" s="23" t="str">
         <f t="shared" si="54"/>
@@ -10150,7 +10208,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>68</v>
       </c>
@@ -10899,7 +10957,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" s="12" customFormat="1" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B45" s="12" t="s">
         <v>461</v>
       </c>
@@ -11065,7 +11123,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="46" spans="2:64" s="12" customFormat="1" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>263</v>
       </c>
@@ -11231,7 +11289,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" s="12" customFormat="1" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" s="12" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B47" s="12" t="s">
         <v>98</v>
       </c>
@@ -11442,7 +11500,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:64" s="12" customFormat="1" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>73</v>
       </c>
@@ -11608,7 +11666,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:64" s="12" customFormat="1" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" s="12" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B49" s="12" t="s">
         <v>277</v>
       </c>
@@ -11822,7 +11880,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:64" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" s="12" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B50" s="12" t="s">
         <v>285</v>
       </c>
@@ -12021,7 +12079,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
         <v>554</v>
       </c>
@@ -12173,7 +12231,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:64" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B52" s="12" t="s">
         <v>190</v>
       </c>
@@ -12324,9 +12382,13 @@
       <c r="AW52" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="AX52" s="17" t="e">
-        <f t="shared" ca="1" si="62"/>
-        <v>#NAME?</v>
+      <c r="AX52" s="17" t="str">
+        <f t="shared" si="62"/>
+        <v>{
+    'name': "Fuzzy's Taco Shop - Elizabeth",
+    'area': "cwest",'hours': {
+      'sunday-start':"800", 'sunday-end':"2400", 'monday-start':"800", 'monday-end':"2400", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"800", 'wednesday-end':"2400", 'thursday-start':"800", 'thursday-end':"2400", 'friday-start':"800", 'friday-end':"2400", 'saturday-start':"800", 'saturday-end':"2400"},  'description': "Monday&lt;br&gt;All day:&lt;br&gt;$1 12oz domestics &lt;br&gt;$2.75 18oz micros &lt;br&gt;$1 tacos&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;All day:&lt;br&gt;$2.50 Oskar Blues &lt;br&gt;$2 wells &lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;All day:&lt;br&gt;$3.50 frozen margaritas&lt;br&gt;$3 micro pints&lt;br&gt;$2 domestic pints &lt;br&gt;&lt;br&gt;Friday&lt;br&gt;All day:&lt;br&gt;$2.75 Mexican beers&lt;br&gt;$2 fat tire pints&lt;br&gt;&lt;br&gt;Saturday &amp; Sunday&lt;br&gt;All day: &lt;br&gt;$2 domestic 18oz drafts and $6.50 pitchers &lt;br&gt;$3 micro 18oz drafts and $10 pitchers
+", 'link':"https://www.fuzzystacoshop.com/locations/fort-collins-co-elizabeth", 'pricing':"low",   'phone-number': "", 'address': "1335 W. Elizabeth Street, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY52" s="12" t="str">
         <f t="shared" si="54"/>
@@ -12375,7 +12437,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:64" s="12" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="12" t="s">
         <v>192</v>
       </c>
@@ -12526,9 +12588,12 @@
       <c r="AW53" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="AX53" s="17" t="e">
-        <f t="shared" ca="1" si="62"/>
-        <v>#NAME?</v>
+      <c r="AX53" s="17" t="str">
+        <f t="shared" si="62"/>
+        <v>{
+    'name': "Fuzzy's Taco Shop - Harmony",
+    'area': "sfoco",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"800", 'saturday-end':"2400"},  'description': "Monday-Friday&lt;br&gt;3-6 pm:&lt;br&gt;$2 wells, $3 calls&lt;br&gt;$2 18oz domestics, $3 18oz micros&lt;br&gt;&lt;br&gt;Saturday &lt;br&gt;$2 New Belgium pints all day", 'link':"https://www.fuzzystacoshop.com/locations/fort-collins-co-harmony/", 'pricing':"low",   'phone-number': "", 'address': "2909 E. Harmony Road, Fort Collins, CO 80528", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY53" s="12" t="str">
         <f t="shared" si="54"/>
@@ -12577,7 +12642,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:64" s="12" customFormat="1" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>462</v>
       </c>
@@ -12743,7 +12808,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="2:64" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B55" s="12" t="s">
         <v>194</v>
       </c>
@@ -12912,7 +12977,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="12" t="s">
         <v>557</v>
       </c>
@@ -13067,7 +13132,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>287</v>
       </c>
@@ -13272,7 +13337,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="159.6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>392</v>
       </c>
@@ -13646,7 +13711,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>46</v>
       </c>
@@ -13812,7 +13877,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="159.6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>162</v>
       </c>
@@ -14026,7 +14091,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>463</v>
       </c>
@@ -14192,7 +14257,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>198</v>
       </c>
@@ -14358,7 +14423,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="159.6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>24</v>
       </c>
@@ -14575,7 +14640,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>92</v>
       </c>
@@ -14789,7 +14854,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>33</v>
       </c>
@@ -15003,7 +15068,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="159.6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>115</v>
       </c>
@@ -15175,7 +15240,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>131</v>
       </c>
@@ -15341,7 +15406,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>95</v>
       </c>
@@ -15507,7 +15572,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>164</v>
       </c>
@@ -15649,9 +15714,12 @@
       <c r="AW70" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AX70" s="4" t="e">
-        <f t="shared" ca="1" si="62"/>
-        <v>#NAME?</v>
+      <c r="AX70" s="4" t="str">
+        <f t="shared" si="62"/>
+        <v>{
+    'name': "La Luz Mexican Grill",
+    'area': "old",'hours': {
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Margarita Monday&lt;br&gt;all day:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate  and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box&lt;br&gt;&lt;br&gt;Tequila Tuesday&lt;br&gt;4 pm-close:&lt;br&gt;1/2 off tequila&lt;br&gt;&lt;br&gt;3-6 pm:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;3-6 pm:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box&lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;3-6 pm:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box&lt;br&gt;&lt;br&gt;4pm-close&lt;br&gt;College Night&lt;br&gt;&lt;br&gt;Sunday&lt;br&gt;3-6 pm:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box", 'link':"http://www.laluzgrill.com", 'pricing':"med",   'phone-number': "", 'address': "200 Walnut Street, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY70" s="23" t="str">
         <f t="shared" ref="AY70:AY128" si="86">IF(AS70&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -15700,7 +15768,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>389</v>
       </c>
@@ -15905,7 +15973,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="195" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>200</v>
       </c>
@@ -16119,7 +16187,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="188.45" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>289</v>
       </c>
@@ -16330,7 +16398,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>384</v>
       </c>
@@ -16499,7 +16567,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>292</v>
       </c>
@@ -16886,7 +16954,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -17052,7 +17120,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>201</v>
       </c>
@@ -17218,7 +17286,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>407</v>
       </c>
@@ -17393,7 +17461,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="159.6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>121</v>
       </c>
@@ -18192,7 +18260,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>123</v>
       </c>
@@ -18530,7 +18598,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>143</v>
       </c>
@@ -18696,7 +18764,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>464</v>
       </c>
@@ -19076,7 +19144,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>207</v>
       </c>
@@ -19233,9 +19301,12 @@
       <c r="AW89" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AX89" s="4" t="e">
-        <f t="shared" ca="1" si="94"/>
-        <v>#NAME?</v>
+      <c r="AX89" s="4" t="str">
+        <f t="shared" si="94"/>
+        <v>{
+    'name': "Pour Brothers Community Tavern",
+    'area': "old",'hours': {
+      'sunday-start':"1000", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1000", 'saturday-end':"1800"},  'description': " $1 off all drafts &lt;br&gt; $3.50 Wells &lt;br&gt; $5 grilled cheese meals.", 'link':"http://www.pourbrothers.com/", 'pricing':"med",   'phone-number': "", 'address': "220 Linden Street, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY89" s="23" t="str">
         <f t="shared" si="86"/>
@@ -19284,7 +19355,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>209</v>
       </c>
@@ -19453,7 +19524,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>465</v>
       </c>
@@ -19622,7 +19693,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>211</v>
       </c>
@@ -20198,7 +20269,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:64" s="12" customFormat="1" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="12" t="s">
         <v>213</v>
       </c>
@@ -20358,9 +20429,12 @@
       <c r="AW95" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="AX95" s="17" t="e">
-        <f t="shared" ca="1" si="94"/>
-        <v>#NAME?</v>
+      <c r="AX95" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v>{
+    'name': "Road 34",
+    'area': "cwest",'hours': {
+      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1600", 'monday-end':"2400", 'tuesday-start':"1600", 'tuesday-end':"2300", 'wednesday-start':"1600", 'wednesday-end':"2400", 'thursday-start':"1600", 'thursday-end':"2400", 'friday-start':"1600", 'friday-end':"2000", 'saturday-start':"1600", 'saturday-end':"2000"},  'description': "Monday-Sunday&lt;br&gt;4-8 pm:&lt;br&gt;$3 select New Belgium &amp; Odell drafts&lt;br&gt;$3 wells&lt;br&gt;&lt;br&gt;Monday&lt;br&gt;$6 select pitchers 8 pm-2 am&lt;br&gt;&lt;br&gt;Tuesday&lt;br&gt;2-for-1 sandwiches 6-11 pm&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;$2 pints/$6 select pitchers 8 pm-2 am&lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;8 pm-12 am:&lt;br&gt;$1 Micros &amp; domestic drafts&lt;br&gt;&lt;br&gt;12 am-2 am:&lt;br&gt;$2 Micros &amp; domestic drafts&lt;br&gt;&lt;br&gt;Sunday: &lt;br&gt;All Day Happy Hour:&lt;br&gt;$3 select New Belgium &amp; Odell drafts&lt;br&gt;$3 wells", 'link':"http://www.road34.com/", 'pricing':"med",   'phone-number': "", 'address': "1213 W. Elizabeth Street, Fort Collins, CO 80521", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY95" s="12" t="str">
         <f t="shared" si="86"/>
@@ -20409,7 +20483,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>59</v>
       </c>
@@ -20575,7 +20649,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="120" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>466</v>
       </c>
@@ -20741,7 +20815,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="120" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>216</v>
       </c>
@@ -20907,7 +20981,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>494</v>
       </c>
@@ -21073,7 +21147,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>410</v>
       </c>
@@ -21239,7 +21313,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>391</v>
       </c>
@@ -21619,7 +21693,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="150" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>294</v>
       </c>
@@ -21830,7 +21904,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:64" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="12" t="s">
         <v>103</v>
       </c>
@@ -21981,9 +22055,12 @@
       <c r="AW104" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="AX104" s="17" t="e">
-        <f t="shared" ca="1" si="94"/>
-        <v>#NAME?</v>
+      <c r="AX104" s="17" t="str">
+        <f t="shared" si="94"/>
+        <v>{
+    'name': "Sonny Lubick Steakhouse",
+    'area': "old",'hours': {
+      'sunday-start':"1600", 'sunday-end':"2100", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Monday-Friday&lt;br&gt;4-7 pm &amp; Sunday 4 pm-Close:&lt;br&gt;$1 off Draft Pints &amp; Bottled Beer&lt;br&gt;$1 off Wines&lt;br&gt;$5.50 Wells&lt;br&gt;$6.50 Premium Well Martini&lt;br&gt;$6.50 Margaritas&lt;br&gt;$5 Specialty Appetizers", 'link':"http://www.sonnylubicksteakhouse.com", 'pricing':"high",   'phone-number': "", 'address': "115 S College Ave, Fort Collins 80524", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY104" s="12" t="str">
         <f t="shared" si="86"/>
@@ -22032,7 +22109,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="120" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>137</v>
       </c>
@@ -22204,7 +22281,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>118</v>
       </c>
@@ -22370,7 +22447,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>40</v>
       </c>
@@ -22549,7 +22626,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="150" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>37</v>
       </c>
@@ -22760,7 +22837,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="12" t="s">
         <v>562</v>
       </c>
@@ -22956,7 +23033,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="120" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>388</v>
       </c>
@@ -23122,7 +23199,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>112</v>
       </c>
@@ -23318,7 +23395,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>80</v>
       </c>
@@ -23487,7 +23564,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="120" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>467</v>
       </c>
@@ -23653,7 +23730,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="120" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>100</v>
       </c>
@@ -23819,7 +23896,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>83</v>
       </c>
@@ -23988,7 +24065,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="180" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>221</v>
       </c>
@@ -24187,7 +24264,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="144.94999999999999" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>175</v>
       </c>
@@ -24386,7 +24463,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>223</v>
       </c>
@@ -24579,7 +24656,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="120" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>468</v>
       </c>
@@ -24745,7 +24822,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="180" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>225</v>
       </c>
@@ -24959,7 +25036,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="150" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>393</v>
       </c>
@@ -25161,7 +25238,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>228</v>
       </c>
@@ -25327,7 +25404,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="225" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="203" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>296</v>
       </c>
@@ -25538,7 +25615,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>414</v>
       </c>
@@ -25707,7 +25784,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -25879,7 +25956,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>230</v>
       </c>
@@ -26045,7 +26122,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B127" s="9" t="s">
         <v>49</v>
       </c>
@@ -26211,7 +26288,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="135" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>232</v>
       </c>
@@ -26388,72 +26465,72 @@
     <sortCondition ref="B2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G93" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
-    <hyperlink ref="AR32" r:id="rId2"/>
-    <hyperlink ref="AR72" r:id="rId3"/>
-    <hyperlink ref="AR23" r:id="rId4"/>
-    <hyperlink ref="AR82" r:id="rId5"/>
-    <hyperlink ref="AR16" r:id="rId6"/>
-    <hyperlink ref="AR7" r:id="rId7"/>
-    <hyperlink ref="AR41" r:id="rId8"/>
-    <hyperlink ref="AR27" r:id="rId9"/>
-    <hyperlink ref="AR48" r:id="rId10"/>
-    <hyperlink ref="AR36" r:id="rId11"/>
-    <hyperlink ref="AR112" r:id="rId12"/>
-    <hyperlink ref="AR40" r:id="rId13"/>
-    <hyperlink ref="AR88" r:id="rId14"/>
-    <hyperlink ref="AR69" r:id="rId15"/>
-    <hyperlink ref="AR47" r:id="rId16"/>
-    <hyperlink ref="AR114" r:id="rId17"/>
-    <hyperlink ref="AR104" r:id="rId18"/>
-    <hyperlink ref="AR15" r:id="rId19"/>
-    <hyperlink ref="AR9" r:id="rId20"/>
-    <hyperlink ref="AR111" r:id="rId21"/>
-    <hyperlink ref="AR67" r:id="rId22"/>
-    <hyperlink ref="AR106" r:id="rId23"/>
-    <hyperlink ref="AR80" r:id="rId24"/>
-    <hyperlink ref="AR125" r:id="rId25"/>
-    <hyperlink ref="AR68" r:id="rId26"/>
-    <hyperlink ref="AR12" r:id="rId27"/>
-    <hyperlink ref="AR64" r:id="rId28"/>
-    <hyperlink ref="AR4" r:id="rId29"/>
-    <hyperlink ref="AR6" r:id="rId30"/>
-    <hyperlink ref="AR33" r:id="rId31"/>
-    <hyperlink ref="AR35" r:id="rId32"/>
-    <hyperlink ref="AR42" r:id="rId33"/>
-    <hyperlink ref="AR61" r:id="rId34"/>
-    <hyperlink ref="AR70" r:id="rId35"/>
-    <hyperlink ref="AR76" r:id="rId36"/>
-    <hyperlink ref="AR81" r:id="rId37"/>
-    <hyperlink ref="AR83" r:id="rId38"/>
-    <hyperlink ref="AR93" r:id="rId39"/>
-    <hyperlink ref="AR13" r:id="rId40"/>
-    <hyperlink ref="AR20" r:id="rId41"/>
-    <hyperlink ref="AR46" r:id="rId42"/>
-    <hyperlink ref="AR59" r:id="rId43"/>
-    <hyperlink ref="AR63" r:id="rId44"/>
-    <hyperlink ref="AR78" r:id="rId45"/>
-    <hyperlink ref="AR89" r:id="rId46"/>
-    <hyperlink ref="AR95" r:id="rId47"/>
-    <hyperlink ref="AR98" r:id="rId48"/>
-    <hyperlink ref="AR102" r:id="rId49"/>
-    <hyperlink ref="AR116" r:id="rId50"/>
-    <hyperlink ref="AR118" r:id="rId51"/>
-    <hyperlink ref="AR122" r:id="rId52"/>
-    <hyperlink ref="AR128" r:id="rId53"/>
-    <hyperlink ref="AR19" r:id="rId54"/>
-    <hyperlink ref="AR43" r:id="rId55"/>
-    <hyperlink ref="AR49" r:id="rId56"/>
-    <hyperlink ref="AR50" r:id="rId57"/>
-    <hyperlink ref="AR57" r:id="rId58"/>
-    <hyperlink ref="AR73" r:id="rId59"/>
-    <hyperlink ref="AR75" r:id="rId60"/>
-    <hyperlink ref="AR103" r:id="rId61"/>
-    <hyperlink ref="AR123" r:id="rId62"/>
-    <hyperlink ref="AR44" r:id="rId63"/>
-    <hyperlink ref="AR58" r:id="rId64"/>
-    <hyperlink ref="AR37" r:id="rId65"/>
-    <hyperlink ref="AR8" r:id="rId66"/>
+    <hyperlink ref="G93" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AR32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AR72" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AR23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR82" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AR16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AR7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AR41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AR27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AR48" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AR36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AR112" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AR40" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AR88" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AR69" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AR47" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AR114" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR104" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AR15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AR9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AR111" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AR67" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AR106" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AR80" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AR125" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR68" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AR12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AR64" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AR6" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AR33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AR42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AR61" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AR70" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AR76" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AR81" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AR83" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AR93" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AR13" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AR20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AR59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AR63" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AR78" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR89" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AR95" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AR98" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AR102" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR116" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR118" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AR122" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AR128" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AR19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AR43" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AR49" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AR50" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AR57" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AR73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AR75" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR103" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR123" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR44" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR58" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR37" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AR8" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -26461,14 +26538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C833BE-363A-40FC-8397-47A618DFEDFA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F78504F-5192-41FD-8FA4-EB2BD6015126}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="566">
   <si>
     <t>Name</t>
   </si>
@@ -1720,9 +1720,6 @@
   </si>
   <si>
     <t>238 Linden St, Fort Collins, CO 80524</t>
-  </si>
-  <si>
-    <t>40.588558-105.074537</t>
   </si>
 </sst>
 </file>
@@ -2677,8 +2674,8 @@
   <dimension ref="B1:BL128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI24" sqref="BI24:BI25"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BG110" sqref="BG110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3604,7 +3601,7 @@
       <c r="BH5" s="12">
         <v>-105.076725</v>
       </c>
-      <c r="BI5" s="12" t="str">
+      <c r="BI5" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.575832,-105.076725],</v>
       </c>
@@ -4202,7 +4199,7 @@
       <c r="BH8" s="12">
         <v>-105.07738999999999</v>
       </c>
-      <c r="BI8" s="12" t="str">
+      <c r="BI8" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.587295,-105.07739],</v>
       </c>
@@ -4574,7 +4571,7 @@
       <c r="BH10" s="12">
         <v>-105.05787599999999</v>
       </c>
-      <c r="BI10" s="12" t="str">
+      <c r="BI10" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.588402,-105.057876],</v>
       </c>
@@ -4729,7 +4726,7 @@
       <c r="BH11" s="12">
         <v>-105.07676499999999</v>
       </c>
-      <c r="BI11" s="12" t="str">
+      <c r="BI11" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.587916,-105.076765],</v>
       </c>
@@ -5902,7 +5899,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>151</v>
       </c>
@@ -6867,7 +6864,7 @@
       <c r="BH22" s="12">
         <v>-105.07867899999999</v>
       </c>
-      <c r="BI22" s="12" t="str">
+      <c r="BI22" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.539721,-105.078679],</v>
       </c>
@@ -7033,7 +7030,7 @@
       <c r="BH23" s="12">
         <v>-105.0759</v>
       </c>
-      <c r="BI23" s="12" t="str">
+      <c r="BI23" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.523872,-105.0759],</v>
       </c>
@@ -7191,7 +7188,7 @@
       <c r="BG24" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="BI24" s="12" t="str">
+      <c r="BI24" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.525937-105.024374,],</v>
       </c>
@@ -7346,7 +7343,7 @@
       <c r="BH25" s="12">
         <v>-105.085821</v>
       </c>
-      <c r="BI25" s="12" t="str">
+      <c r="BI25" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.578358,-105.085821],</v>
       </c>
@@ -7714,7 +7711,7 @@
       <c r="BH27" s="12">
         <v>-105.076622</v>
       </c>
-      <c r="BI27" s="12" t="str">
+      <c r="BI27" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.571671,-105.076622],</v>
       </c>
@@ -9071,7 +9068,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>156</v>
       </c>
@@ -9261,7 +9258,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>77</v>
       </c>
@@ -9475,7 +9472,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>459</v>
       </c>
@@ -9677,7 +9674,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>460</v>
       </c>
@@ -9843,7 +9840,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="39" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>185</v>
       </c>
@@ -10042,7 +10039,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>86</v>
       </c>
@@ -10948,7 +10945,7 @@
       <c r="BH44" s="12">
         <v>-105.07409699999999</v>
       </c>
-      <c r="BI44" s="12" t="str">
+      <c r="BI44" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.587229,-105.074097],</v>
       </c>
@@ -11108,7 +11105,7 @@
       <c r="BH45" s="12">
         <v>-105.023917</v>
       </c>
-      <c r="BI45" s="12" t="str">
+      <c r="BI45" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.523744,-105.023917],</v>
       </c>
@@ -11280,7 +11277,7 @@
       <c r="BH46" s="12">
         <v>-105.04610700000001</v>
       </c>
-      <c r="BI46" s="12" t="str">
+      <c r="BI46" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.585125,-105.046107],</v>
       </c>
@@ -11491,7 +11488,7 @@
       <c r="BH47" s="12">
         <v>-105.078547</v>
       </c>
-      <c r="BI47" s="12" t="str">
+      <c r="BI47" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.585799,-105.078547],</v>
       </c>
@@ -11657,7 +11654,7 @@
       <c r="BH48" s="12">
         <v>-105.100224</v>
       </c>
-      <c r="BI48" s="12" t="str">
+      <c r="BI48" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.57434,-105.100224],</v>
       </c>
@@ -11871,7 +11868,7 @@
       <c r="BH49" s="12">
         <v>-105.075542</v>
       </c>
-      <c r="BI49" s="12" t="str">
+      <c r="BI49" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.588875,-105.075542],</v>
       </c>
@@ -12070,7 +12067,7 @@
       <c r="BH50" s="12">
         <v>-105.05831000000001</v>
       </c>
-      <c r="BI50" s="12" t="str">
+      <c r="BI50" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.551049,-105.05831],</v>
       </c>
@@ -12222,7 +12219,7 @@
       <c r="BH51" s="12">
         <v>-105.042058</v>
       </c>
-      <c r="BI51" s="12" t="str">
+      <c r="BI51" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.583093,-105.042058],</v>
       </c>
@@ -12428,7 +12425,7 @@
       <c r="BH52" s="12">
         <v>-105.100224</v>
       </c>
-      <c r="BI52" s="12" t="str">
+      <c r="BI52" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.57434,-105.100224],</v>
       </c>
@@ -12437,7 +12434,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" s="12" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B53" s="12" t="s">
         <v>192</v>
       </c>
@@ -12633,7 +12630,7 @@
       <c r="BH53" s="12">
         <v>-105.023278</v>
       </c>
-      <c r="BI53" s="12" t="str">
+      <c r="BI53" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.522662,-105.023278],</v>
       </c>
@@ -12793,7 +12790,7 @@
       <c r="BH54" s="12">
         <v>-105.05831000000001</v>
       </c>
-      <c r="BI54" s="12" t="str">
+      <c r="BI54" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.551049,-105.05831],</v>
       </c>
@@ -12968,7 +12965,7 @@
       <c r="BH55" s="12">
         <v>-105.075287</v>
       </c>
-      <c r="BI55" s="12" t="str">
+      <c r="BI55" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.539342,-105.075287],</v>
       </c>
@@ -13123,7 +13120,7 @@
       <c r="BH56" s="12">
         <v>-105.00803000000001</v>
       </c>
-      <c r="BI56" s="12" t="str">
+      <c r="BI56" s="23" t="str">
         <f t="shared" si="22"/>
         <v>[40.581789,-105.00803],</v>
       </c>
@@ -15572,7 +15569,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>164</v>
       </c>
@@ -19144,7 +19141,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>207</v>
       </c>
@@ -20269,7 +20266,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" s="12" customFormat="1" ht="203" x14ac:dyDescent="0.35">
       <c r="B95" s="12" t="s">
         <v>213</v>
       </c>
@@ -20474,7 +20471,7 @@
       <c r="BH95" s="12">
         <v>-105.09835099999999</v>
       </c>
-      <c r="BI95" s="12" t="str">
+      <c r="BI95" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.574369,-105.098351],</v>
       </c>
@@ -21904,7 +21901,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" s="12" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B104" s="12" t="s">
         <v>103</v>
       </c>
@@ -22100,7 +22097,7 @@
       <c r="BH104" s="12">
         <v>-105.077275</v>
       </c>
-      <c r="BI104" s="12" t="str">
+      <c r="BI104" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.586603,-105.077275],</v>
       </c>
@@ -23021,12 +23018,15 @@
         <f t="shared" si="93"/>
         <v>Old Town</v>
       </c>
-      <c r="BG109" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI109" s="12" t="str">
+      <c r="BG109" s="12">
+        <v>40.588557999999999</v>
+      </c>
+      <c r="BH109" s="14">
+        <v>-105.07453700000001</v>
+      </c>
+      <c r="BI109" s="23" t="str">
         <f t="shared" si="63"/>
-        <v>[40.588558-105.074537,],</v>
+        <v>[40.588558,-105.074537],</v>
       </c>
       <c r="BK109" s="12" t="str">
         <f t="shared" si="64"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F78504F-5192-41FD-8FA4-EB2BD6015126}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC905B0-00B4-4250-82DA-782D8E972C75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="565">
   <si>
     <t>Name</t>
   </si>
@@ -1714,9 +1714,6 @@
   </si>
   <si>
     <t>Daily 3pm to 7pm: $1 off micros &lt;br&gt; $1 off wells &lt;br&gt; Monday&lt;br&gt;$1.50 High Life&lt;br&gt;$4 Moscow Mule&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;$1.50 PBR&lt;br&gt;$3 Jim or Jerry&lt;br&gt;Thursday&lt;br&gt;$1.50 cans&lt;br&gt;$3 Jager&lt;br&gt;Friday&lt;br&gt;$3 Surfer on Acid&lt;br&gt;Saturday&lt;br&gt;$6 Corona/Hornitos&lt;br&gt;Sunday&lt;br&gt;Industry Night, Select $4 You Call Its</t>
-  </si>
-  <si>
-    <t>40.525937-105.024374</t>
   </si>
   <si>
     <t>238 Linden St, Fort Collins, CO 80524</t>
@@ -2673,9 +2670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG110" sqref="BG110"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7185,12 +7182,15 @@
         <f t="shared" si="61"/>
         <v>South Foco</v>
       </c>
-      <c r="BG24" s="12" t="s">
-        <v>564</v>
+      <c r="BG24" s="12">
+        <v>40.525936999999999</v>
+      </c>
+      <c r="BH24" s="12">
+        <v>-105.02437399999999</v>
       </c>
       <c r="BI24" s="23" t="str">
         <f t="shared" si="22"/>
-        <v>[40.525937-105.024374,],</v>
+        <v>[40.525937,-105.024374],</v>
       </c>
       <c r="BK24" s="12" t="str">
         <f t="shared" si="23"/>
@@ -22845,7 +22845,7 @@
         <v>444</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H109" s="12">
         <v>1500</v>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC905B0-00B4-4250-82DA-782D8E972C75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B7382B-D97A-4BAB-8B49-E774CD3F4C5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,18 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="566">
   <si>
     <t>Name</t>
   </si>
@@ -1717,6 +1724,9 @@
   </si>
   <si>
     <t>238 Linden St, Fort Collins, CO 80524</t>
+  </si>
+  <si>
+    <t>Special kids meal menu</t>
   </si>
 </sst>
 </file>
@@ -2670,9 +2680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT4" sqref="AT4"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BL58" sqref="BL58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7352,7 +7362,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>458</v>
       </c>
@@ -7518,7 +7528,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" s="12" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
         <v>379</v>
       </c>
@@ -7720,7 +7730,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>400</v>
       </c>
@@ -7934,7 +7944,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>282</v>
       </c>
@@ -8148,7 +8158,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>281</v>
       </c>
@@ -8350,7 +8360,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>126</v>
       </c>
@@ -8519,7 +8529,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -8697,7 +8707,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -8863,7 +8873,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -13473,6 +13483,9 @@
       <c r="AS58" t="s">
         <v>305</v>
       </c>
+      <c r="AT58" t="s">
+        <v>315</v>
+      </c>
       <c r="AU58" t="s">
         <v>309</v>
       </c>
@@ -13487,7 +13500,7 @@
         <v>{
     'name': "Hop Grenade",
     'area': "midtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$1 Off Drafts &lt;br&gt; $5 House Wine &lt;br&gt; Happy Hour Food Menu", 'link':"https://www.hopgrenadefoco.com/", 'pricing':"med",   'phone-number': "", 'address': "347 E. FOOTHILLS PKWY,  #120 FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$1 Off Drafts &lt;br&gt; $5 House Wine &lt;br&gt; Happy Hour Food Menu", 'link':"https://www.hopgrenadefoco.com/", 'pricing':"med",   'phone-number': "", 'address': "347 E. FOOTHILLS PKWY,  #120 FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY58" s="23" t="str">
         <f t="shared" si="54"/>
@@ -13495,7 +13508,7 @@
       </c>
       <c r="AZ58" s="23" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BA58" s="23" t="str">
         <f t="shared" si="56"/>
@@ -13511,11 +13524,11 @@
       </c>
       <c r="BD58" s="23" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BE58" s="23" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor drink food easy med midtown</v>
+        <v>outdoor pet drink food easy med midtown kid</v>
       </c>
       <c r="BF58" s="23" t="str">
         <f t="shared" si="61"/>
@@ -13531,9 +13544,15 @@
         <f t="shared" si="22"/>
         <v>[40.543654,-105.074724],</v>
       </c>
+      <c r="BJ58" t="b">
+        <v>1</v>
+      </c>
       <c r="BK58" s="23" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>&lt;img src=@img/kidicon.png@&gt;</v>
+      </c>
+      <c r="BL58" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B7382B-D97A-4BAB-8B49-E774CD3F4C5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1ADFA-5145-42B3-AE19-4D791C2916E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,9 +1602,6 @@
     <t>$1 Off House Cocktails &lt;br&gt; $5 Mai Tais All Day on Mondays!</t>
   </si>
   <si>
-    <t>Draft beers $3.00 &lt;br&gt; Budwiser $2.00 &lt;br&gt; House Wine $3.75 &lt;br&gt; Appetizer specials and pizza by the slice</t>
-  </si>
-  <si>
     <t xml:space="preserve"> $1 off all drafts &lt;br&gt; $3.50 Wells &lt;br&gt; $5 grilled cheese meals.</t>
   </si>
   <si>
@@ -1727,6 +1724,9 @@
   </si>
   <si>
     <t>Special kids meal menu</t>
+  </si>
+  <si>
+    <t>Draft beers $3.00 &lt;br&gt; Budwiser $2.00 &lt;br&gt; House Wine $3.75 &lt;br&gt; Appetizer specials and pizza by the slice &lt;br&gt;Tuesday: Burger Night &lt;br&gt; Thursday: Mussels &lt;br&gt; Friday: Fresh Clams until they’re gone &lt;br&gt;Saturday: Prime Rib</t>
   </si>
 </sst>
 </file>
@@ -2680,9 +2680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL58" sqref="BL58"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V83" sqref="V83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3082,7 +3082,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="2:64" ht="120.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -3461,19 +3461,19 @@
     </row>
     <row r="5" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>318</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W5" s="12" t="str">
         <f t="shared" si="24"/>
@@ -3848,7 +3848,7 @@
         <v>1800</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W7" s="23">
         <f t="shared" si="24"/>
@@ -4009,19 +4009,19 @@
     </row>
     <row r="8" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>439</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>444</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H8" s="12">
         <v>1500</v>
@@ -4066,7 +4066,7 @@
         <v>1800</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W8" s="12">
         <f t="shared" si="24"/>
@@ -4431,19 +4431,19 @@
     </row>
     <row r="10" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>440</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>444</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W10" s="12" t="str">
         <f t="shared" si="24"/>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="11" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>439</v>
@@ -4598,7 +4598,7 @@
         <v>444</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="W11" s="12" t="str">
         <f t="shared" si="24"/>
@@ -5965,7 +5965,7 @@
         <v>1600</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W18" s="23">
         <f t="shared" si="24"/>
@@ -6725,19 +6725,19 @@
     </row>
     <row r="22" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>319</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W22" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="24" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>441</v>
@@ -7063,7 +7063,7 @@
         <v>444</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W24" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="25" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>318</v>
@@ -7218,7 +7218,7 @@
         <v>444</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W25" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7575,7 +7575,7 @@
         <v>1800</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W27" s="12" t="str">
         <f t="shared" si="24"/>
@@ -8920,7 +8920,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W34" s="23" t="str">
         <f t="shared" si="24"/>
@@ -12088,13 +12088,13 @@
     </row>
     <row r="51" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>439</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W51" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12291,7 +12291,7 @@
         <v>2400</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W52" s="12">
         <f t="shared" si="24"/>
@@ -12497,7 +12497,7 @@
         <v>2400</v>
       </c>
       <c r="V53" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W53" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12986,7 +12986,7 @@
     </row>
     <row r="56" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>441</v>
@@ -12995,7 +12995,7 @@
         <v>444</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W56" s="12" t="str">
         <f t="shared" si="24"/>
@@ -13552,7 +13552,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL58" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -15629,7 +15629,7 @@
         <v>1800</v>
       </c>
       <c r="V70" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W70" s="23" t="str">
         <f t="shared" si="65"/>
@@ -18114,8 +18114,14 @@
       <c r="Q83">
         <v>1800</v>
       </c>
+      <c r="R83" s="23">
+        <v>1530</v>
+      </c>
+      <c r="S83" s="23">
+        <v>1800</v>
+      </c>
       <c r="V83" s="12" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="W83" s="23" t="str">
         <f t="shared" si="65"/>
@@ -18157,13 +18163,13 @@
         <f t="shared" si="74"/>
         <v>18</v>
       </c>
-      <c r="AG83" s="23" t="str">
+      <c r="AG83" s="23">
         <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AH83" s="23" t="str">
+        <v>15.3</v>
+      </c>
+      <c r="AH83" s="23">
         <f t="shared" si="76"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AI83" s="23" t="str">
         <f t="shared" si="77"/>
@@ -18195,7 +18201,7 @@
       </c>
       <c r="AP83" s="23" t="str">
         <f t="shared" si="84"/>
-        <v/>
+        <v>3.3pm-6pm</v>
       </c>
       <c r="AQ83" s="23" t="str">
         <f t="shared" si="85"/>
@@ -18221,7 +18227,7 @@
         <v>{
     'name': "Nick's Italian",
     'area': "campus",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1530", 'monday-end':"1800", 'tuesday-start':"1530", 'tuesday-end':"1800", 'wednesday-start':"1530", 'wednesday-end':"1800", 'thursday-start':"1530", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Draft beers $3.00 &lt;br&gt; Budwiser $2.00 &lt;br&gt; House Wine $3.75 &lt;br&gt; Appetizer specials and pizza by the slice", 'link':"http://www.nicksfc.com/", 'pricing':"med",   'phone-number': "", 'address': "1100 S. College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1530", 'monday-end':"1800", 'tuesday-start':"1530", 'tuesday-end':"1800", 'wednesday-start':"1530", 'wednesday-end':"1800", 'thursday-start':"1530", 'thursday-end':"1800", 'friday-start':"1530", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Draft beers $3.00 &lt;br&gt; Budwiser $2.00 &lt;br&gt; House Wine $3.75 &lt;br&gt; Appetizer specials and pizza by the slice &lt;br&gt;Tuesday: Burger Night &lt;br&gt; Thursday: Mussels &lt;br&gt; Friday: Fresh Clams until they’re gone &lt;br&gt;Saturday: Prime Rib", 'link':"http://www.nicksfc.com/", 'pricing':"med",   'phone-number': "", 'address': "1100 S. College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY83" s="23" t="str">
         <f t="shared" si="86"/>
@@ -19219,7 +19225,7 @@
         <v>1800</v>
       </c>
       <c r="V89" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W89" s="23">
         <f t="shared" si="65"/>
@@ -20344,7 +20350,7 @@
         <v>2000</v>
       </c>
       <c r="V95" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W95" s="12">
         <f t="shared" si="65"/>
@@ -21973,7 +21979,7 @@
         <v>1900</v>
       </c>
       <c r="V104" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W104" s="12">
         <f t="shared" si="65"/>
@@ -22855,7 +22861,7 @@
     </row>
     <row r="109" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>439</v>
@@ -22864,7 +22870,7 @@
         <v>444</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H109" s="12">
         <v>1500</v>
@@ -22909,7 +22915,7 @@
         <v>2400</v>
       </c>
       <c r="V109" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W109" s="12">
         <f t="shared" si="65"/>
@@ -24131,7 +24137,7 @@
         <v>1800</v>
       </c>
       <c r="V116" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W116" s="23" t="str">
         <f t="shared" si="65"/>
@@ -24330,7 +24336,7 @@
         <v>1800</v>
       </c>
       <c r="V117" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W117" s="23" t="str">
         <f t="shared" si="65"/>
@@ -24900,7 +24906,7 @@
         <v>1900</v>
       </c>
       <c r="V120" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W120" s="23">
         <f t="shared" si="65"/>
@@ -25102,7 +25108,7 @@
         <v>1900</v>
       </c>
       <c r="V121" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W121" s="23" t="str">
         <f t="shared" si="65"/>
@@ -25482,7 +25488,7 @@
         <v>1900</v>
       </c>
       <c r="V123" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W123" s="23">
         <f t="shared" si="65"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1ADFA-5145-42B3-AE19-4D791C2916E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318FF110-1C77-4A3A-B2AC-8797C1AE80B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,9 +585,6 @@
     <t>195 E Foothills Parkway, Fort Collins CO 80525</t>
   </si>
   <si>
-    <t>Dominic's Restaurant</t>
-  </si>
-  <si>
     <t>Wine, Italian</t>
   </si>
   <si>
@@ -1727,6 +1724,9 @@
   </si>
   <si>
     <t>Draft beers $3.00 &lt;br&gt; Budwiser $2.00 &lt;br&gt; House Wine $3.75 &lt;br&gt; Appetizer specials and pizza by the slice &lt;br&gt;Tuesday: Burger Night &lt;br&gt; Thursday: Mussels &lt;br&gt; Friday: Fresh Clams until they’re gone &lt;br&gt;Saturday: Prime Rib</t>
+  </si>
+  <si>
+    <t>Domenic's Restaurant</t>
   </si>
 </sst>
 </file>
@@ -2680,9 +2680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V83" sqref="V83"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BJ63" sqref="BJ63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2767,79 +2767,79 @@
         <v>16</v>
       </c>
       <c r="W1" t="s">
+        <v>422</v>
+      </c>
+      <c r="X1" t="s">
         <v>423</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>424</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>425</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>426</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>427</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>428</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>429</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>430</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>431</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>432</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>433</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>434</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>435</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>436</v>
-      </c>
       <c r="AK1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL1" t="s">
         <v>416</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>417</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>418</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>419</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>420</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>421</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>422</v>
       </c>
       <c r="AR1" t="s">
         <v>17</v>
       </c>
       <c r="AS1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT1" t="s">
         <v>313</v>
       </c>
-      <c r="AT1" t="s">
-        <v>314</v>
-      </c>
       <c r="AU1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AV1" t="s">
         <v>21</v>
@@ -2849,39 +2849,39 @@
       </c>
       <c r="AY1" s="4"/>
       <c r="BD1" t="s">
+        <v>436</v>
+      </c>
+      <c r="BE1" t="s">
         <v>437</v>
       </c>
-      <c r="BE1" t="s">
-        <v>438</v>
-      </c>
       <c r="BF1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BG1" t="s">
+        <v>444</v>
+      </c>
+      <c r="BH1" t="s">
         <v>445</v>
       </c>
-      <c r="BH1" t="s">
-        <v>446</v>
-      </c>
       <c r="BJ1" t="s">
+        <v>447</v>
+      </c>
+      <c r="BL1" t="s">
         <v>448</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="2" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2" t="s">
         <v>469</v>
-      </c>
-      <c r="C2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G2" t="s">
-        <v>470</v>
       </c>
       <c r="H2">
         <v>1600</v>
@@ -3010,10 +3010,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AU2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV2" t="b">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="2:64" ht="120.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -3090,13 +3090,13 @@
         <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D3" t="s">
         <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>142</v>
@@ -3228,16 +3228,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV3" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX3" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3298,7 +3298,7 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
         <v>147</v>
@@ -3394,16 +3394,16 @@
         <v/>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU4" t="s">
         <v>28</v>
       </c>
       <c r="AV4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX4" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3461,19 +3461,19 @@
     </row>
     <row r="5" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>531</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>532</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W5" s="12" t="str">
         <f t="shared" si="24"/>
@@ -3564,10 +3564,10 @@
         <v>28</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW5" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX5" s="17"/>
       <c r="AY5" s="12" t="str">
@@ -3622,13 +3622,13 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G6" t="s">
         <v>150</v>
@@ -3718,22 +3718,22 @@
         <v/>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV6" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX6" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3794,13 +3794,13 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>67</v>
@@ -3848,7 +3848,7 @@
         <v>1800</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W7" s="23">
         <f t="shared" si="24"/>
@@ -3935,19 +3935,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AS7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX7" s="22" t="str">
         <f>_xlfn.CONCAT("{
@@ -4009,19 +4009,19 @@
     </row>
     <row r="8" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>537</v>
       </c>
       <c r="H8" s="12">
         <v>1500</v>
@@ -4066,7 +4066,7 @@
         <v>1800</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W8" s="12">
         <f t="shared" si="24"/>
@@ -4153,19 +4153,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR8" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AS8" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU8" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV8" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW8" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX8" s="17"/>
       <c r="AY8" s="12" t="str">
@@ -4220,13 +4220,13 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>111</v>
@@ -4274,7 +4274,7 @@
         <v>2400</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W9" s="23">
         <f t="shared" si="24"/>
@@ -4361,19 +4361,19 @@
         <v>9am-12am</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AS9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU9" t="s">
         <v>28</v>
       </c>
       <c r="AV9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW9" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW9" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX9" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4431,19 +4431,19 @@
     </row>
     <row r="10" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>538</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>539</v>
       </c>
       <c r="W10" s="12" t="str">
         <f t="shared" si="24"/>
@@ -4531,13 +4531,13 @@
       </c>
       <c r="AR10" s="15"/>
       <c r="AU10" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV10" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW10" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX10" s="17"/>
       <c r="AY10" s="12" t="str">
@@ -4589,16 +4589,16 @@
     </row>
     <row r="11" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>540</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>541</v>
       </c>
       <c r="W11" s="12" t="str">
         <f t="shared" si="24"/>
@@ -4686,13 +4686,13 @@
       </c>
       <c r="AR11" s="15"/>
       <c r="AU11" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV11" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW11" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX11" s="17"/>
       <c r="AY11" s="12" t="str">
@@ -4747,7 +4747,7 @@
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
         <v>119</v>
@@ -4843,16 +4843,16 @@
         <v/>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU12" t="s">
         <v>28</v>
       </c>
       <c r="AV12" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX12" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4913,13 +4913,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
         <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G13" t="s">
         <v>179</v>
@@ -4955,7 +4955,7 @@
         <v>1900</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W13" s="23" t="str">
         <f t="shared" si="24"/>
@@ -5042,19 +5042,19 @@
         <v/>
       </c>
       <c r="AR13" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AS13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV13" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX13" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5115,13 +5115,13 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>58</v>
@@ -5169,7 +5169,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W14" s="23">
         <f t="shared" si="24"/>
@@ -5256,19 +5256,19 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AS14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU14" t="s">
         <v>28</v>
       </c>
       <c r="AV14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW14" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW14" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX14" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5327,15 +5327,15 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -5389,7 +5389,7 @@
         <v>2400</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W15" s="23">
         <f t="shared" si="24"/>
@@ -5476,16 +5476,16 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR15" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AU15" t="s">
         <v>28</v>
       </c>
       <c r="AV15" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX15" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5546,7 +5546,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -5642,16 +5642,16 @@
         <v/>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AU16" t="s">
         <v>28</v>
       </c>
       <c r="AV16" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX16" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5709,19 +5709,19 @@
     </row>
     <row r="17" spans="2:64" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J17">
         <v>1500</v>
@@ -5754,7 +5754,7 @@
         <v>1900</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W17" s="23" t="str">
         <f t="shared" si="24"/>
@@ -5841,16 +5841,16 @@
         <v/>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AU17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV17" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX17" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5911,13 +5911,13 @@
         <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G18" t="s">
         <v>152</v>
@@ -5965,7 +5965,7 @@
         <v>1600</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="W18" s="23">
         <f t="shared" si="24"/>
@@ -6052,19 +6052,19 @@
         <v>11am-4pm</v>
       </c>
       <c r="AR18" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AS18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW18" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW18" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX18" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6123,24 +6123,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="2:64" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J19">
         <v>1000</v>
@@ -6179,7 +6179,7 @@
         <v>1600</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W19" s="23" t="str">
         <f t="shared" si="24"/>
@@ -6266,16 +6266,16 @@
         <v>11am-4pm</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AU19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV19" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX19" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6334,7 +6334,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.35">
@@ -6342,13 +6342,13 @@
         <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G20" t="s">
         <v>181</v>
@@ -6384,7 +6384,7 @@
         <v>1800</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W20" s="23" t="str">
         <f t="shared" si="24"/>
@@ -6471,19 +6471,19 @@
         <v/>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AS20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX20" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6541,19 +6541,19 @@
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P21">
         <v>1500</v>
@@ -6574,7 +6574,7 @@
         <v>1800</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W21" s="23" t="str">
         <f t="shared" si="24"/>
@@ -6661,13 +6661,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AU21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV21" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW21" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW21" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX21" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6725,19 +6725,19 @@
     </row>
     <row r="22" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>543</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>544</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W22" s="12" t="str">
         <f t="shared" si="24"/>
@@ -6824,13 +6824,13 @@
         <v/>
       </c>
       <c r="AU22" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV22" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW22" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX22" s="17"/>
       <c r="AY22" s="12" t="str">
@@ -6885,7 +6885,7 @@
         <v>182</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>78</v>
@@ -6981,16 +6981,16 @@
         <v/>
       </c>
       <c r="AR23" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AU23" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV23" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW23" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX23" s="17" t="str">
         <f t="shared" si="14"/>
@@ -7049,21 +7049,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL23" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>546</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>547</v>
       </c>
       <c r="W24" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7151,13 +7151,13 @@
       </c>
       <c r="AR24" s="15"/>
       <c r="AU24" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV24" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW24" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX24" s="17"/>
       <c r="AY24" s="12" t="str">
@@ -7209,16 +7209,16 @@
     </row>
     <row r="25" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>549</v>
       </c>
       <c r="W25" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7309,10 +7309,10 @@
         <v>28</v>
       </c>
       <c r="AV25" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW25" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX25" s="17"/>
       <c r="AY25" s="12" t="str">
@@ -7364,16 +7364,16 @@
     </row>
     <row r="26" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E26" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W26" s="23" t="str">
         <f t="shared" si="24"/>
@@ -7463,10 +7463,10 @@
         <v>28</v>
       </c>
       <c r="AV26" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX26" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7525,21 +7525,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="2:64" s="12" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>72</v>
@@ -7575,7 +7575,7 @@
         <v>1800</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W27" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7662,19 +7662,19 @@
         <v/>
       </c>
       <c r="AR27" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AS27" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU27" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV27" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW27" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX27" s="17" t="str">
         <f t="shared" si="14"/>
@@ -7732,19 +7732,19 @@
     </row>
     <row r="28" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H28">
         <v>1600</v>
@@ -7789,7 +7789,7 @@
         <v>1800</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W28" s="23">
         <f t="shared" si="24"/>
@@ -7876,19 +7876,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AS28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV28" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX28" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7946,13 +7946,13 @@
     </row>
     <row r="29" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H29">
         <v>2100</v>
@@ -7997,7 +7997,7 @@
         <v>2300</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W29" s="23">
         <f t="shared" si="24"/>
@@ -8084,19 +8084,19 @@
         <v>9pm-11pm</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AS29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV29" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX29" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8155,21 +8155,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s">
         <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G30" t="s">
         <v>184</v>
@@ -8205,7 +8205,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W30" s="23" t="str">
         <f t="shared" si="24"/>
@@ -8292,19 +8292,19 @@
         <v/>
       </c>
       <c r="AR30" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AS30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV30" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX30" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8365,7 +8365,7 @@
         <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
@@ -8461,19 +8461,19 @@
         <v/>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AS31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU31" t="s">
         <v>28</v>
       </c>
       <c r="AV31" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW31" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX31" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8534,13 +8534,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>32</v>
@@ -8552,7 +8552,7 @@
         <v>2000</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W32" s="23" t="str">
         <f t="shared" si="24"/>
@@ -8639,19 +8639,19 @@
         <v/>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AS32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW32" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW32" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX32" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8712,13 +8712,13 @@
         <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D33" t="s">
         <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G33" t="s">
         <v>155</v>
@@ -8808,16 +8808,16 @@
         <v/>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AU33" t="s">
         <v>28</v>
       </c>
       <c r="AV33" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX33" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8878,13 +8878,13 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>29</v>
@@ -8920,7 +8920,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W34" s="23" t="str">
         <f t="shared" si="24"/>
@@ -9007,22 +9007,22 @@
         <v/>
       </c>
       <c r="AR34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AS34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU34" t="s">
         <v>28</v>
       </c>
       <c r="AV34" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW34" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW34" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX34" s="4" t="str">
         <f t="shared" si="14"/>
@@ -9083,13 +9083,13 @@
         <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D35" t="s">
         <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G35" t="s">
         <v>158</v>
@@ -9113,7 +9113,7 @@
         <v>2100</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W35" s="23">
         <f t="shared" si="24"/>
@@ -9200,19 +9200,19 @@
         <v/>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AS35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU35" t="s">
         <v>28</v>
       </c>
       <c r="AV35" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX35" s="4" t="str">
         <f t="shared" si="14"/>
@@ -9273,13 +9273,13 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D36" t="s">
         <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>79</v>
@@ -9327,7 +9327,7 @@
         <v>2400</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W36" s="23">
         <f t="shared" si="24"/>
@@ -9414,19 +9414,19 @@
         <v>10pm-12am</v>
       </c>
       <c r="AR36" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AS36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU36" t="s">
         <v>28</v>
       </c>
       <c r="AV36" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW36" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW36" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX36" s="4" t="str">
         <f t="shared" si="14"/>
@@ -9484,16 +9484,16 @@
     </row>
     <row r="37" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J37">
         <v>1500</v>
@@ -9526,7 +9526,7 @@
         <v>1800</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W37" s="23" t="str">
         <f t="shared" si="24"/>
@@ -9613,7 +9613,7 @@
         <v/>
       </c>
       <c r="AR37" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AU37" t="s">
         <v>28</v>
@@ -9681,21 +9681,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E38" t="s">
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W38" s="23" t="str">
         <f t="shared" si="24"/>
@@ -9782,7 +9782,7 @@
         <v/>
       </c>
       <c r="AU38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV38" t="b">
         <v>0</v>
@@ -9847,24 +9847,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
+        <v>565</v>
+      </c>
+      <c r="C39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D39" t="s">
         <v>185</v>
       </c>
-      <c r="C39" t="s">
-        <v>441</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>443</v>
+      </c>
+      <c r="G39" t="s">
         <v>186</v>
-      </c>
-      <c r="E39" t="s">
-        <v>444</v>
-      </c>
-      <c r="G39" t="s">
-        <v>187</v>
       </c>
       <c r="L39">
         <v>1600</v>
@@ -9981,24 +9981,24 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR39" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AS39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV39" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX39" s="4" t="str">
         <f t="shared" si="14"/>
         <v>{
-    'name': "Dominic's Restaurant",
+    'name': "Domenic's Restaurant",
     'area': "sfoco",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"https://www.domenicsrestaurant.com", 'pricing':"med",   'phone-number': "", 'address': "931 E. Harmony Road, Fort Collins Shopping Cener, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
@@ -10054,13 +10054,13 @@
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D40" t="s">
         <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>88</v>
@@ -10150,16 +10150,16 @@
         <v/>
       </c>
       <c r="AR40" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AU40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV40" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX40" s="4" t="str">
         <f t="shared" si="14"/>
@@ -10220,13 +10220,13 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>70</v>
@@ -10316,16 +10316,16 @@
         <v/>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AU41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV41" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX41" s="4" t="str">
         <f t="shared" ref="AX41:AX74" si="62">_xlfn.CONCAT("{
@@ -10390,13 +10390,13 @@
         <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D42" t="s">
         <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G42" t="s">
         <v>161</v>
@@ -10486,19 +10486,19 @@
         <v/>
       </c>
       <c r="AR42" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AS42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV42" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX42" s="4" t="str">
         <f t="shared" si="62"/>
@@ -10556,19 +10556,19 @@
     </row>
     <row r="43" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J43">
         <v>1630</v>
@@ -10601,7 +10601,7 @@
         <v>1900</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W43" s="23" t="str">
         <f t="shared" si="24"/>
@@ -10688,16 +10688,16 @@
         <v/>
       </c>
       <c r="AR43" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV43" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX43" s="4" t="str">
         <f t="shared" si="62"/>
@@ -10755,19 +10755,19 @@
     </row>
     <row r="44" spans="2:64" s="12" customFormat="1" ht="160.5" x14ac:dyDescent="0.45">
       <c r="B44" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G44" s="20" t="s">
         <v>380</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>381</v>
       </c>
       <c r="H44" s="12">
         <v>1500</v>
@@ -10812,7 +10812,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="24"/>
@@ -10899,16 +10899,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR44" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU44" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV44" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW44" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX44" s="17" t="str">
         <f t="shared" si="62"/>
@@ -10966,16 +10966,16 @@
     </row>
     <row r="45" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B45" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="W45" s="12" t="str">
         <f t="shared" si="24"/>
@@ -11062,7 +11062,7 @@
         <v/>
       </c>
       <c r="AU45" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV45" s="12" t="b">
         <v>0</v>
@@ -11127,24 +11127,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL45" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D46" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>189</v>
       </c>
       <c r="W46" s="12" t="str">
         <f t="shared" si="24"/>
@@ -11231,16 +11231,16 @@
         <v/>
       </c>
       <c r="AR46" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AU46" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV46" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW46" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX46" s="17" t="str">
         <f t="shared" si="62"/>
@@ -11301,7 +11301,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>93</v>
@@ -11355,7 +11355,7 @@
         <v>1800</v>
       </c>
       <c r="V47" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W47" s="12">
         <f t="shared" si="24"/>
@@ -11442,16 +11442,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR47" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AU47" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV47" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW47" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX47" s="17" t="str">
         <f t="shared" si="62"/>
@@ -11512,7 +11512,7 @@
         <v>73</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>75</v>
@@ -11608,16 +11608,16 @@
         <v/>
       </c>
       <c r="AR48" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AU48" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV48" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW48" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX48" s="17" t="str">
         <f t="shared" si="62"/>
@@ -11675,19 +11675,19 @@
     </row>
     <row r="49" spans="2:64" s="12" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B49" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="E49" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H49" s="12">
         <v>1400</v>
@@ -11732,7 +11732,7 @@
         <v>1800</v>
       </c>
       <c r="V49" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W49" s="12">
         <f t="shared" si="24"/>
@@ -11819,19 +11819,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR49" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AS49" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU49" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV49" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW49" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="AW49" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="AX49" s="17" t="str">
         <f t="shared" si="62"/>
@@ -11889,19 +11889,19 @@
     </row>
     <row r="50" spans="2:64" s="12" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B50" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>286</v>
       </c>
       <c r="J50" s="12">
         <v>1600</v>
@@ -11934,7 +11934,7 @@
         <v>1800</v>
       </c>
       <c r="V50" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W50" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12021,16 +12021,16 @@
         <v/>
       </c>
       <c r="AR50" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AU50" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV50" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW50" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX50" s="17" t="str">
         <f t="shared" si="62"/>
@@ -12088,13 +12088,13 @@
     </row>
     <row r="51" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W51" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12185,10 +12185,10 @@
         <v>28</v>
       </c>
       <c r="AV51" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW51" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX51" s="17"/>
       <c r="AY51" s="12" t="str">
@@ -12240,10 +12240,10 @@
     </row>
     <row r="52" spans="2:64" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B52" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>53</v>
@@ -12252,7 +12252,7 @@
         <v>54</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H52" s="12">
         <v>800</v>
@@ -12291,7 +12291,7 @@
         <v>2400</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W52" s="12">
         <f t="shared" si="24"/>
@@ -12378,16 +12378,16 @@
         <v>8am-12am</v>
       </c>
       <c r="AR52" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AU52" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV52" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW52" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX52" s="17" t="str">
         <f t="shared" si="62"/>
@@ -12446,10 +12446,10 @@
     </row>
     <row r="53" spans="2:64" s="12" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B53" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>53</v>
@@ -12458,7 +12458,7 @@
         <v>54</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J53" s="12">
         <v>1500</v>
@@ -12497,7 +12497,7 @@
         <v>2400</v>
       </c>
       <c r="V53" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W53" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12584,16 +12584,16 @@
         <v>8am-12am</v>
       </c>
       <c r="AR53" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AU53" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV53" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW53" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX53" s="17" t="str">
         <f t="shared" si="62"/>
@@ -12651,16 +12651,16 @@
     </row>
     <row r="54" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W54" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12747,7 +12747,7 @@
         <v/>
       </c>
       <c r="AU54" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV54" s="12" t="b">
         <v>0</v>
@@ -12812,24 +12812,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL54" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B55" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="W55" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12916,19 +12916,19 @@
         <v/>
       </c>
       <c r="AR55" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AS55" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU55" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV55" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW55" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX55" s="17" t="str">
         <f t="shared" si="62"/>
@@ -12986,16 +12986,16 @@
     </row>
     <row r="56" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>556</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>557</v>
       </c>
       <c r="W56" s="12" t="str">
         <f t="shared" si="24"/>
@@ -13083,13 +13083,13 @@
       </c>
       <c r="AR56" s="19"/>
       <c r="AU56" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV56" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW56" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX56" s="17"/>
       <c r="AY56" s="12" t="str">
@@ -13141,19 +13141,19 @@
     </row>
     <row r="57" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" t="s">
+        <v>277</v>
+      </c>
+      <c r="E57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
         <v>287</v>
-      </c>
-      <c r="C57" t="s">
-        <v>439</v>
-      </c>
-      <c r="D57" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" t="s">
-        <v>444</v>
-      </c>
-      <c r="G57" t="s">
-        <v>288</v>
       </c>
       <c r="J57">
         <v>1600</v>
@@ -13192,7 +13192,7 @@
         <v>1900</v>
       </c>
       <c r="V57" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W57" s="23" t="str">
         <f t="shared" si="24"/>
@@ -13279,16 +13279,16 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR57" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AU57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV57" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW57" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW57" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX57" s="4" t="str">
         <f t="shared" si="62"/>
@@ -13346,19 +13346,19 @@
     </row>
     <row r="58" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H58">
         <v>1600</v>
@@ -13391,7 +13391,7 @@
         <v>1800</v>
       </c>
       <c r="V58" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W58" s="23">
         <f t="shared" si="24"/>
@@ -13478,22 +13478,22 @@
         <v/>
       </c>
       <c r="AR58" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AS58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV58" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="AU58" t="s">
-        <v>309</v>
-      </c>
-      <c r="AV58" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="AW58" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX58" s="4" t="str">
         <f t="shared" si="62"/>
@@ -13552,24 +13552,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" t="s">
+        <v>438</v>
+      </c>
+      <c r="D59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" t="s">
+        <v>443</v>
+      </c>
+      <c r="G59" t="s">
         <v>196</v>
-      </c>
-      <c r="C59" t="s">
-        <v>439</v>
-      </c>
-      <c r="D59" t="s">
-        <v>278</v>
-      </c>
-      <c r="E59" t="s">
-        <v>444</v>
-      </c>
-      <c r="G59" t="s">
-        <v>197</v>
       </c>
       <c r="W59" s="23" t="str">
         <f t="shared" si="24"/>
@@ -13656,22 +13656,22 @@
         <v/>
       </c>
       <c r="AR59" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AS59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU59" t="s">
         <v>28</v>
       </c>
       <c r="AV59" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX59" s="4" t="str">
         <f t="shared" si="62"/>
@@ -13732,13 +13732,13 @@
         <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D60" t="s">
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>48</v>
@@ -13828,16 +13828,16 @@
         <v/>
       </c>
       <c r="AR60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AU60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV60" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX60" s="4" t="str">
         <f t="shared" si="62"/>
@@ -13898,7 +13898,7 @@
         <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D61" t="s">
         <v>53</v>
@@ -13952,7 +13952,7 @@
         <v>2000</v>
       </c>
       <c r="V61" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W61" s="23">
         <f t="shared" si="24"/>
@@ -14039,19 +14039,19 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR61" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AS61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV61" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX61" s="4" t="str">
         <f t="shared" si="62"/>
@@ -14109,16 +14109,16 @@
     </row>
     <row r="62" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G62" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W62" s="23" t="str">
         <f t="shared" si="24"/>
@@ -14205,7 +14205,7 @@
         <v/>
       </c>
       <c r="AU62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV62" t="b">
         <v>0</v>
@@ -14270,24 +14270,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL62" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" t="s">
+        <v>441</v>
+      </c>
+      <c r="D63" t="s">
+        <v>277</v>
+      </c>
+      <c r="E63" t="s">
+        <v>443</v>
+      </c>
+      <c r="G63" t="s">
         <v>198</v>
-      </c>
-      <c r="C63" t="s">
-        <v>442</v>
-      </c>
-      <c r="D63" t="s">
-        <v>278</v>
-      </c>
-      <c r="E63" t="s">
-        <v>444</v>
-      </c>
-      <c r="G63" t="s">
-        <v>199</v>
       </c>
       <c r="W63" s="23" t="str">
         <f t="shared" si="24"/>
@@ -14374,16 +14374,16 @@
         <v/>
       </c>
       <c r="AR63" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AU63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV63" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX63" s="4" t="str">
         <f t="shared" si="62"/>
@@ -14444,13 +14444,13 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D64" t="s">
         <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>136</v>
@@ -14498,7 +14498,7 @@
         <v>1900</v>
       </c>
       <c r="V64" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W64" s="23">
         <f t="shared" si="24"/>
@@ -14585,16 +14585,16 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR64" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV64" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW64" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW64" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX64" s="4" t="str">
         <f t="shared" si="62"/>
@@ -14653,7 +14653,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="2:64" ht="145" x14ac:dyDescent="0.35">
@@ -14661,7 +14661,7 @@
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D65" t="s">
         <v>93</v>
@@ -14715,7 +14715,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W65" s="23">
         <f t="shared" si="24"/>
@@ -14802,19 +14802,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR65" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AS65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV65" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX65" s="4" t="str">
         <f t="shared" si="62"/>
@@ -14875,7 +14875,7 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
@@ -14929,7 +14929,7 @@
         <v>1830</v>
       </c>
       <c r="V66" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W66" s="23">
         <f t="shared" si="24"/>
@@ -15016,19 +15016,19 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AS66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV66" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW66" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW66" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX66" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15089,19 +15089,19 @@
         <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D67" t="s">
         <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>117</v>
       </c>
       <c r="V67" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W67" s="23" t="str">
         <f t="shared" ref="W67:W128" si="65">IF(H67&gt;0,H67/100,"")</f>
@@ -15188,19 +15188,19 @@
         <v/>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AS67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU67" t="s">
         <v>28</v>
       </c>
       <c r="AV67" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX67" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15261,7 +15261,7 @@
         <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D68" t="s">
         <v>132</v>
@@ -15357,16 +15357,16 @@
         <v/>
       </c>
       <c r="AR68" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AU68" t="s">
         <v>28</v>
       </c>
       <c r="AV68" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX68" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15427,7 +15427,7 @@
         <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D69" t="s">
         <v>96</v>
@@ -15523,16 +15523,16 @@
         <v/>
       </c>
       <c r="AR69" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AU69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV69" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX69" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15593,13 +15593,13 @@
         <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D70" t="s">
         <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G70" t="s">
         <v>165</v>
@@ -15629,7 +15629,7 @@
         <v>1800</v>
       </c>
       <c r="V70" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W70" s="23" t="str">
         <f t="shared" si="65"/>
@@ -15716,19 +15716,19 @@
         <v/>
       </c>
       <c r="AR70" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AS70" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV70" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW70" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW70" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX70" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15786,19 +15786,19 @@
     </row>
     <row r="71" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
+        <v>388</v>
+      </c>
+      <c r="C71" t="s">
+        <v>318</v>
+      </c>
+      <c r="D71" t="s">
         <v>389</v>
       </c>
-      <c r="C71" t="s">
-        <v>319</v>
-      </c>
-      <c r="D71" t="s">
-        <v>390</v>
-      </c>
       <c r="E71" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H71">
         <v>1600</v>
@@ -15837,7 +15837,7 @@
         <v>1900</v>
       </c>
       <c r="V71" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W71" s="23">
         <f t="shared" si="65"/>
@@ -15924,16 +15924,16 @@
         <v/>
       </c>
       <c r="AR71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV71" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX71" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15991,16 +15991,16 @@
     </row>
     <row r="72" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D72" t="s">
         <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>108</v>
@@ -16048,7 +16048,7 @@
         <v>1800</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W72" s="23">
         <f t="shared" si="65"/>
@@ -16135,19 +16135,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR72" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU72" t="s">
         <v>28</v>
       </c>
       <c r="AV72" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW72" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW72" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX72" s="4" t="str">
         <f t="shared" si="62"/>
@@ -16205,19 +16205,19 @@
     </row>
     <row r="73" spans="2:64" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>438</v>
+      </c>
+      <c r="D73" t="s">
         <v>289</v>
       </c>
-      <c r="C73" t="s">
-        <v>439</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>443</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="E73" t="s">
-        <v>444</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="H73">
         <v>1100</v>
@@ -16262,7 +16262,7 @@
         <v>1900</v>
       </c>
       <c r="V73" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W73" s="23">
         <f t="shared" si="65"/>
@@ -16349,16 +16349,16 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR73" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AU73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV73" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX73" s="4" t="str">
         <f t="shared" si="62"/>
@@ -16416,19 +16416,19 @@
     </row>
     <row r="74" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" t="s">
+        <v>438</v>
+      </c>
+      <c r="D74" t="s">
         <v>384</v>
       </c>
-      <c r="C74" t="s">
-        <v>439</v>
-      </c>
-      <c r="D74" t="s">
-        <v>385</v>
-      </c>
       <c r="E74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W74" s="23" t="str">
         <f t="shared" si="65"/>
@@ -16515,19 +16515,19 @@
         <v/>
       </c>
       <c r="AR74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU74" t="s">
         <v>28</v>
       </c>
       <c r="AV74" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX74" s="4" t="str">
         <f t="shared" si="62"/>
@@ -16585,19 +16585,19 @@
     </row>
     <row r="75" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" t="s">
+        <v>438</v>
+      </c>
+      <c r="D75" t="s">
         <v>292</v>
       </c>
-      <c r="C75" t="s">
-        <v>439</v>
-      </c>
-      <c r="D75" t="s">
-        <v>293</v>
-      </c>
       <c r="E75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H75">
         <v>1500</v>
@@ -16642,7 +16642,7 @@
         <v>1800</v>
       </c>
       <c r="V75" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="W75" s="23">
         <f t="shared" si="65"/>
@@ -16729,16 +16729,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR75" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AU75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV75" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW75" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW75" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX75" s="4" t="str">
         <f t="shared" ref="AX75:AX106" si="94">_xlfn.CONCAT("{
@@ -16803,10 +16803,10 @@
         <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
         <v>54</v>
@@ -16899,22 +16899,22 @@
         <v/>
       </c>
       <c r="AR76" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AS76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV76" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX76" s="4" t="str">
         <f t="shared" si="94"/>
@@ -16975,7 +16975,7 @@
         <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D77" t="s">
         <v>63</v>
@@ -17071,16 +17071,16 @@
         <v/>
       </c>
       <c r="AR77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AU77" t="s">
         <v>28</v>
       </c>
       <c r="AV77" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX77" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17138,19 +17138,19 @@
     </row>
     <row r="78" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" t="s">
+        <v>438</v>
+      </c>
+      <c r="D78" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" t="s">
+        <v>443</v>
+      </c>
+      <c r="G78" t="s">
         <v>201</v>
-      </c>
-      <c r="C78" t="s">
-        <v>439</v>
-      </c>
-      <c r="D78" t="s">
-        <v>188</v>
-      </c>
-      <c r="E78" t="s">
-        <v>444</v>
-      </c>
-      <c r="G78" t="s">
-        <v>202</v>
       </c>
       <c r="W78" s="23" t="str">
         <f t="shared" si="65"/>
@@ -17237,16 +17237,16 @@
         <v/>
       </c>
       <c r="AR78" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AU78" t="s">
         <v>28</v>
       </c>
       <c r="AV78" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX78" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17304,19 +17304,19 @@
     </row>
     <row r="79" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D79" t="s">
         <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W79" s="23" t="str">
         <f t="shared" si="65"/>
@@ -17403,19 +17403,19 @@
         <v/>
       </c>
       <c r="AR79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AS79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU79" t="s">
         <v>28</v>
       </c>
       <c r="AV79" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX79" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17474,7 +17474,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
@@ -17482,7 +17482,7 @@
         <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
         <v>104</v>
@@ -17536,7 +17536,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W80" s="23">
         <f t="shared" si="65"/>
@@ -17623,19 +17623,19 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR80" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV80" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX80" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17696,7 +17696,7 @@
         <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D81" t="s">
         <v>154</v>
@@ -17750,7 +17750,7 @@
         <v>1900</v>
       </c>
       <c r="V81" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W81" s="23">
         <f t="shared" si="65"/>
@@ -17837,16 +17837,16 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR81" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AU81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV81" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW81" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW81" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX81" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17904,19 +17904,19 @@
     </row>
     <row r="82" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" t="s">
+        <v>438</v>
+      </c>
+      <c r="D82" t="s">
+        <v>277</v>
+      </c>
+      <c r="E82" t="s">
+        <v>443</v>
+      </c>
+      <c r="G82" t="s">
         <v>203</v>
-      </c>
-      <c r="C82" t="s">
-        <v>439</v>
-      </c>
-      <c r="D82" t="s">
-        <v>278</v>
-      </c>
-      <c r="E82" t="s">
-        <v>444</v>
-      </c>
-      <c r="G82" t="s">
-        <v>204</v>
       </c>
       <c r="W82" s="23" t="str">
         <f t="shared" si="65"/>
@@ -18003,22 +18003,22 @@
         <v/>
       </c>
       <c r="AR82" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AS82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU82" t="s">
         <v>28</v>
       </c>
       <c r="AV82" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW82" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX82" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18074,18 +18074,18 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D83" t="s">
         <v>57</v>
       </c>
       <c r="E83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G83" t="s">
         <v>171</v>
@@ -18121,7 +18121,7 @@
         <v>1800</v>
       </c>
       <c r="V83" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W83" s="23" t="str">
         <f t="shared" si="65"/>
@@ -18208,19 +18208,19 @@
         <v/>
       </c>
       <c r="AR83" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AS83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV83" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW83" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX83" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18279,7 +18279,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -18287,13 +18287,13 @@
         <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D84" t="s">
         <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>125</v>
@@ -18383,16 +18383,16 @@
         <v/>
       </c>
       <c r="AR84" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV84" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW84" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX84" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18450,19 +18450,19 @@
     </row>
     <row r="85" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>438</v>
+      </c>
+      <c r="D85" t="s">
+        <v>277</v>
+      </c>
+      <c r="E85" t="s">
+        <v>443</v>
+      </c>
+      <c r="G85" t="s">
         <v>205</v>
-      </c>
-      <c r="C85" t="s">
-        <v>439</v>
-      </c>
-      <c r="D85" t="s">
-        <v>278</v>
-      </c>
-      <c r="E85" t="s">
-        <v>444</v>
-      </c>
-      <c r="G85" t="s">
-        <v>206</v>
       </c>
       <c r="W85" s="23" t="str">
         <f t="shared" si="65"/>
@@ -18549,22 +18549,22 @@
         <v/>
       </c>
       <c r="AR85" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AS85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU85" t="s">
         <v>28</v>
       </c>
       <c r="AV85" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW85" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX85" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18625,13 +18625,13 @@
         <v>143</v>
       </c>
       <c r="C86" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D86" t="s">
         <v>144</v>
       </c>
       <c r="E86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>145</v>
@@ -18721,16 +18721,16 @@
         <v/>
       </c>
       <c r="AR86" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AU86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV86" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW86" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX86" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18788,16 +18788,16 @@
     </row>
     <row r="87" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E87" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W87" s="23" t="str">
         <f t="shared" si="65"/>
@@ -18884,7 +18884,7 @@
         <v/>
       </c>
       <c r="AU87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV87" t="b">
         <v>0</v>
@@ -18949,7 +18949,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL87" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -18957,7 +18957,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D88" t="s">
         <v>90</v>
@@ -19011,7 +19011,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W88" s="23">
         <f t="shared" si="65"/>
@@ -19098,19 +19098,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR88" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AS88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV88" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW88" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW88" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX88" s="4" t="str">
         <f t="shared" si="94"/>
@@ -19168,19 +19168,19 @@
     </row>
     <row r="89" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D89" t="s">
         <v>78</v>
       </c>
       <c r="E89" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H89">
         <v>1000</v>
@@ -19225,7 +19225,7 @@
         <v>1800</v>
       </c>
       <c r="V89" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W89" s="23">
         <f t="shared" si="65"/>
@@ -19312,16 +19312,16 @@
         <v>10am-6pm</v>
       </c>
       <c r="AR89" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AU89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV89" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW89" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX89" s="4" t="str">
         <f t="shared" si="94"/>
@@ -19379,19 +19379,19 @@
     </row>
     <row r="90" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" t="s">
+        <v>438</v>
+      </c>
+      <c r="D90" t="s">
+        <v>277</v>
+      </c>
+      <c r="E90" t="s">
+        <v>443</v>
+      </c>
+      <c r="G90" t="s">
         <v>209</v>
-      </c>
-      <c r="C90" t="s">
-        <v>439</v>
-      </c>
-      <c r="D90" t="s">
-        <v>278</v>
-      </c>
-      <c r="E90" t="s">
-        <v>444</v>
-      </c>
-      <c r="G90" t="s">
-        <v>210</v>
       </c>
       <c r="W90" s="23" t="str">
         <f t="shared" si="65"/>
@@ -19478,19 +19478,19 @@
         <v/>
       </c>
       <c r="AR90" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AS90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV90" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW90" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX90" s="4" t="str">
         <f t="shared" si="94"/>
@@ -19548,16 +19548,16 @@
     </row>
     <row r="91" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G91" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J91">
         <v>1500</v>
@@ -19647,7 +19647,7 @@
         <v/>
       </c>
       <c r="AU91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV91" t="b">
         <v>1</v>
@@ -19712,24 +19712,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL91" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" t="s">
+        <v>443</v>
+      </c>
+      <c r="G92" t="s">
         <v>211</v>
-      </c>
-      <c r="C92" t="s">
-        <v>319</v>
-      </c>
-      <c r="D92" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" t="s">
-        <v>444</v>
-      </c>
-      <c r="G92" t="s">
-        <v>212</v>
       </c>
       <c r="W92" s="23" t="str">
         <f t="shared" si="65"/>
@@ -19816,22 +19816,22 @@
         <v/>
       </c>
       <c r="AR92" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AS92" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV92" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW92" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX92" s="4" t="str">
         <f t="shared" si="94"/>
@@ -19892,7 +19892,7 @@
         <v>172</v>
       </c>
       <c r="C93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D93" t="s">
         <v>173</v>
@@ -19940,7 +19940,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W93" s="23" t="str">
         <f t="shared" si="65"/>
@@ -20027,16 +20027,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR93" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AU93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV93" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW93" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX93" s="4" t="str">
         <f t="shared" si="94"/>
@@ -20097,13 +20097,13 @@
         <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D94" t="s">
         <v>44</v>
       </c>
       <c r="E94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>45</v>
@@ -20223,19 +20223,19 @@
         <v/>
       </c>
       <c r="AR94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AS94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU94" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV94" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW94" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX94" s="4" t="str">
         <f t="shared" si="94"/>
@@ -20293,19 +20293,19 @@
     </row>
     <row r="95" spans="2:64" s="12" customFormat="1" ht="203" x14ac:dyDescent="0.35">
       <c r="B95" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="D95" s="12" t="s">
+      <c r="E95" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G95" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="H95" s="12">
         <v>1100</v>
@@ -20350,7 +20350,7 @@
         <v>2000</v>
       </c>
       <c r="V95" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W95" s="12">
         <f t="shared" si="65"/>
@@ -20437,19 +20437,19 @@
         <v>4pm-8pm</v>
       </c>
       <c r="AR95" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AS95" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU95" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV95" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW95" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX95" s="17" t="str">
         <f t="shared" si="94"/>
@@ -20510,7 +20510,7 @@
         <v>59</v>
       </c>
       <c r="C96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D96" t="s">
         <v>60</v>
@@ -20606,16 +20606,16 @@
         <v/>
       </c>
       <c r="AR96" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AU96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV96" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW96" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX96" s="4" t="str">
         <f t="shared" si="94"/>
@@ -20673,16 +20673,16 @@
     </row>
     <row r="97" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E97" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G97" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W97" s="23" t="str">
         <f t="shared" si="65"/>
@@ -20769,7 +20769,7 @@
         <v/>
       </c>
       <c r="AU97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV97" t="b">
         <v>1</v>
@@ -20834,24 +20834,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL97" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" t="s">
+        <v>438</v>
+      </c>
+      <c r="D98" t="s">
         <v>216</v>
       </c>
-      <c r="C98" t="s">
-        <v>439</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
+        <v>443</v>
+      </c>
+      <c r="G98" t="s">
         <v>217</v>
-      </c>
-      <c r="E98" t="s">
-        <v>444</v>
-      </c>
-      <c r="G98" t="s">
-        <v>218</v>
       </c>
       <c r="W98" s="23" t="str">
         <f t="shared" si="65"/>
@@ -20938,16 +20938,16 @@
         <v/>
       </c>
       <c r="AR98" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AU98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV98" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW98" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX98" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21005,16 +21005,16 @@
     </row>
     <row r="99" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C99" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
       </c>
       <c r="G99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W99" s="23" t="str">
         <f t="shared" si="65"/>
@@ -21101,7 +21101,7 @@
         <v/>
       </c>
       <c r="AU99" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV99" t="b">
         <v>0</v>
@@ -21166,24 +21166,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
+        <v>409</v>
+      </c>
+      <c r="C100" t="s">
+        <v>438</v>
+      </c>
+      <c r="D100" t="s">
         <v>410</v>
-      </c>
-      <c r="C100" t="s">
-        <v>439</v>
-      </c>
-      <c r="D100" t="s">
-        <v>411</v>
       </c>
       <c r="E100" t="s">
         <v>54</v>
       </c>
       <c r="G100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W100" s="23" t="str">
         <f t="shared" si="65"/>
@@ -21270,16 +21270,16 @@
         <v/>
       </c>
       <c r="AR100" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AU100" t="s">
         <v>28</v>
       </c>
       <c r="AV100" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW100" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX100" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21337,19 +21337,19 @@
     </row>
     <row r="101" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D101" t="s">
         <v>93</v>
       </c>
       <c r="E101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H101">
         <v>1100</v>
@@ -21388,7 +21388,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W101" s="23">
         <f t="shared" si="65"/>
@@ -21475,19 +21475,19 @@
         <v/>
       </c>
       <c r="AR101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV101" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW101" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX101" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21545,19 +21545,19 @@
     </row>
     <row r="102" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" t="s">
+        <v>438</v>
+      </c>
+      <c r="D102" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" t="s">
+        <v>443</v>
+      </c>
+      <c r="G102" t="s">
         <v>219</v>
-      </c>
-      <c r="C102" t="s">
-        <v>439</v>
-      </c>
-      <c r="D102" t="s">
-        <v>278</v>
-      </c>
-      <c r="E102" t="s">
-        <v>444</v>
-      </c>
-      <c r="G102" t="s">
-        <v>220</v>
       </c>
       <c r="W102" s="23" t="str">
         <f t="shared" si="65"/>
@@ -21644,22 +21644,22 @@
         <v/>
       </c>
       <c r="AR102" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT102" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV102" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW102" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX102" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21717,19 +21717,19 @@
     </row>
     <row r="103" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E103" t="s">
         <v>35</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H103">
         <v>1600</v>
@@ -21774,7 +21774,7 @@
         <v>1800</v>
       </c>
       <c r="V103" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W103" s="23">
         <f t="shared" si="65"/>
@@ -21861,16 +21861,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR103" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AU103" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV103" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW103" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX103" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21931,7 +21931,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>104</v>
@@ -21979,7 +21979,7 @@
         <v>1900</v>
       </c>
       <c r="V104" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W104" s="12">
         <f t="shared" si="65"/>
@@ -22066,16 +22066,16 @@
         <v/>
       </c>
       <c r="AR104" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AU104" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV104" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW104" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX104" s="17" t="str">
         <f t="shared" si="94"/>
@@ -22136,7 +22136,7 @@
         <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D105" t="s">
         <v>138</v>
@@ -22232,16 +22232,16 @@
         <v/>
       </c>
       <c r="AR105" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AU105" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV105" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW105" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX105" s="4" t="str">
         <f t="shared" si="94"/>
@@ -22300,7 +22300,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL105" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -22308,7 +22308,7 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D106" t="s">
         <v>119</v>
@@ -22404,16 +22404,16 @@
         <v/>
       </c>
       <c r="AR106" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AU106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV106" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW106" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX106" s="4" t="str">
         <f t="shared" si="94"/>
@@ -22474,13 +22474,13 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D107" t="s">
         <v>41</v>
       </c>
       <c r="E107" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>42</v>
@@ -22570,19 +22570,19 @@
         <v/>
       </c>
       <c r="AR107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS107" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU107" t="s">
         <v>28</v>
       </c>
       <c r="AV107" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW107" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX107" s="4" t="str">
         <f t="shared" ref="AX107:AX128" si="95">_xlfn.CONCAT("{
@@ -22645,7 +22645,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL107" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -22653,13 +22653,13 @@
         <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>39</v>
@@ -22707,7 +22707,7 @@
         <v>1400</v>
       </c>
       <c r="V108" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W108" s="23">
         <f t="shared" si="65"/>
@@ -22794,16 +22794,16 @@
         <v>11.3am-2pm</v>
       </c>
       <c r="AR108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AU108" t="s">
         <v>28</v>
       </c>
       <c r="AV108" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW108" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX108" s="4" t="str">
         <f t="shared" si="95"/>
@@ -22861,16 +22861,16 @@
     </row>
     <row r="109" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H109" s="12">
         <v>1500</v>
@@ -22915,7 +22915,7 @@
         <v>2400</v>
       </c>
       <c r="V109" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W109" s="12">
         <f t="shared" si="65"/>
@@ -23002,13 +23002,13 @@
         <v>3pm-12am</v>
       </c>
       <c r="AU109" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV109" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW109" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX109" s="17"/>
       <c r="AY109" s="12" t="str">
@@ -23060,19 +23060,19 @@
     </row>
     <row r="110" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D110" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E110" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W110" s="23" t="str">
         <f t="shared" si="65"/>
@@ -23159,16 +23159,16 @@
         <v/>
       </c>
       <c r="AR110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AU110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV110" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW110" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX110" s="4" t="str">
         <f t="shared" si="95"/>
@@ -23229,13 +23229,13 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D111" t="s">
         <v>113</v>
       </c>
       <c r="E111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>114</v>
@@ -23355,16 +23355,16 @@
         <v/>
       </c>
       <c r="AR111" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AU111" t="s">
         <v>28</v>
       </c>
       <c r="AV111" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW111" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX111" s="4" t="str">
         <f t="shared" si="95"/>
@@ -23425,13 +23425,13 @@
         <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D112" t="s">
         <v>81</v>
       </c>
       <c r="E112" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>82</v>
@@ -23521,19 +23521,19 @@
         <v/>
       </c>
       <c r="AR112" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AS112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU112" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV112" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW112" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX112" s="4" t="str">
         <f t="shared" si="95"/>
@@ -23591,16 +23591,16 @@
     </row>
     <row r="113" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C113" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W113" s="23" t="str">
         <f t="shared" si="65"/>
@@ -23687,7 +23687,7 @@
         <v/>
       </c>
       <c r="AU113" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV113" t="b">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL113" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -23760,7 +23760,7 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" t="s">
         <v>101</v>
@@ -23856,16 +23856,16 @@
         <v/>
       </c>
       <c r="AR114" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AU114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV114" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW114" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX114" s="4" t="str">
         <f t="shared" si="95"/>
@@ -23926,7 +23926,7 @@
         <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D115" t="s">
         <v>84</v>
@@ -24022,19 +24022,19 @@
         <v/>
       </c>
       <c r="AR115" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AS115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU115" t="s">
         <v>28</v>
       </c>
       <c r="AV115" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW115" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX115" s="4" t="str">
         <f t="shared" si="95"/>
@@ -24092,19 +24092,19 @@
     </row>
     <row r="116" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C116" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" t="s">
         <v>90</v>
       </c>
       <c r="E116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J116">
         <v>1500</v>
@@ -24137,7 +24137,7 @@
         <v>1800</v>
       </c>
       <c r="V116" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W116" s="23" t="str">
         <f t="shared" si="65"/>
@@ -24224,16 +24224,16 @@
         <v/>
       </c>
       <c r="AR116" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AU116" t="s">
         <v>28</v>
       </c>
       <c r="AV116" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW116" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX116" s="4" t="str">
         <f t="shared" si="95"/>
@@ -24294,7 +24294,7 @@
         <v>175</v>
       </c>
       <c r="C117" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D117" t="s">
         <v>176</v>
@@ -24336,7 +24336,7 @@
         <v>1800</v>
       </c>
       <c r="V117" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W117" s="23" t="str">
         <f t="shared" si="65"/>
@@ -24423,16 +24423,16 @@
         <v/>
       </c>
       <c r="AR117" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AU117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV117" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW117" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX117" s="4" t="str">
         <f t="shared" si="95"/>
@@ -24490,19 +24490,19 @@
     </row>
     <row r="118" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D118" t="s">
+        <v>277</v>
+      </c>
+      <c r="E118" t="s">
+        <v>443</v>
+      </c>
+      <c r="G118" t="s">
         <v>223</v>
-      </c>
-      <c r="C118" t="s">
-        <v>318</v>
-      </c>
-      <c r="D118" t="s">
-        <v>278</v>
-      </c>
-      <c r="E118" t="s">
-        <v>444</v>
-      </c>
-      <c r="G118" t="s">
-        <v>224</v>
       </c>
       <c r="H118">
         <v>1800</v>
@@ -24529,7 +24529,7 @@
         <v>1800</v>
       </c>
       <c r="V118" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W118" s="23">
         <f t="shared" si="65"/>
@@ -24616,16 +24616,16 @@
         <v/>
       </c>
       <c r="AR118" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AU118" t="s">
         <v>28</v>
       </c>
       <c r="AV118" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW118" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AW118" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="AX118" s="4" t="str">
         <f t="shared" si="95"/>
@@ -24683,16 +24683,16 @@
     </row>
     <row r="119" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E119" t="s">
         <v>54</v>
       </c>
       <c r="G119" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W119" s="23" t="str">
         <f t="shared" si="65"/>
@@ -24779,7 +24779,7 @@
         <v/>
       </c>
       <c r="AU119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV119" t="b">
         <v>0</v>
@@ -24844,24 +24844,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="2:64" ht="174" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" t="s">
+        <v>438</v>
+      </c>
+      <c r="D120" t="s">
         <v>225</v>
       </c>
-      <c r="C120" t="s">
-        <v>439</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
+        <v>443</v>
+      </c>
+      <c r="G120" t="s">
         <v>226</v>
-      </c>
-      <c r="E120" t="s">
-        <v>444</v>
-      </c>
-      <c r="G120" t="s">
-        <v>227</v>
       </c>
       <c r="H120">
         <v>930</v>
@@ -24906,7 +24906,7 @@
         <v>1900</v>
       </c>
       <c r="V120" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W120" s="23">
         <f t="shared" si="65"/>
@@ -24993,19 +24993,19 @@
         <v>9.3am-7pm</v>
       </c>
       <c r="AR120" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AS120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV120" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW120" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX120" s="4" t="str">
         <f t="shared" si="95"/>
@@ -25063,19 +25063,19 @@
     </row>
     <row r="121" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D121" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J121">
         <v>1500</v>
@@ -25108,7 +25108,7 @@
         <v>1900</v>
       </c>
       <c r="V121" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W121" s="23" t="str">
         <f t="shared" si="65"/>
@@ -25195,19 +25195,19 @@
         <v/>
       </c>
       <c r="AR121" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AS121" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU121" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV121" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW121" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX121" s="4" t="str">
         <f t="shared" si="95"/>
@@ -25265,19 +25265,19 @@
     </row>
     <row r="122" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C122" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D122" t="s">
         <v>53</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G122" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W122" s="23" t="str">
         <f t="shared" si="65"/>
@@ -25364,16 +25364,16 @@
         <v/>
       </c>
       <c r="AR122" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV122" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW122" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX122" s="4" t="str">
         <f t="shared" si="95"/>
@@ -25431,19 +25431,19 @@
     </row>
     <row r="123" spans="2:64" ht="203" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123" t="s">
+        <v>438</v>
+      </c>
+      <c r="D123" t="s">
         <v>296</v>
-      </c>
-      <c r="C123" t="s">
-        <v>439</v>
-      </c>
-      <c r="D123" t="s">
-        <v>297</v>
       </c>
       <c r="E123" t="s">
         <v>54</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H123">
         <v>1100</v>
@@ -25488,7 +25488,7 @@
         <v>1900</v>
       </c>
       <c r="V123" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W123" s="23">
         <f t="shared" si="65"/>
@@ -25575,16 +25575,16 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR123" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU123" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV123" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW123" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX123" s="4" t="str">
         <f t="shared" si="95"/>
@@ -25642,19 +25642,19 @@
     </row>
     <row r="124" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D124" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W124" s="23" t="str">
         <f t="shared" si="65"/>
@@ -25741,19 +25741,19 @@
         <v/>
       </c>
       <c r="AR124" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AS124" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU124" t="s">
         <v>28</v>
       </c>
       <c r="AV124" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW124" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX124" s="4" t="str">
         <f t="shared" si="95"/>
@@ -25814,7 +25814,7 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D125" t="s">
         <v>129</v>
@@ -25910,22 +25910,22 @@
         <v/>
       </c>
       <c r="AR125" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AS125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU125" t="s">
         <v>28</v>
       </c>
       <c r="AV125" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW125" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX125" s="4" t="str">
         <f t="shared" si="95"/>
@@ -25983,19 +25983,19 @@
     </row>
     <row r="126" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D126" t="s">
         <v>147</v>
       </c>
       <c r="E126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W126" s="23" t="str">
         <f t="shared" si="65"/>
@@ -26082,16 +26082,16 @@
         <v/>
       </c>
       <c r="AR126" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AU126" t="s">
         <v>28</v>
       </c>
       <c r="AV126" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW126" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX126" s="4" t="str">
         <f t="shared" si="95"/>
@@ -26152,13 +26152,13 @@
         <v>49</v>
       </c>
       <c r="C127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D127" t="s">
         <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>51</v>
@@ -26248,16 +26248,16 @@
         <v/>
       </c>
       <c r="AR127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AU127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV127" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW127" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX127" s="4" t="str">
         <f t="shared" si="95"/>
@@ -26315,19 +26315,19 @@
     </row>
     <row r="128" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
+        <v>231</v>
+      </c>
+      <c r="C128" t="s">
+        <v>440</v>
+      </c>
+      <c r="D128" t="s">
+        <v>277</v>
+      </c>
+      <c r="E128" t="s">
+        <v>443</v>
+      </c>
+      <c r="G128" t="s">
         <v>232</v>
-      </c>
-      <c r="C128" t="s">
-        <v>441</v>
-      </c>
-      <c r="D128" t="s">
-        <v>278</v>
-      </c>
-      <c r="E128" t="s">
-        <v>444</v>
-      </c>
-      <c r="G128" t="s">
-        <v>233</v>
       </c>
       <c r="W128" s="23" t="str">
         <f t="shared" si="65"/>
@@ -26414,22 +26414,22 @@
         <v/>
       </c>
       <c r="AR128" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AS128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU128" t="s">
         <v>28</v>
       </c>
       <c r="AV128" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW128" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX128" s="4" t="str">
         <f t="shared" si="95"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318FF110-1C77-4A3A-B2AC-8797C1AE80B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0316C825-72AB-4283-BF8D-F6E9E64F1BE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="563">
   <si>
     <t>Name</t>
   </si>
@@ -696,12 +696,6 @@
     <t>642 S. College Ave, Fort Collins, CO 80524</t>
   </si>
   <si>
-    <t>Three Four Beer Co</t>
-  </si>
-  <si>
-    <t>829 S. Shields Street, #100, Fort Collins, CO 80521</t>
-  </si>
-  <si>
     <t>Tony's Bar</t>
   </si>
   <si>
@@ -837,9 +831,6 @@
     <t>https://rallykingbrewing.com/</t>
   </si>
   <si>
-    <t>$1 off guest drafts</t>
-  </si>
-  <si>
     <t>https://tonysbarfortcollins.com/</t>
   </si>
   <si>
@@ -1126,9 +1117,6 @@
   </si>
   <si>
     <t>http://www.thecoloradoroom.com</t>
-  </si>
-  <si>
-    <t>http://www.threefourbeerco.com/</t>
   </si>
   <si>
     <t>http://www.tortillamarissas.com</t>
@@ -1727,6 +1715,9 @@
   </si>
   <si>
     <t>Domenic's Restaurant</t>
+  </si>
+  <si>
+    <t>Mon - Bike in and get $2 off your tab &lt;br&gt;Tues - Tech Tuesday get $2 off if you work at a local tech company &lt;br&gt;Wed - Wear it Wed - get a free flagship pint with purchase of merch  &lt;br&gt;Thur - Trivia Night &lt;br&gt;Fri - Crowlerpalooza - $5 off a three-pack of crowler cans &lt;br&gt;Sat - $1 off with food truck purchase &lt;br&gt;Sun - Growler Sunday $3 off growler fills</t>
   </si>
 </sst>
 </file>
@@ -2678,11 +2669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BL128"/>
+  <dimension ref="B1:BL127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BJ63" sqref="BJ63"/>
+    <sheetView tabSelected="1" topLeftCell="XDV1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="XFD118" sqref="XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2767,79 +2758,79 @@
         <v>16</v>
       </c>
       <c r="W1" t="s">
+        <v>418</v>
+      </c>
+      <c r="X1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA1" t="s">
         <v>422</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>423</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>424</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>425</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>426</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>427</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>428</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>429</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>430</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>431</v>
       </c>
-      <c r="AG1" t="s">
-        <v>432</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>433</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>435</v>
-      </c>
       <c r="AK1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO1" t="s">
         <v>415</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>416</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>417</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>421</v>
       </c>
       <c r="AR1" t="s">
         <v>17</v>
       </c>
       <c r="AS1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AT1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AU1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AV1" t="s">
         <v>21</v>
@@ -2849,39 +2840,39 @@
       </c>
       <c r="AY1" s="4"/>
       <c r="BD1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BE1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="BF1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="BG1" t="s">
+        <v>440</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>441</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BL1" t="s">
         <v>444</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>445</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H2">
         <v>1600</v>
@@ -3010,10 +3001,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AU2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV2" t="b">
         <v>1</v>
@@ -3082,7 +3073,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="11" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="2:64" ht="120.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -3090,13 +3081,13 @@
         <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>142</v>
@@ -3228,16 +3219,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV3" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX3" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3298,7 +3289,7 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
         <v>147</v>
@@ -3394,16 +3385,16 @@
         <v/>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AU4" t="s">
         <v>28</v>
       </c>
       <c r="AV4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX4" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3461,19 +3452,19 @@
     </row>
     <row r="5" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="W5" s="12" t="str">
         <f t="shared" si="24"/>
@@ -3564,10 +3555,10 @@
         <v>28</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW5" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX5" s="17"/>
       <c r="AY5" s="12" t="str">
@@ -3622,13 +3613,13 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" t="s">
         <v>439</v>
-      </c>
-      <c r="D6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" t="s">
-        <v>443</v>
       </c>
       <c r="G6" t="s">
         <v>150</v>
@@ -3718,22 +3709,22 @@
         <v/>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AS6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV6" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX6" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3794,13 +3785,13 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>67</v>
@@ -3848,7 +3839,7 @@
         <v>1800</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="W7" s="23">
         <f t="shared" si="24"/>
@@ -3935,19 +3926,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AS7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX7" s="22" t="str">
         <f>_xlfn.CONCAT("{
@@ -4009,19 +4000,19 @@
     </row>
     <row r="8" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H8" s="12">
         <v>1500</v>
@@ -4066,7 +4057,7 @@
         <v>1800</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="W8" s="12">
         <f t="shared" si="24"/>
@@ -4153,19 +4144,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR8" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AS8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU8" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="AU8" s="12" t="s">
-        <v>307</v>
-      </c>
       <c r="AV8" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW8" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX8" s="17"/>
       <c r="AY8" s="12" t="str">
@@ -4220,13 +4211,13 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>111</v>
@@ -4274,7 +4265,7 @@
         <v>2400</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W9" s="23">
         <f t="shared" si="24"/>
@@ -4361,19 +4352,19 @@
         <v>9am-12am</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AS9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU9" t="s">
         <v>28</v>
       </c>
       <c r="AV9" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX9" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4431,19 +4422,19 @@
     </row>
     <row r="10" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>443</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="W10" s="12" t="str">
         <f t="shared" si="24"/>
@@ -4531,13 +4522,13 @@
       </c>
       <c r="AR10" s="15"/>
       <c r="AU10" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV10" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW10" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX10" s="17"/>
       <c r="AY10" s="12" t="str">
@@ -4589,16 +4580,16 @@
     </row>
     <row r="11" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="W11" s="12" t="str">
         <f t="shared" si="24"/>
@@ -4686,13 +4677,13 @@
       </c>
       <c r="AR11" s="15"/>
       <c r="AU11" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV11" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW11" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX11" s="17"/>
       <c r="AY11" s="12" t="str">
@@ -4747,7 +4738,7 @@
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
         <v>119</v>
@@ -4843,16 +4834,16 @@
         <v/>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AU12" t="s">
         <v>28</v>
       </c>
       <c r="AV12" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW12" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX12" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4913,13 +4904,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
         <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G13" t="s">
         <v>179</v>
@@ -4955,7 +4946,7 @@
         <v>1900</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="W13" s="23" t="str">
         <f t="shared" si="24"/>
@@ -5042,19 +5033,19 @@
         <v/>
       </c>
       <c r="AR13" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV13" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW13" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX13" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5115,13 +5106,13 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>58</v>
@@ -5169,7 +5160,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="W14" s="23">
         <f t="shared" si="24"/>
@@ -5256,19 +5247,19 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AS14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU14" t="s">
         <v>28</v>
       </c>
       <c r="AV14" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX14" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5327,15 +5318,15 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -5389,7 +5380,7 @@
         <v>2400</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="W15" s="23">
         <f t="shared" si="24"/>
@@ -5476,16 +5467,16 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR15" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AU15" t="s">
         <v>28</v>
       </c>
       <c r="AV15" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX15" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5546,7 +5537,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -5642,16 +5633,16 @@
         <v/>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AU16" t="s">
         <v>28</v>
       </c>
       <c r="AV16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX16" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5709,19 +5700,19 @@
     </row>
     <row r="17" spans="2:64" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J17">
         <v>1500</v>
@@ -5754,7 +5745,7 @@
         <v>1900</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="W17" s="23" t="str">
         <f t="shared" si="24"/>
@@ -5841,16 +5832,16 @@
         <v/>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AU17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX17" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5911,13 +5902,13 @@
         <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G18" t="s">
         <v>152</v>
@@ -5965,7 +5956,7 @@
         <v>1600</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="W18" s="23">
         <f t="shared" si="24"/>
@@ -6052,19 +6043,19 @@
         <v>11am-4pm</v>
       </c>
       <c r="AR18" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AS18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV18" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX18" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6123,24 +6114,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="2:64" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J19">
         <v>1000</v>
@@ -6179,7 +6170,7 @@
         <v>1600</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="W19" s="23" t="str">
         <f t="shared" si="24"/>
@@ -6266,16 +6257,16 @@
         <v>11am-4pm</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AU19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV19" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW19" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX19" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6334,7 +6325,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL19" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.35">
@@ -6342,13 +6333,13 @@
         <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G20" t="s">
         <v>181</v>
@@ -6384,7 +6375,7 @@
         <v>1800</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="W20" s="23" t="str">
         <f t="shared" si="24"/>
@@ -6471,19 +6462,19 @@
         <v/>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AS20" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU20" t="s">
         <v>304</v>
       </c>
-      <c r="AU20" t="s">
-        <v>307</v>
-      </c>
       <c r="AV20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX20" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6541,19 +6532,19 @@
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D21" t="s">
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P21">
         <v>1500</v>
@@ -6574,7 +6565,7 @@
         <v>1800</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="W21" s="23" t="str">
         <f t="shared" si="24"/>
@@ -6661,13 +6652,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AU21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX21" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6725,19 +6716,19 @@
     </row>
     <row r="22" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="W22" s="12" t="str">
         <f t="shared" si="24"/>
@@ -6824,13 +6815,13 @@
         <v/>
       </c>
       <c r="AU22" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV22" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW22" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX22" s="17"/>
       <c r="AY22" s="12" t="str">
@@ -6885,7 +6876,7 @@
         <v>182</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>78</v>
@@ -6981,16 +6972,16 @@
         <v/>
       </c>
       <c r="AR23" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AU23" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV23" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW23" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX23" s="17" t="str">
         <f t="shared" si="14"/>
@@ -7049,21 +7040,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL23" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="W24" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7151,13 +7142,13 @@
       </c>
       <c r="AR24" s="15"/>
       <c r="AU24" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV24" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW24" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX24" s="17"/>
       <c r="AY24" s="12" t="str">
@@ -7209,16 +7200,16 @@
     </row>
     <row r="25" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="W25" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7309,10 +7300,10 @@
         <v>28</v>
       </c>
       <c r="AV25" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW25" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX25" s="17"/>
       <c r="AY25" s="12" t="str">
@@ -7364,16 +7355,16 @@
     </row>
     <row r="26" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E26" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="W26" s="23" t="str">
         <f t="shared" si="24"/>
@@ -7463,10 +7454,10 @@
         <v>28</v>
       </c>
       <c r="AV26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX26" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7525,21 +7516,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL26" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="2:64" s="12" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>72</v>
@@ -7575,7 +7566,7 @@
         <v>1800</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="W27" s="12" t="str">
         <f t="shared" si="24"/>
@@ -7662,19 +7653,19 @@
         <v/>
       </c>
       <c r="AR27" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AS27" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU27" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV27" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW27" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX27" s="17" t="str">
         <f t="shared" si="14"/>
@@ -7732,19 +7723,19 @@
     </row>
     <row r="28" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G28" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H28">
         <v>1600</v>
@@ -7789,7 +7780,7 @@
         <v>1800</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="W28" s="23">
         <f t="shared" si="24"/>
@@ -7876,19 +7867,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AS28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV28" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW28" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX28" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7946,13 +7937,13 @@
     </row>
     <row r="29" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H29">
         <v>2100</v>
@@ -7997,7 +7988,7 @@
         <v>2300</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="W29" s="23">
         <f t="shared" si="24"/>
@@ -8084,19 +8075,19 @@
         <v>9pm-11pm</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AS29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX29" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8155,21 +8146,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL29" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
         <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G30" t="s">
         <v>184</v>
@@ -8205,7 +8196,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="W30" s="23" t="str">
         <f t="shared" si="24"/>
@@ -8292,19 +8283,19 @@
         <v/>
       </c>
       <c r="AR30" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AS30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV30" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX30" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8365,7 +8356,7 @@
         <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
@@ -8461,19 +8452,19 @@
         <v/>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AS31" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AU31" t="s">
         <v>28</v>
       </c>
       <c r="AV31" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW31" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX31" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8534,13 +8525,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>32</v>
@@ -8552,7 +8543,7 @@
         <v>2000</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="W32" s="23" t="str">
         <f t="shared" si="24"/>
@@ -8639,19 +8630,19 @@
         <v/>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AS32" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU32" t="s">
         <v>304</v>
       </c>
-      <c r="AU32" t="s">
-        <v>307</v>
-      </c>
       <c r="AV32" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW32" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX32" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8712,13 +8703,13 @@
         <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D33" t="s">
         <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G33" t="s">
         <v>155</v>
@@ -8808,16 +8799,16 @@
         <v/>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AU33" t="s">
         <v>28</v>
       </c>
       <c r="AV33" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW33" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX33" s="4" t="str">
         <f t="shared" si="14"/>
@@ -8878,13 +8869,13 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>29</v>
@@ -8920,7 +8911,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="W34" s="23" t="str">
         <f t="shared" si="24"/>
@@ -9007,22 +8998,22 @@
         <v/>
       </c>
       <c r="AR34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AS34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU34" t="s">
         <v>28</v>
       </c>
       <c r="AV34" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX34" s="4" t="str">
         <f t="shared" si="14"/>
@@ -9083,13 +9074,13 @@
         <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D35" t="s">
         <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G35" t="s">
         <v>158</v>
@@ -9113,7 +9104,7 @@
         <v>2100</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="W35" s="23">
         <f t="shared" si="24"/>
@@ -9200,19 +9191,19 @@
         <v/>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AS35" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU35" t="s">
         <v>28</v>
       </c>
       <c r="AV35" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX35" s="4" t="str">
         <f t="shared" si="14"/>
@@ -9273,13 +9264,13 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D36" t="s">
         <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>79</v>
@@ -9327,7 +9318,7 @@
         <v>2400</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="W36" s="23">
         <f t="shared" si="24"/>
@@ -9414,19 +9405,19 @@
         <v>10pm-12am</v>
       </c>
       <c r="AR36" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AS36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU36" t="s">
         <v>28</v>
       </c>
       <c r="AV36" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX36" s="4" t="str">
         <f t="shared" si="14"/>
@@ -9484,16 +9475,16 @@
     </row>
     <row r="37" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G37" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J37">
         <v>1500</v>
@@ -9526,7 +9517,7 @@
         <v>1800</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="W37" s="23" t="str">
         <f t="shared" si="24"/>
@@ -9613,7 +9604,7 @@
         <v/>
       </c>
       <c r="AR37" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AU37" t="s">
         <v>28</v>
@@ -9681,21 +9672,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E38" t="s">
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="W38" s="23" t="str">
         <f t="shared" si="24"/>
@@ -9782,7 +9773,7 @@
         <v/>
       </c>
       <c r="AU38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV38" t="b">
         <v>0</v>
@@ -9847,21 +9838,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C39" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D39" t="s">
         <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G39" t="s">
         <v>186</v>
@@ -9981,19 +9972,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR39" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AS39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU39" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV39" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW39" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX39" s="4" t="str">
         <f t="shared" si="14"/>
@@ -10054,13 +10045,13 @@
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D40" t="s">
         <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>88</v>
@@ -10150,16 +10141,16 @@
         <v/>
       </c>
       <c r="AR40" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AU40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV40" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX40" s="4" t="str">
         <f t="shared" si="14"/>
@@ -10220,13 +10211,13 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>70</v>
@@ -10316,16 +10307,16 @@
         <v/>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AU41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV41" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW41" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX41" s="4" t="str">
         <f t="shared" ref="AX41:AX74" si="62">_xlfn.CONCAT("{
@@ -10390,13 +10381,13 @@
         <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D42" t="s">
         <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G42" t="s">
         <v>161</v>
@@ -10486,19 +10477,19 @@
         <v/>
       </c>
       <c r="AR42" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AS42" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU42" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV42" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX42" s="4" t="str">
         <f t="shared" si="62"/>
@@ -10556,19 +10547,19 @@
     </row>
     <row r="43" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E43" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J43">
         <v>1630</v>
@@ -10601,7 +10592,7 @@
         <v>1900</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="W43" s="23" t="str">
         <f t="shared" si="24"/>
@@ -10688,16 +10679,16 @@
         <v/>
       </c>
       <c r="AR43" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AU43" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV43" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW43" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX43" s="4" t="str">
         <f t="shared" si="62"/>
@@ -10755,19 +10746,19 @@
     </row>
     <row r="44" spans="2:64" s="12" customFormat="1" ht="160.5" x14ac:dyDescent="0.45">
       <c r="B44" s="18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H44" s="12">
         <v>1500</v>
@@ -10812,7 +10803,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="24"/>
@@ -10899,16 +10890,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR44" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AU44" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV44" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW44" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX44" s="17" t="str">
         <f t="shared" si="62"/>
@@ -10966,16 +10957,16 @@
     </row>
     <row r="45" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B45" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W45" s="12" t="str">
         <f t="shared" si="24"/>
@@ -11062,7 +11053,7 @@
         <v/>
       </c>
       <c r="AU45" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV45" s="12" t="b">
         <v>0</v>
@@ -11127,21 +11118,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL45" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>187</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>188</v>
@@ -11231,16 +11222,16 @@
         <v/>
       </c>
       <c r="AR46" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AU46" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV46" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW46" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX46" s="17" t="str">
         <f t="shared" si="62"/>
@@ -11301,7 +11292,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>93</v>
@@ -11355,7 +11346,7 @@
         <v>1800</v>
       </c>
       <c r="V47" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W47" s="12">
         <f t="shared" si="24"/>
@@ -11442,16 +11433,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR47" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AU47" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV47" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW47" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX47" s="17" t="str">
         <f t="shared" si="62"/>
@@ -11512,7 +11503,7 @@
         <v>73</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>75</v>
@@ -11608,16 +11599,16 @@
         <v/>
       </c>
       <c r="AR48" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AU48" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV48" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW48" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX48" s="17" t="str">
         <f t="shared" si="62"/>
@@ -11675,19 +11666,19 @@
     </row>
     <row r="49" spans="2:64" s="12" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B49" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H49" s="12">
         <v>1400</v>
@@ -11732,7 +11723,7 @@
         <v>1800</v>
       </c>
       <c r="V49" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="W49" s="12">
         <f t="shared" si="24"/>
@@ -11819,19 +11810,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR49" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AS49" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU49" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="AU49" s="12" t="s">
-        <v>307</v>
-      </c>
       <c r="AV49" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW49" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX49" s="17" t="str">
         <f t="shared" si="62"/>
@@ -11889,19 +11880,19 @@
     </row>
     <row r="50" spans="2:64" s="12" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="B50" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>185</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J50" s="12">
         <v>1600</v>
@@ -11934,7 +11925,7 @@
         <v>1800</v>
       </c>
       <c r="V50" s="12" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="W50" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12021,16 +12012,16 @@
         <v/>
       </c>
       <c r="AR50" s="15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AU50" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV50" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW50" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX50" s="17" t="str">
         <f t="shared" si="62"/>
@@ -12088,13 +12079,13 @@
     </row>
     <row r="51" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="W51" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12185,10 +12176,10 @@
         <v>28</v>
       </c>
       <c r="AV51" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW51" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX51" s="17"/>
       <c r="AY51" s="12" t="str">
@@ -12243,7 +12234,7 @@
         <v>189</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>53</v>
@@ -12291,7 +12282,7 @@
         <v>2400</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="W52" s="12">
         <f t="shared" si="24"/>
@@ -12378,16 +12369,16 @@
         <v>8am-12am</v>
       </c>
       <c r="AR52" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AU52" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV52" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW52" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX52" s="17" t="str">
         <f t="shared" si="62"/>
@@ -12449,7 +12440,7 @@
         <v>191</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>53</v>
@@ -12497,7 +12488,7 @@
         <v>2400</v>
       </c>
       <c r="V53" s="12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="W53" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12584,16 +12575,16 @@
         <v>8am-12am</v>
       </c>
       <c r="AR53" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AU53" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV53" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW53" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX53" s="17" t="str">
         <f t="shared" si="62"/>
@@ -12651,16 +12642,16 @@
     </row>
     <row r="54" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="W54" s="12" t="str">
         <f t="shared" si="24"/>
@@ -12747,7 +12738,7 @@
         <v/>
       </c>
       <c r="AU54" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV54" s="12" t="b">
         <v>0</v>
@@ -12812,7 +12803,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL54" s="12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="2:64" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
@@ -12820,13 +12811,13 @@
         <v>193</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>194</v>
@@ -12916,19 +12907,19 @@
         <v/>
       </c>
       <c r="AR55" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AS55" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU55" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV55" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW55" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX55" s="17" t="str">
         <f t="shared" si="62"/>
@@ -12986,16 +12977,16 @@
     </row>
     <row r="56" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="12" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="W56" s="12" t="str">
         <f t="shared" si="24"/>
@@ -13083,13 +13074,13 @@
       </c>
       <c r="AR56" s="19"/>
       <c r="AU56" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV56" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW56" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX56" s="17"/>
       <c r="AY56" s="12" t="str">
@@ -13141,19 +13132,19 @@
     </row>
     <row r="57" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J57">
         <v>1600</v>
@@ -13192,7 +13183,7 @@
         <v>1900</v>
       </c>
       <c r="V57" s="12" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="W57" s="23" t="str">
         <f t="shared" si="24"/>
@@ -13279,16 +13270,16 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR57" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AU57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV57" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW57" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX57" s="4" t="str">
         <f t="shared" si="62"/>
@@ -13346,19 +13337,19 @@
     </row>
     <row r="58" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C58" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D58" t="s">
+        <v>389</v>
+      </c>
+      <c r="E58" t="s">
+        <v>439</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="E58" t="s">
-        <v>443</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>397</v>
       </c>
       <c r="H58">
         <v>1600</v>
@@ -13391,7 +13382,7 @@
         <v>1800</v>
       </c>
       <c r="V58" s="12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W58" s="23">
         <f t="shared" si="24"/>
@@ -13478,22 +13469,22 @@
         <v/>
       </c>
       <c r="AR58" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AS58" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT58" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU58" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV58" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW58" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX58" s="4" t="str">
         <f t="shared" si="62"/>
@@ -13552,7 +13543,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL58" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -13560,13 +13551,13 @@
         <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G59" t="s">
         <v>196</v>
@@ -13656,22 +13647,22 @@
         <v/>
       </c>
       <c r="AR59" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AS59" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT59" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU59" t="s">
         <v>28</v>
       </c>
       <c r="AV59" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX59" s="4" t="str">
         <f t="shared" si="62"/>
@@ -13732,13 +13723,13 @@
         <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D60" t="s">
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>48</v>
@@ -13828,16 +13819,16 @@
         <v/>
       </c>
       <c r="AR60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AU60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV60" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW60" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX60" s="4" t="str">
         <f t="shared" si="62"/>
@@ -13898,7 +13889,7 @@
         <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D61" t="s">
         <v>53</v>
@@ -13952,7 +13943,7 @@
         <v>2000</v>
       </c>
       <c r="V61" s="12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="W61" s="23">
         <f t="shared" si="24"/>
@@ -14039,19 +14030,19 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR61" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AS61" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU61" t="s">
         <v>304</v>
       </c>
-      <c r="AU61" t="s">
-        <v>307</v>
-      </c>
       <c r="AV61" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW61" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX61" s="4" t="str">
         <f t="shared" si="62"/>
@@ -14109,16 +14100,16 @@
     </row>
     <row r="62" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C62" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E62" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G62" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="W62" s="23" t="str">
         <f t="shared" si="24"/>
@@ -14205,7 +14196,7 @@
         <v/>
       </c>
       <c r="AU62" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV62" t="b">
         <v>0</v>
@@ -14270,7 +14261,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL62" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -14278,13 +14269,13 @@
         <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G63" t="s">
         <v>198</v>
@@ -14374,16 +14365,16 @@
         <v/>
       </c>
       <c r="AR63" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AU63" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV63" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW63" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX63" s="4" t="str">
         <f t="shared" si="62"/>
@@ -14444,13 +14435,13 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D64" t="s">
         <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>136</v>
@@ -14498,7 +14489,7 @@
         <v>1900</v>
       </c>
       <c r="V64" s="12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W64" s="23">
         <f t="shared" si="24"/>
@@ -14585,16 +14576,16 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR64" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AU64" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV64" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW64" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX64" s="4" t="str">
         <f t="shared" si="62"/>
@@ -14653,7 +14644,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL64" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="2:64" ht="145" x14ac:dyDescent="0.35">
@@ -14661,7 +14652,7 @@
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D65" t="s">
         <v>93</v>
@@ -14715,7 +14706,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="W65" s="23">
         <f t="shared" si="24"/>
@@ -14802,19 +14793,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR65" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AS65" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU65" t="s">
         <v>304</v>
       </c>
-      <c r="AU65" t="s">
-        <v>307</v>
-      </c>
       <c r="AV65" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW65" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX65" s="4" t="str">
         <f t="shared" si="62"/>
@@ -14875,7 +14866,7 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
@@ -14929,7 +14920,7 @@
         <v>1830</v>
       </c>
       <c r="V66" s="12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="W66" s="23">
         <f t="shared" si="24"/>
@@ -15016,19 +15007,19 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AS66" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU66" t="s">
         <v>304</v>
       </c>
-      <c r="AU66" t="s">
-        <v>307</v>
-      </c>
       <c r="AV66" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW66" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX66" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15076,11 +15067,11 @@
         <v>-105.078164</v>
       </c>
       <c r="BI66" s="23" t="str">
-        <f t="shared" ref="BI66:BI128" si="63">CONCATENATE("[",BG66,",",BH66,"],")</f>
+        <f t="shared" ref="BI66:BI127" si="63">CONCATENATE("[",BG66,",",BH66,"],")</f>
         <v>[40.585365,-105.078164],</v>
       </c>
       <c r="BK66" s="23" t="str">
-        <f t="shared" ref="BK66:BK128" si="64">IF(BJ66&gt;0,"&lt;img src=@img/kidicon.png@&gt;","")</f>
+        <f t="shared" ref="BK66:BK127" si="64">IF(BJ66&gt;0,"&lt;img src=@img/kidicon.png@&gt;","")</f>
         <v/>
       </c>
     </row>
@@ -15089,118 +15080,118 @@
         <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D67" t="s">
         <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>117</v>
       </c>
       <c r="V67" s="12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="W67" s="23" t="str">
-        <f t="shared" ref="W67:W128" si="65">IF(H67&gt;0,H67/100,"")</f>
+        <f t="shared" ref="W67:W127" si="65">IF(H67&gt;0,H67/100,"")</f>
         <v/>
       </c>
       <c r="X67" s="23" t="str">
-        <f t="shared" ref="X67:X128" si="66">IF(I67&gt;0,I67/100,"")</f>
+        <f t="shared" ref="X67:X127" si="66">IF(I67&gt;0,I67/100,"")</f>
         <v/>
       </c>
       <c r="Y67" s="23" t="str">
-        <f t="shared" ref="Y67:Y128" si="67">IF(J67&gt;0,J67/100,"")</f>
+        <f t="shared" ref="Y67:Y127" si="67">IF(J67&gt;0,J67/100,"")</f>
         <v/>
       </c>
       <c r="Z67" s="23" t="str">
-        <f t="shared" ref="Z67:Z128" si="68">IF(K67&gt;0,K67/100,"")</f>
+        <f t="shared" ref="Z67:Z127" si="68">IF(K67&gt;0,K67/100,"")</f>
         <v/>
       </c>
       <c r="AA67" s="23" t="str">
-        <f t="shared" ref="AA67:AA128" si="69">IF(L67&gt;0,L67/100,"")</f>
+        <f t="shared" ref="AA67:AA127" si="69">IF(L67&gt;0,L67/100,"")</f>
         <v/>
       </c>
       <c r="AB67" s="23" t="str">
-        <f t="shared" ref="AB67:AB128" si="70">IF(M67&gt;0,M67/100,"")</f>
+        <f t="shared" ref="AB67:AB127" si="70">IF(M67&gt;0,M67/100,"")</f>
         <v/>
       </c>
       <c r="AC67" s="23" t="str">
-        <f t="shared" ref="AC67:AC128" si="71">IF(N67&gt;0,N67/100,"")</f>
+        <f t="shared" ref="AC67:AC127" si="71">IF(N67&gt;0,N67/100,"")</f>
         <v/>
       </c>
       <c r="AD67" s="23" t="str">
-        <f t="shared" ref="AD67:AD128" si="72">IF(O67&gt;0,O67/100,"")</f>
+        <f t="shared" ref="AD67:AD127" si="72">IF(O67&gt;0,O67/100,"")</f>
         <v/>
       </c>
       <c r="AE67" s="23" t="str">
-        <f t="shared" ref="AE67:AE128" si="73">IF(P67&gt;0,P67/100,"")</f>
+        <f t="shared" ref="AE67:AE127" si="73">IF(P67&gt;0,P67/100,"")</f>
         <v/>
       </c>
       <c r="AF67" s="23" t="str">
-        <f t="shared" ref="AF67:AF128" si="74">IF(Q67&gt;0,Q67/100,"")</f>
+        <f t="shared" ref="AF67:AF127" si="74">IF(Q67&gt;0,Q67/100,"")</f>
         <v/>
       </c>
       <c r="AG67" s="23" t="str">
-        <f t="shared" ref="AG67:AG128" si="75">IF(R67&gt;0,R67/100,"")</f>
+        <f t="shared" ref="AG67:AG127" si="75">IF(R67&gt;0,R67/100,"")</f>
         <v/>
       </c>
       <c r="AH67" s="23" t="str">
-        <f t="shared" ref="AH67:AH128" si="76">IF(S67&gt;0,S67/100,"")</f>
+        <f t="shared" ref="AH67:AH127" si="76">IF(S67&gt;0,S67/100,"")</f>
         <v/>
       </c>
       <c r="AI67" s="23" t="str">
-        <f t="shared" ref="AI67:AI128" si="77">IF(T67&gt;0,T67/100,"")</f>
+        <f t="shared" ref="AI67:AI127" si="77">IF(T67&gt;0,T67/100,"")</f>
         <v/>
       </c>
       <c r="AJ67" s="23" t="str">
-        <f t="shared" ref="AJ67:AJ128" si="78">IF(U67&gt;0,U67/100,"")</f>
+        <f t="shared" ref="AJ67:AJ127" si="78">IF(U67&gt;0,U67/100,"")</f>
         <v/>
       </c>
       <c r="AK67" s="23" t="str">
-        <f t="shared" ref="AK67:AK123" si="79">IF(H67&gt;0,CONCATENATE(IF(W67&lt;=12,W67,W67-12),IF(OR(W67&lt;12,W67=24),"am","pm"),"-",IF(X67&lt;=12,X67,X67-12),IF(OR(X67&lt;12,X67=24),"am","pm")),"")</f>
+        <f t="shared" ref="AK67:AK122" si="79">IF(H67&gt;0,CONCATENATE(IF(W67&lt;=12,W67,W67-12),IF(OR(W67&lt;12,W67=24),"am","pm"),"-",IF(X67&lt;=12,X67,X67-12),IF(OR(X67&lt;12,X67=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AL67" s="23" t="str">
-        <f t="shared" ref="AL67:AL123" si="80">IF(J67&gt;0,CONCATENATE(IF(Y67&lt;=12,Y67,Y67-12),IF(OR(Y67&lt;12,Y67=24),"am","pm"),"-",IF(Z67&lt;=12,Z67,Z67-12),IF(OR(Z67&lt;12,Z67=24),"am","pm")),"")</f>
+        <f t="shared" ref="AL67:AL122" si="80">IF(J67&gt;0,CONCATENATE(IF(Y67&lt;=12,Y67,Y67-12),IF(OR(Y67&lt;12,Y67=24),"am","pm"),"-",IF(Z67&lt;=12,Z67,Z67-12),IF(OR(Z67&lt;12,Z67=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AM67" s="23" t="str">
-        <f t="shared" ref="AM67:AM123" si="81">IF(L67&gt;0,CONCATENATE(IF(AA67&lt;=12,AA67,AA67-12),IF(OR(AA67&lt;12,AA67=24),"am","pm"),"-",IF(AB67&lt;=12,AB67,AB67-12),IF(OR(AB67&lt;12,AB67=24),"am","pm")),"")</f>
+        <f t="shared" ref="AM67:AM122" si="81">IF(L67&gt;0,CONCATENATE(IF(AA67&lt;=12,AA67,AA67-12),IF(OR(AA67&lt;12,AA67=24),"am","pm"),"-",IF(AB67&lt;=12,AB67,AB67-12),IF(OR(AB67&lt;12,AB67=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AN67" s="23" t="str">
-        <f t="shared" ref="AN67:AN123" si="82">IF(N67&gt;0,CONCATENATE(IF(AC67&lt;=12,AC67,AC67-12),IF(OR(AC67&lt;12,AC67=24),"am","pm"),"-",IF(AD67&lt;=12,AD67,AD67-12),IF(OR(AD67&lt;12,AD67=24),"am","pm")),"")</f>
+        <f t="shared" ref="AN67:AN122" si="82">IF(N67&gt;0,CONCATENATE(IF(AC67&lt;=12,AC67,AC67-12),IF(OR(AC67&lt;12,AC67=24),"am","pm"),"-",IF(AD67&lt;=12,AD67,AD67-12),IF(OR(AD67&lt;12,AD67=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AO67" s="23" t="str">
-        <f t="shared" ref="AO67:AO123" si="83">IF(O67&gt;0,CONCATENATE(IF(AE67&lt;=12,AE67,AE67-12),IF(OR(AE67&lt;12,AE67=24),"am","pm"),"-",IF(AF67&lt;=12,AF67,AF67-12),IF(OR(AF67&lt;12,AF67=24),"am","pm")),"")</f>
+        <f t="shared" ref="AO67:AO122" si="83">IF(O67&gt;0,CONCATENATE(IF(AE67&lt;=12,AE67,AE67-12),IF(OR(AE67&lt;12,AE67=24),"am","pm"),"-",IF(AF67&lt;=12,AF67,AF67-12),IF(OR(AF67&lt;12,AF67=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AP67" s="23" t="str">
-        <f t="shared" ref="AP67:AP123" si="84">IF(R67&gt;0,CONCATENATE(IF(AG67&lt;=12,AG67,AG67-12),IF(OR(AG67&lt;12,AG67=24),"am","pm"),"-",IF(AH67&lt;=12,AH67,AH67-12),IF(OR(AH67&lt;12,AH67=24),"am","pm")),"")</f>
+        <f t="shared" ref="AP67:AP122" si="84">IF(R67&gt;0,CONCATENATE(IF(AG67&lt;=12,AG67,AG67-12),IF(OR(AG67&lt;12,AG67=24),"am","pm"),"-",IF(AH67&lt;=12,AH67,AH67-12),IF(OR(AH67&lt;12,AH67=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AQ67" s="23" t="str">
-        <f t="shared" ref="AQ67:AQ123" si="85">IF(T67&gt;0,CONCATENATE(IF(AI67&lt;=12,AI67,AI67-12),IF(OR(AI67&lt;12,AI67=24),"am","pm"),"-",IF(AJ67&lt;=12,AJ67,AJ67-12),IF(OR(AJ67&lt;12,AJ67=24),"am","pm")),"")</f>
+        <f t="shared" ref="AQ67:AQ122" si="85">IF(T67&gt;0,CONCATENATE(IF(AI67&lt;=12,AI67,AI67-12),IF(OR(AI67&lt;12,AI67=24),"am","pm"),"-",IF(AJ67&lt;=12,AJ67,AJ67-12),IF(OR(AJ67&lt;12,AJ67=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AS67" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU67" t="s">
         <v>28</v>
       </c>
       <c r="AV67" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW67" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX67" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15261,7 +15252,7 @@
         <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D68" t="s">
         <v>132</v>
@@ -15357,16 +15348,16 @@
         <v/>
       </c>
       <c r="AR68" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AU68" t="s">
         <v>28</v>
       </c>
       <c r="AV68" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW68" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX68" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15427,7 +15418,7 @@
         <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D69" t="s">
         <v>96</v>
@@ -15523,16 +15514,16 @@
         <v/>
       </c>
       <c r="AR69" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AU69" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV69" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW69" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX69" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15593,13 +15584,13 @@
         <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D70" t="s">
         <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G70" t="s">
         <v>165</v>
@@ -15629,7 +15620,7 @@
         <v>1800</v>
       </c>
       <c r="V70" s="12" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="W70" s="23" t="str">
         <f t="shared" si="65"/>
@@ -15716,19 +15707,19 @@
         <v/>
       </c>
       <c r="AR70" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AS70" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU70" t="s">
         <v>304</v>
       </c>
-      <c r="AU70" t="s">
-        <v>307</v>
-      </c>
       <c r="AV70" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW70" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX70" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15738,35 +15729,35 @@
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Margarita Monday&lt;br&gt;all day:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate  and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box&lt;br&gt;&lt;br&gt;Tequila Tuesday&lt;br&gt;4 pm-close:&lt;br&gt;1/2 off tequila&lt;br&gt;&lt;br&gt;3-6 pm:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;3-6 pm:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box&lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;3-6 pm:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box&lt;br&gt;&lt;br&gt;4pm-close&lt;br&gt;College Night&lt;br&gt;&lt;br&gt;Sunday&lt;br&gt;3-6 pm:&lt;br&gt;$5 margaritas- Jefe, Del Sol, Pomegranate and Original &lt;br&gt;$3 drafts-&lt;br&gt;$5 lunch box", 'link':"http://www.laluzgrill.com", 'pricing':"med",   'phone-number': "", 'address': "200 Walnut Street, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY70" s="23" t="str">
-        <f t="shared" ref="AY70:AY128" si="86">IF(AS70&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
+        <f t="shared" ref="AY70:AY127" si="86">IF(AS70&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
         <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
       <c r="AZ70" s="23" t="str">
-        <f t="shared" ref="AZ70:AZ128" si="87">IF(AT70&gt;0,"&lt;img src=@img/pets.png@&gt;","")</f>
+        <f t="shared" ref="AZ70:AZ127" si="87">IF(AT70&gt;0,"&lt;img src=@img/pets.png@&gt;","")</f>
         <v/>
       </c>
       <c r="BA70" s="23" t="str">
-        <f t="shared" ref="BA70:BA128" si="88">IF(AU70="hard","&lt;img src=@img/hard.png@&gt;",IF(AU70="medium","&lt;img src=@img/medium.png@&gt;",IF(AU70="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
+        <f t="shared" ref="BA70:BA127" si="88">IF(AU70="hard","&lt;img src=@img/hard.png@&gt;",IF(AU70="medium","&lt;img src=@img/medium.png@&gt;",IF(AU70="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
         <v>&lt;img src=@img/hard.png@&gt;</v>
       </c>
       <c r="BB70" s="23" t="str">
-        <f t="shared" ref="BB70:BB128" si="89">IF(AV70="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
+        <f t="shared" ref="BB70:BB127" si="89">IF(AV70="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
         <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC70" s="23" t="str">
-        <f t="shared" ref="BC70:BC128" si="90">IF(AW70="true","&lt;img src=@img/foodicon.png@&gt;","")</f>
+        <f t="shared" ref="BC70:BC127" si="90">IF(AW70="true","&lt;img src=@img/foodicon.png@&gt;","")</f>
         <v/>
       </c>
       <c r="BD70" s="23" t="str">
-        <f t="shared" ref="BD70:BD128" si="91">CONCATENATE(AY70,AZ70,BA70,BB70,BC70,BK70)</f>
+        <f t="shared" ref="BD70:BD127" si="91">CONCATENATE(AY70,AZ70,BA70,BB70,BC70,BK70)</f>
         <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/hard.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE70" s="23" t="str">
-        <f t="shared" ref="BE70:BE128" si="92">CONCATENATE(IF(AS70&gt;0,"outdoor ",""),IF(AT70&gt;0,"pet ",""),IF(AV70="true","drink ",""),IF(AW70="true","food ",""),AU70," ",E70," ",C70,IF(BJ70=TRUE," kid",""))</f>
+        <f t="shared" ref="BE70:BE127" si="92">CONCATENATE(IF(AS70&gt;0,"outdoor ",""),IF(AT70&gt;0,"pet ",""),IF(AV70="true","drink ",""),IF(AW70="true","food ",""),AU70," ",E70," ",C70,IF(BJ70=TRUE," kid",""))</f>
         <v>outdoor drink hard med old</v>
       </c>
       <c r="BF70" s="23" t="str">
-        <f t="shared" ref="BF70:BF128" si="93">IF(C70="old","Old Town",IF(C70="campus","Near Campus",IF(C70="sfoco", "South Foco",IF(C70="nfoco","North Foco",IF(C70="midtown","Midtown",IF(C70="cwest","Campus West",""))))))</f>
+        <f t="shared" ref="BF70:BF127" si="93">IF(C70="old","Old Town",IF(C70="campus","Near Campus",IF(C70="sfoco", "South Foco",IF(C70="nfoco","North Foco",IF(C70="midtown","Midtown",IF(C70="cwest","Campus West",""))))))</f>
         <v>Old Town</v>
       </c>
       <c r="BG70">
@@ -15786,19 +15777,19 @@
     </row>
     <row r="71" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C71" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D71" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E71" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H71">
         <v>1600</v>
@@ -15837,7 +15828,7 @@
         <v>1900</v>
       </c>
       <c r="V71" s="12" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="W71" s="23">
         <f t="shared" si="65"/>
@@ -15924,16 +15915,16 @@
         <v/>
       </c>
       <c r="AR71" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AU71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV71" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW71" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX71" s="4" t="str">
         <f t="shared" si="62"/>
@@ -15994,13 +15985,13 @@
         <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D72" t="s">
         <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>108</v>
@@ -16048,7 +16039,7 @@
         <v>1800</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="W72" s="23">
         <f t="shared" si="65"/>
@@ -16135,19 +16126,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR72" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AS72" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU72" t="s">
         <v>28</v>
       </c>
       <c r="AV72" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW72" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX72" s="4" t="str">
         <f t="shared" si="62"/>
@@ -16205,19 +16196,19 @@
     </row>
     <row r="73" spans="2:64" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D73" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H73">
         <v>1100</v>
@@ -16262,7 +16253,7 @@
         <v>1900</v>
       </c>
       <c r="V73" s="12" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="W73" s="23">
         <f t="shared" si="65"/>
@@ -16349,16 +16340,16 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR73" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AU73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV73" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW73" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX73" s="4" t="str">
         <f t="shared" si="62"/>
@@ -16416,19 +16407,19 @@
     </row>
     <row r="74" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C74" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D74" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E74" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W74" s="23" t="str">
         <f t="shared" si="65"/>
@@ -16515,19 +16506,19 @@
         <v/>
       </c>
       <c r="AR74" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AS74" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU74" t="s">
         <v>28</v>
       </c>
       <c r="AV74" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW74" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX74" s="4" t="str">
         <f t="shared" si="62"/>
@@ -16585,19 +16576,19 @@
     </row>
     <row r="75" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C75" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D75" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E75" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H75">
         <v>1500</v>
@@ -16642,7 +16633,7 @@
         <v>1800</v>
       </c>
       <c r="V75" s="12" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="W75" s="23">
         <f t="shared" si="65"/>
@@ -16729,16 +16720,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR75" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AU75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV75" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW75" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX75" s="4" t="str">
         <f t="shared" ref="AX75:AX106" si="94">_xlfn.CONCAT("{
@@ -16803,10 +16794,10 @@
         <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
         <v>54</v>
@@ -16899,22 +16890,22 @@
         <v/>
       </c>
       <c r="AR76" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AS76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT76" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU76" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV76" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW76" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX76" s="4" t="str">
         <f t="shared" si="94"/>
@@ -16975,7 +16966,7 @@
         <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D77" t="s">
         <v>63</v>
@@ -17071,16 +17062,16 @@
         <v/>
       </c>
       <c r="AR77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AU77" t="s">
         <v>28</v>
       </c>
       <c r="AV77" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW77" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX77" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17141,13 +17132,13 @@
         <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D78" t="s">
         <v>187</v>
       </c>
       <c r="E78" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G78" t="s">
         <v>201</v>
@@ -17237,16 +17228,16 @@
         <v/>
       </c>
       <c r="AR78" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AU78" t="s">
         <v>28</v>
       </c>
       <c r="AV78" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW78" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX78" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17304,19 +17295,19 @@
     </row>
     <row r="79" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C79" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D79" t="s">
         <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="W79" s="23" t="str">
         <f t="shared" si="65"/>
@@ -17403,19 +17394,19 @@
         <v/>
       </c>
       <c r="AR79" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AS79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU79" t="s">
         <v>28</v>
       </c>
       <c r="AV79" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW79" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX79" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17474,7 +17465,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL79" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="2:64" ht="159.5" x14ac:dyDescent="0.35">
@@ -17482,7 +17473,7 @@
         <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D80" t="s">
         <v>104</v>
@@ -17536,7 +17527,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="12" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="W80" s="23">
         <f t="shared" si="65"/>
@@ -17623,19 +17614,19 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR80" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AS80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU80" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV80" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW80" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX80" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17696,7 +17687,7 @@
         <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D81" t="s">
         <v>154</v>
@@ -17750,7 +17741,7 @@
         <v>1900</v>
       </c>
       <c r="V81" s="12" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="W81" s="23">
         <f t="shared" si="65"/>
@@ -17837,16 +17828,16 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR81" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AU81" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV81" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW81" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX81" s="4" t="str">
         <f t="shared" si="94"/>
@@ -17907,13 +17898,13 @@
         <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G82" t="s">
         <v>203</v>
@@ -18003,22 +17994,22 @@
         <v/>
       </c>
       <c r="AR82" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AS82" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT82" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU82" t="s">
         <v>28</v>
       </c>
       <c r="AV82" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW82" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX82" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18079,13 +18070,13 @@
         <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D83" t="s">
         <v>57</v>
       </c>
       <c r="E83" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G83" t="s">
         <v>171</v>
@@ -18121,7 +18112,7 @@
         <v>1800</v>
       </c>
       <c r="V83" s="12" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="W83" s="23" t="str">
         <f t="shared" si="65"/>
@@ -18208,19 +18199,19 @@
         <v/>
       </c>
       <c r="AR83" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AS83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU83" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV83" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW83" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX83" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18279,7 +18270,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL83" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -18287,13 +18278,13 @@
         <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D84" t="s">
         <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>125</v>
@@ -18383,16 +18374,16 @@
         <v/>
       </c>
       <c r="AR84" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AU84" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV84" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW84" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX84" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18453,13 +18444,13 @@
         <v>204</v>
       </c>
       <c r="C85" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E85" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G85" t="s">
         <v>205</v>
@@ -18549,22 +18540,22 @@
         <v/>
       </c>
       <c r="AR85" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AS85" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT85" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU85" t="s">
         <v>28</v>
       </c>
       <c r="AV85" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW85" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX85" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18625,13 +18616,13 @@
         <v>143</v>
       </c>
       <c r="C86" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D86" t="s">
         <v>144</v>
       </c>
       <c r="E86" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>145</v>
@@ -18721,16 +18712,16 @@
         <v/>
       </c>
       <c r="AR86" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AU86" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV86" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW86" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX86" s="4" t="str">
         <f t="shared" si="94"/>
@@ -18788,16 +18779,16 @@
     </row>
     <row r="87" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E87" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G87" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="W87" s="23" t="str">
         <f t="shared" si="65"/>
@@ -18884,7 +18875,7 @@
         <v/>
       </c>
       <c r="AU87" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV87" t="b">
         <v>0</v>
@@ -18949,7 +18940,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL87" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -18957,7 +18948,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D88" t="s">
         <v>90</v>
@@ -19011,7 +19002,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="W88" s="23">
         <f t="shared" si="65"/>
@@ -19098,19 +19089,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR88" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AS88" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU88" t="s">
         <v>304</v>
       </c>
-      <c r="AU88" t="s">
-        <v>307</v>
-      </c>
       <c r="AV88" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW88" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX88" s="4" t="str">
         <f t="shared" si="94"/>
@@ -19171,13 +19162,13 @@
         <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D89" t="s">
         <v>78</v>
       </c>
       <c r="E89" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G89" t="s">
         <v>207</v>
@@ -19225,7 +19216,7 @@
         <v>1800</v>
       </c>
       <c r="V89" s="13" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="W89" s="23">
         <f t="shared" si="65"/>
@@ -19312,16 +19303,16 @@
         <v>10am-6pm</v>
       </c>
       <c r="AR89" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AU89" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV89" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW89" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX89" s="4" t="str">
         <f t="shared" si="94"/>
@@ -19382,13 +19373,13 @@
         <v>208</v>
       </c>
       <c r="C90" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E90" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G90" t="s">
         <v>209</v>
@@ -19478,19 +19469,19 @@
         <v/>
       </c>
       <c r="AR90" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AS90" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU90" t="s">
         <v>304</v>
       </c>
-      <c r="AU90" t="s">
-        <v>307</v>
-      </c>
       <c r="AV90" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW90" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX90" s="4" t="str">
         <f t="shared" si="94"/>
@@ -19548,16 +19539,16 @@
     </row>
     <row r="91" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C91" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E91" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G91" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J91">
         <v>1500</v>
@@ -19647,7 +19638,7 @@
         <v/>
       </c>
       <c r="AU91" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV91" t="b">
         <v>1</v>
@@ -19712,7 +19703,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL91" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -19720,13 +19711,13 @@
         <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E92" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G92" t="s">
         <v>211</v>
@@ -19816,22 +19807,22 @@
         <v/>
       </c>
       <c r="AR92" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AS92" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT92" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU92" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV92" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW92" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX92" s="4" t="str">
         <f t="shared" si="94"/>
@@ -19892,7 +19883,7 @@
         <v>172</v>
       </c>
       <c r="C93" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D93" t="s">
         <v>173</v>
@@ -19940,7 +19931,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="W93" s="23" t="str">
         <f t="shared" si="65"/>
@@ -20027,16 +20018,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR93" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AU93" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV93" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW93" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX93" s="4" t="str">
         <f t="shared" si="94"/>
@@ -20097,13 +20088,13 @@
         <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D94" t="s">
         <v>44</v>
       </c>
       <c r="E94" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>45</v>
@@ -20223,19 +20214,19 @@
         <v/>
       </c>
       <c r="AR94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AS94" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU94" t="s">
         <v>304</v>
       </c>
-      <c r="AU94" t="s">
-        <v>307</v>
-      </c>
       <c r="AV94" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW94" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX94" s="4" t="str">
         <f t="shared" si="94"/>
@@ -20296,13 +20287,13 @@
         <v>212</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>214</v>
@@ -20350,7 +20341,7 @@
         <v>2000</v>
       </c>
       <c r="V95" s="12" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="W95" s="12">
         <f t="shared" si="65"/>
@@ -20437,19 +20428,19 @@
         <v>4pm-8pm</v>
       </c>
       <c r="AR95" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AS95" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU95" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AV95" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW95" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX95" s="17" t="str">
         <f t="shared" si="94"/>
@@ -20510,7 +20501,7 @@
         <v>59</v>
       </c>
       <c r="C96" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D96" t="s">
         <v>60</v>
@@ -20606,16 +20597,16 @@
         <v/>
       </c>
       <c r="AR96" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AU96" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV96" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW96" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX96" s="4" t="str">
         <f t="shared" si="94"/>
@@ -20673,16 +20664,16 @@
     </row>
     <row r="97" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C97" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E97" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G97" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="W97" s="23" t="str">
         <f t="shared" si="65"/>
@@ -20769,7 +20760,7 @@
         <v/>
       </c>
       <c r="AU97" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV97" t="b">
         <v>1</v>
@@ -20834,7 +20825,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL97" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -20842,13 +20833,13 @@
         <v>215</v>
       </c>
       <c r="C98" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D98" t="s">
         <v>216</v>
       </c>
       <c r="E98" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G98" t="s">
         <v>217</v>
@@ -20938,16 +20929,16 @@
         <v/>
       </c>
       <c r="AR98" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AU98" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV98" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW98" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX98" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21005,16 +20996,16 @@
     </row>
     <row r="99" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C99" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
       </c>
       <c r="G99" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="W99" s="23" t="str">
         <f t="shared" si="65"/>
@@ -21101,7 +21092,7 @@
         <v/>
       </c>
       <c r="AU99" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV99" t="b">
         <v>0</v>
@@ -21166,24 +21157,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL99" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C100" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D100" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E100" t="s">
         <v>54</v>
       </c>
       <c r="G100" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="W100" s="23" t="str">
         <f t="shared" si="65"/>
@@ -21270,16 +21261,16 @@
         <v/>
       </c>
       <c r="AR100" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AU100" t="s">
         <v>28</v>
       </c>
       <c r="AV100" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW100" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX100" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21337,19 +21328,19 @@
     </row>
     <row r="101" spans="2:64" ht="145" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C101" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D101" t="s">
         <v>93</v>
       </c>
       <c r="E101" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H101">
         <v>1100</v>
@@ -21388,7 +21379,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="12" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="W101" s="23">
         <f t="shared" si="65"/>
@@ -21463,7 +21454,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AO101" s="23" t="str">
-        <f t="shared" si="83"/>
+        <f>IF(O101&gt;0,CONCATENATE(IF(AE101&lt;=12,AE101,AE101-12),IF(OR(AE101&lt;12,AE101=24),"am","pm"),"-",IF(AF101&lt;=12,AF101,AF101-12),IF(OR(AF101&lt;12,AF101=24),"am","pm")),"")</f>
         <v>3pm-6pm</v>
       </c>
       <c r="AP101" s="23" t="str">
@@ -21475,19 +21466,19 @@
         <v/>
       </c>
       <c r="AR101" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AS101" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU101" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV101" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW101" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX101" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21543,53 +21534,94 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E102" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G102" t="s">
         <v>219</v>
       </c>
-      <c r="W102" s="23" t="str">
+      <c r="H102">
+        <v>1200</v>
+      </c>
+      <c r="I102">
+        <v>2000</v>
+      </c>
+      <c r="J102">
+        <v>1400</v>
+      </c>
+      <c r="K102">
+        <v>2000</v>
+      </c>
+      <c r="L102" s="23">
+        <v>1400</v>
+      </c>
+      <c r="M102" s="23">
+        <v>2000</v>
+      </c>
+      <c r="N102" s="23">
+        <v>1400</v>
+      </c>
+      <c r="O102" s="23">
+        <v>2000</v>
+      </c>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="23">
+        <v>1400</v>
+      </c>
+      <c r="S102" s="23">
+        <v>2000</v>
+      </c>
+      <c r="T102" s="23">
+        <v>1200</v>
+      </c>
+      <c r="U102" s="23">
+        <v>2000</v>
+      </c>
+      <c r="V102" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="W102" s="23">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="X102" s="23" t="str">
+        <v>12</v>
+      </c>
+      <c r="X102" s="23">
         <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="Y102" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="Y102" s="23">
         <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="Z102" s="23" t="str">
+        <v>14</v>
+      </c>
+      <c r="Z102" s="23">
         <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="AA102" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="AA102" s="23">
         <f t="shared" si="69"/>
-        <v/>
-      </c>
-      <c r="AB102" s="23" t="str">
+        <v>14</v>
+      </c>
+      <c r="AB102" s="23">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="AC102" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="AC102" s="23">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AD102" s="23" t="str">
+        <v>14</v>
+      </c>
+      <c r="AD102" s="23">
         <f t="shared" si="72"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AE102" s="23" t="str">
         <f t="shared" si="73"/>
@@ -21599,74 +21631,74 @@
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="AG102" s="23" t="str">
+      <c r="AG102" s="23">
         <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AH102" s="23" t="str">
+        <v>14</v>
+      </c>
+      <c r="AH102" s="23">
         <f t="shared" si="76"/>
-        <v/>
-      </c>
-      <c r="AI102" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="AI102" s="23">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="AJ102" s="23" t="str">
+        <v>12</v>
+      </c>
+      <c r="AJ102" s="23">
         <f t="shared" si="78"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AK102" s="23" t="str">
         <f t="shared" si="79"/>
-        <v/>
+        <v>12pm-8pm</v>
       </c>
       <c r="AL102" s="23" t="str">
         <f t="shared" si="80"/>
-        <v/>
+        <v>2pm-8pm</v>
       </c>
       <c r="AM102" s="23" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>2pm-8pm</v>
       </c>
       <c r="AN102" s="23" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f>IF(N102&gt;0,CONCATENATE(IF(AC102&lt;=12,AC102,AC102-12),IF(OR(AC102&lt;12,AC102=24),"am","pm"),"-",IF(AD102&lt;=12,AD102,AD102-12),IF(OR(AD102&lt;12,AD102=24),"am","pm")),"")</f>
+        <v>2pm-8pm</v>
       </c>
       <c r="AO102" s="23" t="str">
-        <f t="shared" si="83"/>
+        <f>IF(P102&gt;0,CONCATENATE(IF(AE102&lt;=12,AE102,AE102-12),IF(OR(AE102&lt;12,AE102=24),"am","pm"),"-",IF(AF102&lt;=12,AF102,AF102-12),IF(OR(AF102&lt;12,AF102=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AP102" s="23" t="str">
         <f t="shared" si="84"/>
-        <v/>
+        <v>2pm-8pm</v>
       </c>
       <c r="AQ102" s="23" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>12pm-8pm</v>
       </c>
       <c r="AR102" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AS102" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AT102" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU102" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV102" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AW102" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX102" s="4" t="str">
         <f t="shared" si="94"/>
         <v>{
     'name': "Snowbank Brewing",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.snowbank.beer/", 'pricing':"med",   'phone-number': "", 'address': "225 N. Lemay Avenue, Suite 1, Fort Collins, CO 80524", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"1200", 'sunday-end':"2000", 'monday-start':"1400", 'monday-end':"2000", 'tuesday-start':"1400", 'tuesday-end':"2000", 'wednesday-start':"1400", 'wednesday-end':"2000", 'thursday-start':"", 'thursday-end':"", 'friday-start':"1400", 'friday-end':"2000", 'saturday-start':"1200", 'saturday-end':"2000"},  'description': "Mon - Bike in and get $2 off your tab &lt;br&gt;Tues - Tech Tuesday get $2 off if you work at a local tech company &lt;br&gt;Wed - Wear it Wed - get a free flagship pint with purchase of merch  &lt;br&gt;Thur - Trivia Night &lt;br&gt;Fri - Crowlerpalooza - $5 off a three-pack of crowler cans &lt;br&gt;Sat - $1 off with food truck purchase &lt;br&gt;Sun - Growler Sunday $3 off growler fills", 'link':"http://www.snowbank.beer/", 'pricing':"med",   'phone-number': "", 'address': "225 N. Lemay Avenue, Suite 1, Fort Collins, CO 80524", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY102" s="23" t="str">
         <f t="shared" si="86"/>
@@ -21682,7 +21714,7 @@
       </c>
       <c r="BB102" s="23" t="str">
         <f t="shared" si="89"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC102" s="23" t="str">
         <f t="shared" si="90"/>
@@ -21690,11 +21722,11 @@
       </c>
       <c r="BD102" s="23" t="str">
         <f t="shared" si="91"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE102" s="23" t="str">
         <f t="shared" si="92"/>
-        <v>outdoor pet easy med old</v>
+        <v>outdoor pet drink easy med old</v>
       </c>
       <c r="BF102" s="23" t="str">
         <f t="shared" si="93"/>
@@ -21717,19 +21749,19 @@
     </row>
     <row r="103" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C103" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E103" t="s">
         <v>35</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H103">
         <v>1600</v>
@@ -21774,7 +21806,7 @@
         <v>1800</v>
       </c>
       <c r="V103" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="W103" s="23">
         <f t="shared" si="65"/>
@@ -21861,16 +21893,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR103" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AU103" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV103" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW103" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX103" s="4" t="str">
         <f t="shared" si="94"/>
@@ -21931,7 +21963,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>104</v>
@@ -21979,7 +22011,7 @@
         <v>1900</v>
       </c>
       <c r="V104" s="12" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="W104" s="12">
         <f t="shared" si="65"/>
@@ -22066,16 +22098,16 @@
         <v/>
       </c>
       <c r="AR104" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AU104" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV104" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW104" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX104" s="17" t="str">
         <f t="shared" si="94"/>
@@ -22136,7 +22168,7 @@
         <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D105" t="s">
         <v>138</v>
@@ -22232,16 +22264,16 @@
         <v/>
       </c>
       <c r="AR105" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV105" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW105" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX105" s="4" t="str">
         <f t="shared" si="94"/>
@@ -22300,7 +22332,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL105" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -22308,7 +22340,7 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D106" t="s">
         <v>119</v>
@@ -22404,16 +22436,16 @@
         <v/>
       </c>
       <c r="AR106" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AU106" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV106" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW106" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX106" s="4" t="str">
         <f t="shared" si="94"/>
@@ -22474,13 +22506,13 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D107" t="s">
         <v>41</v>
       </c>
       <c r="E107" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>42</v>
@@ -22570,22 +22602,22 @@
         <v/>
       </c>
       <c r="AR107" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AS107" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU107" t="s">
         <v>28</v>
       </c>
       <c r="AV107" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW107" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX107" s="4" t="str">
-        <f t="shared" ref="AX107:AX128" si="95">_xlfn.CONCAT("{
+        <f t="shared" ref="AX107:AX127" si="95">_xlfn.CONCAT("{
     'name': """,B107,""",
     'area': ","""",C107,""",",
 "'hours': {
@@ -22645,7 +22677,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL107" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
@@ -22653,13 +22685,13 @@
         <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>39</v>
@@ -22707,7 +22739,7 @@
         <v>1400</v>
       </c>
       <c r="V108" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W108" s="23">
         <f t="shared" si="65"/>
@@ -22794,16 +22826,16 @@
         <v>11.3am-2pm</v>
       </c>
       <c r="AR108" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AU108" t="s">
         <v>28</v>
       </c>
       <c r="AV108" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW108" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX108" s="4" t="str">
         <f t="shared" si="95"/>
@@ -22861,16 +22893,16 @@
     </row>
     <row r="109" spans="2:64" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H109" s="12">
         <v>1500</v>
@@ -22915,7 +22947,7 @@
         <v>2400</v>
       </c>
       <c r="V109" s="12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="W109" s="12">
         <f t="shared" si="65"/>
@@ -23002,13 +23034,13 @@
         <v>3pm-12am</v>
       </c>
       <c r="AU109" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV109" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW109" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX109" s="17"/>
       <c r="AY109" s="12" t="str">
@@ -23060,19 +23092,19 @@
     </row>
     <row r="110" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C110" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D110" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E110" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W110" s="23" t="str">
         <f t="shared" si="65"/>
@@ -23159,16 +23191,16 @@
         <v/>
       </c>
       <c r="AR110" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AU110" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV110" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW110" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX110" s="4" t="str">
         <f t="shared" si="95"/>
@@ -23229,13 +23261,13 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D111" t="s">
         <v>113</v>
       </c>
       <c r="E111" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>114</v>
@@ -23355,16 +23387,16 @@
         <v/>
       </c>
       <c r="AR111" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AU111" t="s">
         <v>28</v>
       </c>
       <c r="AV111" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW111" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX111" s="4" t="str">
         <f t="shared" si="95"/>
@@ -23425,13 +23457,13 @@
         <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D112" t="s">
         <v>81</v>
       </c>
       <c r="E112" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>82</v>
@@ -23521,19 +23553,19 @@
         <v/>
       </c>
       <c r="AR112" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AS112" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU112" t="s">
         <v>304</v>
       </c>
-      <c r="AU112" t="s">
-        <v>307</v>
-      </c>
       <c r="AV112" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW112" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX112" s="4" t="str">
         <f t="shared" si="95"/>
@@ -23591,16 +23623,16 @@
     </row>
     <row r="113" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C113" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="W113" s="23" t="str">
         <f t="shared" si="65"/>
@@ -23687,7 +23719,7 @@
         <v/>
       </c>
       <c r="AU113" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV113" t="b">
         <v>0</v>
@@ -23752,7 +23784,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL113" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="2:64" ht="116" x14ac:dyDescent="0.35">
@@ -23760,7 +23792,7 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D114" t="s">
         <v>101</v>
@@ -23856,16 +23888,16 @@
         <v/>
       </c>
       <c r="AR114" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AU114" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AV114" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW114" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX114" s="4" t="str">
         <f t="shared" si="95"/>
@@ -23926,7 +23958,7 @@
         <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D115" t="s">
         <v>84</v>
@@ -24022,19 +24054,19 @@
         <v/>
       </c>
       <c r="AR115" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AS115" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AU115" t="s">
         <v>28</v>
       </c>
       <c r="AV115" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AW115" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AX115" s="4" t="str">
         <f t="shared" si="95"/>
@@ -24095,13 +24127,13 @@
         <v>220</v>
       </c>
       <c r="C116" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D116" t="s">
         <v>90</v>
       </c>
       <c r="E116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G116" t="s">
         <v>221</v>
@@ -24137,7 +24169,7 @@
         <v>1800</v>
       </c>
       <c r="V116" s="12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="W116" s="23" t="str">
         <f t="shared" si="65"/>
@@ -24224,16 +24256,16 @@
         <v/>
       </c>
       <c r="AR116" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AU116" t="s">
         <v>28</v>
       </c>
       <c r="AV116" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW116" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX116" s="4" t="str">
         <f t="shared" si="95"/>
@@ -24294,7 +24326,7 @@
         <v>175</v>
       </c>
       <c r="C117" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D117" t="s">
         <v>176</v>
@@ -24336,7 +24368,7 @@
         <v>1800</v>
       </c>
       <c r="V117" s="12" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="W117" s="23" t="str">
         <f t="shared" si="65"/>
@@ -24423,16 +24455,16 @@
         <v/>
       </c>
       <c r="AR117" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AU117" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AV117" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AW117" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AX117" s="4" t="str">
         <f t="shared" si="95"/>
@@ -24488,56 +24520,26 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:64" ht="116" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="C118" t="s">
-        <v>317</v>
-      </c>
-      <c r="D118" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="E118" t="s">
-        <v>443</v>
+        <v>54</v>
       </c>
       <c r="G118" t="s">
-        <v>223</v>
-      </c>
-      <c r="H118">
-        <v>1800</v>
-      </c>
-      <c r="I118">
-        <v>2400</v>
-      </c>
-      <c r="L118">
-        <v>1500</v>
-      </c>
-      <c r="M118">
-        <v>1800</v>
-      </c>
-      <c r="N118">
-        <v>1500</v>
-      </c>
-      <c r="O118">
-        <v>1800</v>
-      </c>
-      <c r="P118">
-        <v>1500</v>
-      </c>
-      <c r="Q118">
-        <v>1800</v>
-      </c>
-      <c r="V118" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="W118" s="23">
+        <v>487</v>
+      </c>
+      <c r="W118" s="23" t="str">
         <f t="shared" si="65"/>
-        <v>18</v>
-      </c>
-      <c r="X118" s="23">
+        <v/>
+      </c>
+      <c r="X118" s="23" t="str">
         <f t="shared" si="66"/>
-        <v>24</v>
+        <v/>
       </c>
       <c r="Y118" s="23" t="str">
         <f t="shared" si="67"/>
@@ -24547,29 +24549,29 @@
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="AA118" s="23">
+      <c r="AA118" s="23" t="str">
         <f t="shared" si="69"/>
-        <v>15</v>
-      </c>
-      <c r="AB118" s="23">
+        <v/>
+      </c>
+      <c r="AB118" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>18</v>
-      </c>
-      <c r="AC118" s="23">
+        <v/>
+      </c>
+      <c r="AC118" s="23" t="str">
         <f t="shared" si="71"/>
-        <v>15</v>
-      </c>
-      <c r="AD118" s="23">
+        <v/>
+      </c>
+      <c r="AD118" s="23" t="str">
         <f t="shared" si="72"/>
-        <v>18</v>
-      </c>
-      <c r="AE118" s="23">
+        <v/>
+      </c>
+      <c r="AE118" s="23" t="str">
         <f t="shared" si="73"/>
-        <v>15</v>
-      </c>
-      <c r="AF118" s="23">
+        <v/>
+      </c>
+      <c r="AF118" s="23" t="str">
         <f t="shared" si="74"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="AG118" s="23" t="str">
         <f t="shared" si="75"/>
@@ -24589,7 +24591,7 @@
       </c>
       <c r="AK118" s="23" t="str">
         <f t="shared" si="79"/>
-        <v>6pm-12am</v>
+        <v/>
       </c>
       <c r="AL118" s="23" t="str">
         <f t="shared" si="80"/>
@@ -24597,15 +24599,15 @@
       </c>
       <c r="AM118" s="23" t="str">
         <f t="shared" si="81"/>
-        <v>3pm-6pm</v>
+        <v/>
       </c>
       <c r="AN118" s="23" t="str">
         <f t="shared" si="82"/>
-        <v>3pm-6pm</v>
+        <v/>
       </c>
       <c r="AO118" s="23" t="str">
         <f t="shared" si="83"/>
-        <v>3pm-6pm</v>
+        <v/>
       </c>
       <c r="AP118" s="23" t="str">
         <f t="shared" si="84"/>
@@ -24615,1878 +24617,1715 @@
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="AR118" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="AU118" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV118" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="AW118" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
+      </c>
+      <c r="AV118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW118" t="b">
+        <v>0</v>
       </c>
       <c r="AX118" s="4" t="str">
-        <f t="shared" si="95"/>
-        <v>{
-    'name': "Three Four Beer Co",
-    'area': "campus",'hours': {
-      'sunday-start':"1800", 'sunday-end':"2400", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off guest drafts", 'link':"http://www.threefourbeerco.com/", 'pricing':"med",   'phone-number': "", 'address': "829 S. Shields Street, #100, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':false},</v>
-      </c>
-      <c r="AY118" s="23" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="AZ118" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
-      <c r="BA118" s="23" t="str">
-        <f t="shared" si="88"/>
-        <v>&lt;img src=@img/medium.png@&gt;</v>
-      </c>
-      <c r="BB118" s="23" t="str">
-        <f t="shared" si="89"/>
-        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
-      </c>
-      <c r="BC118" s="23" t="str">
-        <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="BD118" s="23" t="str">
-        <f t="shared" si="91"/>
-        <v>&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
-      </c>
-      <c r="BE118" s="23" t="str">
-        <f t="shared" si="92"/>
-        <v>drink medium med campus</v>
-      </c>
-      <c r="BF118" s="23" t="str">
-        <f t="shared" si="93"/>
-        <v>Near Campus</v>
-      </c>
-      <c r="BG118">
-        <v>40.575132000000004</v>
-      </c>
-      <c r="BH118">
-        <v>-105.09670699999999</v>
-      </c>
-      <c r="BI118" s="23" t="str">
-        <f t="shared" si="63"/>
-        <v>[40.575132,-105.096707],</v>
-      </c>
-      <c r="BK118" s="23" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="2:64" ht="116" x14ac:dyDescent="0.35">
-      <c r="B119" t="s">
-        <v>467</v>
-      </c>
-      <c r="C119" t="s">
-        <v>440</v>
-      </c>
-      <c r="E119" t="s">
-        <v>54</v>
-      </c>
-      <c r="G119" t="s">
-        <v>491</v>
-      </c>
-      <c r="W119" s="23" t="str">
-        <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="X119" s="23" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="Y119" s="23" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="Z119" s="23" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="AA119" s="23" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-      <c r="AB119" s="23" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="AC119" s="23" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AD119" s="23" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AE119" s="23" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="AF119" s="23" t="str">
-        <f t="shared" si="74"/>
-        <v/>
-      </c>
-      <c r="AG119" s="23" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AH119" s="23" t="str">
-        <f t="shared" si="76"/>
-        <v/>
-      </c>
-      <c r="AI119" s="23" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="AJ119" s="23" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="AK119" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="AL119" s="23" t="str">
-        <f t="shared" si="80"/>
-        <v/>
-      </c>
-      <c r="AM119" s="23" t="str">
-        <f t="shared" si="81"/>
-        <v/>
-      </c>
-      <c r="AN119" s="23" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="AO119" s="23" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AP119" s="23" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="AQ119" s="23" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="AU119" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV119" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW119" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX119" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Tom and Chee",
     'area': "sfoco",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2909 E. Harmony Rd. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
       </c>
-      <c r="AY119" s="23" t="str">
+      <c r="AY118" s="23" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="AZ119" s="23" t="str">
+      <c r="AZ118" s="23" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="BA119" s="23" t="str">
+      <c r="BA118" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/easy.png@&gt;</v>
       </c>
-      <c r="BB119" s="23" t="str">
+      <c r="BB118" s="23" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="BC119" s="23" t="str">
+      <c r="BC118" s="23" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="BD119" s="23" t="str">
+      <c r="BD118" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
-      <c r="BE119" s="23" t="str">
+      <c r="BE118" s="23" t="str">
         <f t="shared" si="92"/>
         <v>easy low sfoco kid</v>
       </c>
-      <c r="BF119" s="23" t="str">
+      <c r="BF118" s="23" t="str">
         <f t="shared" si="93"/>
         <v>South Foco</v>
       </c>
-      <c r="BG119">
+      <c r="BG118">
         <v>40.522661999999997</v>
       </c>
-      <c r="BH119">
+      <c r="BH118">
         <v>-105.023278</v>
       </c>
-      <c r="BI119" s="23" t="str">
+      <c r="BI118" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.522662,-105.023278],</v>
       </c>
-      <c r="BJ119" t="b">
+      <c r="BJ118" t="b">
         <v>1</v>
       </c>
-      <c r="BK119" s="23" t="str">
+      <c r="BK118" s="23" t="str">
         <f t="shared" si="64"/>
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
-      <c r="BL119" t="s">
-        <v>492</v>
+      <c r="BL118" t="s">
+        <v>488</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="174" x14ac:dyDescent="0.35">
-      <c r="B120" t="s">
+    <row r="119" spans="2:64" ht="174" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>222</v>
+      </c>
+      <c r="C119" t="s">
+        <v>434</v>
+      </c>
+      <c r="D119" t="s">
+        <v>223</v>
+      </c>
+      <c r="E119" t="s">
+        <v>439</v>
+      </c>
+      <c r="G119" t="s">
         <v>224</v>
       </c>
-      <c r="C120" t="s">
-        <v>438</v>
-      </c>
-      <c r="D120" t="s">
-        <v>225</v>
-      </c>
-      <c r="E120" t="s">
-        <v>443</v>
-      </c>
-      <c r="G120" t="s">
-        <v>226</v>
-      </c>
-      <c r="H120">
+      <c r="H119">
         <v>930</v>
       </c>
-      <c r="I120">
+      <c r="I119">
         <v>2400</v>
       </c>
-      <c r="J120">
+      <c r="J119">
         <v>1030</v>
       </c>
-      <c r="K120">
+      <c r="K119">
         <v>1900</v>
       </c>
-      <c r="L120">
+      <c r="L119">
         <v>1030</v>
       </c>
-      <c r="M120">
+      <c r="M119">
         <v>1900</v>
       </c>
-      <c r="N120">
+      <c r="N119">
         <v>1030</v>
       </c>
-      <c r="O120">
+      <c r="O119">
         <v>1900</v>
       </c>
-      <c r="P120">
+      <c r="P119">
         <v>1030</v>
       </c>
-      <c r="Q120">
+      <c r="Q119">
         <v>1900</v>
       </c>
-      <c r="R120">
+      <c r="R119">
         <v>1030</v>
       </c>
-      <c r="S120">
+      <c r="S119">
         <v>1900</v>
       </c>
-      <c r="T120">
+      <c r="T119">
         <v>930</v>
       </c>
-      <c r="U120">
+      <c r="U119">
         <v>1900</v>
       </c>
-      <c r="V120" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="W120" s="23">
+      <c r="V119" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="W119" s="23">
         <f t="shared" si="65"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="X120" s="23">
+      <c r="X119" s="23">
         <f t="shared" si="66"/>
         <v>24</v>
       </c>
-      <c r="Y120" s="23">
+      <c r="Y119" s="23">
         <f t="shared" si="67"/>
         <v>10.3</v>
       </c>
-      <c r="Z120" s="23">
+      <c r="Z119" s="23">
         <f t="shared" si="68"/>
         <v>19</v>
       </c>
-      <c r="AA120" s="23">
+      <c r="AA119" s="23">
         <f t="shared" si="69"/>
         <v>10.3</v>
       </c>
-      <c r="AB120" s="23">
+      <c r="AB119" s="23">
         <f t="shared" si="70"/>
         <v>19</v>
       </c>
-      <c r="AC120" s="23">
+      <c r="AC119" s="23">
         <f t="shared" si="71"/>
         <v>10.3</v>
       </c>
-      <c r="AD120" s="23">
+      <c r="AD119" s="23">
         <f t="shared" si="72"/>
         <v>19</v>
       </c>
-      <c r="AE120" s="23">
+      <c r="AE119" s="23">
         <f t="shared" si="73"/>
         <v>10.3</v>
       </c>
-      <c r="AF120" s="23">
+      <c r="AF119" s="23">
         <f t="shared" si="74"/>
         <v>19</v>
       </c>
-      <c r="AG120" s="23">
+      <c r="AG119" s="23">
         <f t="shared" si="75"/>
         <v>10.3</v>
       </c>
-      <c r="AH120" s="23">
+      <c r="AH119" s="23">
         <f t="shared" si="76"/>
         <v>19</v>
       </c>
-      <c r="AI120" s="23">
+      <c r="AI119" s="23">
         <f t="shared" si="77"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="AJ120" s="23">
+      <c r="AJ119" s="23">
         <f t="shared" si="78"/>
         <v>19</v>
       </c>
-      <c r="AK120" s="23" t="str">
+      <c r="AK119" s="23" t="str">
         <f t="shared" si="79"/>
         <v>9.3am-12am</v>
       </c>
-      <c r="AL120" s="23" t="str">
+      <c r="AL119" s="23" t="str">
         <f t="shared" si="80"/>
         <v>10.3am-7pm</v>
       </c>
-      <c r="AM120" s="23" t="str">
+      <c r="AM119" s="23" t="str">
         <f t="shared" si="81"/>
         <v>10.3am-7pm</v>
       </c>
-      <c r="AN120" s="23" t="str">
+      <c r="AN119" s="23" t="str">
         <f t="shared" si="82"/>
         <v>10.3am-7pm</v>
       </c>
-      <c r="AO120" s="23" t="str">
+      <c r="AO119" s="23" t="str">
         <f t="shared" si="83"/>
         <v>10.3am-7pm</v>
       </c>
-      <c r="AP120" s="23" t="str">
+      <c r="AP119" s="23" t="str">
         <f t="shared" si="84"/>
         <v>10.3am-7pm</v>
       </c>
-      <c r="AQ120" s="23" t="str">
+      <c r="AQ119" s="23" t="str">
         <f t="shared" si="85"/>
         <v>9.3am-7pm</v>
       </c>
-      <c r="AR120" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AS120" t="s">
+      <c r="AR119" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS119" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU119" t="s">
         <v>304</v>
       </c>
-      <c r="AU120" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV120" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="AW120" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX120" s="4" t="str">
+      <c r="AV119" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW119" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX119" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Tony's Bar",
     'area': "old",'hours': {
       'sunday-start':"930", 'sunday-end':"2400", 'monday-start':"1030", 'monday-end':"1900", 'tuesday-start':"1030", 'tuesday-end':"1900", 'wednesday-start':"1030", 'wednesday-end':"1900", 'thursday-start':"1030", 'thursday-end':"1900", 'friday-start':"1030", 'friday-end':"1900", 'saturday-start':"930", 'saturday-end':"1900"},  'description': "Free pool during Happy Hour and all day Tuesday &lt;br&gt; $2.00 Domestic Drafts &lt;br&gt; $3.00 Select Micro Drafts &lt;br&gt; $3.00 Single/$5.00 Double Wells and Freshies &lt;br&gt; $5.00 Moscow Mules &lt;br&gt; Happy Hour Appetizers: $6.00 Select appetizers Monday thru Friday 2 PM til 6 PM", 'link':"https://tonysbarfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "224 S. College Avenue, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
-      <c r="AY120" s="23" t="str">
+      <c r="AY119" s="23" t="str">
         <f t="shared" si="86"/>
         <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
-      <c r="AZ120" s="23" t="str">
+      <c r="AZ119" s="23" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="BA120" s="23" t="str">
+      <c r="BA119" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/hard.png@&gt;</v>
       </c>
-      <c r="BB120" s="23" t="str">
+      <c r="BB119" s="23" t="str">
         <f t="shared" si="89"/>
         <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
-      <c r="BC120" s="23" t="str">
+      <c r="BC119" s="23" t="str">
         <f t="shared" si="90"/>
         <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
-      <c r="BD120" s="23" t="str">
+      <c r="BD119" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/hard.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
-      <c r="BE120" s="23" t="str">
+      <c r="BE119" s="23" t="str">
         <f t="shared" si="92"/>
         <v>outdoor drink food hard med old</v>
       </c>
-      <c r="BF120" s="23" t="str">
+      <c r="BF119" s="23" t="str">
         <f t="shared" si="93"/>
         <v>Old Town</v>
       </c>
-      <c r="BG120">
+      <c r="BG119">
         <v>40.584795999999997</v>
       </c>
-      <c r="BH120">
+      <c r="BH119">
         <v>-105.076611</v>
       </c>
-      <c r="BI120" s="23" t="str">
+      <c r="BI119" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.584796,-105.076611],</v>
       </c>
-      <c r="BK120" s="23" t="str">
+      <c r="BK119" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="145" x14ac:dyDescent="0.35">
-      <c r="B121" t="s">
-        <v>392</v>
-      </c>
-      <c r="C121" t="s">
-        <v>318</v>
-      </c>
-      <c r="D121" t="s">
-        <v>394</v>
-      </c>
-      <c r="E121" t="s">
-        <v>443</v>
-      </c>
-      <c r="G121" t="s">
-        <v>403</v>
-      </c>
-      <c r="J121">
+    <row r="120" spans="2:64" ht="145" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>388</v>
+      </c>
+      <c r="C120" t="s">
+        <v>315</v>
+      </c>
+      <c r="D120" t="s">
+        <v>390</v>
+      </c>
+      <c r="E120" t="s">
+        <v>439</v>
+      </c>
+      <c r="G120" t="s">
+        <v>399</v>
+      </c>
+      <c r="J120">
         <v>1500</v>
       </c>
-      <c r="K121">
+      <c r="K120">
         <v>1900</v>
       </c>
-      <c r="L121">
+      <c r="L120">
         <v>1500</v>
       </c>
-      <c r="M121">
+      <c r="M120">
         <v>1900</v>
       </c>
-      <c r="N121">
+      <c r="N120">
         <v>1500</v>
       </c>
-      <c r="O121">
+      <c r="O120">
         <v>1900</v>
       </c>
-      <c r="P121">
+      <c r="P120">
         <v>1500</v>
       </c>
-      <c r="Q121">
+      <c r="Q120">
         <v>1900</v>
       </c>
-      <c r="R121">
+      <c r="R120">
         <v>1500</v>
       </c>
-      <c r="S121">
+      <c r="S120">
         <v>1900</v>
       </c>
-      <c r="V121" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="W121" s="23" t="str">
+      <c r="V120" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="W120" s="23" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="X121" s="23" t="str">
+      <c r="X120" s="23" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="Y121" s="23">
+      <c r="Y120" s="23">
         <f t="shared" si="67"/>
         <v>15</v>
       </c>
-      <c r="Z121" s="23">
+      <c r="Z120" s="23">
         <f t="shared" si="68"/>
         <v>19</v>
       </c>
-      <c r="AA121" s="23">
+      <c r="AA120" s="23">
         <f t="shared" si="69"/>
         <v>15</v>
       </c>
-      <c r="AB121" s="23">
+      <c r="AB120" s="23">
         <f t="shared" si="70"/>
         <v>19</v>
       </c>
-      <c r="AC121" s="23">
+      <c r="AC120" s="23">
         <f t="shared" si="71"/>
         <v>15</v>
       </c>
-      <c r="AD121" s="23">
+      <c r="AD120" s="23">
         <f t="shared" si="72"/>
         <v>19</v>
       </c>
-      <c r="AE121" s="23">
+      <c r="AE120" s="23">
         <f t="shared" si="73"/>
         <v>15</v>
       </c>
-      <c r="AF121" s="23">
+      <c r="AF120" s="23">
         <f t="shared" si="74"/>
         <v>19</v>
       </c>
-      <c r="AG121" s="23">
+      <c r="AG120" s="23">
         <f t="shared" si="75"/>
         <v>15</v>
       </c>
-      <c r="AH121" s="23">
+      <c r="AH120" s="23">
         <f t="shared" si="76"/>
         <v>19</v>
       </c>
-      <c r="AI121" s="23" t="str">
+      <c r="AI120" s="23" t="str">
         <f t="shared" si="77"/>
         <v/>
       </c>
-      <c r="AJ121" s="23" t="str">
+      <c r="AJ120" s="23" t="str">
         <f t="shared" si="78"/>
         <v/>
       </c>
-      <c r="AK121" s="23" t="str">
+      <c r="AK120" s="23" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="AL121" s="23" t="str">
+      <c r="AL120" s="23" t="str">
         <f t="shared" si="80"/>
         <v>3pm-7pm</v>
       </c>
-      <c r="AM121" s="23" t="str">
+      <c r="AM120" s="23" t="str">
         <f t="shared" si="81"/>
         <v>3pm-7pm</v>
       </c>
-      <c r="AN121" s="23" t="str">
+      <c r="AN120" s="23" t="str">
         <f t="shared" si="82"/>
         <v>3pm-7pm</v>
       </c>
-      <c r="AO121" s="23" t="str">
+      <c r="AO120" s="23" t="str">
         <f t="shared" si="83"/>
         <v>3pm-7pm</v>
       </c>
-      <c r="AP121" s="23" t="str">
+      <c r="AP120" s="23" t="str">
         <f t="shared" si="84"/>
         <v>3pm-7pm</v>
       </c>
-      <c r="AQ121" s="23" t="str">
+      <c r="AQ120" s="23" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="AR121" t="s">
-        <v>402</v>
-      </c>
-      <c r="AS121" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU121" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV121" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="AW121" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX121" s="4" t="str">
+      <c r="AR120" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS120" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV120" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW120" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX120" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Torchys Tacos",
     'area': "midtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1.50 Off All Beers and Margs &lt;br&gt; $0.50 Off Everything Else", 'link':"https://torchystacos.com/location/fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "3280 S COLLEGE AVE FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
-      <c r="AY121" s="23" t="str">
+      <c r="AY120" s="23" t="str">
         <f t="shared" si="86"/>
         <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
-      <c r="AZ121" s="23" t="str">
+      <c r="AZ120" s="23" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="BA121" s="23" t="str">
+      <c r="BA120" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/easy.png@&gt;</v>
       </c>
-      <c r="BB121" s="23" t="str">
+      <c r="BB120" s="23" t="str">
         <f t="shared" si="89"/>
         <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
-      <c r="BC121" s="23" t="str">
+      <c r="BC120" s="23" t="str">
         <f t="shared" si="90"/>
         <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
-      <c r="BD121" s="23" t="str">
+      <c r="BD120" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
-      <c r="BE121" s="23" t="str">
+      <c r="BE120" s="23" t="str">
         <f t="shared" si="92"/>
         <v>outdoor drink food easy med midtown</v>
       </c>
-      <c r="BF121" s="23" t="str">
+      <c r="BF120" s="23" t="str">
         <f t="shared" si="93"/>
         <v>Midtown</v>
       </c>
-      <c r="BG121">
+      <c r="BG120">
         <v>40.542402000000003</v>
       </c>
-      <c r="BH121">
+      <c r="BH120">
         <v>-105.07652</v>
       </c>
-      <c r="BI121" s="23" t="str">
+      <c r="BI120" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.542402,-105.07652],</v>
       </c>
-      <c r="BK121" s="23" t="str">
+      <c r="BK120" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="116" x14ac:dyDescent="0.35">
-      <c r="B122" t="s">
-        <v>227</v>
-      </c>
-      <c r="C122" t="s">
-        <v>318</v>
-      </c>
-      <c r="D122" t="s">
+    <row r="121" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" t="s">
         <v>53</v>
       </c>
-      <c r="E122" t="s">
-        <v>443</v>
-      </c>
-      <c r="G122" t="s">
-        <v>228</v>
-      </c>
-      <c r="W122" s="23" t="str">
+      <c r="E121" t="s">
+        <v>439</v>
+      </c>
+      <c r="G121" t="s">
+        <v>226</v>
+      </c>
+      <c r="W121" s="23" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="X122" s="23" t="str">
+      <c r="X121" s="23" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="Y122" s="23" t="str">
+      <c r="Y121" s="23" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="Z122" s="23" t="str">
+      <c r="Z121" s="23" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="AA122" s="23" t="str">
+      <c r="AA121" s="23" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="AB122" s="23" t="str">
+      <c r="AB121" s="23" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="AC122" s="23" t="str">
+      <c r="AC121" s="23" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="AD122" s="23" t="str">
+      <c r="AD121" s="23" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="AE122" s="23" t="str">
+      <c r="AE121" s="23" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="AF122" s="23" t="str">
+      <c r="AF121" s="23" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="AG122" s="23" t="str">
+      <c r="AG121" s="23" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="AH122" s="23" t="str">
+      <c r="AH121" s="23" t="str">
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="AI122" s="23" t="str">
+      <c r="AI121" s="23" t="str">
         <f t="shared" si="77"/>
         <v/>
       </c>
-      <c r="AJ122" s="23" t="str">
+      <c r="AJ121" s="23" t="str">
         <f t="shared" si="78"/>
         <v/>
       </c>
-      <c r="AK122" s="23" t="str">
+      <c r="AK121" s="23" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="AL122" s="23" t="str">
+      <c r="AL121" s="23" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="AM122" s="23" t="str">
+      <c r="AM121" s="23" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="AN122" s="23" t="str">
+      <c r="AN121" s="23" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="AO122" s="23" t="str">
+      <c r="AO121" s="23" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="AP122" s="23" t="str">
+      <c r="AP121" s="23" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="AQ122" s="23" t="str">
+      <c r="AQ121" s="23" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="AR122" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AU122" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV122" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW122" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX122" s="4" t="str">
+      <c r="AR121" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AU121" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV121" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW121" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX121" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Tortilla Marissa's",
     'area': "midtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.tortillamarissas.com", 'pricing':"med",   'phone-number': "", 'address': "2635 S. College Avenue, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
-      <c r="AY122" s="23" t="str">
+      <c r="AY121" s="23" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="AZ122" s="23" t="str">
+      <c r="AZ121" s="23" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="BA122" s="23" t="str">
+      <c r="BA121" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/easy.png@&gt;</v>
       </c>
-      <c r="BB122" s="23" t="str">
+      <c r="BB121" s="23" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="BC122" s="23" t="str">
+      <c r="BC121" s="23" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="BD122" s="23" t="str">
+      <c r="BD121" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/easy.png@&gt;</v>
       </c>
-      <c r="BE122" s="23" t="str">
+      <c r="BE121" s="23" t="str">
         <f t="shared" si="92"/>
         <v>easy med midtown</v>
       </c>
-      <c r="BF122" s="23" t="str">
+      <c r="BF121" s="23" t="str">
         <f t="shared" si="93"/>
         <v>Midtown</v>
       </c>
-      <c r="BG122">
+      <c r="BG121">
         <v>40.551113000000001</v>
       </c>
-      <c r="BH122">
+      <c r="BH121">
         <v>-105.07761600000001</v>
       </c>
-      <c r="BI122" s="23" t="str">
+      <c r="BI121" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.551113,-105.077616],</v>
       </c>
-      <c r="BK122" s="23" t="str">
+      <c r="BK121" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="203" x14ac:dyDescent="0.35">
-      <c r="B123" t="s">
-        <v>295</v>
-      </c>
-      <c r="C123" t="s">
-        <v>438</v>
-      </c>
-      <c r="D123" t="s">
-        <v>296</v>
-      </c>
-      <c r="E123" t="s">
+    <row r="122" spans="2:64" ht="203" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" t="s">
+        <v>434</v>
+      </c>
+      <c r="D122" t="s">
+        <v>293</v>
+      </c>
+      <c r="E122" t="s">
         <v>54</v>
       </c>
-      <c r="G123" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H123">
+      <c r="G122" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H122">
         <v>1100</v>
       </c>
-      <c r="I123">
+      <c r="I122">
         <v>1900</v>
       </c>
-      <c r="J123">
+      <c r="J122">
         <v>1100</v>
       </c>
-      <c r="K123">
+      <c r="K122">
         <v>2400</v>
       </c>
-      <c r="L123">
+      <c r="L122">
         <v>1100</v>
       </c>
-      <c r="M123">
+      <c r="M122">
         <v>2300</v>
       </c>
-      <c r="N123">
+      <c r="N122">
         <v>1100</v>
       </c>
-      <c r="O123">
+      <c r="O122">
         <v>2400</v>
       </c>
-      <c r="P123">
+      <c r="P122">
         <v>1100</v>
       </c>
-      <c r="Q123">
+      <c r="Q122">
         <v>2400</v>
       </c>
-      <c r="R123">
+      <c r="R122">
         <v>1100</v>
       </c>
-      <c r="S123">
+      <c r="S122">
         <v>1900</v>
       </c>
-      <c r="T123">
+      <c r="T122">
         <v>1100</v>
       </c>
-      <c r="U123">
+      <c r="U122">
         <v>1900</v>
       </c>
-      <c r="V123" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="W123" s="23">
+      <c r="V122" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="W122" s="23">
         <f t="shared" si="65"/>
         <v>11</v>
       </c>
-      <c r="X123" s="23">
+      <c r="X122" s="23">
         <f t="shared" si="66"/>
         <v>19</v>
       </c>
-      <c r="Y123" s="23">
+      <c r="Y122" s="23">
         <f t="shared" si="67"/>
         <v>11</v>
       </c>
-      <c r="Z123" s="23">
+      <c r="Z122" s="23">
         <f t="shared" si="68"/>
         <v>24</v>
       </c>
-      <c r="AA123" s="23">
+      <c r="AA122" s="23">
         <f t="shared" si="69"/>
         <v>11</v>
       </c>
-      <c r="AB123" s="23">
+      <c r="AB122" s="23">
         <f t="shared" si="70"/>
         <v>23</v>
       </c>
-      <c r="AC123" s="23">
+      <c r="AC122" s="23">
         <f t="shared" si="71"/>
         <v>11</v>
       </c>
-      <c r="AD123" s="23">
+      <c r="AD122" s="23">
         <f t="shared" si="72"/>
         <v>24</v>
       </c>
-      <c r="AE123" s="23">
+      <c r="AE122" s="23">
         <f t="shared" si="73"/>
         <v>11</v>
       </c>
-      <c r="AF123" s="23">
+      <c r="AF122" s="23">
         <f t="shared" si="74"/>
         <v>24</v>
       </c>
-      <c r="AG123" s="23">
+      <c r="AG122" s="23">
         <f t="shared" si="75"/>
         <v>11</v>
       </c>
-      <c r="AH123" s="23">
+      <c r="AH122" s="23">
         <f t="shared" si="76"/>
         <v>19</v>
       </c>
-      <c r="AI123" s="23">
+      <c r="AI122" s="23">
         <f t="shared" si="77"/>
         <v>11</v>
       </c>
-      <c r="AJ123" s="23">
+      <c r="AJ122" s="23">
         <f t="shared" si="78"/>
         <v>19</v>
       </c>
-      <c r="AK123" s="23" t="str">
+      <c r="AK122" s="23" t="str">
         <f t="shared" si="79"/>
         <v>11am-7pm</v>
       </c>
-      <c r="AL123" s="23" t="str">
+      <c r="AL122" s="23" t="str">
         <f t="shared" si="80"/>
         <v>11am-12am</v>
       </c>
-      <c r="AM123" s="23" t="str">
+      <c r="AM122" s="23" t="str">
         <f t="shared" si="81"/>
         <v>11am-11pm</v>
       </c>
-      <c r="AN123" s="23" t="str">
+      <c r="AN122" s="23" t="str">
         <f t="shared" si="82"/>
         <v>11am-12am</v>
       </c>
-      <c r="AO123" s="23" t="str">
+      <c r="AO122" s="23" t="str">
         <f t="shared" si="83"/>
         <v>11am-12am</v>
       </c>
-      <c r="AP123" s="23" t="str">
+      <c r="AP122" s="23" t="str">
         <f t="shared" si="84"/>
         <v>11am-7pm</v>
       </c>
-      <c r="AQ123" s="23" t="str">
+      <c r="AQ122" s="23" t="str">
         <f t="shared" si="85"/>
         <v>11am-7pm</v>
       </c>
-      <c r="AR123" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="AU123" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV123" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW123" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX123" s="4" t="str">
+      <c r="AR122" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV122" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW122" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX122" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Trailhead Tavern",
     'area': "old",'hours': {
       'sunday-start':"1100", 'sunday-end':"1900", 'monday-start':"1100", 'monday-end':"2400", 'tuesday-start':"1100", 'tuesday-end':"2300", 'wednesday-start':"1100", 'wednesday-end':"2400", 'thursday-start':"1100", 'thursday-end':"2400", 'friday-start':"1100", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "Monday-Sunday 11 am-7 pm: &lt;br&gt; $2 domestics and $6 pitchers &lt;br&gt; $2.50-micros and $8 pitchers &lt;br&gt; $2 wells &lt;br&gt; $2 PBR pints (all day) &lt;br&gt; Monday: &lt;br&gt; Happy Hour All Day &lt;br&gt; Tuesday: &lt;br&gt; 2-for-1 burgers 7pm-11pm &lt;br&gt; $2 select micros 7pm-close &lt;br&gt; Wednesday 7 pm-close: &lt;br&gt; $2.50 New Belgium &lt;br&gt; Thursday 7 pm-close: &lt;br&gt; $2.50 Odell beers &lt;br&gt; $1 tacos 6-11 pm &lt;br&gt; Friday: &lt;br&gt; $6 PBR pitchers and $2.50 Jagermeister &lt;br&gt; Saturday: &lt;br&gt; $4 domestic beer and brat &lt;br&gt; Sunday: &lt;br&gt; $16 wings and pitcher (domestic) &lt;br&gt; $19 wings and pitcher (micro)", 'link':"http://www.trailheadtavern.com/", 'pricing':"low",   'phone-number': "", 'address': "148 W Mountain Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':false, 'has-food':false},</v>
       </c>
-      <c r="AY123" s="23" t="str">
+      <c r="AY122" s="23" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="AZ123" s="23" t="str">
+      <c r="AZ122" s="23" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="BA123" s="23" t="str">
+      <c r="BA122" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/hard.png@&gt;</v>
       </c>
-      <c r="BB123" s="23" t="str">
+      <c r="BB122" s="23" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="BC123" s="23" t="str">
+      <c r="BC122" s="23" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="BD123" s="23" t="str">
+      <c r="BD122" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/hard.png@&gt;</v>
       </c>
-      <c r="BE123" s="23" t="str">
+      <c r="BE122" s="23" t="str">
         <f t="shared" si="92"/>
         <v>hard low old</v>
       </c>
-      <c r="BF123" s="23" t="str">
+      <c r="BF122" s="23" t="str">
         <f t="shared" si="93"/>
         <v>Old Town</v>
       </c>
-      <c r="BG123">
+      <c r="BG122">
         <v>40.587395000000001</v>
       </c>
-      <c r="BH123">
+      <c r="BH122">
         <v>-105.078292</v>
       </c>
-      <c r="BI123" s="23" t="str">
+      <c r="BI122" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.587395,-105.078292],</v>
       </c>
-      <c r="BK123" s="23" t="str">
+      <c r="BK122" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B124" t="s">
-        <v>413</v>
-      </c>
-      <c r="C124" t="s">
-        <v>438</v>
-      </c>
-      <c r="D124" t="s">
-        <v>384</v>
-      </c>
-      <c r="E124" t="s">
-        <v>443</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="W124" s="23" t="str">
+    <row r="123" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>409</v>
+      </c>
+      <c r="C123" t="s">
+        <v>434</v>
+      </c>
+      <c r="D123" t="s">
+        <v>380</v>
+      </c>
+      <c r="E123" t="s">
+        <v>439</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="W123" s="23" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="X124" s="23" t="str">
+      <c r="X123" s="23" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="Y124" s="23" t="str">
+      <c r="Y123" s="23" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="Z124" s="23" t="str">
+      <c r="Z123" s="23" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="AA124" s="23" t="str">
+      <c r="AA123" s="23" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="AB124" s="23" t="str">
+      <c r="AB123" s="23" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="AC124" s="23" t="str">
+      <c r="AC123" s="23" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="AD124" s="23" t="str">
+      <c r="AD123" s="23" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="AE124" s="23" t="str">
+      <c r="AE123" s="23" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="AF124" s="23" t="str">
+      <c r="AF123" s="23" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="AG124" s="23" t="str">
+      <c r="AG123" s="23" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="AH124" s="23" t="str">
+      <c r="AH123" s="23" t="str">
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="AI124" s="23" t="str">
+      <c r="AI123" s="23" t="str">
         <f t="shared" si="77"/>
         <v/>
       </c>
-      <c r="AJ124" s="23" t="str">
+      <c r="AJ123" s="23" t="str">
         <f t="shared" si="78"/>
         <v/>
       </c>
-      <c r="AK124" s="23" t="str">
-        <f>IF(H124&gt;0,CONCATENATE(IF(W124&lt;=12,W124,W124-12),IF(OR(W124&lt;12,W124=24),"am","pm"),"-",IF(X124&lt;=12,X124,X124-12),IF(OR(X124&lt;12,X124=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AL124" s="23" t="str">
-        <f>IF(J124&gt;0,CONCATENATE(IF(Y124&lt;=12,Y124,Y124-12),IF(OR(Y124&lt;12,Y124=24),"am","pm"),"-",IF(Z124&lt;=12,Z124,Z124-12),IF(OR(Z124&lt;12,Z124=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AM124" s="23" t="str">
-        <f>IF(L124&gt;0,CONCATENATE(IF(AA124&lt;=12,AA124,AA124-12),IF(OR(AA124&lt;12,AA124=24),"am","pm"),"-",IF(AB124&lt;=12,AB124,AB124-12),IF(OR(AB124&lt;12,AB124=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AN124" s="23" t="str">
-        <f>IF(N124&gt;0,CONCATENATE(IF(AC124&lt;=12,AC124,AC124-12),IF(OR(AC124&lt;12,AC124=24),"am","pm"),"-",IF(AD124&lt;=12,AD124,AD124-12),IF(OR(AD124&lt;12,AD124=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AO124" s="23" t="str">
-        <f>IF(O124&gt;0,CONCATENATE(IF(AE124&lt;=12,AE124,AE124-12),IF(OR(AE124&lt;12,AE124=24),"am","pm"),"-",IF(AF124&lt;=12,AF124,AF124-12),IF(OR(AF124&lt;12,AF124=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AP124" s="23" t="str">
-        <f>IF(R124&gt;0,CONCATENATE(IF(AG124&lt;=12,AG124,AG124-12),IF(OR(AG124&lt;12,AG124=24),"am","pm"),"-",IF(AH124&lt;=12,AH124,AH124-12),IF(OR(AH124&lt;12,AH124=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ124" s="23" t="str">
-        <f>IF(T124&gt;0,CONCATENATE(IF(AI124&lt;=12,AI124,AI124-12),IF(OR(AI124&lt;12,AI124=24),"am","pm"),"-",IF(AJ124&lt;=12,AJ124,AJ124-12),IF(OR(AJ124&lt;12,AJ124=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AR124" t="s">
-        <v>414</v>
-      </c>
-      <c r="AS124" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU124" t="s">
+      <c r="AK123" s="23" t="str">
+        <f>IF(H123&gt;0,CONCATENATE(IF(W123&lt;=12,W123,W123-12),IF(OR(W123&lt;12,W123=24),"am","pm"),"-",IF(X123&lt;=12,X123,X123-12),IF(OR(X123&lt;12,X123=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AL123" s="23" t="str">
+        <f>IF(J123&gt;0,CONCATENATE(IF(Y123&lt;=12,Y123,Y123-12),IF(OR(Y123&lt;12,Y123=24),"am","pm"),"-",IF(Z123&lt;=12,Z123,Z123-12),IF(OR(Z123&lt;12,Z123=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AM123" s="23" t="str">
+        <f>IF(L123&gt;0,CONCATENATE(IF(AA123&lt;=12,AA123,AA123-12),IF(OR(AA123&lt;12,AA123=24),"am","pm"),"-",IF(AB123&lt;=12,AB123,AB123-12),IF(OR(AB123&lt;12,AB123=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AN123" s="23" t="str">
+        <f>IF(N123&gt;0,CONCATENATE(IF(AC123&lt;=12,AC123,AC123-12),IF(OR(AC123&lt;12,AC123=24),"am","pm"),"-",IF(AD123&lt;=12,AD123,AD123-12),IF(OR(AD123&lt;12,AD123=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AO123" s="23" t="str">
+        <f>IF(O123&gt;0,CONCATENATE(IF(AE123&lt;=12,AE123,AE123-12),IF(OR(AE123&lt;12,AE123=24),"am","pm"),"-",IF(AF123&lt;=12,AF123,AF123-12),IF(OR(AF123&lt;12,AF123=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AP123" s="23" t="str">
+        <f>IF(R123&gt;0,CONCATENATE(IF(AG123&lt;=12,AG123,AG123-12),IF(OR(AG123&lt;12,AG123=24),"am","pm"),"-",IF(AH123&lt;=12,AH123,AH123-12),IF(OR(AH123&lt;12,AH123=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ123" s="23" t="str">
+        <f>IF(T123&gt;0,CONCATENATE(IF(AI123&lt;=12,AI123,AI123-12),IF(OR(AI123&lt;12,AI123=24),"am","pm"),"-",IF(AJ123&lt;=12,AJ123,AJ123-12),IF(OR(AJ123&lt;12,AJ123=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AR123" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS123" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU123" t="s">
         <v>28</v>
       </c>
-      <c r="AV124" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW124" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX124" s="4" t="str">
+      <c r="AV123" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW123" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX123" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Union",
     'area': "old",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.unionbarsodafountain.com/", 'pricing':"med",   'phone-number': "", 'address': "250 Jefferson St, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
-      <c r="AY124" s="23" t="str">
+      <c r="AY123" s="23" t="str">
         <f t="shared" si="86"/>
         <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
-      <c r="AZ124" s="23" t="str">
+      <c r="AZ123" s="23" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="BA124" s="23" t="str">
+      <c r="BA123" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/medium.png@&gt;</v>
       </c>
-      <c r="BB124" s="23" t="str">
+      <c r="BB123" s="23" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="BC124" s="23" t="str">
+      <c r="BC123" s="23" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="BD124" s="23" t="str">
+      <c r="BD123" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;</v>
       </c>
-      <c r="BE124" s="23" t="str">
+      <c r="BE123" s="23" t="str">
         <f t="shared" si="92"/>
         <v>outdoor medium med old</v>
       </c>
-      <c r="BF124" s="23" t="str">
+      <c r="BF123" s="23" t="str">
         <f t="shared" si="93"/>
         <v>Old Town</v>
       </c>
-      <c r="BG124">
+      <c r="BG123">
         <v>40.589368999999998</v>
       </c>
-      <c r="BH124">
+      <c r="BH123">
         <v>-105.07445800000001</v>
       </c>
-      <c r="BI124" s="23" t="str">
+      <c r="BI123" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.589369,-105.074458],</v>
       </c>
-      <c r="BK124" s="23" t="str">
+      <c r="BK123" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B125" t="s">
+    <row r="124" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
         <v>128</v>
       </c>
-      <c r="C125" t="s">
-        <v>317</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C124" t="s">
+        <v>314</v>
+      </c>
+      <c r="D124" t="s">
         <v>129</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E124" t="s">
         <v>54</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W125" s="23" t="str">
+      <c r="W124" s="23" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="X125" s="23" t="str">
+      <c r="X124" s="23" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="Y125" s="23" t="str">
+      <c r="Y124" s="23" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="Z125" s="23" t="str">
+      <c r="Z124" s="23" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="AA125" s="23" t="str">
+      <c r="AA124" s="23" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="AB125" s="23" t="str">
+      <c r="AB124" s="23" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="AC125" s="23" t="str">
+      <c r="AC124" s="23" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="AD125" s="23" t="str">
+      <c r="AD124" s="23" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="AE125" s="23" t="str">
+      <c r="AE124" s="23" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="AF125" s="23" t="str">
+      <c r="AF124" s="23" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="AG125" s="23" t="str">
+      <c r="AG124" s="23" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="AH125" s="23" t="str">
+      <c r="AH124" s="23" t="str">
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="AI125" s="23" t="str">
+      <c r="AI124" s="23" t="str">
         <f t="shared" si="77"/>
         <v/>
       </c>
-      <c r="AJ125" s="23" t="str">
+      <c r="AJ124" s="23" t="str">
         <f t="shared" si="78"/>
         <v/>
       </c>
-      <c r="AK125" s="23" t="str">
-        <f t="shared" ref="AK125:AK128" si="96">IF(H125&gt;0,CONCATENATE(IF(W125&lt;=12,W125,W125-12),IF(OR(W125&lt;12,W125=24),"am","pm"),"-",IF(X125&lt;=12,X125,X125-12),IF(OR(X125&lt;12,X125=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AL125" s="23" t="str">
-        <f t="shared" ref="AL125:AL128" si="97">IF(J125&gt;0,CONCATENATE(IF(Y125&lt;=12,Y125,Y125-12),IF(OR(Y125&lt;12,Y125=24),"am","pm"),"-",IF(Z125&lt;=12,Z125,Z125-12),IF(OR(Z125&lt;12,Z125=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AM125" s="23" t="str">
-        <f t="shared" ref="AM125:AM128" si="98">IF(L125&gt;0,CONCATENATE(IF(AA125&lt;=12,AA125,AA125-12),IF(OR(AA125&lt;12,AA125=24),"am","pm"),"-",IF(AB125&lt;=12,AB125,AB125-12),IF(OR(AB125&lt;12,AB125=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AN125" s="23" t="str">
-        <f t="shared" ref="AN125:AN128" si="99">IF(N125&gt;0,CONCATENATE(IF(AC125&lt;=12,AC125,AC125-12),IF(OR(AC125&lt;12,AC125=24),"am","pm"),"-",IF(AD125&lt;=12,AD125,AD125-12),IF(OR(AD125&lt;12,AD125=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AO125" s="23" t="str">
-        <f t="shared" ref="AO125:AO128" si="100">IF(O125&gt;0,CONCATENATE(IF(AE125&lt;=12,AE125,AE125-12),IF(OR(AE125&lt;12,AE125=24),"am","pm"),"-",IF(AF125&lt;=12,AF125,AF125-12),IF(OR(AF125&lt;12,AF125=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AP125" s="23" t="str">
-        <f t="shared" ref="AP125:AP128" si="101">IF(R125&gt;0,CONCATENATE(IF(AG125&lt;=12,AG125,AG125-12),IF(OR(AG125&lt;12,AG125=24),"am","pm"),"-",IF(AH125&lt;=12,AH125,AH125-12),IF(OR(AH125&lt;12,AH125=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ125" s="23" t="str">
-        <f t="shared" ref="AQ125:AQ128" si="102">IF(T125&gt;0,CONCATENATE(IF(AI125&lt;=12,AI125,AI125-12),IF(OR(AI125&lt;12,AI125=24),"am","pm"),"-",IF(AJ125&lt;=12,AJ125,AJ125-12),IF(OR(AJ125&lt;12,AJ125=24),"am","pm")),"")</f>
-        <v/>
-      </c>
-      <c r="AR125" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="AS125" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT125" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU125" t="s">
+      <c r="AK124" s="23" t="str">
+        <f t="shared" ref="AK124:AK127" si="96">IF(H124&gt;0,CONCATENATE(IF(W124&lt;=12,W124,W124-12),IF(OR(W124&lt;12,W124=24),"am","pm"),"-",IF(X124&lt;=12,X124,X124-12),IF(OR(X124&lt;12,X124=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AL124" s="23" t="str">
+        <f t="shared" ref="AL124:AL127" si="97">IF(J124&gt;0,CONCATENATE(IF(Y124&lt;=12,Y124,Y124-12),IF(OR(Y124&lt;12,Y124=24),"am","pm"),"-",IF(Z124&lt;=12,Z124,Z124-12),IF(OR(Z124&lt;12,Z124=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AM124" s="23" t="str">
+        <f t="shared" ref="AM124:AM127" si="98">IF(L124&gt;0,CONCATENATE(IF(AA124&lt;=12,AA124,AA124-12),IF(OR(AA124&lt;12,AA124=24),"am","pm"),"-",IF(AB124&lt;=12,AB124,AB124-12),IF(OR(AB124&lt;12,AB124=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AN124" s="23" t="str">
+        <f t="shared" ref="AN124:AN127" si="99">IF(N124&gt;0,CONCATENATE(IF(AC124&lt;=12,AC124,AC124-12),IF(OR(AC124&lt;12,AC124=24),"am","pm"),"-",IF(AD124&lt;=12,AD124,AD124-12),IF(OR(AD124&lt;12,AD124=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AO124" s="23" t="str">
+        <f t="shared" ref="AO124:AO127" si="100">IF(O124&gt;0,CONCATENATE(IF(AE124&lt;=12,AE124,AE124-12),IF(OR(AE124&lt;12,AE124=24),"am","pm"),"-",IF(AF124&lt;=12,AF124,AF124-12),IF(OR(AF124&lt;12,AF124=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AP124" s="23" t="str">
+        <f t="shared" ref="AP124:AP127" si="101">IF(R124&gt;0,CONCATENATE(IF(AG124&lt;=12,AG124,AG124-12),IF(OR(AG124&lt;12,AG124=24),"am","pm"),"-",IF(AH124&lt;=12,AH124,AH124-12),IF(OR(AH124&lt;12,AH124=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ124" s="23" t="str">
+        <f t="shared" ref="AQ124:AQ127" si="102">IF(T124&gt;0,CONCATENATE(IF(AI124&lt;=12,AI124,AI124-12),IF(OR(AI124&lt;12,AI124=24),"am","pm"),"-",IF(AJ124&lt;=12,AJ124,AJ124-12),IF(OR(AJ124&lt;12,AJ124=24),"am","pm")),"")</f>
+        <v/>
+      </c>
+      <c r="AR124" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS124" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT124" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU124" t="s">
         <v>28</v>
       </c>
-      <c r="AV125" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW125" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX125" s="4" t="str">
+      <c r="AV124" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW124" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX124" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Wild Boar Coffee",
     'area': "campus",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.wildboarcoffee.com", 'pricing':"low",   'phone-number': "", 'address': "1510 South College Ave, Fort Collins 80524", 'other-amenities': ['outdoor','pets','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
-      <c r="AY125" s="23" t="str">
+      <c r="AY124" s="23" t="str">
         <f t="shared" si="86"/>
         <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
-      <c r="AZ125" s="23" t="str">
+      <c r="AZ124" s="23" t="str">
         <f t="shared" si="87"/>
         <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
-      <c r="BA125" s="23" t="str">
+      <c r="BA124" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/medium.png@&gt;</v>
       </c>
-      <c r="BB125" s="23" t="str">
+      <c r="BB124" s="23" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="BC125" s="23" t="str">
+      <c r="BC124" s="23" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="BD125" s="23" t="str">
+      <c r="BD124" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/medium.png@&gt;</v>
       </c>
-      <c r="BE125" s="23" t="str">
+      <c r="BE124" s="23" t="str">
         <f t="shared" si="92"/>
         <v>outdoor pet medium low campus</v>
       </c>
-      <c r="BF125" s="23" t="str">
+      <c r="BF124" s="23" t="str">
         <f t="shared" si="93"/>
         <v>Near Campus</v>
       </c>
-      <c r="BG125">
+      <c r="BG124">
         <v>40.568157999999997</v>
       </c>
-      <c r="BH125">
+      <c r="BH124">
         <v>-105.076488</v>
       </c>
-      <c r="BI125" s="23" t="str">
+      <c r="BI124" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.568158,-105.076488],</v>
       </c>
-      <c r="BK125" s="23" t="str">
+      <c r="BK124" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B126" t="s">
-        <v>229</v>
-      </c>
-      <c r="C126" t="s">
-        <v>438</v>
-      </c>
-      <c r="D126" t="s">
+    <row r="125" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" t="s">
+        <v>434</v>
+      </c>
+      <c r="D125" t="s">
         <v>147</v>
       </c>
-      <c r="E126" t="s">
-        <v>443</v>
-      </c>
-      <c r="G126" t="s">
-        <v>230</v>
-      </c>
-      <c r="W126" s="23" t="str">
+      <c r="E125" t="s">
+        <v>439</v>
+      </c>
+      <c r="G125" t="s">
+        <v>228</v>
+      </c>
+      <c r="W125" s="23" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="X126" s="23" t="str">
+      <c r="X125" s="23" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="Y126" s="23" t="str">
+      <c r="Y125" s="23" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="Z126" s="23" t="str">
+      <c r="Z125" s="23" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="AA126" s="23" t="str">
+      <c r="AA125" s="23" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="AB126" s="23" t="str">
+      <c r="AB125" s="23" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="AC126" s="23" t="str">
+      <c r="AC125" s="23" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="AD126" s="23" t="str">
+      <c r="AD125" s="23" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="AE126" s="23" t="str">
+      <c r="AE125" s="23" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="AF126" s="23" t="str">
+      <c r="AF125" s="23" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="AG126" s="23" t="str">
+      <c r="AG125" s="23" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="AH126" s="23" t="str">
+      <c r="AH125" s="23" t="str">
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="AI126" s="23" t="str">
+      <c r="AI125" s="23" t="str">
         <f t="shared" si="77"/>
         <v/>
       </c>
-      <c r="AJ126" s="23" t="str">
+      <c r="AJ125" s="23" t="str">
         <f t="shared" si="78"/>
         <v/>
       </c>
-      <c r="AK126" s="23" t="str">
+      <c r="AK125" s="23" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AL126" s="23" t="str">
+      <c r="AL125" s="23" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AM126" s="23" t="str">
+      <c r="AM125" s="23" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AN126" s="23" t="str">
+      <c r="AN125" s="23" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AO126" s="23" t="str">
+      <c r="AO125" s="23" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AP126" s="23" t="str">
+      <c r="AP125" s="23" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AQ126" s="23" t="str">
+      <c r="AQ125" s="23" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AR126" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU126" t="s">
+      <c r="AR125" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AU125" t="s">
         <v>28</v>
       </c>
-      <c r="AV126" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW126" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX126" s="4" t="str">
+      <c r="AV125" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW125" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX125" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Wolverine Farm Letterpress &amp; Publick House",
     'area': "old",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.wolverinefarm.org/letterpressandpublickhouse/", 'pricing':"med",   'phone-number': "", 'address': "316 Willow Street, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
-      <c r="AY126" s="23" t="str">
+      <c r="AY125" s="23" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="AZ126" s="23" t="str">
+      <c r="AZ125" s="23" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="BA126" s="23" t="str">
+      <c r="BA125" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/medium.png@&gt;</v>
       </c>
-      <c r="BB126" s="23" t="str">
+      <c r="BB125" s="23" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="BC126" s="23" t="str">
+      <c r="BC125" s="23" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="BD126" s="23" t="str">
+      <c r="BD125" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/medium.png@&gt;</v>
       </c>
-      <c r="BE126" s="23" t="str">
+      <c r="BE125" s="23" t="str">
         <f t="shared" si="92"/>
         <v>medium med old</v>
       </c>
-      <c r="BF126" s="23" t="str">
+      <c r="BF125" s="23" t="str">
         <f t="shared" si="93"/>
         <v>Old Town</v>
       </c>
-      <c r="BG126">
+      <c r="BG125">
         <v>40.590724000000002</v>
       </c>
-      <c r="BH126">
+      <c r="BH125">
         <v>-105.073266</v>
       </c>
-      <c r="BI126" s="23" t="str">
+      <c r="BI125" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.590724,-105.073266],</v>
       </c>
-      <c r="BK126" s="23" t="str">
+      <c r="BK125" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="116" x14ac:dyDescent="0.35">
-      <c r="B127" s="9" t="s">
+    <row r="126" spans="2:64" ht="116" x14ac:dyDescent="0.35">
+      <c r="B126" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C127" t="s">
-        <v>318</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C126" t="s">
+        <v>315</v>
+      </c>
+      <c r="D126" t="s">
         <v>50</v>
       </c>
-      <c r="E127" t="s">
-        <v>443</v>
-      </c>
-      <c r="G127" s="1" t="s">
+      <c r="E126" t="s">
+        <v>439</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W127" s="23" t="str">
+      <c r="W126" s="23" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="X127" s="23" t="str">
+      <c r="X126" s="23" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="Y127" s="23" t="str">
+      <c r="Y126" s="23" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="Z127" s="23" t="str">
+      <c r="Z126" s="23" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="AA127" s="23" t="str">
+      <c r="AA126" s="23" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="AB127" s="23" t="str">
+      <c r="AB126" s="23" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="AC127" s="23" t="str">
+      <c r="AC126" s="23" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="AD127" s="23" t="str">
+      <c r="AD126" s="23" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="AE127" s="23" t="str">
+      <c r="AE126" s="23" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="AF127" s="23" t="str">
+      <c r="AF126" s="23" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="AG127" s="23" t="str">
+      <c r="AG126" s="23" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="AH127" s="23" t="str">
+      <c r="AH126" s="23" t="str">
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="AI127" s="23" t="str">
+      <c r="AI126" s="23" t="str">
         <f t="shared" si="77"/>
         <v/>
       </c>
-      <c r="AJ127" s="23" t="str">
+      <c r="AJ126" s="23" t="str">
         <f t="shared" si="78"/>
         <v/>
       </c>
-      <c r="AK127" s="23" t="str">
+      <c r="AK126" s="23" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AL127" s="23" t="str">
+      <c r="AL126" s="23" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AM127" s="23" t="str">
+      <c r="AM126" s="23" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AN127" s="23" t="str">
+      <c r="AN126" s="23" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AO127" s="23" t="str">
+      <c r="AO126" s="23" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AP127" s="23" t="str">
+      <c r="AP126" s="23" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AQ127" s="23" t="str">
+      <c r="AQ126" s="23" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AR127" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU127" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV127" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW127" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX127" s="4" t="str">
+      <c r="AR126" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU126" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV126" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW126" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX126" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Youngs Café",
     'area': "midtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.youngscafe.com/", 'pricing':"med",   'phone-number': "", 'address': "3307 S College Ave Ste 114, Fort Collins 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
-      <c r="AY127" s="23" t="str">
+      <c r="AY126" s="23" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="AZ127" s="23" t="str">
+      <c r="AZ126" s="23" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="BA127" s="23" t="str">
+      <c r="BA126" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/easy.png@&gt;</v>
       </c>
-      <c r="BB127" s="23" t="str">
+      <c r="BB126" s="23" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="BC127" s="23" t="str">
+      <c r="BC126" s="23" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="BD127" s="23" t="str">
+      <c r="BD126" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/easy.png@&gt;</v>
       </c>
-      <c r="BE127" s="23" t="str">
+      <c r="BE126" s="23" t="str">
         <f t="shared" si="92"/>
         <v>easy med midtown</v>
       </c>
-      <c r="BF127" s="23" t="str">
+      <c r="BF126" s="23" t="str">
         <f t="shared" si="93"/>
         <v>Midtown</v>
       </c>
-      <c r="BG127">
+      <c r="BG126">
         <v>40.541967999999997</v>
       </c>
-      <c r="BH127">
+      <c r="BH126">
         <v>-105.079037</v>
       </c>
-      <c r="BI127" s="23" t="str">
+      <c r="BI126" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.541968,-105.079037],</v>
       </c>
-      <c r="BK127" s="23" t="str">
+      <c r="BK126" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B128" t="s">
-        <v>231</v>
-      </c>
-      <c r="C128" t="s">
-        <v>440</v>
-      </c>
-      <c r="D128" t="s">
-        <v>277</v>
-      </c>
-      <c r="E128" t="s">
-        <v>443</v>
-      </c>
-      <c r="G128" t="s">
-        <v>232</v>
-      </c>
-      <c r="W128" s="23" t="str">
+    <row r="127" spans="2:64" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>229</v>
+      </c>
+      <c r="C127" t="s">
+        <v>436</v>
+      </c>
+      <c r="D127" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" t="s">
+        <v>439</v>
+      </c>
+      <c r="G127" t="s">
+        <v>230</v>
+      </c>
+      <c r="W127" s="23" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="X128" s="23" t="str">
+      <c r="X127" s="23" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="Y128" s="23" t="str">
+      <c r="Y127" s="23" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="Z128" s="23" t="str">
+      <c r="Z127" s="23" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="AA128" s="23" t="str">
+      <c r="AA127" s="23" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="AB128" s="23" t="str">
+      <c r="AB127" s="23" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="AC128" s="23" t="str">
+      <c r="AC127" s="23" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="AD128" s="23" t="str">
+      <c r="AD127" s="23" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="AE128" s="23" t="str">
+      <c r="AE127" s="23" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="AF128" s="23" t="str">
+      <c r="AF127" s="23" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="AG128" s="23" t="str">
+      <c r="AG127" s="23" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="AH128" s="23" t="str">
+      <c r="AH127" s="23" t="str">
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="AI128" s="23" t="str">
+      <c r="AI127" s="23" t="str">
         <f t="shared" si="77"/>
         <v/>
       </c>
-      <c r="AJ128" s="23" t="str">
+      <c r="AJ127" s="23" t="str">
         <f t="shared" si="78"/>
         <v/>
       </c>
-      <c r="AK128" s="23" t="str">
+      <c r="AK127" s="23" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AL128" s="23" t="str">
+      <c r="AL127" s="23" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AM128" s="23" t="str">
+      <c r="AM127" s="23" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AN128" s="23" t="str">
+      <c r="AN127" s="23" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AO128" s="23" t="str">
+      <c r="AO127" s="23" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AP128" s="23" t="str">
+      <c r="AP127" s="23" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AQ128" s="23" t="str">
+      <c r="AQ127" s="23" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AR128" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="AS128" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT128" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU128" t="s">
+      <c r="AR127" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS127" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT127" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU127" t="s">
         <v>28</v>
       </c>
-      <c r="AV128" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW128" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX128" s="4" t="str">
+      <c r="AV127" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW127" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX127" s="4" t="str">
         <f t="shared" si="95"/>
         <v>{
     'name': "Zwei Brewing",
     'area': "sfoco",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.zweibrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "4612 S. Mason St., Suite 120, Fort Collins, CO 80525", 'other-amenities': ['outdoor','pets','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
-      <c r="AY128" s="23" t="str">
+      <c r="AY127" s="23" t="str">
         <f t="shared" si="86"/>
         <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
-      <c r="AZ128" s="23" t="str">
+      <c r="AZ127" s="23" t="str">
         <f t="shared" si="87"/>
         <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
-      <c r="BA128" s="23" t="str">
+      <c r="BA127" s="23" t="str">
         <f t="shared" si="88"/>
         <v>&lt;img src=@img/medium.png@&gt;</v>
       </c>
-      <c r="BB128" s="23" t="str">
+      <c r="BB127" s="23" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="BC128" s="23" t="str">
+      <c r="BC127" s="23" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="BD128" s="23" t="str">
+      <c r="BD127" s="23" t="str">
         <f t="shared" si="91"/>
         <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/medium.png@&gt;</v>
       </c>
-      <c r="BE128" s="23" t="str">
+      <c r="BE127" s="23" t="str">
         <f t="shared" si="92"/>
         <v>outdoor pet medium med sfoco</v>
       </c>
-      <c r="BF128" s="23" t="str">
+      <c r="BF127" s="23" t="str">
         <f t="shared" si="93"/>
         <v>South Foco</v>
       </c>
-      <c r="BG128">
+      <c r="BG127">
         <v>40.522742000000001</v>
       </c>
-      <c r="BH128">
+      <c r="BH127">
         <v>-105.078374</v>
       </c>
-      <c r="BI128" s="23" t="str">
+      <c r="BI127" s="23" t="str">
         <f t="shared" si="63"/>
         <v>[40.522742,-105.078374],</v>
       </c>
-      <c r="BK128" s="23" t="str">
+      <c r="BK127" s="23" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:BM118">
+  <sortState ref="B2:BM117">
     <sortCondition ref="B2"/>
   </sortState>
   <hyperlinks>
@@ -26514,7 +26353,7 @@
     <hyperlink ref="AR67" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="AR106" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="AR80" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AR125" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR124" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="AR68" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="AR12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="AR64" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
@@ -26540,25 +26379,24 @@
     <hyperlink ref="AR98" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="AR102" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="AR116" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR118" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR122" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AR128" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="AR19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AR43" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AR49" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AR50" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AR57" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="AR73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR75" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR103" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR123" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR44" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR58" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR37" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AR8" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="AR121" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AR127" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AR19" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AR43" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AR49" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AR50" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AR57" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AR73" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AR75" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR103" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR122" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR44" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR58" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR37" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AR8" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="747">
   <si>
     <t>Name</t>
   </si>
@@ -1378,9 +1378,6 @@
   </si>
   <si>
     <t>Monday: $1.99 kids meals all day (Dine in only) &lt;br&gt; Tuesday: Specially priced wings</t>
-  </si>
-  <si>
-    <t>Kids eat for $1.00 with adult purchase</t>
   </si>
   <si>
     <t>Sunday: Kids eat free with adult purchase.</t>
@@ -2274,6 +2271,9 @@
   </si>
   <si>
     <t>https://simmerfc.com/</t>
+  </si>
+  <si>
+    <t>Sunday: Kids eat for $1.00 with adult purchase</t>
   </si>
 </sst>
 </file>
@@ -3223,9 +3223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BX30" sqref="BX30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>436</v>
@@ -3427,7 +3427,7 @@
         <v>439</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H2" s="1">
         <v>1600</v>
@@ -3556,7 +3556,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>305</v>
@@ -3628,7 +3628,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3845,7 +3845,7 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>434</v>
@@ -3854,7 +3854,7 @@
         <v>439</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="21"/>
@@ -3941,7 +3941,7 @@
         <v/>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>304</v>
@@ -4170,19 +4170,19 @@
     </row>
     <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="21"/>
@@ -4563,7 +4563,7 @@
         <v>1800</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="21"/>
@@ -4720,19 +4720,19 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H9" s="1">
         <v>1500</v>
@@ -4777,7 +4777,7 @@
         <v>1800</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="21"/>
@@ -5148,19 +5148,19 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>314</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="21"/>
@@ -5247,7 +5247,7 @@
         <v/>
       </c>
       <c r="AR11" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>28</v>
@@ -5310,19 +5310,19 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="21"/>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>434</v>
@@ -5483,7 +5483,7 @@
         <v>439</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="21"/>
@@ -5846,7 +5846,7 @@
         <v>1900</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6003,13 +6003,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6096,7 +6096,7 @@
         <v/>
       </c>
       <c r="AR16" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AS16" s="1" t="s">
         <v>301</v>
@@ -6219,7 +6219,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="21"/>
@@ -6439,7 +6439,7 @@
         <v>2400</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="21"/>
@@ -6804,7 +6804,7 @@
         <v>1900</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W20" s="1" t="str">
         <f t="shared" si="21"/>
@@ -7015,7 +7015,7 @@
         <v>1600</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="21"/>
@@ -7229,7 +7229,7 @@
         <v>1600</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="21"/>
@@ -7434,7 +7434,7 @@
         <v>1800</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="21"/>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>434</v>
@@ -7600,7 +7600,7 @@
         <v>439</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P24" s="1">
         <v>2000</v>
@@ -7621,7 +7621,7 @@
         <v>2000</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="21"/>
@@ -7708,7 +7708,7 @@
         <v>6pm-8pm</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>304</v>
@@ -7804,7 +7804,7 @@
         <v>1800</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="21"/>
@@ -7955,19 +7955,19 @@
     </row>
     <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W26" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>315</v>
@@ -8299,7 +8299,7 @@
         <v>439</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>436</v>
@@ -8455,7 +8455,7 @@
         <v>439</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>314</v>
@@ -8616,7 +8616,7 @@
         <v>439</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8768,13 +8768,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8861,7 +8861,7 @@
         <v/>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU31" s="1" t="s">
         <v>305</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>315</v>
@@ -8933,7 +8933,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9085,18 +9085,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9183,7 +9183,7 @@
         <v/>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AU33" s="1" t="s">
         <v>305</v>
@@ -9291,7 +9291,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W34" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9448,13 +9448,13 @@
     </row>
     <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="W35" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9541,7 +9541,7 @@
         <v/>
       </c>
       <c r="AR35" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU35" s="1" t="s">
         <v>28</v>
@@ -9661,7 +9661,7 @@
         <v>1800</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" si="21"/>
@@ -9869,7 +9869,7 @@
         <v>2300</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W37" s="1">
         <f t="shared" si="21"/>
@@ -10027,7 +10027,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>449</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10077,7 +10077,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="21"/>
@@ -10234,13 +10234,13 @@
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>435</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="21"/>
@@ -10327,7 +10327,7 @@
         <v/>
       </c>
       <c r="AR39" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AU39" s="1" t="s">
         <v>305</v>
@@ -10948,7 +10948,7 @@
         <v>1800</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="21"/>
@@ -11141,7 +11141,7 @@
         <v>2100</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W44" s="1">
         <f t="shared" si="21"/>
@@ -11355,7 +11355,7 @@
         <v>2400</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W45" s="1">
         <f t="shared" si="21"/>
@@ -11512,7 +11512,7 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>436</v>
@@ -11521,7 +11521,7 @@
         <v>439</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J46" s="1">
         <v>1500</v>
@@ -11554,7 +11554,7 @@
         <v>1800</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="21"/>
@@ -11641,7 +11641,7 @@
         <v/>
       </c>
       <c r="AR46" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AU46" s="1" t="s">
         <v>28</v>
@@ -11709,12 +11709,12 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL46" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>315</v>
@@ -11723,7 +11723,7 @@
         <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W47" s="1" t="str">
         <f t="shared" si="21"/>
@@ -11875,12 +11875,12 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL47" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>436</v>
@@ -12079,7 +12079,7 @@
     </row>
     <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>434</v>
@@ -12088,7 +12088,7 @@
         <v>54</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="W49" s="1" t="str">
         <f t="shared" si="21"/>
@@ -12175,7 +12175,7 @@
         <v/>
       </c>
       <c r="AR49" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AU49" s="1" t="s">
         <v>304</v>
@@ -12238,7 +12238,7 @@
     </row>
     <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>434</v>
@@ -12247,7 +12247,7 @@
         <v>439</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="21"/>
@@ -12334,7 +12334,7 @@
         <v/>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AS50" s="1" t="s">
         <v>301</v>
@@ -12400,7 +12400,7 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>315</v>
@@ -12409,7 +12409,7 @@
         <v>439</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H51" s="1">
         <v>1600</v>
@@ -12442,7 +12442,7 @@
         <v>1900</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W51" s="1">
         <f t="shared" si="21"/>
@@ -12529,7 +12529,7 @@
         <v/>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AU51" s="1" t="s">
         <v>305</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>435</v>
@@ -12933,7 +12933,7 @@
         <v>439</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H54" s="1">
         <v>1600</v>
@@ -12978,7 +12978,7 @@
         <v>1800</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="21"/>
@@ -13065,7 +13065,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR54" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AU54" s="1" t="s">
         <v>305</v>
@@ -13342,7 +13342,7 @@
         <v>1900</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W56" s="1" t="str">
         <f t="shared" si="21"/>
@@ -13553,7 +13553,7 @@
         <v>1800</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W57" s="1">
         <f t="shared" si="21"/>
@@ -13707,7 +13707,7 @@
     </row>
     <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>434</v>
@@ -13716,7 +13716,7 @@
         <v>54</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="21"/>
@@ -13803,7 +13803,7 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AU58" s="1" t="s">
         <v>304</v>
@@ -13866,7 +13866,7 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>436</v>
@@ -13875,7 +13875,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="21"/>
@@ -14027,7 +14027,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL59" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14834,7 +14834,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W64" s="1" t="str">
         <f t="shared" si="21"/>
@@ -14988,13 +14988,13 @@
     </row>
     <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W65" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15197,7 +15197,7 @@
         <v>2400</v>
       </c>
       <c r="V66" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" si="21"/>
@@ -15403,7 +15403,7 @@
         <v>2400</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" ref="W67:W129" si="56">IF(H67&gt;0,H67/100,"")</f>
@@ -15561,7 +15561,7 @@
     </row>
     <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>315</v>
@@ -15570,7 +15570,7 @@
         <v>439</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="56"/>
@@ -15722,7 +15722,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL68" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15896,13 +15896,13 @@
     </row>
     <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="W70" s="1" t="str">
         <f t="shared" si="56"/>
@@ -15989,7 +15989,7 @@
         <v/>
       </c>
       <c r="AR70" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS70" s="1" t="s">
         <v>301</v>
@@ -16055,7 +16055,7 @@
     </row>
     <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>436</v>
@@ -16064,7 +16064,7 @@
         <v>439</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W71" s="1" t="str">
         <f t="shared" si="56"/>
@@ -16267,7 +16267,7 @@
         <v>1900</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="56"/>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>434</v>
@@ -16430,7 +16430,7 @@
         <v>439</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="56"/>
@@ -16517,7 +16517,7 @@
         <v/>
       </c>
       <c r="AR73" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AU73" s="1" t="s">
         <v>304</v>
@@ -16625,7 +16625,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" si="56"/>
@@ -16786,7 +16786,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL74" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17186,7 +17186,7 @@
         <v>2000</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" si="56"/>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>315</v>
@@ -17352,7 +17352,7 @@
         <v>439</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="56"/>
@@ -17504,7 +17504,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL78" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17732,7 +17732,7 @@
         <v>1900</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="56"/>
@@ -17887,12 +17887,12 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL80" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>436</v>
@@ -17901,7 +17901,7 @@
         <v>439</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="56"/>
@@ -18048,13 +18048,13 @@
     </row>
     <row r="82" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H82" s="1">
         <v>1100</v>
@@ -18099,7 +18099,7 @@
         <v>1300</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" si="56"/>
@@ -18186,7 +18186,7 @@
         <v>11am-1pm</v>
       </c>
       <c r="AR82" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AS82" s="1" t="s">
         <v>301</v>
@@ -18523,7 +18523,7 @@
         <v>1830</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="56"/>
@@ -18695,7 +18695,7 @@
         <v>117</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W85" s="1" t="str">
         <f t="shared" si="56"/>
@@ -19184,7 +19184,7 @@
     </row>
     <row r="88" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>436</v>
@@ -19196,7 +19196,7 @@
         <v>439</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H88" s="1">
         <v>1600</v>
@@ -19241,7 +19241,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="56"/>
@@ -19328,7 +19328,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR88" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AS88" s="1" t="s">
         <v>301</v>
@@ -19437,7 +19437,7 @@
         <v>1800</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="56"/>
@@ -19594,13 +19594,13 @@
     </row>
     <row r="90" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>436</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H90" s="1">
         <v>1500</v>
@@ -19645,7 +19645,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="56"/>
@@ -19732,7 +19732,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR90" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AU90" s="1" t="s">
         <v>28</v>
@@ -19846,7 +19846,7 @@
         <v>1900</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" si="56"/>
@@ -20057,7 +20057,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" si="56"/>
@@ -20214,13 +20214,13 @@
     </row>
     <row r="93" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="W93" s="1" t="str">
         <f t="shared" si="56"/>
@@ -20307,7 +20307,7 @@
         <v/>
       </c>
       <c r="AR93" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU93" s="1" t="s">
         <v>28</v>
@@ -20427,7 +20427,7 @@
         <v>1900</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" si="56"/>
@@ -20581,13 +20581,13 @@
     </row>
     <row r="95" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="W95" s="1" t="str">
         <f t="shared" si="56"/>
@@ -20674,7 +20674,7 @@
         <v/>
       </c>
       <c r="AR95" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AU95" s="1" t="s">
         <v>304</v>
@@ -20737,13 +20737,13 @@
     </row>
     <row r="96" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="56"/>
@@ -21116,7 +21116,7 @@
         <v>1800</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W98" s="1">
         <f t="shared" si="56"/>
@@ -21270,7 +21270,7 @@
     </row>
     <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>314</v>
@@ -21279,7 +21279,7 @@
         <v>439</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="W99" s="1" t="str">
         <f t="shared" si="56"/>
@@ -21366,7 +21366,7 @@
         <v/>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AU99" s="1" t="s">
         <v>28</v>
@@ -21601,13 +21601,13 @@
     </row>
     <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W101" s="1" t="str">
         <f t="shared" si="56"/>
@@ -21694,7 +21694,7 @@
         <v/>
       </c>
       <c r="AR101" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AU101" s="1" t="s">
         <v>305</v>
@@ -21757,19 +21757,19 @@
     </row>
     <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H102" s="1">
         <v>1400</v>
@@ -21814,7 +21814,7 @@
         <v>1700</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="W102" s="1">
         <f t="shared" si="56"/>
@@ -21901,7 +21901,7 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR102" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AU102" s="1" t="s">
         <v>305</v>
@@ -22130,7 +22130,7 @@
     </row>
     <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>436</v>
@@ -22139,7 +22139,7 @@
         <v>439</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="56"/>
@@ -22226,7 +22226,7 @@
         <v/>
       </c>
       <c r="AR104" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AU104" s="1" t="s">
         <v>305</v>
@@ -22630,7 +22630,7 @@
     </row>
     <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>437</v>
@@ -22639,7 +22639,7 @@
         <v>439</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22684,7 +22684,7 @@
         <v>1900</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="56"/>
@@ -22771,7 +22771,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AS107" s="1" t="s">
         <v>301</v>
@@ -22895,7 +22895,7 @@
         <v>1800</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W108" s="1">
         <f t="shared" si="56"/>
@@ -23109,7 +23109,7 @@
         <v>1900</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" si="56"/>
@@ -23480,7 +23480,7 @@
         <v>1800</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W111" s="1" t="str">
         <f t="shared" si="56"/>
@@ -23638,12 +23638,12 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL111" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>435</v>
@@ -23652,7 +23652,7 @@
         <v>439</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W112" s="1" t="str">
         <f t="shared" si="56"/>
@@ -23739,7 +23739,7 @@
         <v/>
       </c>
       <c r="AR112" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AU112" s="1" t="s">
         <v>305</v>
@@ -23974,7 +23974,7 @@
         <v>315</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="56"/>
@@ -24061,7 +24061,7 @@
         <v/>
       </c>
       <c r="AR114" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AU114" s="1" t="s">
         <v>305</v>
@@ -24124,7 +24124,7 @@
     </row>
     <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>315</v>
@@ -24133,7 +24133,7 @@
         <v>54</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="56"/>
@@ -24621,7 +24621,7 @@
     </row>
     <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>436</v>
@@ -24630,7 +24630,7 @@
         <v>439</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W118" s="1" t="str">
         <f t="shared" si="56"/>
@@ -24782,18 +24782,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL118" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>436</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H119" s="1">
         <v>1500</v>
@@ -24838,7 +24838,7 @@
         <v>1800</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W119" s="1">
         <f t="shared" si="56"/>
@@ -24925,7 +24925,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR119" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>301</v>
@@ -24991,13 +24991,13 @@
     </row>
     <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H120" s="1">
         <v>1500</v>
@@ -25129,7 +25129,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR120" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AU120" s="1" t="s">
         <v>28</v>
@@ -25406,19 +25406,19 @@
     </row>
     <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J122" s="1">
         <v>1700</v>
@@ -25451,7 +25451,7 @@
         <v>2400</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="56"/>
@@ -25538,7 +25538,7 @@
         <v/>
       </c>
       <c r="AR122" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU122" s="1" t="s">
         <v>304</v>
@@ -25658,7 +25658,7 @@
         <v>1800</v>
       </c>
       <c r="V123" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W123" s="1">
         <f t="shared" si="56"/>
@@ -25981,7 +25981,7 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>434</v>
@@ -25990,7 +25990,7 @@
         <v>439</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W125" s="1" t="str">
         <f t="shared" si="56"/>
@@ -26142,12 +26142,12 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL125" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>314</v>
@@ -26156,7 +26156,7 @@
         <v>54</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="56"/>
@@ -26243,7 +26243,7 @@
         <v/>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AU126" s="1" t="s">
         <v>28</v>
@@ -26306,7 +26306,7 @@
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>314</v>
@@ -26315,7 +26315,7 @@
         <v>439</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W127" s="1" t="str">
         <f t="shared" si="56"/>
@@ -26402,7 +26402,7 @@
         <v/>
       </c>
       <c r="AR127" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AS127" s="1" t="s">
         <v>301</v>
@@ -26640,7 +26640,7 @@
     </row>
     <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>314</v>
@@ -26649,7 +26649,7 @@
         <v>54</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="56"/>
@@ -26736,7 +26736,7 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AU129" s="1" t="s">
         <v>28</v>
@@ -27264,7 +27264,7 @@
         <v>2000</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W132" s="1">
         <f t="shared" si="89"/>
@@ -27593,7 +27593,7 @@
         <v>434</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W134" s="1" t="str">
         <f t="shared" si="89"/>
@@ -27680,7 +27680,7 @@
         <v/>
       </c>
       <c r="AR134" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AU134" s="1" t="s">
         <v>304</v>
@@ -27748,7 +27748,7 @@
     </row>
     <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>436</v>
@@ -27757,7 +27757,7 @@
         <v>439</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="89"/>
@@ -27909,12 +27909,12 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL135" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>315</v>
@@ -27923,7 +27923,7 @@
         <v>54</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="89"/>
@@ -28236,7 +28236,7 @@
     </row>
     <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>436</v>
@@ -28245,7 +28245,7 @@
         <v>54</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="89"/>
@@ -28397,12 +28397,12 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL138" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>315</v>
@@ -28411,7 +28411,7 @@
         <v>439</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H139" s="1">
         <v>1500</v>
@@ -28456,7 +28456,7 @@
         <v>1800</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W139" s="1">
         <f t="shared" si="89"/>
@@ -28543,7 +28543,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR139" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AU139" s="1" t="s">
         <v>305</v>
@@ -28823,7 +28823,7 @@
         <v>1800</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" si="89"/>
@@ -28980,7 +28980,7 @@
     </row>
     <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>314</v>
@@ -28989,7 +28989,7 @@
         <v>439</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J142" s="1">
         <v>1500</v>
@@ -29022,7 +29022,7 @@
         <v>1800</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="89"/>
@@ -29220,7 +29220,7 @@
         <v>2000</v>
       </c>
       <c r="V143" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W143" s="1">
         <f t="shared" si="89"/>
@@ -29642,7 +29642,7 @@
         <v>1900</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W145" s="1">
         <f t="shared" si="89"/>
@@ -29963,7 +29963,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL146" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -30134,13 +30134,13 @@
     </row>
     <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="W148" s="1" t="str">
         <f t="shared" si="89"/>
@@ -30227,7 +30227,7 @@
         <v/>
       </c>
       <c r="AR148" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AU148" s="1" t="s">
         <v>304</v>
@@ -30460,7 +30460,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL149" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -30676,13 +30676,13 @@
     </row>
     <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="W151" s="1" t="str">
         <f t="shared" si="89"/>
@@ -30995,7 +30995,7 @@
     </row>
     <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>434</v>
@@ -31004,7 +31004,7 @@
         <v>439</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H153" s="1">
         <v>1500</v>
@@ -31049,7 +31049,7 @@
         <v>2400</v>
       </c>
       <c r="V153" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W153" s="1">
         <f t="shared" si="89"/>
@@ -31200,7 +31200,7 @@
     </row>
     <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>435</v>
@@ -31209,7 +31209,7 @@
         <v>54</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W154" s="1" t="str">
         <f t="shared" si="89"/>
@@ -31555,7 +31555,7 @@
     </row>
     <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>434</v>
@@ -31567,7 +31567,7 @@
         <v>439</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H156" s="1">
         <v>1130</v>
@@ -31600,7 +31600,7 @@
         <v>1800</v>
       </c>
       <c r="V156" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W156" s="1">
         <f t="shared" si="89"/>
@@ -31687,7 +31687,7 @@
         <v/>
       </c>
       <c r="AR156" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AS156" s="1" t="s">
         <v>301</v>
@@ -31926,7 +31926,7 @@
     </row>
     <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>435</v>
@@ -31935,7 +31935,7 @@
         <v>439</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="W158" s="1" t="str">
         <f t="shared" si="89"/>
@@ -32082,7 +32082,7 @@
     </row>
     <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>436</v>
@@ -32091,7 +32091,7 @@
         <v>439</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W159" s="1" t="str">
         <f t="shared" si="89"/>
@@ -32243,7 +32243,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL159" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -32414,13 +32414,13 @@
     </row>
     <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="W161" s="1" t="str">
         <f t="shared" si="89"/>
@@ -32781,7 +32781,7 @@
         <v>1800</v>
       </c>
       <c r="V163" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W163" s="1" t="str">
         <f t="shared" si="89"/>
@@ -32935,13 +32935,13 @@
     </row>
     <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L164" s="1">
         <v>1600</v>
@@ -33052,7 +33052,7 @@
         <v/>
       </c>
       <c r="AR164" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AU164" s="1" t="s">
         <v>305</v>
@@ -33160,7 +33160,7 @@
         <v>1800</v>
       </c>
       <c r="V165" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="W165" s="1" t="str">
         <f t="shared" si="89"/>
@@ -33314,19 +33314,19 @@
     </row>
     <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="W166" s="1" t="str">
         <f t="shared" si="89"/>
@@ -33413,7 +33413,7 @@
         <v/>
       </c>
       <c r="AR166" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AS166" s="1" t="s">
         <v>301</v>
@@ -33479,19 +33479,19 @@
     </row>
     <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J167" s="1">
         <v>1100</v>
@@ -33530,7 +33530,7 @@
         <v>1700</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W167" s="1" t="str">
         <f t="shared" si="89"/>
@@ -33617,7 +33617,7 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR167" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AU167" s="1" t="s">
         <v>304</v>
@@ -33680,13 +33680,13 @@
     </row>
     <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="W168" s="1" t="str">
         <f t="shared" si="89"/>
@@ -33773,7 +33773,7 @@
         <v/>
       </c>
       <c r="AR168" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AU168" s="1" t="s">
         <v>304</v>
@@ -33836,19 +33836,19 @@
     </row>
     <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="W169" s="1" t="str">
         <f t="shared" si="89"/>
@@ -33935,7 +33935,7 @@
         <v/>
       </c>
       <c r="AR169" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AU169" s="1" t="s">
         <v>304</v>
@@ -33998,13 +33998,13 @@
     </row>
     <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W170" s="1" t="str">
         <f t="shared" si="89"/>
@@ -34091,7 +34091,7 @@
         <v/>
       </c>
       <c r="AR170" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AS170" s="1" t="s">
         <v>301</v>
@@ -34157,7 +34157,7 @@
     </row>
     <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>436</v>
@@ -34166,7 +34166,7 @@
         <v>54</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W171" s="1" t="str">
         <f t="shared" si="89"/>
@@ -34318,7 +34318,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL171" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -34380,7 +34380,7 @@
         <v>1900</v>
       </c>
       <c r="V172" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W172" s="1">
         <f t="shared" si="89"/>
@@ -34582,7 +34582,7 @@
         <v>1900</v>
       </c>
       <c r="V173" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W173" s="1" t="str">
         <f t="shared" si="89"/>
@@ -34905,7 +34905,7 @@
     </row>
     <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>434</v>
@@ -34917,7 +34917,7 @@
         <v>54</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J175" s="1">
         <v>1500</v>
@@ -35101,13 +35101,13 @@
     </row>
     <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W176" s="1" t="str">
         <f t="shared" si="89"/>
@@ -35311,7 +35311,7 @@
         <v>1900</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W177" s="1">
         <f t="shared" si="89"/>
@@ -35634,13 +35634,13 @@
     </row>
     <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W179" s="1" t="str">
         <f t="shared" si="89"/>
@@ -35727,7 +35727,7 @@
         <v/>
       </c>
       <c r="AR179" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AU179" s="1" t="s">
         <v>28</v>
@@ -35790,13 +35790,13 @@
     </row>
     <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="W180" s="1" t="str">
         <f t="shared" si="89"/>
@@ -36115,7 +36115,7 @@
     </row>
     <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>315</v>
@@ -36127,7 +36127,7 @@
         <v>439</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W182" s="1" t="str">
         <f t="shared" si="89"/>
@@ -36214,7 +36214,7 @@
         <v/>
       </c>
       <c r="AR182" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AS182" s="1" t="s">
         <v>301</v>
@@ -36280,13 +36280,13 @@
     </row>
     <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J183" s="1">
         <v>1100</v>
@@ -36307,7 +36307,7 @@
         <v>2400</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="W183" s="1" t="str">
         <f t="shared" si="89"/>
@@ -36394,7 +36394,7 @@
         <v/>
       </c>
       <c r="AR183" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AU183" s="1" t="s">
         <v>305</v>
@@ -36789,13 +36789,13 @@
     </row>
     <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="W186" s="1" t="str">
         <f t="shared" si="89"/>
@@ -36882,7 +36882,7 @@
         <v/>
       </c>
       <c r="AR186" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AS186" s="1" t="s">
         <v>301</v>
@@ -37223,10 +37223,10 @@
         <v>-105.07418</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -37237,10 +37237,10 @@
         <v>-105.07762</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -3249,9 +3249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V70" sqref="V70"/>
+      <selection pane="bottomLeft" activeCell="BF2" sqref="BF2:BF187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3271,8 @@
     <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
     <col min="54" max="56" width="9.140625" style="1"/>
     <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.140625" style="1"/>
+    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3633,7 +3634,7 @@
         <v>easy med sfoco kid</v>
       </c>
       <c r="BF2" s="1" t="str">
-        <f>IF(C2="old","Old Town",IF(C2="campus","Near Campus",IF(C2="sfoco","South Foco",IF(C2="nfoco","North Foco",IF(C2="midtown","Midtown",IF(C2="cwest","Campus West",IF(C2="efoco","East FoCo,""")))))))</f>
+        <f>IF(C2="old","Old Town",IF(C2="campus","Near Campus",IF(C2="sfoco","South Foco",IF(C2="nfoco","North Foco",IF(C2="midtown","Midtown",IF(C2="cwest","Campus West",IF(C2="efoco","East FoCo","")))))))</f>
         <v>South Foco</v>
       </c>
       <c r="BG2" s="1">
@@ -3851,7 +3852,7 @@
         <v>hard med old</v>
       </c>
       <c r="BF3" s="1" t="str">
-        <f t="shared" ref="BF3:BF66" si="50">IF(C3="old","Old Town",IF(C3="campus","Near Campus",IF(C3="sfoco","South Foco",IF(C3="nfoco","North Foco",IF(C3="midtown","Midtown",IF(C3="cwest","Campus West",IF(C3="efoco","East FoCo,""")))))))</f>
+        <f t="shared" ref="BF3:BF66" si="50">IF(C3="old","Old Town",IF(C3="campus","Near Campus",IF(C3="sfoco","South Foco",IF(C3="nfoco","North Foco",IF(C3="midtown","Midtown",IF(C3="cwest","Campus West",IF(C3="efoco","East FoCo","")))))))</f>
         <v>Old Town</v>
       </c>
       <c r="BG3" s="1">
@@ -15629,7 +15630,7 @@
         <v>drink food easy low sfoco</v>
       </c>
       <c r="BF67" s="1" t="str">
-        <f t="shared" ref="BF67:BF130" si="114">IF(C67="old","Old Town",IF(C67="campus","Near Campus",IF(C67="sfoco","South Foco",IF(C67="nfoco","North Foco",IF(C67="midtown","Midtown",IF(C67="cwest","Campus West",IF(C67="efoco","East FoCo,""")))))))</f>
+        <f t="shared" ref="BF67:BF130" si="114">IF(C67="old","Old Town",IF(C67="campus","Near Campus",IF(C67="sfoco","South Foco",IF(C67="nfoco","North Foco",IF(C67="midtown","Midtown",IF(C67="cwest","Campus West",IF(C67="efoco","East FoCo","")))))))</f>
         <v>South Foco</v>
       </c>
       <c r="BG67" s="1">
@@ -16333,7 +16334,7 @@
       </c>
       <c r="BF71" s="1" t="str">
         <f t="shared" si="114"/>
-        <v>East FoCo,"</v>
+        <v>East FoCo</v>
       </c>
       <c r="BG71" s="1">
         <v>40.581789000000001</v>
@@ -27246,7 +27247,7 @@
         <v>outdoor hard med old</v>
       </c>
       <c r="BF131" s="1" t="str">
-        <f t="shared" ref="BF131:BF187" si="157">IF(C131="old","Old Town",IF(C131="campus","Near Campus",IF(C131="sfoco","South Foco",IF(C131="nfoco","North Foco",IF(C131="midtown","Midtown",IF(C131="cwest","Campus West",IF(C131="efoco","East FoCo,""")))))))</f>
+        <f t="shared" ref="BF131:BF187" si="157">IF(C131="old","Old Town",IF(C131="campus","Near Campus",IF(C131="sfoco","South Foco",IF(C131="nfoco","North Foco",IF(C131="midtown","Midtown",IF(C131="cwest","Campus West",IF(C131="efoco","East FoCo","")))))))</f>
         <v>Old Town</v>
       </c>
       <c r="BG131" s="1">
@@ -30871,9 +30872,9 @@
         <f t="shared" si="154"/>
         <v xml:space="preserve">easy med </v>
       </c>
-      <c r="BF151" s="1" t="b">
+      <c r="BF151" s="1" t="str">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG151" s="1">
         <v>40.582129999999999</v>
@@ -35985,9 +35986,9 @@
         <f t="shared" si="154"/>
         <v xml:space="preserve">easy med </v>
       </c>
-      <c r="BF180" s="1" t="b">
+      <c r="BF180" s="1" t="str">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG180" s="1">
         <v>40.552579999999999</v>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DD5802-5A7C-4F84-82AE-012287BB011D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$189</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2297,7 +2298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2877,12 +2878,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2901,11 +2902,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -2934,7 +2935,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3246,36 +3247,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF2" sqref="BF2:BF187"/>
+      <selection pane="bottomLeft" activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
     <col min="4" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" style="1" customWidth="1"/>
-    <col min="44" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.140625" style="1"/>
-    <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
-    <col min="54" max="56" width="9.140625" style="1"/>
-    <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="42" width="10.26953125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" style="1" customWidth="1"/>
+    <col min="44" max="49" width="9.1796875" style="1"/>
+    <col min="50" max="50" width="90.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.1796875" style="1"/>
+    <col min="53" max="53" width="10.1796875" style="1" customWidth="1"/>
+    <col min="54" max="56" width="9.1796875" style="1"/>
+    <col min="57" max="57" width="53.54296875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.453125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>462</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>690</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>520</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>524</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>583</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>527</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>529</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>742</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>594</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -6622,7 +6623,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>249</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
@@ -6999,7 +7000,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>307</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>269</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>180</v>
       </c>
@@ -7831,7 +7832,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>678</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>270</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>532</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>182</v>
       </c>
@@ -8530,7 +8531,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>667</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>535</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>537</v>
       </c>
@@ -9008,7 +9009,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>597</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>600</v>
       </c>
@@ -9330,7 +9331,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>374</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>603</v>
       </c>
@@ -9688,7 +9689,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>395</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>278</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>277</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>606</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
@@ -10824,7 +10825,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>153</v>
       </c>
@@ -10990,7 +10991,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>156</v>
       </c>
@@ -11385,7 +11386,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>77</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>452</v>
       </c>
@@ -11801,7 +11802,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>453</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>555</v>
       </c>
@@ -12166,7 +12167,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>680</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>677</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>675</v>
       </c>
@@ -12679,7 +12680,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
@@ -12845,7 +12846,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
@@ -13011,7 +13012,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>668</v>
       </c>
@@ -13024,18 +13025,6 @@
       <c r="G54" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="H54" s="1">
-        <v>1600</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1800</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1600</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1800</v>
-      </c>
       <c r="L54" s="1">
         <v>1600</v>
       </c>
@@ -13069,21 +13058,21 @@
       <c r="V54" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="W54" s="1">
+      <c r="W54" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>16</v>
-      </c>
-      <c r="X54" s="1">
+        <v/>
+      </c>
+      <c r="X54" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>18</v>
-      </c>
-      <c r="Y54" s="1">
+        <v/>
+      </c>
+      <c r="Y54" s="1" t="str">
         <f t="shared" si="23"/>
-        <v>16</v>
-      </c>
-      <c r="Z54" s="1">
+        <v/>
+      </c>
+      <c r="Z54" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="AA54" s="1">
         <f t="shared" si="25"/>
@@ -13127,11 +13116,11 @@
       </c>
       <c r="AK54" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>4pm-6pm</v>
+        <v/>
       </c>
       <c r="AL54" s="1" t="str">
         <f t="shared" si="36"/>
-        <v>4pm-6pm</v>
+        <v/>
       </c>
       <c r="AM54" s="1" t="str">
         <f t="shared" si="37"/>
@@ -13170,7 +13159,7 @@
         <v>{
     'name': "Elevated Sandwiches",
     'area': "nfoco",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$2.00 off Draft Beers&lt;br&gt; $5.00 House Wines&lt;br&gt;$1.00 off wines by the glass&lt;br&gt;$3-8 food specials including flatbread pizza", 'link':"http://www.elevatedsandwiches.com/menu/", 'pricing':"med",   'phone-number': "", 'address': "1612 N College Ave Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$2.00 off Draft Beers&lt;br&gt; $5.00 House Wines&lt;br&gt;$1.00 off wines by the glass&lt;br&gt;$3-8 food specials including flatbread pizza", 'link':"http://www.elevatedsandwiches.com/menu/", 'pricing':"med",   'phone-number': "", 'address': "1612 N College Ave Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY54" s="1" t="str">
         <f t="shared" si="43"/>
@@ -13215,7 +13204,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>159</v>
       </c>
@@ -13384,7 +13373,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>272</v>
       </c>
@@ -13583,7 +13572,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="7" t="s">
         <v>375</v>
       </c>
@@ -13794,7 +13783,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1" t="s">
         <v>689</v>
       </c>
@@ -13953,7 +13942,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
         <v>454</v>
       </c>
@@ -14119,7 +14108,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>260</v>
       </c>
@@ -14285,7 +14274,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>98</v>
       </c>
@@ -14496,7 +14485,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
@@ -14662,7 +14651,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>273</v>
       </c>
@@ -14876,7 +14865,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>281</v>
       </c>
@@ -15075,7 +15064,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>542</v>
       </c>
@@ -15233,7 +15222,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>189</v>
       </c>
@@ -15439,7 +15428,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>191</v>
       </c>
@@ -15648,7 +15637,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>455</v>
       </c>
@@ -15814,7 +15803,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>193</v>
       </c>
@@ -15983,7 +15972,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>609</v>
       </c>
@@ -16190,7 +16179,7 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
         <v>545</v>
       </c>
@@ -16351,7 +16340,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
         <v>283</v>
       </c>
@@ -16556,7 +16545,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
         <v>687</v>
       </c>
@@ -16715,7 +16704,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
         <v>387</v>
       </c>
@@ -16926,7 +16915,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
         <v>195</v>
       </c>
@@ -17098,7 +17087,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
@@ -17264,7 +17253,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>162</v>
       </c>
@@ -17478,7 +17467,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
         <v>456</v>
       </c>
@@ -17644,7 +17633,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>197</v>
       </c>
@@ -17810,7 +17799,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>24</v>
       </c>
@@ -18027,7 +18016,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>688</v>
       </c>
@@ -18183,7 +18172,7 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="82" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>612</v>
       </c>
@@ -18387,7 +18376,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="83" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>92</v>
       </c>
@@ -18601,7 +18590,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
         <v>33</v>
       </c>
@@ -18815,7 +18804,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
         <v>115</v>
       </c>
@@ -18987,7 +18976,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>739</v>
       </c>
@@ -19069,7 +19058,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="87" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
         <v>131</v>
       </c>
@@ -19235,7 +19224,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -19401,7 +19390,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>561</v>
       </c>
@@ -19615,7 +19604,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
         <v>164</v>
       </c>
@@ -19811,7 +19800,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
         <v>616</v>
       </c>
@@ -20012,7 +20001,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="92" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>384</v>
       </c>
@@ -20217,7 +20206,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
         <v>199</v>
       </c>
@@ -20431,7 +20420,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
         <v>620</v>
       </c>
@@ -20587,7 +20576,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="95" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
         <v>285</v>
       </c>
@@ -20798,7 +20787,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
         <v>623</v>
       </c>
@@ -20954,7 +20943,7 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
         <v>626</v>
       </c>
@@ -21107,7 +21096,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
         <v>379</v>
       </c>
@@ -21276,7 +21265,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
         <v>288</v>
       </c>
@@ -21487,7 +21476,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
         <v>684</v>
       </c>
@@ -21646,7 +21635,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
         <v>166</v>
       </c>
@@ -21818,7 +21807,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
         <v>628</v>
       </c>
@@ -21974,7 +21963,7 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
         <v>574</v>
       </c>
@@ -22181,7 +22170,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
         <v>62</v>
       </c>
@@ -22347,7 +22336,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
         <v>200</v>
       </c>
@@ -22513,7 +22502,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
         <v>402</v>
       </c>
@@ -22688,7 +22677,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
         <v>676</v>
       </c>
@@ -22896,7 +22885,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
         <v>121</v>
       </c>
@@ -23110,7 +23099,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
         <v>168</v>
       </c>
@@ -23321,7 +23310,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
         <v>202</v>
       </c>
@@ -23493,7 +23482,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>170</v>
       </c>
@@ -23701,7 +23690,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
         <v>674</v>
       </c>
@@ -23860,7 +23849,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
         <v>123</v>
       </c>
@@ -24026,7 +24015,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
         <v>123</v>
       </c>
@@ -24182,7 +24171,7 @@
         <v>[40.5491,-105.07603],</v>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
         <v>672</v>
       </c>
@@ -24341,7 +24330,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>204</v>
       </c>
@@ -24513,7 +24502,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
         <v>143</v>
       </c>
@@ -24679,7 +24668,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
         <v>457</v>
       </c>
@@ -24845,7 +24834,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1" t="s">
         <v>633</v>
       </c>
@@ -25049,7 +25038,7 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1" t="s">
         <v>637</v>
       </c>
@@ -25250,7 +25239,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1" t="s">
         <v>89</v>
       </c>
@@ -25464,7 +25453,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1" t="s">
         <v>589</v>
       </c>
@@ -25659,7 +25648,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
         <v>206</v>
       </c>
@@ -25870,7 +25859,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
         <v>208</v>
       </c>
@@ -26039,7 +26028,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1" t="s">
         <v>458</v>
       </c>
@@ -26205,7 +26194,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1" t="s">
         <v>673</v>
       </c>
@@ -26364,7 +26353,7 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1" t="s">
         <v>669</v>
       </c>
@@ -26526,7 +26515,7 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
         <v>210</v>
       </c>
@@ -26698,7 +26687,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1" t="s">
         <v>681</v>
       </c>
@@ -26857,7 +26846,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
         <v>172</v>
       </c>
@@ -27066,7 +27055,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
         <v>43</v>
       </c>
@@ -27265,7 +27254,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1" t="s">
         <v>212</v>
       </c>
@@ -27479,7 +27468,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1" t="s">
         <v>59</v>
       </c>
@@ -27645,7 +27634,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
         <v>59</v>
       </c>
@@ -27806,7 +27795,7 @@
       </c>
       <c r="BL134" s="12"/>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
         <v>459</v>
       </c>
@@ -27972,7 +27961,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1" t="s">
         <v>682</v>
       </c>
@@ -28128,7 +28117,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
         <v>215</v>
       </c>
@@ -28294,7 +28283,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1" t="s">
         <v>486</v>
       </c>
@@ -28460,7 +28449,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1" t="s">
         <v>670</v>
       </c>
@@ -28664,7 +28653,7 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
         <v>405</v>
       </c>
@@ -28830,7 +28819,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
         <v>386</v>
       </c>
@@ -29038,7 +29027,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1" t="s">
         <v>671</v>
       </c>
@@ -29227,7 +29216,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
         <v>218</v>
       </c>
@@ -29438,7 +29427,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
         <v>290</v>
       </c>
@@ -29649,7 +29638,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
         <v>103</v>
       </c>
@@ -29854,7 +29843,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
         <v>137</v>
       </c>
@@ -30026,7 +30015,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
         <v>118</v>
       </c>
@@ -30192,7 +30181,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
         <v>642</v>
       </c>
@@ -30348,7 +30337,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
         <v>40</v>
       </c>
@@ -30523,7 +30512,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
         <v>37</v>
       </c>
@@ -30734,7 +30723,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">
         <v>683</v>
       </c>
@@ -30887,7 +30876,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
         <v>383</v>
       </c>
@@ -31053,7 +31042,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1" t="s">
         <v>550</v>
       </c>
@@ -31258,7 +31247,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1" t="s">
         <v>685</v>
       </c>
@@ -31417,7 +31406,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1" t="s">
         <v>112</v>
       </c>
@@ -31613,7 +31602,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1" t="s">
         <v>557</v>
       </c>
@@ -31815,7 +31804,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1" t="s">
         <v>80</v>
       </c>
@@ -31984,7 +31973,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1" t="s">
         <v>686</v>
       </c>
@@ -32140,7 +32129,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1" t="s">
         <v>460</v>
       </c>
@@ -32306,7 +32295,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
         <v>100</v>
       </c>
@@ -32472,7 +32461,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
         <v>645</v>
       </c>
@@ -32625,7 +32614,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1" t="s">
         <v>83</v>
       </c>
@@ -32794,7 +32783,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
         <v>220</v>
       </c>
@@ -32993,7 +32982,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
         <v>647</v>
       </c>
@@ -33173,7 +33162,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1" t="s">
         <v>175</v>
       </c>
@@ -33372,7 +33361,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
         <v>586</v>
       </c>
@@ -33537,7 +33526,7 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
         <v>719</v>
       </c>
@@ -33738,7 +33727,7 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1" t="s">
         <v>650</v>
       </c>
@@ -33894,7 +33883,7 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1" t="s">
         <v>579</v>
       </c>
@@ -34056,7 +34045,7 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1" t="s">
         <v>653</v>
       </c>
@@ -34215,7 +34204,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1" t="s">
         <v>461</v>
       </c>
@@ -34381,7 +34370,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1" t="s">
         <v>222</v>
       </c>
@@ -34595,7 +34584,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1" t="s">
         <v>388</v>
       </c>
@@ -34797,7 +34786,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
         <v>225</v>
       </c>
@@ -34963,7 +34952,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
         <v>568</v>
       </c>
@@ -35159,7 +35148,7 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
         <v>655</v>
       </c>
@@ -35312,7 +35301,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1" t="s">
         <v>292</v>
       </c>
@@ -35523,7 +35512,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
         <v>409</v>
       </c>
@@ -35692,7 +35681,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1" t="s">
         <v>657</v>
       </c>
@@ -35848,7 +35837,7 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
         <v>679</v>
       </c>
@@ -36001,7 +35990,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
         <v>128</v>
       </c>
@@ -36173,7 +36162,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
         <v>565</v>
       </c>
@@ -36338,7 +36327,7 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1" t="s">
         <v>660</v>
       </c>
@@ -36515,7 +36504,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1" t="s">
         <v>227</v>
       </c>
@@ -36681,7 +36670,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="17" t="s">
         <v>49</v>
       </c>
@@ -36847,7 +36836,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
         <v>664</v>
       </c>
@@ -37006,7 +36995,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1" t="s">
         <v>229</v>
       </c>
@@ -37178,84 +37167,84 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AV188" s="5"/>
       <c r="AW188" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C189"/>
+  <autoFilter ref="C2:C189" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B2:BL188">
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G130" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
-    <hyperlink ref="AR41" r:id="rId2"/>
-    <hyperlink ref="AR93" r:id="rId3"/>
-    <hyperlink ref="AR28" r:id="rId4"/>
-    <hyperlink ref="AR110" r:id="rId5"/>
-    <hyperlink ref="AR20" r:id="rId6"/>
-    <hyperlink ref="AR8" r:id="rId7"/>
-    <hyperlink ref="AR53" r:id="rId8"/>
-    <hyperlink ref="AR34" r:id="rId9"/>
-    <hyperlink ref="AR62" r:id="rId10"/>
-    <hyperlink ref="AR45" r:id="rId11"/>
-    <hyperlink ref="AR157" r:id="rId12"/>
-    <hyperlink ref="AR52" r:id="rId13"/>
-    <hyperlink ref="AR121" r:id="rId14"/>
-    <hyperlink ref="AR88" r:id="rId15"/>
-    <hyperlink ref="AR61" r:id="rId16"/>
-    <hyperlink ref="AR160" r:id="rId17"/>
-    <hyperlink ref="AR145" r:id="rId18"/>
-    <hyperlink ref="AR19" r:id="rId19"/>
-    <hyperlink ref="AR10" r:id="rId20"/>
-    <hyperlink ref="AR155" r:id="rId21"/>
-    <hyperlink ref="AR85" r:id="rId22"/>
-    <hyperlink ref="AR147" r:id="rId23"/>
-    <hyperlink ref="AR108" r:id="rId24"/>
-    <hyperlink ref="AR181" r:id="rId25"/>
-    <hyperlink ref="AR87" r:id="rId26"/>
-    <hyperlink ref="AR15" r:id="rId27"/>
-    <hyperlink ref="AR80" r:id="rId28"/>
-    <hyperlink ref="AR5" r:id="rId29"/>
-    <hyperlink ref="AR7" r:id="rId30"/>
-    <hyperlink ref="AR42" r:id="rId31"/>
-    <hyperlink ref="AR44" r:id="rId32"/>
-    <hyperlink ref="AR55" r:id="rId33"/>
-    <hyperlink ref="AR77" r:id="rId34"/>
-    <hyperlink ref="AR90" r:id="rId35"/>
-    <hyperlink ref="AR101" r:id="rId36"/>
-    <hyperlink ref="AR109" r:id="rId37"/>
-    <hyperlink ref="AR111" r:id="rId38"/>
-    <hyperlink ref="AR130" r:id="rId39"/>
-    <hyperlink ref="AR16" r:id="rId40"/>
-    <hyperlink ref="AR24" r:id="rId41"/>
-    <hyperlink ref="AR60" r:id="rId42"/>
-    <hyperlink ref="AR75" r:id="rId43"/>
-    <hyperlink ref="AR79" r:id="rId44"/>
-    <hyperlink ref="AR105" r:id="rId45"/>
-    <hyperlink ref="AR123" r:id="rId46"/>
-    <hyperlink ref="AR132" r:id="rId47"/>
-    <hyperlink ref="AR137" r:id="rId48"/>
-    <hyperlink ref="AR143" r:id="rId49"/>
-    <hyperlink ref="AR163" r:id="rId50"/>
-    <hyperlink ref="AR174" r:id="rId51"/>
-    <hyperlink ref="AR187" r:id="rId52"/>
-    <hyperlink ref="AR23" r:id="rId53"/>
-    <hyperlink ref="AR56" r:id="rId54"/>
-    <hyperlink ref="AR63" r:id="rId55"/>
-    <hyperlink ref="AR64" r:id="rId56"/>
-    <hyperlink ref="AR72" r:id="rId57"/>
-    <hyperlink ref="AR95" r:id="rId58"/>
-    <hyperlink ref="AR99" r:id="rId59"/>
-    <hyperlink ref="AR144" r:id="rId60"/>
-    <hyperlink ref="AR177" r:id="rId61"/>
-    <hyperlink ref="AR57" r:id="rId62"/>
-    <hyperlink ref="AR74" r:id="rId63"/>
-    <hyperlink ref="AR46" r:id="rId64"/>
-    <hyperlink ref="AR9" r:id="rId65"/>
-    <hyperlink ref="AR167" r:id="rId66"/>
-    <hyperlink ref="B11" r:id="rId67" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
-    <hyperlink ref="AR166" r:id="rId68"/>
+    <hyperlink ref="G130" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AR41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AR93" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR110" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AR53" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AR62" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AR45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AR157" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AR52" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AR121" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AR88" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AR61" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AR160" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR145" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AR155" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AR85" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AR147" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AR108" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AR181" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR87" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AR80" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AR42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AR55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AR77" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AR90" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AR101" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AR109" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AR111" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AR130" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AR16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AR24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR60" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AR75" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AR79" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AR105" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR123" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AR132" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AR137" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AR143" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR163" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR174" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AR187" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AR23" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AR56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AR63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AR64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AR72" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AR95" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AR99" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AR144" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR177" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR74" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR46" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR9" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AR167" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B11" r:id="rId67" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="AR166" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId69"/>
@@ -37263,19 +37252,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="11">
         <v>40.588749999999997</v>
       </c>
@@ -37289,7 +37278,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="11">
         <v>40.58587</v>
       </c>
@@ -37303,7 +37292,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="11">
         <v>40.566600000000001</v>
       </c>
@@ -37315,35 +37304,35 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -37357,14 +37346,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DD5802-5A7C-4F84-82AE-012287BB011D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$189</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1534,9 +1533,6 @@
     <t>Aperol Spritz, Gin and Tonic, Martini, Manhattan, Local Draft Beer, French 75, Negroni, Old Fashioned: $5 &lt;br&gt; House Red Wine, House White Wine, Rose of the Day: $6 &lt;br&gt; Selection of Happy Hour Foods</t>
   </si>
   <si>
-    <t>1/2 off beer and cider &lt;br&gt; Almost wines 1/2 off &lt;br&gt; $6 Mini cheeseboard &lt;br&gt; Other food specials</t>
-  </si>
-  <si>
     <t>$2 PBR and Bud Lite &lt;br&gt; $3 Wells &lt;br&gt; $3.25 drafts &lt;br&gt; $3.50 wine</t>
   </si>
   <si>
@@ -2293,12 +2289,15 @@
   </si>
   <si>
     <t>Private parking lot! Makes parking a snap!</t>
+  </si>
+  <si>
+    <t>Discounted drinks and food specials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2878,12 +2877,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="37"/>
+    <cellStyle name="60% - Accent2" xfId="38"/>
+    <cellStyle name="60% - Accent3" xfId="39"/>
+    <cellStyle name="60% - Accent4" xfId="40"/>
+    <cellStyle name="60% - Accent5" xfId="41"/>
+    <cellStyle name="60% - Accent6" xfId="42"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2902,11 +2901,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Neutral" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title" xfId="35"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -2935,7 +2934,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3247,36 +3246,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U54" sqref="U54"/>
+      <selection pane="bottomLeft" activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.54296875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="42" width="10.26953125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.81640625" style="1" customWidth="1"/>
-    <col min="44" max="49" width="9.1796875" style="1"/>
-    <col min="50" max="50" width="90.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.1796875" style="1"/>
-    <col min="53" max="53" width="10.1796875" style="1" customWidth="1"/>
-    <col min="54" max="56" width="9.1796875" style="1"/>
-    <col min="57" max="57" width="53.54296875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.453125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.1796875" style="1"/>
+    <col min="40" max="42" width="10.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" style="1" customWidth="1"/>
+    <col min="44" max="49" width="9.140625" style="1"/>
+    <col min="50" max="50" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="1"/>
+    <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
+    <col min="54" max="56" width="9.140625" style="1"/>
+    <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>462</v>
       </c>
@@ -3656,10 +3655,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3871,9 +3870,9 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>434</v>
@@ -3882,7 +3881,7 @@
         <v>439</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="21"/>
@@ -3969,7 +3968,7 @@
         <v/>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>304</v>
@@ -4030,7 +4029,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -4196,21 +4195,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="21"/>
@@ -4360,7 +4359,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4591,7 +4590,7 @@
         <v>1800</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="21"/>
@@ -4746,21 +4745,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H9" s="1">
         <v>1500</v>
@@ -4805,7 +4804,7 @@
         <v>1800</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="21"/>
@@ -4960,7 +4959,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -5174,21 +5173,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>314</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="21"/>
@@ -5275,7 +5274,7 @@
         <v/>
       </c>
       <c r="AR11" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>28</v>
@@ -5336,21 +5335,21 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="21"/>
@@ -5500,9 +5499,9 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>434</v>
@@ -5511,7 +5510,7 @@
         <v>439</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="21"/>
@@ -5661,9 +5660,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>315</v>
@@ -5672,7 +5671,7 @@
         <v>439</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H14" s="1">
         <v>1500</v>
@@ -5717,7 +5716,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" ref="W14" si="53">IF(H14&gt;0,H14/100,"")</f>
@@ -5804,7 +5803,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>301</v>
@@ -5813,7 +5812,7 @@
         <v>305</v>
       </c>
       <c r="AV14" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AW14" s="5" t="s">
         <v>312</v>
@@ -5872,7 +5871,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>1900</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6241,18 +6240,18 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6339,7 +6338,7 @@
         <v/>
       </c>
       <c r="AR17" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>301</v>
@@ -6403,7 +6402,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>1800</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="21"/>
@@ -6623,7 +6622,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>249</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>2400</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="21"/>
@@ -6834,7 +6833,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>307</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
@@ -7258,7 +7257,7 @@
         <v>1600</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="21"/>
@@ -7419,7 +7418,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>269</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>180</v>
       </c>
@@ -7832,9 +7831,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>434</v>
@@ -7843,7 +7842,7 @@
         <v>439</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P25" s="1">
         <v>2000</v>
@@ -7864,7 +7863,7 @@
         <v>2000</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="21"/>
@@ -7951,7 +7950,7 @@
         <v>6pm-8pm</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AU25" s="1" t="s">
         <v>304</v>
@@ -8012,7 +8011,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>270</v>
       </c>
@@ -8196,21 +8195,21 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8359,7 +8358,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>182</v>
       </c>
@@ -8531,9 +8530,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>315</v>
@@ -8542,7 +8541,7 @@
         <v>439</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8687,9 +8686,9 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>436</v>
@@ -8698,7 +8697,7 @@
         <v>439</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8848,9 +8847,9 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>314</v>
@@ -8859,7 +8858,7 @@
         <v>439</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9009,15 +9008,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9104,7 +9103,7 @@
         <v/>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU32" s="1" t="s">
         <v>305</v>
@@ -9165,15 +9164,15 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9260,7 +9259,7 @@
         <v/>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU33" s="1" t="s">
         <v>305</v>
@@ -9331,7 +9330,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>374</v>
       </c>
@@ -9378,7 +9377,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W34" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9533,15 +9532,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="W35" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9628,7 +9627,7 @@
         <v/>
       </c>
       <c r="AR35" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU35" s="1" t="s">
         <v>28</v>
@@ -9689,7 +9688,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>395</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>278</v>
       </c>
@@ -10117,10 +10116,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>277</v>
       </c>
@@ -10322,15 +10321,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>435</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="21"/>
@@ -10417,7 +10416,7 @@
         <v/>
       </c>
       <c r="AR39" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AU39" s="1" t="s">
         <v>305</v>
@@ -10478,7 +10477,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
@@ -10825,7 +10824,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>153</v>
       </c>
@@ -10991,7 +10990,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>1800</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="21"/>
@@ -11196,7 +11195,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>156</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>77</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>452</v>
       </c>
@@ -11802,7 +11801,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>453</v>
       </c>
@@ -11968,9 +11967,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>436</v>
@@ -12167,9 +12166,9 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>434</v>
@@ -12178,7 +12177,7 @@
         <v>54</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W49" s="1" t="str">
         <f t="shared" si="21"/>
@@ -12265,7 +12264,7 @@
         <v/>
       </c>
       <c r="AR49" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AU49" s="1" t="s">
         <v>304</v>
@@ -12326,9 +12325,9 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>434</v>
@@ -12337,7 +12336,7 @@
         <v>439</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="21"/>
@@ -12424,7 +12423,7 @@
         <v/>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AS50" s="1" t="s">
         <v>301</v>
@@ -12488,9 +12487,9 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>315</v>
@@ -12499,7 +12498,7 @@
         <v>439</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H51" s="1">
         <v>1600</v>
@@ -12532,7 +12531,7 @@
         <v>1900</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="W51" s="1">
         <f t="shared" si="21"/>
@@ -12619,7 +12618,7 @@
         <v/>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AU51" s="1" t="s">
         <v>305</v>
@@ -12680,7 +12679,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
@@ -13012,9 +13011,9 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>435</v>
@@ -13023,7 +13022,7 @@
         <v>439</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L54" s="1">
         <v>1600</v>
@@ -13056,7 +13055,7 @@
         <v>1800</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="W54" s="1" t="str">
         <f t="shared" si="21"/>
@@ -13143,7 +13142,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR54" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AU54" s="1" t="s">
         <v>305</v>
@@ -13204,7 +13203,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>159</v>
       </c>
@@ -13373,7 +13372,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>272</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="7" t="s">
         <v>375</v>
       </c>
@@ -13783,9 +13782,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>434</v>
@@ -13794,7 +13793,7 @@
         <v>54</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="21"/>
@@ -13881,7 +13880,7 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AU58" s="1" t="s">
         <v>304</v>
@@ -13942,7 +13941,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>454</v>
       </c>
@@ -14108,7 +14107,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>260</v>
       </c>
@@ -14274,7 +14273,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>98</v>
       </c>
@@ -14485,7 +14484,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
@@ -14651,7 +14650,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>273</v>
       </c>
@@ -14865,7 +14864,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>281</v>
       </c>
@@ -14882,37 +14881,37 @@
         <v>282</v>
       </c>
       <c r="J64" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K64" s="1">
         <v>1800</v>
       </c>
       <c r="L64" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M64" s="1">
         <v>1800</v>
       </c>
       <c r="N64" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O64" s="1">
         <v>1800</v>
       </c>
       <c r="P64" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="Q64" s="1">
         <v>1800</v>
       </c>
       <c r="R64" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="S64" s="1">
         <v>1800</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>500</v>
+        <v>752</v>
       </c>
       <c r="W64" s="1" t="str">
         <f t="shared" si="21"/>
@@ -14924,7 +14923,7 @@
       </c>
       <c r="Y64" s="1">
         <f t="shared" si="23"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" si="24"/>
@@ -14932,7 +14931,7 @@
       </c>
       <c r="AA64" s="1">
         <f t="shared" si="25"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB64" s="1">
         <f t="shared" si="26"/>
@@ -14940,7 +14939,7 @@
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="27"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD64" s="1">
         <f t="shared" si="28"/>
@@ -14948,7 +14947,7 @@
       </c>
       <c r="AE64" s="1">
         <f t="shared" si="29"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF64" s="1">
         <f t="shared" si="30"/>
@@ -14956,7 +14955,7 @@
       </c>
       <c r="AG64" s="1">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH64" s="1">
         <f t="shared" si="32"/>
@@ -14976,23 +14975,23 @@
       </c>
       <c r="AL64" s="1" t="str">
         <f t="shared" si="36"/>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM64" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AN64" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO64" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AP64" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AQ64" s="1" t="str">
         <f t="shared" si="41"/>
@@ -15015,7 +15014,7 @@
         <v>{
     'name': "Fox and Crow",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "1/2 off beer and cider &lt;br&gt; Almost wines 1/2 off &lt;br&gt; $6 Mini cheeseboard &lt;br&gt; Other food specials", 'link':"http://www.thefoxandthecrow.net/", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave Suite #9, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Discounted drinks and food specials", 'link':"http://www.thefoxandthecrow.net/", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave Suite #9, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY64" s="1" t="str">
         <f t="shared" si="43"/>
@@ -15064,15 +15063,15 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W65" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15222,7 +15221,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>189</v>
       </c>
@@ -15275,7 +15274,7 @@
         <v>2400</v>
       </c>
       <c r="V66" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" si="21"/>
@@ -15428,7 +15427,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>191</v>
       </c>
@@ -15481,7 +15480,7 @@
         <v>2400</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" ref="W67:W129" si="85">IF(H67&gt;0,H67/100,"")</f>
@@ -15637,7 +15636,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>455</v>
       </c>
@@ -15803,7 +15802,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>193</v>
       </c>
@@ -15972,9 +15971,9 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>434</v>
@@ -15983,7 +15982,7 @@
         <v>439</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H70" s="1">
         <v>1600</v>
@@ -16028,7 +16027,7 @@
         <v>1800</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="W70" s="1">
         <f t="shared" si="85"/>
@@ -16115,7 +16114,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR70" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS70" s="1" t="s">
         <v>301</v>
@@ -16179,18 +16178,18 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W71" s="1" t="str">
         <f t="shared" si="85"/>
@@ -16340,7 +16339,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>283</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>1900</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="85"/>
@@ -16545,9 +16544,9 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>434</v>
@@ -16556,7 +16555,7 @@
         <v>439</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="85"/>
@@ -16643,7 +16642,7 @@
         <v/>
       </c>
       <c r="AR73" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AU73" s="1" t="s">
         <v>304</v>
@@ -16704,7 +16703,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>387</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" si="85"/>
@@ -16912,10 +16911,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL74" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>195</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
@@ -17253,7 +17252,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>162</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>2000</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" si="85"/>
@@ -17467,7 +17466,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>456</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>197</v>
       </c>
@@ -17799,7 +17798,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>24</v>
       </c>
@@ -17858,7 +17857,7 @@
         <v>1900</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="85"/>
@@ -18016,9 +18015,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>436</v>
@@ -18027,7 +18026,7 @@
         <v>439</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="85"/>
@@ -18172,15 +18171,15 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="82" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H82" s="1">
         <v>1100</v>
@@ -18225,7 +18224,7 @@
         <v>1300</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" si="85"/>
@@ -18312,7 +18311,7 @@
         <v>11am-1pm</v>
       </c>
       <c r="AR82" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AS82" s="1" t="s">
         <v>301</v>
@@ -18376,7 +18375,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="83" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>92</v>
       </c>
@@ -18590,7 +18589,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>33</v>
       </c>
@@ -18649,7 +18648,7 @@
         <v>1830</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="85"/>
@@ -18804,7 +18803,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>115</v>
       </c>
@@ -18821,7 +18820,7 @@
         <v>117</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W85" s="1" t="str">
         <f t="shared" si="85"/>
@@ -18976,9 +18975,9 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>315</v>
@@ -18987,10 +18986,10 @@
         <v>439</v>
       </c>
       <c r="G86" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="AR86" s="4" t="s">
         <v>740</v>
-      </c>
-      <c r="AR86" s="4" t="s">
-        <v>741</v>
       </c>
       <c r="AS86" s="1" t="s">
         <v>301</v>
@@ -19058,7 +19057,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="87" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>131</v>
       </c>
@@ -19224,7 +19223,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -19390,9 +19389,9 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>436</v>
@@ -19404,7 +19403,7 @@
         <v>439</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H89" s="1">
         <v>1600</v>
@@ -19449,7 +19448,7 @@
         <v>1800</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" si="85"/>
@@ -19536,7 +19535,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR89" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AS89" s="1" t="s">
         <v>301</v>
@@ -19604,7 +19603,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>164</v>
       </c>
@@ -19645,7 +19644,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W90" s="1" t="str">
         <f t="shared" si="85"/>
@@ -19800,15 +19799,15 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>436</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H91" s="1">
         <v>1500</v>
@@ -19853,7 +19852,7 @@
         <v>1800</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" si="85"/>
@@ -19940,7 +19939,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR91" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AU91" s="1" t="s">
         <v>28</v>
@@ -20001,7 +20000,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="92" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>384</v>
       </c>
@@ -20054,7 +20053,7 @@
         <v>1900</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" si="85"/>
@@ -20206,7 +20205,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>199</v>
       </c>
@@ -20265,7 +20264,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="85"/>
@@ -20420,15 +20419,15 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="85"/>
@@ -20515,7 +20514,7 @@
         <v/>
       </c>
       <c r="AR94" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU94" s="1" t="s">
         <v>28</v>
@@ -20576,7 +20575,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="95" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>285</v>
       </c>
@@ -20635,7 +20634,7 @@
         <v>1900</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="85"/>
@@ -20787,15 +20786,15 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="85"/>
@@ -20882,7 +20881,7 @@
         <v/>
       </c>
       <c r="AR96" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AU96" s="1" t="s">
         <v>304</v>
@@ -20943,15 +20942,15 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="W97" s="1" t="str">
         <f t="shared" si="85"/>
@@ -21096,7 +21095,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>379</v>
       </c>
@@ -21265,7 +21264,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>288</v>
       </c>
@@ -21324,7 +21323,7 @@
         <v>1800</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="85"/>
@@ -21476,9 +21475,9 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>314</v>
@@ -21487,7 +21486,7 @@
         <v>439</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W100" s="1" t="str">
         <f t="shared" si="85"/>
@@ -21574,7 +21573,7 @@
         <v/>
       </c>
       <c r="AR100" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AU100" s="1" t="s">
         <v>28</v>
@@ -21635,7 +21634,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>166</v>
       </c>
@@ -21807,15 +21806,15 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="85"/>
@@ -21902,7 +21901,7 @@
         <v/>
       </c>
       <c r="AR102" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AU102" s="1" t="s">
         <v>305</v>
@@ -21963,21 +21962,21 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H103" s="1">
         <v>1400</v>
@@ -22022,7 +22021,7 @@
         <v>1700</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W103" s="1">
         <f t="shared" si="85"/>
@@ -22109,7 +22108,7 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR103" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AU103" s="1" t="s">
         <v>305</v>
@@ -22170,7 +22169,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>62</v>
       </c>
@@ -22336,7 +22335,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>200</v>
       </c>
@@ -22502,7 +22501,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>402</v>
       </c>
@@ -22677,9 +22676,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>437</v>
@@ -22688,7 +22687,7 @@
         <v>439</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22733,7 +22732,7 @@
         <v>1900</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="85"/>
@@ -22820,7 +22819,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AS107" s="1" t="s">
         <v>301</v>
@@ -22885,7 +22884,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>121</v>
       </c>
@@ -22944,7 +22943,7 @@
         <v>1800</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W108" s="1">
         <f t="shared" si="85"/>
@@ -23099,7 +23098,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>168</v>
       </c>
@@ -23158,7 +23157,7 @@
         <v>1900</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" si="85"/>
@@ -23310,7 +23309,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>202</v>
       </c>
@@ -23482,7 +23481,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>170</v>
       </c>
@@ -23529,7 +23528,7 @@
         <v>1800</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W111" s="1" t="str">
         <f t="shared" si="85"/>
@@ -23690,9 +23689,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>435</v>
@@ -23701,7 +23700,7 @@
         <v>439</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W112" s="1" t="str">
         <f t="shared" si="85"/>
@@ -23788,7 +23787,7 @@
         <v/>
       </c>
       <c r="AR112" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AU112" s="1" t="s">
         <v>305</v>
@@ -23849,7 +23848,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>123</v>
       </c>
@@ -24015,7 +24014,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>123</v>
       </c>
@@ -24023,7 +24022,7 @@
         <v>315</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="85"/>
@@ -24110,7 +24109,7 @@
         <v/>
       </c>
       <c r="AR114" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AU114" s="1" t="s">
         <v>305</v>
@@ -24171,9 +24170,9 @@
         <v>[40.5491,-105.07603],</v>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>315</v>
@@ -24182,7 +24181,7 @@
         <v>54</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="85"/>
@@ -24330,7 +24329,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>204</v>
       </c>
@@ -24502,7 +24501,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>143</v>
       </c>
@@ -24668,7 +24667,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>457</v>
       </c>
@@ -24834,15 +24833,15 @@
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>436</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H119" s="1">
         <v>1500</v>
@@ -24887,7 +24886,7 @@
         <v>1800</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W119" s="1">
         <f t="shared" si="85"/>
@@ -24974,7 +24973,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR119" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>301</v>
@@ -25038,15 +25037,15 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H120" s="1">
         <v>1500</v>
@@ -25178,7 +25177,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR120" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AU120" s="1" t="s">
         <v>28</v>
@@ -25239,7 +25238,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>89</v>
       </c>
@@ -25453,21 +25452,21 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J122" s="1">
         <v>1700</v>
@@ -25500,7 +25499,7 @@
         <v>2400</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="85"/>
@@ -25587,7 +25586,7 @@
         <v/>
       </c>
       <c r="AR122" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU122" s="1" t="s">
         <v>304</v>
@@ -25648,7 +25647,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>206</v>
       </c>
@@ -25707,7 +25706,7 @@
         <v>1800</v>
       </c>
       <c r="V123" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W123" s="1">
         <f t="shared" si="85"/>
@@ -25859,7 +25858,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>208</v>
       </c>
@@ -26028,7 +26027,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>458</v>
       </c>
@@ -26194,9 +26193,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>314</v>
@@ -26205,7 +26204,7 @@
         <v>54</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="85"/>
@@ -26292,7 +26291,7 @@
         <v/>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AU126" s="1" t="s">
         <v>28</v>
@@ -26353,9 +26352,9 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>314</v>
@@ -26364,7 +26363,7 @@
         <v>439</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W127" s="1" t="str">
         <f t="shared" si="85"/>
@@ -26451,7 +26450,7 @@
         <v/>
       </c>
       <c r="AR127" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AS127" s="1" t="s">
         <v>301</v>
@@ -26515,7 +26514,7 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>210</v>
       </c>
@@ -26687,9 +26686,9 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>314</v>
@@ -26698,7 +26697,7 @@
         <v>54</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="85"/>
@@ -26785,7 +26784,7 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AU129" s="1" t="s">
         <v>28</v>
@@ -26846,7 +26845,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>172</v>
       </c>
@@ -27055,7 +27054,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>43</v>
       </c>
@@ -27254,7 +27253,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>212</v>
       </c>
@@ -27313,7 +27312,7 @@
         <v>2000</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W132" s="1">
         <f t="shared" si="126"/>
@@ -27468,7 +27467,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>59</v>
       </c>
@@ -27634,7 +27633,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>59</v>
       </c>
@@ -27642,7 +27641,7 @@
         <v>434</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W134" s="1" t="str">
         <f t="shared" si="126"/>
@@ -27729,7 +27728,7 @@
         <v/>
       </c>
       <c r="AR134" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AU134" s="1" t="s">
         <v>304</v>
@@ -27795,7 +27794,7 @@
       </c>
       <c r="BL134" s="12"/>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>459</v>
       </c>
@@ -27961,9 +27960,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>315</v>
@@ -27972,7 +27971,7 @@
         <v>54</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="126"/>
@@ -28117,7 +28116,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>215</v>
       </c>
@@ -28283,7 +28282,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>486</v>
       </c>
@@ -28449,9 +28448,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>315</v>
@@ -28460,7 +28459,7 @@
         <v>439</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H139" s="1">
         <v>1500</v>
@@ -28505,7 +28504,7 @@
         <v>1800</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="W139" s="1">
         <f t="shared" si="126"/>
@@ -28592,7 +28591,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR139" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AU139" s="1" t="s">
         <v>305</v>
@@ -28653,7 +28652,7 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>405</v>
       </c>
@@ -28819,7 +28818,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>386</v>
       </c>
@@ -29027,9 +29026,9 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>314</v>
@@ -29038,7 +29037,7 @@
         <v>439</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J142" s="1">
         <v>1500</v>
@@ -29071,7 +29070,7 @@
         <v>1800</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="126"/>
@@ -29216,7 +29215,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>218</v>
       </c>
@@ -29269,7 +29268,7 @@
         <v>2000</v>
       </c>
       <c r="V143" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W143" s="1">
         <f t="shared" si="126"/>
@@ -29427,7 +29426,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>290</v>
       </c>
@@ -29638,7 +29637,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>103</v>
       </c>
@@ -29691,7 +29690,7 @@
         <v>1900</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W145" s="1">
         <f t="shared" si="126"/>
@@ -29843,7 +29842,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>137</v>
       </c>
@@ -30015,7 +30014,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>118</v>
       </c>
@@ -30181,15 +30180,15 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W148" s="1" t="str">
         <f t="shared" si="126"/>
@@ -30276,7 +30275,7 @@
         <v/>
       </c>
       <c r="AR148" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AU148" s="1" t="s">
         <v>304</v>
@@ -30337,7 +30336,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>40</v>
       </c>
@@ -30512,7 +30511,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>37</v>
       </c>
@@ -30723,15 +30722,15 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W151" s="1" t="str">
         <f t="shared" si="126"/>
@@ -30876,7 +30875,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>383</v>
       </c>
@@ -31042,9 +31041,9 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>434</v>
@@ -31053,7 +31052,7 @@
         <v>439</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H153" s="1">
         <v>1500</v>
@@ -31098,7 +31097,7 @@
         <v>2400</v>
       </c>
       <c r="V153" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W153" s="1">
         <f t="shared" si="126"/>
@@ -31247,9 +31246,9 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>435</v>
@@ -31258,7 +31257,7 @@
         <v>54</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="W154" s="1" t="str">
         <f t="shared" si="126"/>
@@ -31406,7 +31405,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>112</v>
       </c>
@@ -31602,9 +31601,9 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>434</v>
@@ -31616,7 +31615,7 @@
         <v>439</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H156" s="1">
         <v>1130</v>
@@ -31649,7 +31648,7 @@
         <v>1800</v>
       </c>
       <c r="V156" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W156" s="1">
         <f t="shared" si="126"/>
@@ -31736,7 +31735,7 @@
         <v/>
       </c>
       <c r="AR156" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AS156" s="1" t="s">
         <v>301</v>
@@ -31804,7 +31803,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>80</v>
       </c>
@@ -31973,9 +31972,9 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>435</v>
@@ -31984,7 +31983,7 @@
         <v>439</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="W158" s="1" t="str">
         <f t="shared" si="126"/>
@@ -32129,7 +32128,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>460</v>
       </c>
@@ -32295,7 +32294,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>100</v>
       </c>
@@ -32461,15 +32460,15 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W161" s="1" t="str">
         <f t="shared" si="126"/>
@@ -32614,7 +32613,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>83</v>
       </c>
@@ -32783,7 +32782,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>220</v>
       </c>
@@ -32830,7 +32829,7 @@
         <v>1800</v>
       </c>
       <c r="V163" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W163" s="1" t="str">
         <f t="shared" si="126"/>
@@ -32982,15 +32981,15 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L164" s="1">
         <v>1600</v>
@@ -33101,7 +33100,7 @@
         <v/>
       </c>
       <c r="AR164" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AU164" s="1" t="s">
         <v>305</v>
@@ -33162,7 +33161,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>175</v>
       </c>
@@ -33209,7 +33208,7 @@
         <v>1800</v>
       </c>
       <c r="V165" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W165" s="1" t="str">
         <f t="shared" si="126"/>
@@ -33361,21 +33360,21 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="W166" s="1" t="str">
         <f t="shared" si="126"/>
@@ -33462,7 +33461,7 @@
         <v/>
       </c>
       <c r="AR166" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AS166" s="1" t="s">
         <v>301</v>
@@ -33526,21 +33525,21 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J167" s="1">
         <v>1100</v>
@@ -33579,7 +33578,7 @@
         <v>1700</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W167" s="1" t="str">
         <f t="shared" si="126"/>
@@ -33666,7 +33665,7 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR167" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AU167" s="1" t="s">
         <v>304</v>
@@ -33727,15 +33726,15 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W168" s="1" t="str">
         <f t="shared" si="126"/>
@@ -33822,7 +33821,7 @@
         <v/>
       </c>
       <c r="AR168" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AU168" s="1" t="s">
         <v>304</v>
@@ -33883,21 +33882,21 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="W169" s="1" t="str">
         <f t="shared" si="126"/>
@@ -33984,7 +33983,7 @@
         <v/>
       </c>
       <c r="AR169" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AU169" s="1" t="s">
         <v>304</v>
@@ -34045,15 +34044,15 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W170" s="1" t="str">
         <f t="shared" si="126"/>
@@ -34140,7 +34139,7 @@
         <v/>
       </c>
       <c r="AR170" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AS170" s="1" t="s">
         <v>301</v>
@@ -34204,7 +34203,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>461</v>
       </c>
@@ -34370,7 +34369,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>222</v>
       </c>
@@ -34429,7 +34428,7 @@
         <v>1900</v>
       </c>
       <c r="V172" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W172" s="1">
         <f t="shared" si="126"/>
@@ -34584,7 +34583,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>388</v>
       </c>
@@ -34631,7 +34630,7 @@
         <v>1900</v>
       </c>
       <c r="V173" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W173" s="1" t="str">
         <f t="shared" si="126"/>
@@ -34786,7 +34785,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>225</v>
       </c>
@@ -34952,9 +34951,9 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>434</v>
@@ -34966,7 +34965,7 @@
         <v>54</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J175" s="1">
         <v>1500</v>
@@ -35148,15 +35147,15 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W176" s="1" t="str">
         <f t="shared" si="126"/>
@@ -35301,7 +35300,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>292</v>
       </c>
@@ -35360,7 +35359,7 @@
         <v>1900</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W177" s="1">
         <f t="shared" si="126"/>
@@ -35512,7 +35511,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>409</v>
       </c>
@@ -35681,15 +35680,15 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="W179" s="1" t="str">
         <f t="shared" si="126"/>
@@ -35776,7 +35775,7 @@
         <v/>
       </c>
       <c r="AR179" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AU179" s="1" t="s">
         <v>28</v>
@@ -35837,15 +35836,15 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="W180" s="1" t="str">
         <f t="shared" si="126"/>
@@ -35990,7 +35989,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>128</v>
       </c>
@@ -36162,9 +36161,9 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>315</v>
@@ -36176,7 +36175,7 @@
         <v>439</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W182" s="1" t="str">
         <f t="shared" si="126"/>
@@ -36263,7 +36262,7 @@
         <v/>
       </c>
       <c r="AR182" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AS182" s="1" t="s">
         <v>301</v>
@@ -36327,15 +36326,15 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J183" s="1">
         <v>1100</v>
@@ -36356,7 +36355,7 @@
         <v>2400</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W183" s="1" t="str">
         <f t="shared" si="126"/>
@@ -36443,7 +36442,7 @@
         <v/>
       </c>
       <c r="AR183" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU183" s="1" t="s">
         <v>305</v>
@@ -36504,7 +36503,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>227</v>
       </c>
@@ -36670,7 +36669,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="17" t="s">
         <v>49</v>
       </c>
@@ -36836,15 +36835,15 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="W186" s="1" t="str">
         <f t="shared" si="126"/>
@@ -36931,7 +36930,7 @@
         <v/>
       </c>
       <c r="AR186" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AS186" s="1" t="s">
         <v>301</v>
@@ -36995,7 +36994,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>229</v>
       </c>
@@ -37167,84 +37166,84 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AV188" s="5"/>
       <c r="AW188" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C189" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:C189"/>
   <sortState ref="B2:BL188">
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G130" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AR41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AR93" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AR110" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AR53" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AR62" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AR45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AR157" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AR52" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AR121" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AR88" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AR61" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AR160" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR145" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AR155" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AR85" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AR147" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AR108" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AR181" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR87" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AR80" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AR42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AR55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AR77" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AR90" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AR101" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AR109" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="AR111" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AR130" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="AR16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AR24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR60" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AR75" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AR79" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AR105" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR123" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AR132" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AR137" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AR143" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR163" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR174" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR187" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AR23" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="AR56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AR63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AR64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AR72" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AR95" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="AR99" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR144" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR177" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR74" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR46" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR9" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AR167" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B11" r:id="rId67" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="AR166" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G130" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
+    <hyperlink ref="AR41" r:id="rId2"/>
+    <hyperlink ref="AR93" r:id="rId3"/>
+    <hyperlink ref="AR28" r:id="rId4"/>
+    <hyperlink ref="AR110" r:id="rId5"/>
+    <hyperlink ref="AR20" r:id="rId6"/>
+    <hyperlink ref="AR8" r:id="rId7"/>
+    <hyperlink ref="AR53" r:id="rId8"/>
+    <hyperlink ref="AR34" r:id="rId9"/>
+    <hyperlink ref="AR62" r:id="rId10"/>
+    <hyperlink ref="AR45" r:id="rId11"/>
+    <hyperlink ref="AR157" r:id="rId12"/>
+    <hyperlink ref="AR52" r:id="rId13"/>
+    <hyperlink ref="AR121" r:id="rId14"/>
+    <hyperlink ref="AR88" r:id="rId15"/>
+    <hyperlink ref="AR61" r:id="rId16"/>
+    <hyperlink ref="AR160" r:id="rId17"/>
+    <hyperlink ref="AR145" r:id="rId18"/>
+    <hyperlink ref="AR19" r:id="rId19"/>
+    <hyperlink ref="AR10" r:id="rId20"/>
+    <hyperlink ref="AR155" r:id="rId21"/>
+    <hyperlink ref="AR85" r:id="rId22"/>
+    <hyperlink ref="AR147" r:id="rId23"/>
+    <hyperlink ref="AR108" r:id="rId24"/>
+    <hyperlink ref="AR181" r:id="rId25"/>
+    <hyperlink ref="AR87" r:id="rId26"/>
+    <hyperlink ref="AR15" r:id="rId27"/>
+    <hyperlink ref="AR80" r:id="rId28"/>
+    <hyperlink ref="AR5" r:id="rId29"/>
+    <hyperlink ref="AR7" r:id="rId30"/>
+    <hyperlink ref="AR42" r:id="rId31"/>
+    <hyperlink ref="AR44" r:id="rId32"/>
+    <hyperlink ref="AR55" r:id="rId33"/>
+    <hyperlink ref="AR77" r:id="rId34"/>
+    <hyperlink ref="AR90" r:id="rId35"/>
+    <hyperlink ref="AR101" r:id="rId36"/>
+    <hyperlink ref="AR109" r:id="rId37"/>
+    <hyperlink ref="AR111" r:id="rId38"/>
+    <hyperlink ref="AR130" r:id="rId39"/>
+    <hyperlink ref="AR16" r:id="rId40"/>
+    <hyperlink ref="AR24" r:id="rId41"/>
+    <hyperlink ref="AR60" r:id="rId42"/>
+    <hyperlink ref="AR75" r:id="rId43"/>
+    <hyperlink ref="AR79" r:id="rId44"/>
+    <hyperlink ref="AR105" r:id="rId45"/>
+    <hyperlink ref="AR123" r:id="rId46"/>
+    <hyperlink ref="AR132" r:id="rId47"/>
+    <hyperlink ref="AR137" r:id="rId48"/>
+    <hyperlink ref="AR143" r:id="rId49"/>
+    <hyperlink ref="AR163" r:id="rId50"/>
+    <hyperlink ref="AR174" r:id="rId51"/>
+    <hyperlink ref="AR187" r:id="rId52"/>
+    <hyperlink ref="AR23" r:id="rId53"/>
+    <hyperlink ref="AR56" r:id="rId54"/>
+    <hyperlink ref="AR63" r:id="rId55"/>
+    <hyperlink ref="AR64" r:id="rId56"/>
+    <hyperlink ref="AR72" r:id="rId57"/>
+    <hyperlink ref="AR95" r:id="rId58"/>
+    <hyperlink ref="AR99" r:id="rId59"/>
+    <hyperlink ref="AR144" r:id="rId60"/>
+    <hyperlink ref="AR177" r:id="rId61"/>
+    <hyperlink ref="AR57" r:id="rId62"/>
+    <hyperlink ref="AR74" r:id="rId63"/>
+    <hyperlink ref="AR46" r:id="rId64"/>
+    <hyperlink ref="AR9" r:id="rId65"/>
+    <hyperlink ref="AR167" r:id="rId66"/>
+    <hyperlink ref="B11" r:id="rId67" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
+    <hyperlink ref="AR166" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId69"/>
@@ -37252,19 +37251,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="11">
         <v>40.588749999999997</v>
       </c>
@@ -37272,13 +37271,13 @@
         <v>-105.07418</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
         <v>40.58587</v>
       </c>
@@ -37286,13 +37285,13 @@
         <v>-105.07762</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
         <v>40.566600000000001</v>
       </c>
@@ -37304,35 +37303,35 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -37346,14 +37345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -3250,8 +3250,8 @@
   <dimension ref="B1:BL188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V64" sqref="V64"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T98" sqref="T98:U98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21111,6 +21111,36 @@
       <c r="G98" s="9" t="s">
         <v>376</v>
       </c>
+      <c r="L98" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M98" s="1">
+        <v>1800</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1600</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1800</v>
+      </c>
+      <c r="P98" s="1">
+        <v>1600</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R98" s="1">
+        <v>1600</v>
+      </c>
+      <c r="S98" s="1">
+        <v>1800</v>
+      </c>
+      <c r="T98" s="1">
+        <v>1600</v>
+      </c>
+      <c r="U98" s="1">
+        <v>1800</v>
+      </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="85"/>
         <v/>
@@ -21127,45 +21157,45 @@
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="AA98" s="1" t="str">
+      <c r="AA98" s="1">
         <f t="shared" si="89"/>
-        <v/>
-      </c>
-      <c r="AB98" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AB98" s="1">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="AC98" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AC98" s="1">
         <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="AD98" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AD98" s="1">
         <f t="shared" si="92"/>
-        <v/>
-      </c>
-      <c r="AE98" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AE98" s="1">
         <f t="shared" si="93"/>
-        <v/>
-      </c>
-      <c r="AF98" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AF98" s="1">
         <f t="shared" si="94"/>
-        <v/>
-      </c>
-      <c r="AG98" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AG98" s="1">
         <f t="shared" si="95"/>
-        <v/>
-      </c>
-      <c r="AH98" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AH98" s="1">
         <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="AI98" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AI98" s="1">
         <f t="shared" si="97"/>
-        <v/>
-      </c>
-      <c r="AJ98" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AJ98" s="1">
         <f t="shared" si="98"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AK98" s="1" t="str">
         <f t="shared" si="99"/>
@@ -21177,23 +21207,23 @@
       </c>
       <c r="AM98" s="1" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AN98" s="1" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AO98" s="1" t="str">
         <f t="shared" si="103"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AP98" s="1" t="str">
         <f t="shared" si="104"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AQ98" s="1" t="str">
         <f t="shared" si="105"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AR98" s="1" t="s">
         <v>381</v>
@@ -21215,7 +21245,7 @@
         <v>{
     'name': "Magic Rat",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://magicratlivemusic.com", 'pricing':"med",   'phone-number': "", 'address': "378 Walnut St, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"https://magicratlivemusic.com", 'pricing':"med",   'phone-number': "", 'address': "378 Walnut St, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY98" s="1" t="str">
         <f t="shared" si="107"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97CE874-8528-4C62-8E46-25DAF792C7A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$191</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1659,10 +1660,6 @@
     <t>Funkwerks</t>
   </si>
   <si>
-    <t xml:space="preserve">Monday&lt;br&gt;All day:&lt;br&gt;$1 12oz domestics &lt;br&gt;$2.75 18oz micros &lt;br&gt;$1 tacos&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;All day:&lt;br&gt;$2.50 Oskar Blues &lt;br&gt;$2 wells &lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;All day:&lt;br&gt;$3.50 frozen margaritas&lt;br&gt;$3 micro pints&lt;br&gt;$2 domestic pints &lt;br&gt;&lt;br&gt;Friday&lt;br&gt;All day:&lt;br&gt;$2.75 Mexican beers&lt;br&gt;$2 fat tire pints&lt;br&gt;&lt;br&gt;Saturday &amp; Sunday&lt;br&gt;All day: &lt;br&gt;$2 domestic 18oz drafts and $6.50 pitchers &lt;br&gt;$3 micro 18oz drafts and $10 pitchers
-</t>
-  </si>
-  <si>
     <t>Monday-Friday&lt;br&gt;3-6 pm:&lt;br&gt;$2 wells, $3 calls&lt;br&gt;$2 18oz domestics, $3 18oz micros&lt;br&gt;&lt;br&gt;Saturday &lt;br&gt;$2 New Belgium pints all day</t>
   </si>
   <si>
@@ -2319,12 +2316,16 @@
   </si>
   <si>
     <t>205 1/2 4th Street Windsor, CO 80550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday&lt;br&gt;All day:&lt;br&gt;$1 12oz domestics &lt;br&gt;$2.75 18oz micros &lt;br&gt;$1 tacos - after 8pm&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;All day:&lt;br&gt;$2.50 Oskar Blues &lt;br&gt;$2 wells &lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;All day:&lt;br&gt;$3.50 frozen margaritas&lt;br&gt;$3 micro pints&lt;br&gt;$2 domestic pints &lt;br&gt;&lt;br&gt;Friday&lt;br&gt;All day:&lt;br&gt;$2.75 Mexican beers&lt;br&gt;$2 fat tire pints&lt;br&gt;&lt;br&gt;Saturday &amp; Sunday&lt;br&gt;All day: &lt;br&gt;$2 domestic 18oz drafts and $6.50 pitchers &lt;br&gt;$3 micro 18oz drafts and $10 pitchers
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2904,12 +2905,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2928,11 +2929,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -2961,7 +2962,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3273,36 +3274,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY72" sqref="AY72:BE73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V67" sqref="V67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
     <col min="4" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" style="1" customWidth="1"/>
-    <col min="44" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.140625" style="1"/>
-    <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
-    <col min="54" max="56" width="9.140625" style="1"/>
-    <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="42" width="10.26953125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" style="1" customWidth="1"/>
+    <col min="44" max="49" width="9.1796875" style="1"/>
+    <col min="50" max="50" width="90.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.1796875" style="1"/>
+    <col min="53" max="53" width="10.1796875" style="1" customWidth="1"/>
+    <col min="54" max="56" width="9.1796875" style="1"/>
+    <col min="57" max="57" width="53.54296875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.453125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>462</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3897,9 +3898,9 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>434</v>
@@ -3908,7 +3909,7 @@
         <v>439</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="21"/>
@@ -3995,7 +3996,7 @@
         <v/>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>304</v>
@@ -4056,7 +4057,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>519</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>523</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -5200,21 +5201,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>314</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="21"/>
@@ -5301,7 +5302,7 @@
         <v/>
       </c>
       <c r="AR11" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>28</v>
@@ -5362,7 +5363,7 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>526</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>528</v>
       </c>
@@ -5687,9 +5688,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>315</v>
@@ -5698,7 +5699,7 @@
         <v>439</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H14" s="1">
         <v>1500</v>
@@ -5743,7 +5744,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" ref="W14" si="53">IF(H14&gt;0,H14/100,"")</f>
@@ -5830,7 +5831,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>301</v>
@@ -5839,7 +5840,7 @@
         <v>305</v>
       </c>
       <c r="AV14" s="18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AW14" s="5" t="s">
         <v>312</v>
@@ -5898,7 +5899,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>1900</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6267,18 +6268,18 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6365,7 +6366,7 @@
         <v/>
       </c>
       <c r="AR17" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>301</v>
@@ -6429,7 +6430,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>1800</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="21"/>
@@ -6649,7 +6650,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>249</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>2400</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="21"/>
@@ -6860,7 +6861,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7026,7 +7027,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>307</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>269</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>180</v>
       </c>
@@ -7858,9 +7859,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>434</v>
@@ -7869,7 +7870,7 @@
         <v>439</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P25" s="1">
         <v>2000</v>
@@ -7890,7 +7891,7 @@
         <v>2000</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="21"/>
@@ -7977,7 +7978,7 @@
         <v>6pm-8pm</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AU25" s="1" t="s">
         <v>304</v>
@@ -8038,7 +8039,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>270</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>531</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>182</v>
       </c>
@@ -8557,9 +8558,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>315</v>
@@ -8568,7 +8569,7 @@
         <v>439</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8713,7 +8714,7 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>534</v>
       </c>
@@ -8874,7 +8875,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>536</v>
       </c>
@@ -9035,15 +9036,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9130,7 +9131,7 @@
         <v/>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AU32" s="1" t="s">
         <v>305</v>
@@ -9191,15 +9192,15 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9286,7 +9287,7 @@
         <v/>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU33" s="1" t="s">
         <v>305</v>
@@ -9357,7 +9358,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>374</v>
       </c>
@@ -9559,15 +9560,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W35" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9654,7 +9655,7 @@
         <v/>
       </c>
       <c r="AR35" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AU35" s="1" t="s">
         <v>28</v>
@@ -9715,7 +9716,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>395</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>278</v>
       </c>
@@ -10143,10 +10144,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>277</v>
       </c>
@@ -10348,15 +10349,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>435</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="21"/>
@@ -10443,7 +10444,7 @@
         <v/>
       </c>
       <c r="AR39" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AU39" s="1" t="s">
         <v>305</v>
@@ -10504,7 +10505,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
@@ -10673,18 +10674,18 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H41" s="1">
         <v>1600</v>
@@ -10729,7 +10730,7 @@
         <v>1800</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" ref="W41" si="84">IF(H41&gt;0,H41/100,"")</f>
@@ -10816,7 +10817,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR41" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AU41" s="1" t="s">
         <v>28</v>
@@ -10881,7 +10882,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>153</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
@@ -11430,7 +11431,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
@@ -11834,7 +11835,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>452</v>
       </c>
@@ -12036,7 +12037,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>453</v>
       </c>
@@ -12202,9 +12203,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>436</v>
@@ -12401,9 +12402,9 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>434</v>
@@ -12412,7 +12413,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="21"/>
@@ -12499,7 +12500,7 @@
         <v/>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AU50" s="1" t="s">
         <v>304</v>
@@ -12560,9 +12561,9 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>434</v>
@@ -12571,7 +12572,7 @@
         <v>439</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="21"/>
@@ -12658,7 +12659,7 @@
         <v/>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AS51" s="1" t="s">
         <v>301</v>
@@ -12722,9 +12723,9 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>315</v>
@@ -12733,7 +12734,7 @@
         <v>439</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H52" s="1">
         <v>1600</v>
@@ -12766,7 +12767,7 @@
         <v>1900</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="21"/>
@@ -12853,7 +12854,7 @@
         <v/>
       </c>
       <c r="AR52" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AU52" s="1" t="s">
         <v>305</v>
@@ -12914,7 +12915,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
@@ -13080,7 +13081,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
@@ -13246,9 +13247,9 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>435</v>
@@ -13257,7 +13258,7 @@
         <v>439</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L55" s="1">
         <v>1600</v>
@@ -13290,7 +13291,7 @@
         <v>1800</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="W55" s="1" t="str">
         <f t="shared" si="21"/>
@@ -13377,7 +13378,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AU55" s="1" t="s">
         <v>305</v>
@@ -13438,7 +13439,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>159</v>
       </c>
@@ -13607,7 +13608,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>272</v>
       </c>
@@ -13806,7 +13807,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="7" t="s">
         <v>375</v>
       </c>
@@ -14017,9 +14018,9 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>434</v>
@@ -14028,7 +14029,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="21"/>
@@ -14115,7 +14116,7 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AU59" s="1" t="s">
         <v>304</v>
@@ -14176,7 +14177,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>454</v>
       </c>
@@ -14342,7 +14343,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>260</v>
       </c>
@@ -14508,7 +14509,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
@@ -14719,7 +14720,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
@@ -14885,7 +14886,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>273</v>
       </c>
@@ -15099,7 +15100,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>281</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="W65" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15298,7 +15299,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>541</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>189</v>
       </c>
@@ -15509,7 +15510,7 @@
         <v>2400</v>
       </c>
       <c r="V67" s="6" t="s">
-        <v>542</v>
+        <v>761</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" si="21"/>
@@ -15612,7 +15613,7 @@
         <v>{
     'name': "Fuzzy's Taco Shop - Elizabeth",
     'area': "cwest",'hours': {
-      'sunday-start':"800", 'sunday-end':"2400", 'monday-start':"800", 'monday-end':"2400", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"800", 'wednesday-end':"2400", 'thursday-start':"800", 'thursday-end':"2400", 'friday-start':"800", 'friday-end':"2400", 'saturday-start':"800", 'saturday-end':"2400"},  'description': "Monday&lt;br&gt;All day:&lt;br&gt;$1 12oz domestics &lt;br&gt;$2.75 18oz micros &lt;br&gt;$1 tacos&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;All day:&lt;br&gt;$2.50 Oskar Blues &lt;br&gt;$2 wells &lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;All day:&lt;br&gt;$3.50 frozen margaritas&lt;br&gt;$3 micro pints&lt;br&gt;$2 domestic pints &lt;br&gt;&lt;br&gt;Friday&lt;br&gt;All day:&lt;br&gt;$2.75 Mexican beers&lt;br&gt;$2 fat tire pints&lt;br&gt;&lt;br&gt;Saturday &amp; Sunday&lt;br&gt;All day: &lt;br&gt;$2 domestic 18oz drafts and $6.50 pitchers &lt;br&gt;$3 micro 18oz drafts and $10 pitchers
+      'sunday-start':"800", 'sunday-end':"2400", 'monday-start':"800", 'monday-end':"2400", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"800", 'wednesday-end':"2400", 'thursday-start':"800", 'thursday-end':"2400", 'friday-start':"800", 'friday-end':"2400", 'saturday-start':"800", 'saturday-end':"2400"},  'description': "Monday&lt;br&gt;All day:&lt;br&gt;$1 12oz domestics &lt;br&gt;$2.75 18oz micros &lt;br&gt;$1 tacos - after 8pm&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;All day:&lt;br&gt;$2.50 Oskar Blues &lt;br&gt;$2 wells &lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;All day:&lt;br&gt;$3.50 frozen margaritas&lt;br&gt;$3 micro pints&lt;br&gt;$2 domestic pints &lt;br&gt;&lt;br&gt;Friday&lt;br&gt;All day:&lt;br&gt;$2.75 Mexican beers&lt;br&gt;$2 fat tire pints&lt;br&gt;&lt;br&gt;Saturday &amp; Sunday&lt;br&gt;All day: &lt;br&gt;$2 domestic 18oz drafts and $6.50 pitchers &lt;br&gt;$3 micro 18oz drafts and $10 pitchers
 ", 'link':"https://www.fuzzystacoshop.com/locations/fort-collins-co-elizabeth", 'pricing':"low",   'phone-number': "", 'address': "1335 W. Elizabeth Street, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY67" s="1" t="str">
@@ -15662,7 +15663,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>191</v>
       </c>
@@ -15715,7 +15716,7 @@
         <v>2400</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" ref="W68:W131" si="115">IF(H68&gt;0,H68/100,"")</f>
@@ -15871,7 +15872,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>455</v>
       </c>
@@ -16037,7 +16038,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>193</v>
       </c>
@@ -16206,9 +16207,9 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>434</v>
@@ -16217,7 +16218,7 @@
         <v>439</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H71" s="1">
         <v>1600</v>
@@ -16262,7 +16263,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="115"/>
@@ -16349,7 +16350,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR71" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AS71" s="1" t="s">
         <v>301</v>
@@ -16413,18 +16414,18 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="115"/>
@@ -16574,18 +16575,18 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H73" s="1">
         <v>1500</v>
@@ -16630,7 +16631,7 @@
         <v>1800</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" ref="W73" si="145">IF(H73&gt;0,H73/100,"")</f>
@@ -16717,7 +16718,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR73" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AU73" s="1" t="s">
         <v>305</v>
@@ -16782,7 +16783,7 @@
         <v>[40.47964,-104.90192],</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
         <v>283</v>
       </c>
@@ -16987,9 +16988,9 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>434</v>
@@ -16998,7 +16999,7 @@
         <v>439</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W75" s="1" t="str">
         <f t="shared" si="115"/>
@@ -17085,7 +17086,7 @@
         <v/>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AU75" s="1" t="s">
         <v>304</v>
@@ -17146,7 +17147,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
         <v>387</v>
       </c>
@@ -17354,10 +17355,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL76" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>195</v>
       </c>
@@ -17529,7 +17530,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
         <v>46</v>
       </c>
@@ -17695,7 +17696,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>162</v>
       </c>
@@ -17909,7 +17910,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>456</v>
       </c>
@@ -18075,7 +18076,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>197</v>
       </c>
@@ -18241,7 +18242,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>24</v>
       </c>
@@ -18458,9 +18459,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>436</v>
@@ -18469,7 +18470,7 @@
         <v>439</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W83" s="1" t="str">
         <f t="shared" si="115"/>
@@ -18614,15 +18615,15 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H84" s="1">
         <v>1100</v>
@@ -18667,7 +18668,7 @@
         <v>1300</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="115"/>
@@ -18754,7 +18755,7 @@
         <v>11am-1pm</v>
       </c>
       <c r="AR84" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>301</v>
@@ -18818,7 +18819,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
         <v>92</v>
       </c>
@@ -19032,7 +19033,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>33</v>
       </c>
@@ -19246,7 +19247,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
         <v>115</v>
       </c>
@@ -19418,9 +19419,9 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>315</v>
@@ -19429,10 +19430,10 @@
         <v>439</v>
       </c>
       <c r="G88" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="AR88" s="4" t="s">
         <v>739</v>
-      </c>
-      <c r="AR88" s="4" t="s">
-        <v>740</v>
       </c>
       <c r="AS88" s="1" t="s">
         <v>301</v>
@@ -19500,7 +19501,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>131</v>
       </c>
@@ -19666,7 +19667,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
         <v>95</v>
       </c>
@@ -19832,9 +19833,9 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>436</v>
@@ -19846,7 +19847,7 @@
         <v>439</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H91" s="1">
         <v>1600</v>
@@ -19891,7 +19892,7 @@
         <v>1800</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" si="115"/>
@@ -19978,7 +19979,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR91" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AS91" s="1" t="s">
         <v>301</v>
@@ -20046,7 +20047,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>164</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="115"/>
@@ -20242,15 +20243,15 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>436</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H93" s="1">
         <v>1500</v>
@@ -20295,7 +20296,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="115"/>
@@ -20382,7 +20383,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR93" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AU93" s="1" t="s">
         <v>28</v>
@@ -20443,7 +20444,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
         <v>384</v>
       </c>
@@ -20648,7 +20649,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
         <v>199</v>
       </c>
@@ -20862,15 +20863,15 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="115"/>
@@ -20957,7 +20958,7 @@
         <v/>
       </c>
       <c r="AR96" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AU96" s="1" t="s">
         <v>28</v>
@@ -21018,7 +21019,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
         <v>285</v>
       </c>
@@ -21229,15 +21230,15 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="115"/>
@@ -21324,7 +21325,7 @@
         <v/>
       </c>
       <c r="AR98" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AU98" s="1" t="s">
         <v>304</v>
@@ -21385,15 +21386,15 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W99" s="1" t="str">
         <f t="shared" si="115"/>
@@ -21538,7 +21539,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
         <v>379</v>
       </c>
@@ -21737,7 +21738,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
         <v>288</v>
       </c>
@@ -21948,9 +21949,9 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>314</v>
@@ -21959,7 +21960,7 @@
         <v>439</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="115"/>
@@ -22046,7 +22047,7 @@
         <v/>
       </c>
       <c r="AR102" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AU102" s="1" t="s">
         <v>28</v>
@@ -22107,7 +22108,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
         <v>166</v>
       </c>
@@ -22279,15 +22280,15 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="115"/>
@@ -22374,7 +22375,7 @@
         <v/>
       </c>
       <c r="AR104" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AU104" s="1" t="s">
         <v>305</v>
@@ -22435,21 +22436,21 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H105" s="1">
         <v>1400</v>
@@ -22494,7 +22495,7 @@
         <v>1700</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W105" s="1">
         <f t="shared" si="115"/>
@@ -22581,7 +22582,7 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR105" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AU105" s="1" t="s">
         <v>305</v>
@@ -22642,7 +22643,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
         <v>62</v>
       </c>
@@ -22808,7 +22809,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
         <v>200</v>
       </c>
@@ -22974,7 +22975,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
         <v>402</v>
       </c>
@@ -23149,9 +23150,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>437</v>
@@ -23160,7 +23161,7 @@
         <v>439</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H109" s="1">
         <v>1600</v>
@@ -23205,7 +23206,7 @@
         <v>1900</v>
       </c>
       <c r="V109" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" si="115"/>
@@ -23292,7 +23293,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AS109" s="1" t="s">
         <v>301</v>
@@ -23357,7 +23358,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
         <v>121</v>
       </c>
@@ -23571,7 +23572,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>168</v>
       </c>
@@ -23782,7 +23783,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
         <v>202</v>
       </c>
@@ -23954,7 +23955,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
         <v>170</v>
       </c>
@@ -24001,7 +24002,7 @@
         <v>1800</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W113" s="1" t="str">
         <f t="shared" si="115"/>
@@ -24162,9 +24163,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>435</v>
@@ -24173,7 +24174,7 @@
         <v>439</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="115"/>
@@ -24260,7 +24261,7 @@
         <v/>
       </c>
       <c r="AR114" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AU114" s="1" t="s">
         <v>305</v>
@@ -24321,7 +24322,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
         <v>123</v>
       </c>
@@ -24487,7 +24488,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>123</v>
       </c>
@@ -24495,7 +24496,7 @@
         <v>315</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="W116" s="1" t="str">
         <f t="shared" si="115"/>
@@ -24582,7 +24583,7 @@
         <v/>
       </c>
       <c r="AR116" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AU116" s="1" t="s">
         <v>305</v>
@@ -24643,9 +24644,9 @@
         <v>[40.5491,-105.07603],</v>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>315</v>
@@ -24654,7 +24655,7 @@
         <v>54</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="W117" s="1" t="str">
         <f t="shared" si="115"/>
@@ -24802,7 +24803,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
         <v>204</v>
       </c>
@@ -24974,7 +24975,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1" t="s">
         <v>143</v>
       </c>
@@ -25140,7 +25141,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1" t="s">
         <v>457</v>
       </c>
@@ -25306,15 +25307,15 @@
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>436</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -25359,7 +25360,7 @@
         <v>1800</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="115"/>
@@ -25446,7 +25447,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR121" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AS121" s="1" t="s">
         <v>301</v>
@@ -25510,15 +25511,15 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H122" s="1">
         <v>1500</v>
@@ -25650,7 +25651,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR122" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AU122" s="1" t="s">
         <v>28</v>
@@ -25711,7 +25712,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
         <v>89</v>
       </c>
@@ -25925,21 +25926,21 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J124" s="1">
         <v>1700</v>
@@ -25972,7 +25973,7 @@
         <v>2400</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="W124" s="1" t="str">
         <f t="shared" si="115"/>
@@ -26059,7 +26060,7 @@
         <v/>
       </c>
       <c r="AR124" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU124" s="1" t="s">
         <v>304</v>
@@ -26120,7 +26121,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1" t="s">
         <v>206</v>
       </c>
@@ -26331,7 +26332,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1" t="s">
         <v>208</v>
       </c>
@@ -26500,7 +26501,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1" t="s">
         <v>458</v>
       </c>
@@ -26666,9 +26667,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>314</v>
@@ -26677,7 +26678,7 @@
         <v>54</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="W128" s="1" t="str">
         <f t="shared" si="115"/>
@@ -26764,7 +26765,7 @@
         <v/>
       </c>
       <c r="AR128" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AU128" s="1" t="s">
         <v>28</v>
@@ -26825,9 +26826,9 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>314</v>
@@ -26836,7 +26837,7 @@
         <v>439</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="115"/>
@@ -26923,7 +26924,7 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AS129" s="1" t="s">
         <v>301</v>
@@ -26987,7 +26988,7 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
         <v>210</v>
       </c>
@@ -27159,9 +27160,9 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>314</v>
@@ -27170,7 +27171,7 @@
         <v>54</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W131" s="1" t="str">
         <f t="shared" si="115"/>
@@ -27257,7 +27258,7 @@
         <v/>
       </c>
       <c r="AR131" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AU131" s="1" t="s">
         <v>28</v>
@@ -27318,7 +27319,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1" t="s">
         <v>172</v>
       </c>
@@ -27527,7 +27528,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1" t="s">
         <v>43</v>
       </c>
@@ -27726,7 +27727,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
         <v>212</v>
       </c>
@@ -27785,7 +27786,7 @@
         <v>2000</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" si="184"/>
@@ -27940,7 +27941,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
         <v>59</v>
       </c>
@@ -28106,7 +28107,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1" t="s">
         <v>59</v>
       </c>
@@ -28114,7 +28115,7 @@
         <v>434</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="184"/>
@@ -28201,7 +28202,7 @@
         <v/>
       </c>
       <c r="AR136" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AU136" s="1" t="s">
         <v>304</v>
@@ -28267,7 +28268,7 @@
       </c>
       <c r="BL136" s="12"/>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
         <v>459</v>
       </c>
@@ -28433,9 +28434,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>315</v>
@@ -28444,7 +28445,7 @@
         <v>54</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="184"/>
@@ -28589,7 +28590,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1" t="s">
         <v>215</v>
       </c>
@@ -28755,7 +28756,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
         <v>486</v>
       </c>
@@ -28921,9 +28922,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>315</v>
@@ -28932,7 +28933,7 @@
         <v>439</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H141" s="1">
         <v>1500</v>
@@ -28977,7 +28978,7 @@
         <v>1800</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" si="184"/>
@@ -29064,7 +29065,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR141" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AU141" s="1" t="s">
         <v>305</v>
@@ -29125,7 +29126,7 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1" t="s">
         <v>405</v>
       </c>
@@ -29291,7 +29292,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
         <v>386</v>
       </c>
@@ -29499,9 +29500,9 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>314</v>
@@ -29510,7 +29511,7 @@
         <v>439</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J144" s="1">
         <v>1500</v>
@@ -29543,7 +29544,7 @@
         <v>1800</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="W144" s="1" t="str">
         <f t="shared" si="184"/>
@@ -29688,7 +29689,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
         <v>218</v>
       </c>
@@ -29741,7 +29742,7 @@
         <v>2000</v>
       </c>
       <c r="V145" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W145" s="1">
         <f t="shared" si="184"/>
@@ -29899,7 +29900,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
         <v>290</v>
       </c>
@@ -30110,7 +30111,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
         <v>103</v>
       </c>
@@ -30163,7 +30164,7 @@
         <v>1900</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W147" s="1">
         <f t="shared" si="184"/>
@@ -30315,7 +30316,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
         <v>137</v>
       </c>
@@ -30487,7 +30488,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
         <v>118</v>
       </c>
@@ -30653,15 +30654,15 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W150" s="1" t="str">
         <f t="shared" si="184"/>
@@ -30748,7 +30749,7 @@
         <v/>
       </c>
       <c r="AR150" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AU150" s="1" t="s">
         <v>304</v>
@@ -30809,7 +30810,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">
         <v>40</v>
       </c>
@@ -30984,7 +30985,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
         <v>37</v>
       </c>
@@ -31195,15 +31196,15 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W153" s="1" t="str">
         <f t="shared" si="184"/>
@@ -31348,7 +31349,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1" t="s">
         <v>383</v>
       </c>
@@ -31514,9 +31515,9 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>434</v>
@@ -31525,7 +31526,7 @@
         <v>439</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H155" s="1">
         <v>1500</v>
@@ -31570,7 +31571,7 @@
         <v>2400</v>
       </c>
       <c r="V155" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W155" s="1">
         <f t="shared" si="184"/>
@@ -31719,9 +31720,9 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>435</v>
@@ -31730,7 +31731,7 @@
         <v>54</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="W156" s="1" t="str">
         <f t="shared" si="184"/>
@@ -31878,7 +31879,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1" t="s">
         <v>112</v>
       </c>
@@ -32074,9 +32075,9 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>434</v>
@@ -32088,7 +32089,7 @@
         <v>439</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H158" s="1">
         <v>1130</v>
@@ -32121,7 +32122,7 @@
         <v>1800</v>
       </c>
       <c r="V158" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W158" s="1">
         <f t="shared" si="184"/>
@@ -32208,7 +32209,7 @@
         <v/>
       </c>
       <c r="AR158" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AS158" s="1" t="s">
         <v>301</v>
@@ -32276,7 +32277,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1" t="s">
         <v>80</v>
       </c>
@@ -32445,9 +32446,9 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>435</v>
@@ -32456,7 +32457,7 @@
         <v>439</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="W160" s="1" t="str">
         <f t="shared" si="184"/>
@@ -32601,7 +32602,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
         <v>460</v>
       </c>
@@ -32767,7 +32768,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1" t="s">
         <v>100</v>
       </c>
@@ -32933,15 +32934,15 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W163" s="1" t="str">
         <f t="shared" si="184"/>
@@ -33086,7 +33087,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
         <v>83</v>
       </c>
@@ -33255,7 +33256,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1" t="s">
         <v>220</v>
       </c>
@@ -33454,15 +33455,15 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L166" s="1">
         <v>1600</v>
@@ -33573,7 +33574,7 @@
         <v/>
       </c>
       <c r="AR166" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AU166" s="1" t="s">
         <v>305</v>
@@ -33634,7 +33635,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
         <v>175</v>
       </c>
@@ -33833,21 +33834,21 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="W168" s="1" t="str">
         <f t="shared" si="184"/>
@@ -33934,7 +33935,7 @@
         <v/>
       </c>
       <c r="AR168" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AS168" s="1" t="s">
         <v>301</v>
@@ -33998,21 +33999,21 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J169" s="1">
         <v>1100</v>
@@ -34051,7 +34052,7 @@
         <v>1700</v>
       </c>
       <c r="V169" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W169" s="1" t="str">
         <f t="shared" si="184"/>
@@ -34138,7 +34139,7 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR169" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AU169" s="1" t="s">
         <v>304</v>
@@ -34199,15 +34200,15 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W170" s="1" t="str">
         <f t="shared" si="184"/>
@@ -34294,7 +34295,7 @@
         <v/>
       </c>
       <c r="AR170" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AU170" s="1" t="s">
         <v>304</v>
@@ -34355,21 +34356,21 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="W171" s="1" t="str">
         <f t="shared" si="184"/>
@@ -34456,7 +34457,7 @@
         <v/>
       </c>
       <c r="AR171" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AU171" s="1" t="s">
         <v>304</v>
@@ -34517,15 +34518,15 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>434</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W172" s="1" t="str">
         <f t="shared" si="184"/>
@@ -34612,7 +34613,7 @@
         <v/>
       </c>
       <c r="AR172" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AS172" s="1" t="s">
         <v>301</v>
@@ -34676,7 +34677,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1" t="s">
         <v>461</v>
       </c>
@@ -34842,7 +34843,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
         <v>222</v>
       </c>
@@ -35056,7 +35057,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
         <v>388</v>
       </c>
@@ -35258,7 +35259,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
         <v>225</v>
       </c>
@@ -35424,9 +35425,9 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>434</v>
@@ -35438,7 +35439,7 @@
         <v>54</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J177" s="1">
         <v>1500</v>
@@ -35620,15 +35621,15 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="W178" s="1" t="str">
         <f t="shared" si="184"/>
@@ -35773,7 +35774,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1" t="s">
         <v>292</v>
       </c>
@@ -35984,7 +35985,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
         <v>409</v>
       </c>
@@ -36153,15 +36154,15 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="W181" s="1" t="str">
         <f t="shared" si="184"/>
@@ -36248,7 +36249,7 @@
         <v/>
       </c>
       <c r="AR181" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AU181" s="1" t="s">
         <v>28</v>
@@ -36309,15 +36310,15 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="W182" s="1" t="str">
         <f t="shared" si="184"/>
@@ -36462,7 +36463,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1" t="s">
         <v>128</v>
       </c>
@@ -36634,9 +36635,9 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>315</v>
@@ -36648,7 +36649,7 @@
         <v>439</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W184" s="1" t="str">
         <f t="shared" si="184"/>
@@ -36735,7 +36736,7 @@
         <v/>
       </c>
       <c r="AR184" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AS184" s="1" t="s">
         <v>301</v>
@@ -36799,15 +36800,15 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J185" s="1">
         <v>1100</v>
@@ -36828,7 +36829,7 @@
         <v>2400</v>
       </c>
       <c r="V185" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W185" s="1" t="str">
         <f t="shared" si="184"/>
@@ -36915,7 +36916,7 @@
         <v/>
       </c>
       <c r="AR185" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AU185" s="1" t="s">
         <v>305</v>
@@ -36976,7 +36977,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
         <v>227</v>
       </c>
@@ -37142,7 +37143,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="17" t="s">
         <v>49</v>
       </c>
@@ -37308,15 +37309,15 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>437</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W188" s="1" t="str">
         <f t="shared" si="184"/>
@@ -37403,7 +37404,7 @@
         <v/>
       </c>
       <c r="AR188" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AS188" s="1" t="s">
         <v>301</v>
@@ -37467,7 +37468,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1" t="s">
         <v>229</v>
       </c>
@@ -37639,84 +37640,84 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AV190" s="5"/>
       <c r="AW190" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C191"/>
+  <autoFilter ref="C2:C191" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B2:BL188">
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G132" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
-    <hyperlink ref="AR42" r:id="rId2"/>
-    <hyperlink ref="AR95" r:id="rId3"/>
-    <hyperlink ref="AR28" r:id="rId4"/>
-    <hyperlink ref="AR112" r:id="rId5"/>
-    <hyperlink ref="AR20" r:id="rId6"/>
-    <hyperlink ref="AR8" r:id="rId7"/>
-    <hyperlink ref="AR54" r:id="rId8"/>
-    <hyperlink ref="AR34" r:id="rId9"/>
-    <hyperlink ref="AR63" r:id="rId10"/>
-    <hyperlink ref="AR46" r:id="rId11"/>
-    <hyperlink ref="AR159" r:id="rId12"/>
-    <hyperlink ref="AR53" r:id="rId13"/>
-    <hyperlink ref="AR123" r:id="rId14"/>
-    <hyperlink ref="AR90" r:id="rId15"/>
-    <hyperlink ref="AR62" r:id="rId16"/>
-    <hyperlink ref="AR162" r:id="rId17"/>
-    <hyperlink ref="AR147" r:id="rId18"/>
-    <hyperlink ref="AR19" r:id="rId19"/>
-    <hyperlink ref="AR10" r:id="rId20"/>
-    <hyperlink ref="AR157" r:id="rId21"/>
-    <hyperlink ref="AR87" r:id="rId22"/>
-    <hyperlink ref="AR149" r:id="rId23"/>
-    <hyperlink ref="AR110" r:id="rId24"/>
-    <hyperlink ref="AR183" r:id="rId25"/>
-    <hyperlink ref="AR89" r:id="rId26"/>
-    <hyperlink ref="AR15" r:id="rId27"/>
-    <hyperlink ref="AR82" r:id="rId28"/>
-    <hyperlink ref="AR5" r:id="rId29"/>
-    <hyperlink ref="AR7" r:id="rId30"/>
-    <hyperlink ref="AR43" r:id="rId31"/>
-    <hyperlink ref="AR45" r:id="rId32"/>
-    <hyperlink ref="AR56" r:id="rId33"/>
-    <hyperlink ref="AR79" r:id="rId34"/>
-    <hyperlink ref="AR92" r:id="rId35"/>
-    <hyperlink ref="AR103" r:id="rId36"/>
-    <hyperlink ref="AR111" r:id="rId37"/>
-    <hyperlink ref="AR113" r:id="rId38"/>
-    <hyperlink ref="AR132" r:id="rId39"/>
-    <hyperlink ref="AR16" r:id="rId40"/>
-    <hyperlink ref="AR24" r:id="rId41"/>
-    <hyperlink ref="AR61" r:id="rId42"/>
-    <hyperlink ref="AR77" r:id="rId43"/>
-    <hyperlink ref="AR81" r:id="rId44"/>
-    <hyperlink ref="AR107" r:id="rId45"/>
-    <hyperlink ref="AR125" r:id="rId46"/>
-    <hyperlink ref="AR134" r:id="rId47"/>
-    <hyperlink ref="AR139" r:id="rId48"/>
-    <hyperlink ref="AR145" r:id="rId49"/>
-    <hyperlink ref="AR165" r:id="rId50"/>
-    <hyperlink ref="AR176" r:id="rId51"/>
-    <hyperlink ref="AR189" r:id="rId52"/>
-    <hyperlink ref="AR23" r:id="rId53"/>
-    <hyperlink ref="AR57" r:id="rId54"/>
-    <hyperlink ref="AR64" r:id="rId55"/>
-    <hyperlink ref="AR65" r:id="rId56"/>
-    <hyperlink ref="AR74" r:id="rId57"/>
-    <hyperlink ref="AR97" r:id="rId58"/>
-    <hyperlink ref="AR101" r:id="rId59"/>
-    <hyperlink ref="AR146" r:id="rId60"/>
-    <hyperlink ref="AR179" r:id="rId61"/>
-    <hyperlink ref="AR58" r:id="rId62"/>
-    <hyperlink ref="AR76" r:id="rId63"/>
-    <hyperlink ref="AR47" r:id="rId64"/>
-    <hyperlink ref="AR9" r:id="rId65"/>
-    <hyperlink ref="AR169" r:id="rId66"/>
-    <hyperlink ref="B11" r:id="rId67" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
-    <hyperlink ref="AR168" r:id="rId68"/>
+    <hyperlink ref="G132" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AR42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AR95" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR112" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AR54" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AR63" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AR46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AR159" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AR53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AR123" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AR90" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AR62" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AR162" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR147" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AR157" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AR87" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AR149" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AR110" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AR183" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR89" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AR82" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AR43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AR56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AR79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AR92" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AR103" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AR111" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AR113" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AR132" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AR16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AR24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AR77" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AR81" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AR107" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR125" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AR134" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AR139" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AR145" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR165" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR176" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AR189" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AR23" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AR57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AR64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AR65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AR74" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AR97" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AR101" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AR146" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR179" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR58" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR76" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR47" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR9" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AR169" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B11" r:id="rId67" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="AR168" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId69"/>
@@ -37724,19 +37725,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="11">
         <v>40.588749999999997</v>
       </c>
@@ -37744,13 +37745,13 @@
         <v>-105.07418</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="11">
         <v>40.58587</v>
       </c>
@@ -37758,13 +37759,13 @@
         <v>-105.07762</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="11">
         <v>40.566600000000001</v>
       </c>
@@ -37776,35 +37777,35 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -37818,14 +37819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97CE874-8528-4C62-8E46-25DAF792C7A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE1A2D-EA89-4B85-ADAA-1F757EE8A756}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2285,9 +2285,6 @@
     <t>efoco</t>
   </si>
   <si>
-    <t>Private parking lot! Makes parking a snap!</t>
-  </si>
-  <si>
     <t>Discounted drinks and food specials</t>
   </si>
   <si>
@@ -2320,6 +2317,9 @@
   <si>
     <t xml:space="preserve">Monday&lt;br&gt;All day:&lt;br&gt;$1 12oz domestics &lt;br&gt;$2.75 18oz micros &lt;br&gt;$1 tacos - after 8pm&lt;br&gt;&lt;br&gt;Wednesday&lt;br&gt;All day:&lt;br&gt;$2.50 Oskar Blues &lt;br&gt;$2 wells &lt;br&gt;&lt;br&gt;Thursday&lt;br&gt;All day:&lt;br&gt;$3.50 frozen margaritas&lt;br&gt;$3 micro pints&lt;br&gt;$2 domestic pints &lt;br&gt;&lt;br&gt;Friday&lt;br&gt;All day:&lt;br&gt;$2.75 Mexican beers&lt;br&gt;$2 fat tire pints&lt;br&gt;&lt;br&gt;Saturday &amp; Sunday&lt;br&gt;All day: &lt;br&gt;$2 domestic 18oz drafts and $6.50 pitchers &lt;br&gt;$3 micro 18oz drafts and $10 pitchers
 </t>
+  </si>
+  <si>
+    <t>All sorts of great happy hour small plates!&lt;br&gt;Draught beers at $4/glass&lt;br&gt;Select wines at $5/glass&lt;br&gt;House cocktails at $6/glass&lt;br&gt;Private parking lot! Makes parking a snap!</t>
   </si>
 </sst>
 </file>
@@ -3279,7 +3279,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V67" sqref="V67"/>
+      <selection pane="bottomLeft" activeCell="V72" sqref="V72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10676,16 +10676,16 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H41" s="1">
         <v>1600</v>
@@ -10730,7 +10730,7 @@
         <v>1800</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" ref="W41" si="84">IF(H41&gt;0,H41/100,"")</f>
@@ -10817,7 +10817,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR41" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AU41" s="1" t="s">
         <v>28</v>
@@ -15147,7 +15147,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="W65" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15510,7 +15510,7 @@
         <v>2400</v>
       </c>
       <c r="V67" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" si="21"/>
@@ -16262,8 +16262,8 @@
       <c r="U71" s="1">
         <v>1800</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>750</v>
+      <c r="V71" s="6" t="s">
+        <v>761</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="115"/>
@@ -16369,7 +16369,7 @@
         <v>{
     'name': "Ginger and Baker",
     'area': "old",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Private parking lot! Makes parking a snap!", 'link':"ttps://gingerandbaker.com", 'pricing':"med",   'phone-number': "", 'address': "359 Linden St, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':FALSE},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "All sorts of great happy hour small plates!&lt;br&gt;Draught beers at $4/glass&lt;br&gt;Select wines at $5/glass&lt;br&gt;House cocktails at $6/glass&lt;br&gt;Private parking lot! Makes parking a snap!", 'link':"ttps://gingerandbaker.com", 'pricing':"med",   'phone-number': "", 'address': "359 Linden St, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':FALSE},</v>
       </c>
       <c r="AY71" s="1" t="str">
         <f t="shared" si="137"/>
@@ -16577,16 +16577,16 @@
     </row>
     <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H73" s="1">
         <v>1500</v>
@@ -16631,7 +16631,7 @@
         <v>1800</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" ref="W73" si="145">IF(H73&gt;0,H73/100,"")</f>
@@ -16718,7 +16718,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR73" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AU73" s="1" t="s">
         <v>305</v>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4DD1D-2D30-4B52-80E3-8DC7B61EFAA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$190</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1599,9 +1600,6 @@
     <t>140 North College, Fort Collins, CO 80524</t>
   </si>
   <si>
-    <t>Monday-Sunday&lt;br&gt;11am-3pm:&lt;br&gt;$1 off Black Bottle Beers&lt;br&gt;$4 well drinks&lt;br&gt;&lt;br&gt;Toddler Tuesday’s: &lt;br&gt;Kids eat FREE!&lt;br&gt;&lt;br&gt;Wednesday’s and Sunday’s: &lt;br&gt;1/2 PRICE GROWLER FILLS</t>
-  </si>
-  <si>
     <t>Breakfast Club</t>
   </si>
   <si>
@@ -2304,12 +2302,15 @@
   </si>
   <si>
     <t>https://www.rally5streeteats.com/</t>
+  </si>
+  <si>
+    <t>Monday-Sunday&lt;br&gt;2pm-5pm:&lt;br&gt;$1 off Black Bottle Beers&lt;br&gt;$3 well drinks&lt;br&gt;$5 Moscow Mules&lt;br&gt;&lt;br&gt;Toddler Tuesdays: &lt;br&gt;Kids eat FREE!&lt;br&gt;&lt;br&gt;Wednesday and Sunday: &lt;br&gt;1/2 PRICE GROWLER FILLS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2889,12 +2890,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2913,11 +2914,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -2946,7 +2947,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3258,36 +3259,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD100"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
     <col min="4" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" style="1" customWidth="1"/>
-    <col min="44" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.140625" style="1"/>
-    <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
-    <col min="54" max="56" width="9.140625" style="1"/>
-    <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="42" width="10.26953125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" style="1" customWidth="1"/>
+    <col min="44" max="49" width="9.1796875" style="1"/>
+    <col min="50" max="50" width="90.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.1796875" style="1"/>
+    <col min="53" max="53" width="10.1796875" style="1" customWidth="1"/>
+    <col min="54" max="56" width="9.1796875" style="1"/>
+    <col min="57" max="57" width="53.54296875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.453125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>455</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3882,9 +3883,9 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>427</v>
@@ -3893,7 +3894,7 @@
         <v>432</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="21"/>
@@ -3980,7 +3981,7 @@
         <v/>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>299</v>
@@ -4041,7 +4042,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>511</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>515</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -5185,21 +5186,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="21"/>
@@ -5286,7 +5287,7 @@
         <v/>
       </c>
       <c r="AR11" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>28</v>
@@ -5347,7 +5348,7 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>518</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>520</v>
       </c>
@@ -5672,9 +5673,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>310</v>
@@ -5683,7 +5684,7 @@
         <v>432</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H14" s="1">
         <v>1500</v>
@@ -5728,7 +5729,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" ref="W14" si="53">IF(H14&gt;0,H14/100,"")</f>
@@ -5815,7 +5816,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>296</v>
@@ -5824,7 +5825,7 @@
         <v>300</v>
       </c>
       <c r="AV14" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AW14" s="5" t="s">
         <v>307</v>
@@ -5883,7 +5884,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>1900</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6252,18 +6253,18 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="21"/>
@@ -6350,7 +6351,7 @@
         <v/>
       </c>
       <c r="AR17" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>296</v>
@@ -6414,7 +6415,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -6473,7 +6474,7 @@
         <v>1800</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="21"/>
@@ -6634,7 +6635,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>247</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>2400</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="21"/>
@@ -6845,7 +6846,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>302</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
@@ -7227,133 +7228,133 @@
         <v>152</v>
       </c>
       <c r="H22" s="1">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="I22" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J22" s="1">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K22" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L22" s="1">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M22" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N22" s="1">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="O22" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="P22" s="1">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="Q22" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R22" s="1">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="S22" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="T22" s="1">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="U22" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>522</v>
+        <v>756</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="23"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="26"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="27"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="28"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="29"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="30"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="32"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ22" s="1">
         <f t="shared" si="34"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK22" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>11am-4pm</v>
+        <v>2pm-5pm</v>
       </c>
       <c r="AL22" s="1" t="str">
         <f t="shared" si="36"/>
-        <v>11am-4pm</v>
+        <v>2pm-5pm</v>
       </c>
       <c r="AM22" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>11am-4pm</v>
+        <v>2pm-5pm</v>
       </c>
       <c r="AN22" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>11am-4pm</v>
+        <v>2pm-5pm</v>
       </c>
       <c r="AO22" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>11am-4pm</v>
+        <v>2pm-5pm</v>
       </c>
       <c r="AP22" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>11am-4pm</v>
+        <v>2pm-5pm</v>
       </c>
       <c r="AQ22" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>11am-4pm</v>
+        <v>2pm-5pm</v>
       </c>
       <c r="AR22" s="10" t="s">
         <v>274</v>
@@ -7375,7 +7376,7 @@
         <v>{
     'name': "Black Bottle Brewing",
     'area': "campus",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1100", 'monday-end':"1600", 'tuesday-start':"1100", 'tuesday-end':"1600", 'wednesday-start':"1100", 'wednesday-end':"1600", 'thursday-start':"1100", 'thursday-end':"1600", 'friday-start':"1100", 'friday-end':"1600", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Monday-Sunday&lt;br&gt;11am-3pm:&lt;br&gt;$1 off Black Bottle Beers&lt;br&gt;$4 well drinks&lt;br&gt;&lt;br&gt;Toddler Tuesday’s: &lt;br&gt;Kids eat FREE!&lt;br&gt;&lt;br&gt;Wednesday’s and Sunday’s: &lt;br&gt;1/2 PRICE GROWLER FILLS", 'link':"https://blackbottleCraft Beer.com/", 'pricing':"med",   'phone-number': "", 'address': "1611 S. College Ave., Ste 1609, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Monday-Sunday&lt;br&gt;2pm-5pm:&lt;br&gt;$1 off Black Bottle Beers&lt;br&gt;$3 well drinks&lt;br&gt;$5 Moscow Mules&lt;br&gt;&lt;br&gt;Toddler Tuesdays: &lt;br&gt;Kids eat FREE!&lt;br&gt;&lt;br&gt;Wednesday and Sunday: &lt;br&gt;1/2 PRICE GROWLER FILLS", 'link':"https://blackbottleCraft Beer.com/", 'pricing':"med",   'phone-number': "", 'address': "1611 S. College Ave., Ste 1609, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY22" s="1" t="str">
         <f t="shared" si="43"/>
@@ -7430,7 +7431,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>267</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>178</v>
       </c>
@@ -7843,9 +7844,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>427</v>
@@ -7854,7 +7855,7 @@
         <v>432</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P25" s="1">
         <v>2000</v>
@@ -7875,7 +7876,7 @@
         <v>2000</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="21"/>
@@ -7962,7 +7963,7 @@
         <v>6pm-8pm</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AU25" s="1" t="s">
         <v>299</v>
@@ -8023,7 +8024,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>268</v>
       </c>
@@ -8207,21 +8208,21 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>310</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8370,7 +8371,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>180</v>
       </c>
@@ -8542,9 +8543,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>310</v>
@@ -8553,7 +8554,7 @@
         <v>432</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8698,9 +8699,9 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>429</v>
@@ -8709,7 +8710,7 @@
         <v>432</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="21"/>
@@ -8859,9 +8860,9 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>309</v>
@@ -8870,7 +8871,7 @@
         <v>432</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9020,15 +9021,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>430</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9115,7 +9116,7 @@
         <v/>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AU32" s="1" t="s">
         <v>300</v>
@@ -9176,15 +9177,15 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9271,7 +9272,7 @@
         <v/>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU33" s="1" t="s">
         <v>300</v>
@@ -9342,7 +9343,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>367</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W34" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9544,15 +9545,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="W35" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9639,7 +9640,7 @@
         <v/>
       </c>
       <c r="AR35" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AU35" s="1" t="s">
         <v>28</v>
@@ -9700,7 +9701,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>388</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>276</v>
       </c>
@@ -10128,10 +10129,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>275</v>
       </c>
@@ -10333,15 +10334,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>428</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="21"/>
@@ -10428,7 +10429,7 @@
         <v/>
       </c>
       <c r="AR39" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU39" s="1" t="s">
         <v>300</v>
@@ -10489,7 +10490,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
@@ -10658,18 +10659,18 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>742</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H41" s="1">
         <v>1600</v>
@@ -10714,7 +10715,7 @@
         <v>1800</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" ref="W41" si="84">IF(H41&gt;0,H41/100,"")</f>
@@ -10801,7 +10802,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR41" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AU41" s="1" t="s">
         <v>28</v>
@@ -10866,7 +10867,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
@@ -11044,7 +11045,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>153</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="21"/>
@@ -11415,7 +11416,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
@@ -11605,7 +11606,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>445</v>
       </c>
@@ -12021,7 +12022,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>446</v>
       </c>
@@ -12187,9 +12188,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>429</v>
@@ -12386,9 +12387,9 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>427</v>
@@ -12397,7 +12398,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="21"/>
@@ -12484,7 +12485,7 @@
         <v/>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AU50" s="1" t="s">
         <v>299</v>
@@ -12545,9 +12546,9 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>427</v>
@@ -12556,7 +12557,7 @@
         <v>432</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="21"/>
@@ -12643,7 +12644,7 @@
         <v/>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AS51" s="1" t="s">
         <v>296</v>
@@ -12707,9 +12708,9 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>310</v>
@@ -12718,7 +12719,7 @@
         <v>432</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H52" s="1">
         <v>1600</v>
@@ -12751,7 +12752,7 @@
         <v>1900</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="21"/>
@@ -12838,7 +12839,7 @@
         <v/>
       </c>
       <c r="AR52" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AU52" s="1" t="s">
         <v>300</v>
@@ -12899,7 +12900,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
@@ -13065,7 +13066,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
@@ -13231,9 +13232,9 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>428</v>
@@ -13242,7 +13243,7 @@
         <v>432</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L55" s="1">
         <v>1600</v>
@@ -13275,7 +13276,7 @@
         <v>1800</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="W55" s="1" t="str">
         <f t="shared" si="21"/>
@@ -13362,7 +13363,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AU55" s="1" t="s">
         <v>300</v>
@@ -13423,7 +13424,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>159</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>270</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="7" t="s">
         <v>368</v>
       </c>
@@ -14002,9 +14003,9 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>427</v>
@@ -14013,7 +14014,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="21"/>
@@ -14100,7 +14101,7 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AU59" s="1" t="s">
         <v>299</v>
@@ -14161,7 +14162,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>447</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>258</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
@@ -14870,7 +14871,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>271</v>
       </c>
@@ -15084,7 +15085,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>279</v>
       </c>
@@ -15131,7 +15132,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="W65" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15283,15 +15284,15 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W66" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15441,7 +15442,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>187</v>
       </c>
@@ -15494,7 +15495,7 @@
         <v>2400</v>
       </c>
       <c r="V67" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" si="21"/>
@@ -15647,7 +15648,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>189</v>
       </c>
@@ -15700,7 +15701,7 @@
         <v>2400</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" ref="W68:W130" si="115">IF(H68&gt;0,H68/100,"")</f>
@@ -15856,7 +15857,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>448</v>
       </c>
@@ -16022,7 +16023,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>191</v>
       </c>
@@ -16191,9 +16192,9 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>427</v>
@@ -16202,7 +16203,7 @@
         <v>432</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H71" s="1">
         <v>1600</v>
@@ -16247,7 +16248,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="115"/>
@@ -16334,7 +16335,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR71" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AS71" s="1" t="s">
         <v>296</v>
@@ -16398,18 +16399,18 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="115"/>
@@ -16559,18 +16560,18 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H73" s="1">
         <v>1500</v>
@@ -16615,7 +16616,7 @@
         <v>1800</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" ref="W73" si="145">IF(H73&gt;0,H73/100,"")</f>
@@ -16702,7 +16703,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR73" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AU73" s="1" t="s">
         <v>300</v>
@@ -16767,7 +16768,7 @@
         <v>[40.47964,-104.90192],</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
         <v>281</v>
       </c>
@@ -16972,9 +16973,9 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>427</v>
@@ -16983,7 +16984,7 @@
         <v>432</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W75" s="1" t="str">
         <f t="shared" si="115"/>
@@ -17070,7 +17071,7 @@
         <v/>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AU75" s="1" t="s">
         <v>299</v>
@@ -17131,7 +17132,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
         <v>380</v>
       </c>
@@ -17339,10 +17340,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL76" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>193</v>
       </c>
@@ -17514,7 +17515,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
         <v>46</v>
       </c>
@@ -17680,7 +17681,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>162</v>
       </c>
@@ -17894,7 +17895,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>449</v>
       </c>
@@ -18060,7 +18061,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>195</v>
       </c>
@@ -18226,7 +18227,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>24</v>
       </c>
@@ -18443,9 +18444,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>429</v>
@@ -18454,7 +18455,7 @@
         <v>432</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W83" s="1" t="str">
         <f t="shared" si="115"/>
@@ -18599,15 +18600,15 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>430</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H84" s="1">
         <v>1100</v>
@@ -18652,7 +18653,7 @@
         <v>1300</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="115"/>
@@ -18739,7 +18740,7 @@
         <v>11am-1pm</v>
       </c>
       <c r="AR84" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>296</v>
@@ -18803,7 +18804,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
         <v>92</v>
       </c>
@@ -19017,7 +19018,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>33</v>
       </c>
@@ -19231,7 +19232,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
         <v>115</v>
       </c>
@@ -19403,9 +19404,9 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>310</v>
@@ -19414,10 +19415,10 @@
         <v>432</v>
       </c>
       <c r="G88" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="AR88" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="AR88" s="4" t="s">
-        <v>729</v>
       </c>
       <c r="AS88" s="1" t="s">
         <v>296</v>
@@ -19485,7 +19486,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>131</v>
       </c>
@@ -19651,7 +19652,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
         <v>95</v>
       </c>
@@ -19817,9 +19818,9 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>429</v>
@@ -19831,7 +19832,7 @@
         <v>432</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H91" s="1">
         <v>1600</v>
@@ -19876,7 +19877,7 @@
         <v>1800</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" si="115"/>
@@ -19963,7 +19964,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR91" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AS91" s="1" t="s">
         <v>296</v>
@@ -20031,15 +20032,15 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H92" s="1">
         <v>1500</v>
@@ -20084,7 +20085,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" si="115"/>
@@ -20171,7 +20172,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR92" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AU92" s="1" t="s">
         <v>28</v>
@@ -20232,7 +20233,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
         <v>377</v>
       </c>
@@ -20437,7 +20438,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
@@ -20651,15 +20652,15 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="W95" s="1" t="str">
         <f t="shared" si="115"/>
@@ -20746,7 +20747,7 @@
         <v/>
       </c>
       <c r="AR95" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU95" s="1" t="s">
         <v>28</v>
@@ -20807,7 +20808,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
         <v>283</v>
       </c>
@@ -21018,15 +21019,15 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W97" s="1" t="str">
         <f t="shared" si="115"/>
@@ -21113,7 +21114,7 @@
         <v/>
       </c>
       <c r="AR97" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AU97" s="1" t="s">
         <v>299</v>
@@ -21174,15 +21175,15 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>430</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="115"/>
@@ -21327,7 +21328,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
         <v>372</v>
       </c>
@@ -21526,9 +21527,9 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>309</v>
@@ -21537,7 +21538,7 @@
         <v>432</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="W100" s="1" t="str">
         <f t="shared" si="115"/>
@@ -21624,7 +21625,7 @@
         <v/>
       </c>
       <c r="AR100" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AU100" s="1" t="s">
         <v>28</v>
@@ -21685,7 +21686,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
         <v>164</v>
       </c>
@@ -21857,15 +21858,15 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="115"/>
@@ -21952,7 +21953,7 @@
         <v/>
       </c>
       <c r="AR102" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AU102" s="1" t="s">
         <v>300</v>
@@ -22013,21 +22014,21 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>310</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H103" s="1">
         <v>1400</v>
@@ -22072,7 +22073,7 @@
         <v>1700</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W103" s="1">
         <f t="shared" si="115"/>
@@ -22159,7 +22160,7 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR103" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AU103" s="1" t="s">
         <v>300</v>
@@ -22220,7 +22221,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
         <v>62</v>
       </c>
@@ -22386,7 +22387,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
         <v>198</v>
       </c>
@@ -22552,7 +22553,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
         <v>395</v>
       </c>
@@ -22727,9 +22728,9 @@
         <v>439</v>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>430</v>
@@ -22738,7 +22739,7 @@
         <v>432</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22783,7 +22784,7 @@
         <v>1900</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="115"/>
@@ -22870,7 +22871,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AS107" s="1" t="s">
         <v>296</v>
@@ -22935,7 +22936,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
         <v>121</v>
       </c>
@@ -23149,7 +23150,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
         <v>166</v>
       </c>
@@ -23360,7 +23361,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
         <v>200</v>
       </c>
@@ -23532,7 +23533,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>168</v>
       </c>
@@ -23579,7 +23580,7 @@
         <v>1800</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W111" s="1" t="str">
         <f t="shared" si="115"/>
@@ -23740,9 +23741,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>428</v>
@@ -23751,7 +23752,7 @@
         <v>432</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="W112" s="1" t="str">
         <f t="shared" si="115"/>
@@ -23838,7 +23839,7 @@
         <v/>
       </c>
       <c r="AR112" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AU112" s="1" t="s">
         <v>300</v>
@@ -23899,7 +23900,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
         <v>123</v>
       </c>
@@ -24065,7 +24066,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
         <v>123</v>
       </c>
@@ -24073,7 +24074,7 @@
         <v>310</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="115"/>
@@ -24160,7 +24161,7 @@
         <v/>
       </c>
       <c r="AR114" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AU114" s="1" t="s">
         <v>300</v>
@@ -24221,9 +24222,9 @@
         <v>[40.5491,-105.07603],</v>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>310</v>
@@ -24232,7 +24233,7 @@
         <v>54</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="115"/>
@@ -24380,7 +24381,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>202</v>
       </c>
@@ -24552,7 +24553,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
         <v>143</v>
       </c>
@@ -24718,7 +24719,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
         <v>450</v>
       </c>
@@ -24884,15 +24885,15 @@
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H119" s="1">
         <v>1500</v>
@@ -24937,7 +24938,7 @@
         <v>1800</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W119" s="1">
         <f t="shared" si="115"/>
@@ -25024,7 +25025,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR119" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>296</v>
@@ -25088,15 +25089,15 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H120" s="1">
         <v>1500</v>
@@ -25228,7 +25229,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR120" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU120" s="1" t="s">
         <v>28</v>
@@ -25289,7 +25290,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1" t="s">
         <v>89</v>
       </c>
@@ -25503,21 +25504,21 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>427</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J122" s="1">
         <v>1700</v>
@@ -25550,7 +25551,7 @@
         <v>2400</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="115"/>
@@ -25637,7 +25638,7 @@
         <v/>
       </c>
       <c r="AR122" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AU122" s="1" t="s">
         <v>299</v>
@@ -25698,7 +25699,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
         <v>204</v>
       </c>
@@ -25909,7 +25910,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
         <v>206</v>
       </c>
@@ -26078,7 +26079,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1" t="s">
         <v>451</v>
       </c>
@@ -26244,9 +26245,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>309</v>
@@ -26255,7 +26256,7 @@
         <v>54</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="115"/>
@@ -26342,7 +26343,7 @@
         <v/>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AU126" s="1" t="s">
         <v>28</v>
@@ -26403,9 +26404,9 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>309</v>
@@ -26414,7 +26415,7 @@
         <v>432</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="W127" s="1" t="str">
         <f t="shared" si="115"/>
@@ -26501,7 +26502,7 @@
         <v/>
       </c>
       <c r="AR127" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AS127" s="1" t="s">
         <v>296</v>
@@ -26565,9 +26566,9 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>310</v>
@@ -26576,7 +26577,7 @@
         <v>432</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H128" s="1">
         <v>1500</v>
@@ -26621,7 +26622,7 @@
         <v>1800</v>
       </c>
       <c r="V128" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="W128" s="1">
         <f t="shared" ref="W128" si="184">IF(H128&gt;0,H128/100,"")</f>
@@ -26708,7 +26709,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR128" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AU128" s="1" t="s">
         <v>300</v>
@@ -26773,7 +26774,7 @@
         <v>[40.52369,-105.03435],</v>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1" t="s">
         <v>208</v>
       </c>
@@ -26945,9 +26946,9 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>309</v>
@@ -26956,7 +26957,7 @@
         <v>54</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="115"/>
@@ -27043,7 +27044,7 @@
         <v/>
       </c>
       <c r="AR130" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AU130" s="1" t="s">
         <v>28</v>
@@ -27104,7 +27105,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
         <v>170</v>
       </c>
@@ -27313,7 +27314,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1" t="s">
         <v>43</v>
       </c>
@@ -27512,7 +27513,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1" t="s">
         <v>210</v>
       </c>
@@ -27571,7 +27572,7 @@
         <v>2000</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W133" s="1">
         <f t="shared" si="214"/>
@@ -27726,7 +27727,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
         <v>59</v>
       </c>
@@ -27892,7 +27893,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
         <v>59</v>
       </c>
@@ -27900,7 +27901,7 @@
         <v>427</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="214"/>
@@ -27987,7 +27988,7 @@
         <v/>
       </c>
       <c r="AR135" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AU135" s="1" t="s">
         <v>299</v>
@@ -28053,7 +28054,7 @@
       </c>
       <c r="BL135" s="12"/>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1" t="s">
         <v>452</v>
       </c>
@@ -28219,9 +28220,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>310</v>
@@ -28230,7 +28231,7 @@
         <v>54</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="W137" s="1" t="str">
         <f t="shared" si="214"/>
@@ -28375,7 +28376,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1" t="s">
         <v>213</v>
       </c>
@@ -28541,7 +28542,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1" t="s">
         <v>479</v>
       </c>
@@ -28707,9 +28708,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>310</v>
@@ -28718,7 +28719,7 @@
         <v>432</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H140" s="1">
         <v>1500</v>
@@ -28763,7 +28764,7 @@
         <v>1800</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="W140" s="1">
         <f t="shared" si="214"/>
@@ -28850,7 +28851,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AU140" s="1" t="s">
         <v>300</v>
@@ -28911,7 +28912,7 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
         <v>398</v>
       </c>
@@ -29077,7 +29078,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1" t="s">
         <v>379</v>
       </c>
@@ -29285,9 +29286,9 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>309</v>
@@ -29296,7 +29297,7 @@
         <v>432</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J143" s="1">
         <v>1500</v>
@@ -29329,7 +29330,7 @@
         <v>1800</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="214"/>
@@ -29474,7 +29475,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
         <v>216</v>
       </c>
@@ -29527,7 +29528,7 @@
         <v>2000</v>
       </c>
       <c r="V144" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W144" s="1">
         <f t="shared" si="214"/>
@@ -29685,7 +29686,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
         <v>286</v>
       </c>
@@ -29896,7 +29897,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
         <v>103</v>
       </c>
@@ -29949,7 +29950,7 @@
         <v>1900</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W146" s="1">
         <f t="shared" si="214"/>
@@ -30101,7 +30102,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
         <v>137</v>
       </c>
@@ -30273,7 +30274,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
         <v>118</v>
       </c>
@@ -30439,15 +30440,15 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="W149" s="1" t="str">
         <f t="shared" si="214"/>
@@ -30534,7 +30535,7 @@
         <v/>
       </c>
       <c r="AR149" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AU149" s="1" t="s">
         <v>299</v>
@@ -30595,7 +30596,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
         <v>40</v>
       </c>
@@ -30770,7 +30771,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">
         <v>37</v>
       </c>
@@ -30981,15 +30982,15 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="W152" s="1" t="str">
         <f t="shared" si="214"/>
@@ -31134,7 +31135,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1" t="s">
         <v>376</v>
       </c>
@@ -31300,9 +31301,9 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>427</v>
@@ -31311,7 +31312,7 @@
         <v>432</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H154" s="1">
         <v>1500</v>
@@ -31356,7 +31357,7 @@
         <v>2400</v>
       </c>
       <c r="V154" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W154" s="1">
         <f t="shared" si="214"/>
@@ -31505,9 +31506,9 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>428</v>
@@ -31516,7 +31517,7 @@
         <v>54</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="W155" s="1" t="str">
         <f t="shared" si="214"/>
@@ -31664,7 +31665,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1" t="s">
         <v>112</v>
       </c>
@@ -31860,9 +31861,9 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>427</v>
@@ -31874,7 +31875,7 @@
         <v>432</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H157" s="1">
         <v>1130</v>
@@ -31907,7 +31908,7 @@
         <v>1800</v>
       </c>
       <c r="V157" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W157" s="1">
         <f t="shared" si="214"/>
@@ -31994,7 +31995,7 @@
         <v/>
       </c>
       <c r="AR157" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AS157" s="1" t="s">
         <v>296</v>
@@ -32062,7 +32063,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1" t="s">
         <v>80</v>
       </c>
@@ -32231,9 +32232,9 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>428</v>
@@ -32242,7 +32243,7 @@
         <v>432</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W159" s="1" t="str">
         <f t="shared" si="214"/>
@@ -32387,7 +32388,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
         <v>453</v>
       </c>
@@ -32553,7 +32554,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
         <v>100</v>
       </c>
@@ -32719,15 +32720,15 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>430</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W162" s="1" t="str">
         <f t="shared" si="214"/>
@@ -32872,7 +32873,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
         <v>83</v>
       </c>
@@ -33041,7 +33042,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
         <v>218</v>
       </c>
@@ -33240,15 +33241,15 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L165" s="1">
         <v>1600</v>
@@ -33359,7 +33360,7 @@
         <v/>
       </c>
       <c r="AR165" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AU165" s="1" t="s">
         <v>300</v>
@@ -33420,7 +33421,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
         <v>173</v>
       </c>
@@ -33619,21 +33620,21 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>427</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W167" s="1" t="str">
         <f t="shared" si="214"/>
@@ -33720,7 +33721,7 @@
         <v/>
       </c>
       <c r="AR167" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AS167" s="1" t="s">
         <v>296</v>
@@ -33784,21 +33785,21 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>427</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J168" s="1">
         <v>1100</v>
@@ -33837,7 +33838,7 @@
         <v>1700</v>
       </c>
       <c r="V168" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W168" s="1" t="str">
         <f t="shared" si="214"/>
@@ -33924,7 +33925,7 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR168" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AU168" s="1" t="s">
         <v>299</v>
@@ -33985,15 +33986,15 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W169" s="1" t="str">
         <f t="shared" si="214"/>
@@ -34080,7 +34081,7 @@
         <v/>
       </c>
       <c r="AR169" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AU169" s="1" t="s">
         <v>299</v>
@@ -34141,21 +34142,21 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>427</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W170" s="1" t="str">
         <f t="shared" si="214"/>
@@ -34242,7 +34243,7 @@
         <v/>
       </c>
       <c r="AR170" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AU170" s="1" t="s">
         <v>299</v>
@@ -34303,15 +34304,15 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W171" s="1" t="str">
         <f t="shared" si="214"/>
@@ -34398,7 +34399,7 @@
         <v/>
       </c>
       <c r="AR171" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AS171" s="1" t="s">
         <v>296</v>
@@ -34462,7 +34463,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1" t="s">
         <v>454</v>
       </c>
@@ -34628,7 +34629,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1" t="s">
         <v>220</v>
       </c>
@@ -34842,7 +34843,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
         <v>381</v>
       </c>
@@ -35044,7 +35045,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
         <v>223</v>
       </c>
@@ -35210,9 +35211,9 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>427</v>
@@ -35224,7 +35225,7 @@
         <v>54</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J176" s="1">
         <v>1500</v>
@@ -35406,15 +35407,15 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W177" s="1" t="str">
         <f t="shared" si="214"/>
@@ -35559,7 +35560,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
         <v>288</v>
       </c>
@@ -35770,7 +35771,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1" t="s">
         <v>402</v>
       </c>
@@ -35939,15 +35940,15 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>430</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="W180" s="1" t="str">
         <f t="shared" si="214"/>
@@ -36034,7 +36035,7 @@
         <v/>
       </c>
       <c r="AR180" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AU180" s="1" t="s">
         <v>28</v>
@@ -36095,15 +36096,15 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="W181" s="1" t="str">
         <f t="shared" si="214"/>
@@ -36248,7 +36249,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
         <v>128</v>
       </c>
@@ -36420,9 +36421,9 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>310</v>
@@ -36434,7 +36435,7 @@
         <v>432</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W183" s="1" t="str">
         <f t="shared" si="214"/>
@@ -36521,7 +36522,7 @@
         <v/>
       </c>
       <c r="AR183" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AS183" s="1" t="s">
         <v>296</v>
@@ -36585,15 +36586,15 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J184" s="1">
         <v>1100</v>
@@ -36614,7 +36615,7 @@
         <v>2400</v>
       </c>
       <c r="V184" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W184" s="1" t="str">
         <f t="shared" si="214"/>
@@ -36701,7 +36702,7 @@
         <v/>
       </c>
       <c r="AR184" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AU184" s="1" t="s">
         <v>300</v>
@@ -36762,7 +36763,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1" t="s">
         <v>225</v>
       </c>
@@ -36928,7 +36929,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="17" t="s">
         <v>49</v>
       </c>
@@ -37094,15 +37095,15 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>430</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W187" s="1" t="str">
         <f t="shared" si="214"/>
@@ -37189,7 +37190,7 @@
         <v/>
       </c>
       <c r="AR187" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AS187" s="1" t="s">
         <v>296</v>
@@ -37253,7 +37254,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1" t="s">
         <v>227</v>
       </c>
@@ -37425,82 +37426,82 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AV189" s="5"/>
       <c r="AW189" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C190"/>
+  <autoFilter ref="C2:C190" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B2:BL188">
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G131" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
-    <hyperlink ref="AR42" r:id="rId2"/>
-    <hyperlink ref="AR94" r:id="rId3"/>
-    <hyperlink ref="AR28" r:id="rId4"/>
-    <hyperlink ref="AR110" r:id="rId5"/>
-    <hyperlink ref="AR20" r:id="rId6"/>
-    <hyperlink ref="AR8" r:id="rId7"/>
-    <hyperlink ref="AR54" r:id="rId8"/>
-    <hyperlink ref="AR34" r:id="rId9"/>
-    <hyperlink ref="AR63" r:id="rId10"/>
-    <hyperlink ref="AR46" r:id="rId11"/>
-    <hyperlink ref="AR158" r:id="rId12"/>
-    <hyperlink ref="AR53" r:id="rId13"/>
-    <hyperlink ref="AR121" r:id="rId14"/>
-    <hyperlink ref="AR90" r:id="rId15"/>
-    <hyperlink ref="AR62" r:id="rId16"/>
-    <hyperlink ref="AR161" r:id="rId17"/>
-    <hyperlink ref="AR146" r:id="rId18"/>
-    <hyperlink ref="AR19" r:id="rId19"/>
-    <hyperlink ref="AR10" r:id="rId20"/>
-    <hyperlink ref="AR156" r:id="rId21"/>
-    <hyperlink ref="AR87" r:id="rId22"/>
-    <hyperlink ref="AR148" r:id="rId23"/>
-    <hyperlink ref="AR108" r:id="rId24"/>
-    <hyperlink ref="AR182" r:id="rId25"/>
-    <hyperlink ref="AR89" r:id="rId26"/>
-    <hyperlink ref="AR15" r:id="rId27"/>
-    <hyperlink ref="AR82" r:id="rId28"/>
-    <hyperlink ref="AR5" r:id="rId29"/>
-    <hyperlink ref="AR7" r:id="rId30"/>
-    <hyperlink ref="AR43" r:id="rId31"/>
-    <hyperlink ref="AR45" r:id="rId32"/>
-    <hyperlink ref="AR56" r:id="rId33"/>
-    <hyperlink ref="AR79" r:id="rId34"/>
-    <hyperlink ref="AR101" r:id="rId35"/>
-    <hyperlink ref="AR109" r:id="rId36"/>
-    <hyperlink ref="AR111" r:id="rId37"/>
-    <hyperlink ref="AR131" r:id="rId38"/>
-    <hyperlink ref="AR16" r:id="rId39"/>
-    <hyperlink ref="AR24" r:id="rId40"/>
-    <hyperlink ref="AR61" r:id="rId41"/>
-    <hyperlink ref="AR77" r:id="rId42"/>
-    <hyperlink ref="AR81" r:id="rId43"/>
-    <hyperlink ref="AR105" r:id="rId44"/>
-    <hyperlink ref="AR123" r:id="rId45"/>
-    <hyperlink ref="AR133" r:id="rId46"/>
-    <hyperlink ref="AR138" r:id="rId47"/>
-    <hyperlink ref="AR144" r:id="rId48"/>
-    <hyperlink ref="AR164" r:id="rId49"/>
-    <hyperlink ref="AR175" r:id="rId50"/>
-    <hyperlink ref="AR188" r:id="rId51"/>
-    <hyperlink ref="AR23" r:id="rId52"/>
-    <hyperlink ref="AR57" r:id="rId53"/>
-    <hyperlink ref="AR64" r:id="rId54"/>
-    <hyperlink ref="AR65" r:id="rId55"/>
-    <hyperlink ref="AR74" r:id="rId56"/>
-    <hyperlink ref="AR96" r:id="rId57"/>
-    <hyperlink ref="AR145" r:id="rId58"/>
-    <hyperlink ref="AR178" r:id="rId59"/>
-    <hyperlink ref="AR58" r:id="rId60"/>
-    <hyperlink ref="AR76" r:id="rId61"/>
-    <hyperlink ref="AR47" r:id="rId62"/>
-    <hyperlink ref="AR9" r:id="rId63"/>
-    <hyperlink ref="AR168" r:id="rId64"/>
-    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
-    <hyperlink ref="AR167" r:id="rId66"/>
+    <hyperlink ref="G131" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AR42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AR94" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR110" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AR54" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AR63" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AR46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AR158" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AR53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AR121" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AR90" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AR62" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AR161" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR146" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AR156" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AR87" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AR148" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AR108" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AR182" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR89" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AR82" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AR43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AR56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AR79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AR101" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AR109" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AR111" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AR131" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AR16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AR24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AR61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR77" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AR81" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AR105" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AR123" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR133" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AR138" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AR144" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AR164" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR175" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR188" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AR23" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AR57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AR64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AR65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AR74" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AR96" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AR145" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AR178" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AR58" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR76" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR47" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR168" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AR167" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -37508,19 +37509,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="11">
         <v>40.588749999999997</v>
       </c>
@@ -37528,13 +37529,13 @@
         <v>-105.07418</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="11">
         <v>40.58587</v>
       </c>
@@ -37542,13 +37543,13 @@
         <v>-105.07762</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="11">
         <v>40.566600000000001</v>
       </c>
@@ -37560,35 +37561,35 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -37602,14 +37603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4DD1D-2D30-4B52-80E3-8DC7B61EFAA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$190</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2310,7 +2309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2890,12 +2889,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="37"/>
+    <cellStyle name="60% - Accent2" xfId="38"/>
+    <cellStyle name="60% - Accent3" xfId="39"/>
+    <cellStyle name="60% - Accent4" xfId="40"/>
+    <cellStyle name="60% - Accent5" xfId="41"/>
+    <cellStyle name="60% - Accent6" xfId="42"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2914,11 +2913,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Neutral" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title" xfId="35"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -2947,7 +2946,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3259,36 +3258,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.54296875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="42" width="10.26953125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.81640625" style="1" customWidth="1"/>
-    <col min="44" max="49" width="9.1796875" style="1"/>
-    <col min="50" max="50" width="90.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.1796875" style="1"/>
-    <col min="53" max="53" width="10.1796875" style="1" customWidth="1"/>
-    <col min="54" max="56" width="9.1796875" style="1"/>
-    <col min="57" max="57" width="53.54296875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.453125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.1796875" style="1"/>
+    <col min="40" max="42" width="10.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" style="1" customWidth="1"/>
+    <col min="44" max="49" width="9.140625" style="1"/>
+    <col min="50" max="50" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="1"/>
+    <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
+    <col min="54" max="56" width="9.140625" style="1"/>
+    <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>455</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>678</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>511</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>515</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>571</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>518</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>520</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>729</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>582</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>247</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>302</v>
       </c>
@@ -7211,7 +7210,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>267</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>178</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>666</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>268</v>
       </c>
@@ -8208,7 +8207,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>522</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>180</v>
       </c>
@@ -8543,7 +8542,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>655</v>
       </c>
@@ -8699,7 +8698,7 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>525</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>527</v>
       </c>
@@ -9021,7 +9020,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>585</v>
       </c>
@@ -9177,7 +9176,7 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>588</v>
       </c>
@@ -9343,7 +9342,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>367</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>591</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>388</v>
       </c>
@@ -9915,7 +9914,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>276</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>275</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>594</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
@@ -10659,7 +10658,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>740</v>
       </c>
@@ -10867,7 +10866,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
@@ -11045,7 +11044,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>153</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
@@ -11606,7 +11605,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
@@ -11820,7 +11819,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>445</v>
       </c>
@@ -12022,7 +12021,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>446</v>
       </c>
@@ -12188,7 +12187,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>543</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>668</v>
       </c>
@@ -12546,7 +12545,7 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>665</v>
       </c>
@@ -12708,7 +12707,7 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>663</v>
       </c>
@@ -12900,7 +12899,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
@@ -13066,7 +13065,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>656</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>159</v>
       </c>
@@ -13593,7 +13592,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>270</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="7" t="s">
         <v>368</v>
       </c>
@@ -14003,7 +14002,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>677</v>
       </c>
@@ -14162,7 +14161,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>447</v>
       </c>
@@ -14328,7 +14327,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>258</v>
       </c>
@@ -14494,7 +14493,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
@@ -14871,7 +14870,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>271</v>
       </c>
@@ -15085,7 +15084,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>279</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>532</v>
       </c>
@@ -15442,7 +15441,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>187</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>189</v>
       </c>
@@ -15857,7 +15856,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>448</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>191</v>
       </c>
@@ -16192,7 +16191,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>597</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>534</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>745</v>
       </c>
@@ -16768,7 +16767,7 @@
         <v>[40.47964,-104.90192],</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>281</v>
       </c>
@@ -16973,7 +16972,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>675</v>
       </c>
@@ -17132,7 +17131,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>380</v>
       </c>
@@ -17343,7 +17342,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>193</v>
       </c>
@@ -17515,7 +17514,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>46</v>
       </c>
@@ -17681,7 +17680,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>162</v>
       </c>
@@ -17895,7 +17894,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>449</v>
       </c>
@@ -18061,7 +18060,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>195</v>
       </c>
@@ -18227,7 +18226,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>24</v>
       </c>
@@ -18444,7 +18443,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>676</v>
       </c>
@@ -18600,7 +18599,7 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>600</v>
       </c>
@@ -18804,7 +18803,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>92</v>
       </c>
@@ -19018,7 +19017,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>33</v>
       </c>
@@ -19038,43 +19037,43 @@
         <v>1500</v>
       </c>
       <c r="I86" s="1">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="J86" s="1">
         <v>1500</v>
       </c>
       <c r="K86" s="1">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="L86" s="1">
         <v>1500</v>
       </c>
       <c r="M86" s="1">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="N86" s="1">
         <v>1500</v>
       </c>
       <c r="O86" s="1">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="P86" s="1">
         <v>1500</v>
       </c>
       <c r="Q86" s="1">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="R86" s="1">
         <v>1500</v>
       </c>
       <c r="S86" s="1">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="T86" s="1">
         <v>1500</v>
       </c>
       <c r="U86" s="1">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>497</v>
@@ -19085,7 +19084,7 @@
       </c>
       <c r="X86" s="1">
         <f t="shared" si="116"/>
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="Y86" s="1">
         <f t="shared" si="117"/>
@@ -19093,7 +19092,7 @@
       </c>
       <c r="Z86" s="1">
         <f t="shared" si="118"/>
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AA86" s="1">
         <f t="shared" si="119"/>
@@ -19101,7 +19100,7 @@
       </c>
       <c r="AB86" s="1">
         <f t="shared" si="120"/>
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AC86" s="1">
         <f t="shared" si="121"/>
@@ -19109,7 +19108,7 @@
       </c>
       <c r="AD86" s="1">
         <f t="shared" si="122"/>
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AE86" s="1">
         <f t="shared" si="123"/>
@@ -19117,7 +19116,7 @@
       </c>
       <c r="AF86" s="1">
         <f t="shared" si="124"/>
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AG86" s="1">
         <f t="shared" si="125"/>
@@ -19125,7 +19124,7 @@
       </c>
       <c r="AH86" s="1">
         <f t="shared" si="126"/>
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AI86" s="1">
         <f t="shared" si="127"/>
@@ -19133,35 +19132,35 @@
       </c>
       <c r="AJ86" s="1">
         <f t="shared" si="128"/>
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AK86" s="1" t="str">
         <f t="shared" si="129"/>
-        <v>3pm-6.3pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AL86" s="1" t="str">
         <f t="shared" si="130"/>
-        <v>3pm-6.3pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM86" s="1" t="str">
         <f t="shared" si="131"/>
-        <v>3pm-6.3pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AN86" s="1" t="str">
         <f t="shared" si="132"/>
-        <v>3pm-6.3pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO86" s="1" t="str">
         <f t="shared" si="133"/>
-        <v>3pm-6.3pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AP86" s="1" t="str">
         <f t="shared" si="134"/>
-        <v>3pm-6.3pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AQ86" s="1" t="str">
         <f t="shared" si="135"/>
-        <v>3pm-6.3pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AR86" s="1" t="s">
         <v>232</v>
@@ -19183,7 +19182,7 @@
         <v>{
     'name': "Jay's Bistro",
     'area': "old",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1830", 'monday-start':"1500", 'monday-end':"1830", 'tuesday-start':"1500", 'tuesday-end':"1830", 'wednesday-start':"1500", 'wednesday-end':"1830", 'thursday-start':"1500", 'thursday-end':"1830", 'friday-start':"1500", 'friday-end':"1830", 'saturday-start':"1500", 'saturday-end':"1830"},  'description': "Cocktails: $5 &lt;br&gt; Martinis: $6 &lt;br&gt; Wine by the Glass: $5 &lt;br&gt; Selected Draft Beers: $3.50", 'link':"http://www.jaysbistro.net/", 'pricing':"high",   'phone-number': "", 'address': "135 W Oak St, Fort Collins 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Cocktails: $5 &lt;br&gt; Martinis: $6 &lt;br&gt; Wine by the Glass: $5 &lt;br&gt; Selected Draft Beers: $3.50", 'link':"http://www.jaysbistro.net/", 'pricing':"high",   'phone-number': "", 'address': "135 W Oak St, Fort Collins 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY86" s="1" t="str">
         <f t="shared" si="137"/>
@@ -19232,7 +19231,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>115</v>
       </c>
@@ -19404,7 +19403,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>726</v>
       </c>
@@ -19486,7 +19485,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>131</v>
       </c>
@@ -19652,7 +19651,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>95</v>
       </c>
@@ -19818,7 +19817,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>549</v>
       </c>
@@ -20032,7 +20031,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>604</v>
       </c>
@@ -20233,7 +20232,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>377</v>
       </c>
@@ -20438,7 +20437,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
@@ -20652,7 +20651,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>608</v>
       </c>
@@ -20808,7 +20807,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>283</v>
       </c>
@@ -21019,7 +21018,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>611</v>
       </c>
@@ -21175,7 +21174,7 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>614</v>
       </c>
@@ -21328,7 +21327,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>372</v>
       </c>
@@ -21527,7 +21526,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>672</v>
       </c>
@@ -21686,7 +21685,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>164</v>
       </c>
@@ -21858,7 +21857,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>616</v>
       </c>
@@ -22014,7 +22013,7 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>562</v>
       </c>
@@ -22221,7 +22220,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>62</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>198</v>
       </c>
@@ -22553,7 +22552,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>395</v>
       </c>
@@ -22728,7 +22727,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>664</v>
       </c>
@@ -22936,7 +22935,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>121</v>
       </c>
@@ -23150,7 +23149,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>166</v>
       </c>
@@ -23361,7 +23360,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>200</v>
       </c>
@@ -23533,7 +23532,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>168</v>
       </c>
@@ -23741,7 +23740,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>662</v>
       </c>
@@ -23900,7 +23899,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>123</v>
       </c>
@@ -24066,7 +24065,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>123</v>
       </c>
@@ -24222,7 +24221,7 @@
         <v>[40.5491,-105.07603],</v>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>660</v>
       </c>
@@ -24381,7 +24380,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>202</v>
       </c>
@@ -24553,7 +24552,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>143</v>
       </c>
@@ -24719,7 +24718,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>450</v>
       </c>
@@ -24885,7 +24884,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>621</v>
       </c>
@@ -25089,7 +25088,7 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>625</v>
       </c>
@@ -25290,7 +25289,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>89</v>
       </c>
@@ -25504,7 +25503,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>577</v>
       </c>
@@ -25699,7 +25698,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>204</v>
       </c>
@@ -25910,7 +25909,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>206</v>
       </c>
@@ -26079,7 +26078,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>451</v>
       </c>
@@ -26245,7 +26244,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>661</v>
       </c>
@@ -26404,7 +26403,7 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>657</v>
       </c>
@@ -26566,7 +26565,7 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>752</v>
       </c>
@@ -26774,7 +26773,7 @@
         <v>[40.52369,-105.03435],</v>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>208</v>
       </c>
@@ -26946,7 +26945,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>669</v>
       </c>
@@ -27105,7 +27104,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>170</v>
       </c>
@@ -27314,7 +27313,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>43</v>
       </c>
@@ -27513,7 +27512,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>210</v>
       </c>
@@ -27727,7 +27726,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>59</v>
       </c>
@@ -27893,7 +27892,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>59</v>
       </c>
@@ -28054,7 +28053,7 @@
       </c>
       <c r="BL135" s="12"/>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>452</v>
       </c>
@@ -28220,7 +28219,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>670</v>
       </c>
@@ -28376,7 +28375,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>213</v>
       </c>
@@ -28542,7 +28541,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>479</v>
       </c>
@@ -28708,7 +28707,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>658</v>
       </c>
@@ -28912,7 +28911,7 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>398</v>
       </c>
@@ -29078,7 +29077,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>379</v>
       </c>
@@ -29286,7 +29285,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>659</v>
       </c>
@@ -29475,7 +29474,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>216</v>
       </c>
@@ -29686,7 +29685,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>286</v>
       </c>
@@ -29897,7 +29896,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>103</v>
       </c>
@@ -30102,7 +30101,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>137</v>
       </c>
@@ -30274,7 +30273,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>118</v>
       </c>
@@ -30440,7 +30439,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>630</v>
       </c>
@@ -30596,7 +30595,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>40</v>
       </c>
@@ -30771,7 +30770,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>37</v>
       </c>
@@ -30982,7 +30981,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>671</v>
       </c>
@@ -31135,7 +31134,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>376</v>
       </c>
@@ -31301,7 +31300,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>538</v>
       </c>
@@ -31506,7 +31505,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>673</v>
       </c>
@@ -31665,7 +31664,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>112</v>
       </c>
@@ -31861,7 +31860,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>545</v>
       </c>
@@ -32063,7 +32062,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>80</v>
       </c>
@@ -32232,7 +32231,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>674</v>
       </c>
@@ -32388,7 +32387,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>453</v>
       </c>
@@ -32554,7 +32553,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>100</v>
       </c>
@@ -32720,7 +32719,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>633</v>
       </c>
@@ -32873,7 +32872,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>83</v>
       </c>
@@ -33042,7 +33041,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>218</v>
       </c>
@@ -33241,7 +33240,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>635</v>
       </c>
@@ -33421,7 +33420,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>173</v>
       </c>
@@ -33620,7 +33619,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>574</v>
       </c>
@@ -33785,7 +33784,7 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>706</v>
       </c>
@@ -33986,7 +33985,7 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>638</v>
       </c>
@@ -34142,7 +34141,7 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>567</v>
       </c>
@@ -34304,7 +34303,7 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>641</v>
       </c>
@@ -34463,7 +34462,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>454</v>
       </c>
@@ -34629,7 +34628,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>220</v>
       </c>
@@ -34843,7 +34842,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>381</v>
       </c>
@@ -35045,7 +35044,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>223</v>
       </c>
@@ -35211,7 +35210,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>556</v>
       </c>
@@ -35407,7 +35406,7 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>643</v>
       </c>
@@ -35560,7 +35559,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>288</v>
       </c>
@@ -35771,7 +35770,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>402</v>
       </c>
@@ -35940,7 +35939,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>645</v>
       </c>
@@ -36096,7 +36095,7 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>667</v>
       </c>
@@ -36249,7 +36248,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>128</v>
       </c>
@@ -36421,7 +36420,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>553</v>
       </c>
@@ -36586,7 +36585,7 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>648</v>
       </c>
@@ -36763,7 +36762,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>225</v>
       </c>
@@ -36929,7 +36928,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="17" t="s">
         <v>49</v>
       </c>
@@ -37095,7 +37094,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>652</v>
       </c>
@@ -37254,7 +37253,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>227</v>
       </c>
@@ -37426,82 +37425,82 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AV189" s="5"/>
       <c r="AW189" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C190" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:C190"/>
   <sortState ref="B2:BL188">
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G131" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AR42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AR94" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AR110" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AR54" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AR63" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AR46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AR158" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AR53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AR121" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AR90" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AR62" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AR161" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR146" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AR156" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AR87" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AR148" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AR108" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AR182" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR89" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AR82" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AR43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AR56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AR79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AR101" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AR109" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AR111" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="AR131" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AR16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="AR24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AR61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR77" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AR81" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AR105" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AR123" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR133" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AR138" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AR144" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AR164" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR175" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR188" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR23" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AR57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="AR64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AR65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AR74" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AR96" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AR145" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="AR178" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR58" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR76" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR47" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR168" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AR167" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G131" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
+    <hyperlink ref="AR42" r:id="rId2"/>
+    <hyperlink ref="AR94" r:id="rId3"/>
+    <hyperlink ref="AR28" r:id="rId4"/>
+    <hyperlink ref="AR110" r:id="rId5"/>
+    <hyperlink ref="AR20" r:id="rId6"/>
+    <hyperlink ref="AR8" r:id="rId7"/>
+    <hyperlink ref="AR54" r:id="rId8"/>
+    <hyperlink ref="AR34" r:id="rId9"/>
+    <hyperlink ref="AR63" r:id="rId10"/>
+    <hyperlink ref="AR46" r:id="rId11"/>
+    <hyperlink ref="AR158" r:id="rId12"/>
+    <hyperlink ref="AR53" r:id="rId13"/>
+    <hyperlink ref="AR121" r:id="rId14"/>
+    <hyperlink ref="AR90" r:id="rId15"/>
+    <hyperlink ref="AR62" r:id="rId16"/>
+    <hyperlink ref="AR161" r:id="rId17"/>
+    <hyperlink ref="AR146" r:id="rId18"/>
+    <hyperlink ref="AR19" r:id="rId19"/>
+    <hyperlink ref="AR10" r:id="rId20"/>
+    <hyperlink ref="AR156" r:id="rId21"/>
+    <hyperlink ref="AR87" r:id="rId22"/>
+    <hyperlink ref="AR148" r:id="rId23"/>
+    <hyperlink ref="AR108" r:id="rId24"/>
+    <hyperlink ref="AR182" r:id="rId25"/>
+    <hyperlink ref="AR89" r:id="rId26"/>
+    <hyperlink ref="AR15" r:id="rId27"/>
+    <hyperlink ref="AR82" r:id="rId28"/>
+    <hyperlink ref="AR5" r:id="rId29"/>
+    <hyperlink ref="AR7" r:id="rId30"/>
+    <hyperlink ref="AR43" r:id="rId31"/>
+    <hyperlink ref="AR45" r:id="rId32"/>
+    <hyperlink ref="AR56" r:id="rId33"/>
+    <hyperlink ref="AR79" r:id="rId34"/>
+    <hyperlink ref="AR101" r:id="rId35"/>
+    <hyperlink ref="AR109" r:id="rId36"/>
+    <hyperlink ref="AR111" r:id="rId37"/>
+    <hyperlink ref="AR131" r:id="rId38"/>
+    <hyperlink ref="AR16" r:id="rId39"/>
+    <hyperlink ref="AR24" r:id="rId40"/>
+    <hyperlink ref="AR61" r:id="rId41"/>
+    <hyperlink ref="AR77" r:id="rId42"/>
+    <hyperlink ref="AR81" r:id="rId43"/>
+    <hyperlink ref="AR105" r:id="rId44"/>
+    <hyperlink ref="AR123" r:id="rId45"/>
+    <hyperlink ref="AR133" r:id="rId46"/>
+    <hyperlink ref="AR138" r:id="rId47"/>
+    <hyperlink ref="AR144" r:id="rId48"/>
+    <hyperlink ref="AR164" r:id="rId49"/>
+    <hyperlink ref="AR175" r:id="rId50"/>
+    <hyperlink ref="AR188" r:id="rId51"/>
+    <hyperlink ref="AR23" r:id="rId52"/>
+    <hyperlink ref="AR57" r:id="rId53"/>
+    <hyperlink ref="AR64" r:id="rId54"/>
+    <hyperlink ref="AR65" r:id="rId55"/>
+    <hyperlink ref="AR74" r:id="rId56"/>
+    <hyperlink ref="AR96" r:id="rId57"/>
+    <hyperlink ref="AR145" r:id="rId58"/>
+    <hyperlink ref="AR178" r:id="rId59"/>
+    <hyperlink ref="AR58" r:id="rId60"/>
+    <hyperlink ref="AR76" r:id="rId61"/>
+    <hyperlink ref="AR47" r:id="rId62"/>
+    <hyperlink ref="AR9" r:id="rId63"/>
+    <hyperlink ref="AR168" r:id="rId64"/>
+    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
+    <hyperlink ref="AR167" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -37509,19 +37508,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="11">
         <v>40.588749999999997</v>
       </c>
@@ -37535,7 +37534,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
         <v>40.58587</v>
       </c>
@@ -37549,7 +37548,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
         <v>40.566600000000001</v>
       </c>
@@ -37561,35 +37560,35 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -37603,14 +37602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="784">
   <si>
     <t>Name</t>
   </si>
@@ -2382,6 +2382,9 @@
   </si>
   <si>
     <t>130 S Mason St</t>
+  </si>
+  <si>
+    <t>Mondays: Happy Hour All Day! $5 pints – $4 12oz. Buy a Rally King T-shirt and get a free beer! FREE fresh-baked, chocolate chip cookies  5pm-8 pm &lt;br&gt;Tuesdays: Wear Rally King gear for BOGO beers!&lt;br&gt;Wednesdays:Happy Hour 2pm-4pm&lt;br&gt;Thursdays:Happy Hour 2pm-4pm</t>
   </si>
 </sst>
 </file>
@@ -3340,10 +3343,10 @@
   <dimension ref="B1:BL193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AG122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="B170" sqref="B170"/>
+      <selection pane="bottomRight" activeCell="AV132" sqref="AV132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26957,6 +26960,33 @@
       <c r="G130" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="J130" s="1">
+        <v>1400</v>
+      </c>
+      <c r="K130" s="1">
+        <v>2100</v>
+      </c>
+      <c r="L130" s="1">
+        <v>1400</v>
+      </c>
+      <c r="M130" s="1">
+        <v>2100</v>
+      </c>
+      <c r="N130" s="1">
+        <v>1400</v>
+      </c>
+      <c r="O130" s="1">
+        <v>1600</v>
+      </c>
+      <c r="P130" s="1">
+        <v>1400</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>783</v>
+      </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="128"/>
         <v/>
@@ -26965,37 +26995,37 @@
         <f t="shared" si="129"/>
         <v/>
       </c>
-      <c r="Y130" s="1" t="str">
+      <c r="Y130" s="1">
         <f t="shared" si="130"/>
-        <v/>
-      </c>
-      <c r="Z130" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="Z130" s="1">
         <f t="shared" si="131"/>
-        <v/>
-      </c>
-      <c r="AA130" s="1" t="str">
+        <v>21</v>
+      </c>
+      <c r="AA130" s="1">
         <f t="shared" si="132"/>
-        <v/>
-      </c>
-      <c r="AB130" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="AB130" s="1">
         <f t="shared" si="133"/>
-        <v/>
-      </c>
-      <c r="AC130" s="1" t="str">
+        <v>21</v>
+      </c>
+      <c r="AC130" s="1">
         <f t="shared" si="134"/>
-        <v/>
-      </c>
-      <c r="AD130" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="AD130" s="1">
         <f t="shared" si="135"/>
-        <v/>
-      </c>
-      <c r="AE130" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AE130" s="1">
         <f t="shared" si="140"/>
-        <v/>
-      </c>
-      <c r="AF130" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="AF130" s="1">
         <f t="shared" si="141"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="AG130" s="1" t="str">
         <f t="shared" si="136"/>
@@ -27019,19 +27049,19 @@
       </c>
       <c r="AL130" s="1" t="str">
         <f t="shared" si="143"/>
-        <v/>
+        <v>2pm-9pm</v>
       </c>
       <c r="AM130" s="1" t="str">
         <f t="shared" si="144"/>
-        <v/>
+        <v>2pm-9pm</v>
       </c>
       <c r="AN130" s="1" t="str">
         <f t="shared" si="145"/>
-        <v/>
+        <v>2pm-4pm</v>
       </c>
       <c r="AO130" s="1" t="str">
         <f t="shared" si="146"/>
-        <v/>
+        <v>2pm-4pm</v>
       </c>
       <c r="AP130" s="1" t="str">
         <f t="shared" si="147"/>
@@ -27064,7 +27094,7 @@
         <v>{
     'name': "Rally King Brewing",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://rallykingbrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "1624 S Lemay Ave #4, Fort Collins, CO", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"2100", 'tuesday-start':"1400", 'tuesday-end':"2100", 'wednesday-start':"1400", 'wednesday-end':"1600", 'thursday-start':"1400", 'thursday-end':"1600", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Mondays: Happy Hour All Day! $5 pints – $4 12oz. Buy a Rally King T-shirt and get a free beer! FREE fresh-baked, chocolate chip cookies  5pm-8 pm &lt;br&gt;Tuesdays: Wear Rally King gear for BOGO beers!&lt;br&gt;Wednesdays:Happy Hour 2pm-4pm&lt;br&gt;Thursdays:Happy Hour 2pm-4pm", 'link':"https://rallykingbrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "1624 S Lemay Ave #4, Fort Collins, CO", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY130" s="1" t="str">
         <f t="shared" si="150"/>
@@ -27261,8 +27291,8 @@
       <c r="AU131" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AV131" s="5" t="s">
-        <v>307</v>
+      <c r="AV131" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="AW131" s="5" t="s">
         <v>307</v>
@@ -27272,7 +27302,7 @@
         <v>{
     'name': "Rally5 Street Eats and Bar",
     'area': "midtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 Well Drinks and Micro drafts&lt;br&gt;$4 Wine by the glass, Premium Drafts, Mules, Classics, Mojitos and Margs&lt;br&gt;$5 Shareable Plates", 'link':"https://www.rally5streeteats.com/", 'pricing':"med",   'phone-number': "", 'address': "2310 E Harmony Rd, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 Well Drinks and Micro drafts&lt;br&gt;$4 Wine by the glass, Premium Drafts, Mules, Classics, Mojitos and Margs&lt;br&gt;$5 Shareable Plates", 'link':"https://www.rally5streeteats.com/", 'pricing':"med",   'phone-number': "", 'address': "2310 E Harmony Rd, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':TRUE, 'has-food':true},</v>
       </c>
       <c r="AY131" s="1" t="str">
         <f t="shared" si="150"/>
@@ -27288,7 +27318,7 @@
       </c>
       <c r="BB131" s="1" t="str">
         <f t="shared" si="153"/>
-        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v/>
       </c>
       <c r="BC131" s="1" t="str">
         <f t="shared" si="154"/>
@@ -27296,11 +27326,11 @@
       </c>
       <c r="BD131" s="1" t="str">
         <f t="shared" si="155"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE131" s="1" t="str">
         <f t="shared" si="156"/>
-        <v>drink food easy med midtown</v>
+        <v>food easy med midtown</v>
       </c>
       <c r="BF131" s="1" t="str">
         <f t="shared" si="157"/>
@@ -37993,7 +38023,7 @@
         <v>0</v>
       </c>
       <c r="AX192" s="6" t="str">
-        <f t="shared" ref="AX192:AX223" si="213">CONCATENATE("{
+        <f t="shared" ref="AX192:AX193" si="213">CONCATENATE("{
     'name': """,B192,""",
     'area': ","""",C192,""",",
 "'hours': {
@@ -38024,7 +38054,7 @@
         <v/>
       </c>
       <c r="BD192" s="1" t="str">
-        <f t="shared" ref="BD192:BD223" si="214">CONCATENATE(AY192,AZ192,BA192,BB192,BC192,BK192)</f>
+        <f t="shared" ref="BD192:BD193" si="214">CONCATENATE(AY192,AZ192,BA192,BB192,BC192,BK192)</f>
         <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;</v>
       </c>
       <c r="BE192" s="1" t="str">
@@ -38042,7 +38072,7 @@
         <v>-105.10039</v>
       </c>
       <c r="BI192" s="1" t="str">
-        <f t="shared" ref="BI192:BI223" si="215">CONCATENATE("[",BG192,",",BH192,"],")</f>
+        <f t="shared" ref="BI192:BI193" si="215">CONCATENATE("[",BG192,",",BH192,"],")</f>
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61255A-3D6F-41CB-B3DA-62CFEB33DB54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$188</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="785">
   <si>
     <t>Name</t>
   </si>
@@ -2385,12 +2387,15 @@
   </si>
   <si>
     <t>Mondays: Happy Hour All Day! $5 pints – $4 12oz. Buy a Rally King T-shirt and get a free beer! FREE fresh-baked, chocolate chip cookies  5pm-8 pm &lt;br&gt;Tuesdays: Wear Rally King gear for BOGO beers!&lt;br&gt;Wednesdays:Happy Hour 2pm-4pm&lt;br&gt;Thursdays:Happy Hour 2pm-4pm</t>
+  </si>
+  <si>
+    <t>$5 cocktails including Gin and Tonics, Lavendar Sours, Colorado Mules, Bee Stings, and Don Drapers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2970,12 +2975,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2994,11 +2999,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -3027,7 +3032,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3339,38 +3344,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AG122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="BF53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AV132" sqref="AV132"/>
+      <selection pane="bottomRight" activeCell="BR56" sqref="BR56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
     <col min="4" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" style="1" customWidth="1"/>
-    <col min="44" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.140625" style="1"/>
-    <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
-    <col min="54" max="56" width="9.140625" style="1"/>
-    <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="42" width="10.26953125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" style="1" customWidth="1"/>
+    <col min="44" max="49" width="9.1796875" style="1"/>
+    <col min="50" max="50" width="90.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.1796875" style="1"/>
+    <col min="53" max="53" width="10.1796875" style="1" customWidth="1"/>
+    <col min="54" max="56" width="9.1796875" style="1"/>
+    <col min="57" max="57" width="53.54296875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.453125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>455</v>
       </c>
@@ -3753,7 +3758,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3961,7 +3966,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>674</v>
       </c>
@@ -4120,7 +4125,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>511</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4836,7 +4841,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>515</v>
       </c>
@@ -5050,7 +5055,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -5264,7 +5269,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>571</v>
       </c>
@@ -5426,7 +5431,7 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>518</v>
       </c>
@@ -5590,7 +5595,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>520</v>
       </c>
@@ -5751,7 +5756,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>723</v>
       </c>
@@ -5958,7 +5963,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
@@ -6125,7 +6130,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -6327,7 +6332,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>582</v>
       </c>
@@ -6489,7 +6494,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -6709,7 +6714,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>247</v>
       </c>
@@ -6920,7 +6925,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7086,7 +7091,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>302</v>
       </c>
@@ -7285,7 +7290,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>267</v>
       </c>
@@ -7716,7 +7721,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>178</v>
       </c>
@@ -7918,7 +7923,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>662</v>
       </c>
@@ -8098,7 +8103,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>268</v>
       </c>
@@ -8282,7 +8287,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>522</v>
       </c>
@@ -8445,7 +8450,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>180</v>
       </c>
@@ -8617,7 +8622,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>651</v>
       </c>
@@ -8773,7 +8778,7 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>525</v>
       </c>
@@ -8934,7 +8939,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>527</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>585</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>588</v>
       </c>
@@ -9417,7 +9422,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>367</v>
       </c>
@@ -9623,7 +9628,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>591</v>
       </c>
@@ -9779,7 +9784,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>388</v>
       </c>
@@ -9993,7 +9998,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>276</v>
       </c>
@@ -10210,7 +10215,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>275</v>
       </c>
@@ -10412,7 +10417,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>594</v>
       </c>
@@ -10568,7 +10573,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
@@ -10737,7 +10742,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>734</v>
       </c>
@@ -10945,7 +10950,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
@@ -11123,7 +11128,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>153</v>
       </c>
@@ -11289,7 +11294,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
@@ -11494,7 +11499,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
@@ -11684,7 +11689,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
@@ -11898,7 +11903,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>445</v>
       </c>
@@ -12100,7 +12105,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>446</v>
       </c>
@@ -12266,7 +12271,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>543</v>
       </c>
@@ -12465,7 +12470,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>664</v>
       </c>
@@ -12624,7 +12629,7 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>661</v>
       </c>
@@ -12786,7 +12791,7 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>659</v>
       </c>
@@ -12978,7 +12983,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
@@ -13144,7 +13149,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
@@ -13310,7 +13315,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>652</v>
       </c>
@@ -13502,7 +13507,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>159</v>
       </c>
@@ -13518,6 +13523,21 @@
       <c r="G56" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="N56" s="1">
+        <v>1600</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1800</v>
+      </c>
+      <c r="P56" s="1">
+        <v>1400</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1800</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>784</v>
+      </c>
       <c r="W56" s="1" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -13542,21 +13562,21 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AC56" s="1" t="str">
+      <c r="AC56" s="1">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="AD56" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AD56" s="1">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="AE56" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AE56" s="1">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AF56" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="AF56" s="1">
         <f t="shared" si="42"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AG56" s="1" t="str">
         <f t="shared" si="43"/>
@@ -13588,11 +13608,11 @@
       </c>
       <c r="AN56" s="1" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AO56" s="1" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>2pm-6pm</v>
       </c>
       <c r="AP56" s="1" t="str">
         <f t="shared" si="52"/>
@@ -13622,7 +13642,7 @@
         <v>{
     'name': "Elevation 5003 Distillery",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.elevation5003.com/", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave Unit 8, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$5 cocktails including Gin and Tonics, Lavendar Sours, Colorado Mules, Bee Stings, and Don Drapers", 'link':"http://www.elevation5003.com/", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave Unit 8, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY56" s="1" t="str">
         <f t="shared" si="55"/>
@@ -13671,7 +13691,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>270</v>
       </c>
@@ -13870,7 +13890,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="7" t="s">
         <v>368</v>
       </c>
@@ -14081,7 +14101,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
         <v>673</v>
       </c>
@@ -14240,7 +14260,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>447</v>
       </c>
@@ -14406,7 +14426,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>258</v>
       </c>
@@ -14572,7 +14592,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
@@ -14783,7 +14803,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
@@ -14949,7 +14969,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>752</v>
       </c>
@@ -15103,7 +15123,7 @@
         <v>[40.58976,-105.076497],</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>271</v>
       </c>
@@ -15317,7 +15337,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>279</v>
       </c>
@@ -15520,7 +15540,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>754</v>
       </c>
@@ -15671,7 +15691,7 @@
         <v>[40.551049,-105.05831],</v>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>532</v>
       </c>
@@ -15829,7 +15849,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>187</v>
       </c>
@@ -16035,7 +16055,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>189</v>
       </c>
@@ -16240,7 +16260,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
         <v>448</v>
       </c>
@@ -16406,7 +16426,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
         <v>191</v>
       </c>
@@ -16575,7 +16595,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
         <v>597</v>
       </c>
@@ -16782,7 +16802,7 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
         <v>534</v>
       </c>
@@ -16943,7 +16963,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
         <v>739</v>
       </c>
@@ -17147,7 +17167,7 @@
         <v>[40.47964,-104.90192],</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
         <v>281</v>
       </c>
@@ -17352,7 +17372,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>671</v>
       </c>
@@ -17511,7 +17531,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
         <v>380</v>
       </c>
@@ -17722,7 +17742,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>193</v>
       </c>
@@ -17894,7 +17914,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>46</v>
       </c>
@@ -18060,7 +18080,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>162</v>
       </c>
@@ -18274,7 +18294,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>449</v>
       </c>
@@ -18440,7 +18460,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>195</v>
       </c>
@@ -18606,7 +18626,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
         <v>24</v>
       </c>
@@ -18823,7 +18843,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
         <v>672</v>
       </c>
@@ -18979,7 +18999,7 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>600</v>
       </c>
@@ -19183,7 +19203,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
         <v>92</v>
       </c>
@@ -19397,7 +19417,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
@@ -19611,7 +19631,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>115</v>
       </c>
@@ -19783,7 +19803,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
         <v>720</v>
       </c>
@@ -19861,7 +19881,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -20027,7 +20047,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>95</v>
       </c>
@@ -20193,7 +20213,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
         <v>549</v>
       </c>
@@ -20407,7 +20427,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
         <v>604</v>
       </c>
@@ -20608,7 +20628,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
         <v>377</v>
       </c>
@@ -20813,7 +20833,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
         <v>197</v>
       </c>
@@ -21027,7 +21047,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
         <v>608</v>
       </c>
@@ -21183,7 +21203,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
         <v>283</v>
       </c>
@@ -21398,7 +21418,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
         <v>611</v>
       </c>
@@ -21554,7 +21574,7 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
         <v>614</v>
       </c>
@@ -21707,7 +21727,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
         <v>372</v>
       </c>
@@ -21906,7 +21926,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
         <v>668</v>
       </c>
@@ -22065,7 +22085,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
         <v>164</v>
       </c>
@@ -22237,7 +22257,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
         <v>616</v>
       </c>
@@ -22393,7 +22413,7 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
         <v>562</v>
       </c>
@@ -22600,7 +22620,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
         <v>62</v>
       </c>
@@ -22766,7 +22786,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
         <v>198</v>
       </c>
@@ -22932,7 +22952,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
         <v>395</v>
       </c>
@@ -23107,7 +23127,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
         <v>660</v>
       </c>
@@ -23315,7 +23335,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
         <v>121</v>
       </c>
@@ -23529,7 +23549,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>166</v>
       </c>
@@ -23740,7 +23760,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
         <v>200</v>
       </c>
@@ -23912,7 +23932,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
         <v>168</v>
       </c>
@@ -24120,7 +24140,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
         <v>658</v>
       </c>
@@ -24279,7 +24299,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
         <v>123</v>
       </c>
@@ -24445,7 +24465,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>656</v>
       </c>
@@ -24604,7 +24624,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
         <v>202</v>
       </c>
@@ -24776,7 +24796,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
         <v>143</v>
       </c>
@@ -24942,7 +24962,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1" t="s">
         <v>450</v>
       </c>
@@ -25108,7 +25128,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1" t="s">
         <v>756</v>
       </c>
@@ -25259,7 +25279,7 @@
         <v>[40.527959,-105.077616],</v>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1" t="s">
         <v>619</v>
       </c>
@@ -25463,7 +25483,7 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1" t="s">
         <v>623</v>
       </c>
@@ -25664,7 +25684,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
         <v>89</v>
       </c>
@@ -25878,7 +25898,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
         <v>577</v>
       </c>
@@ -26073,7 +26093,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1" t="s">
         <v>204</v>
       </c>
@@ -26284,7 +26304,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1" t="s">
         <v>206</v>
       </c>
@@ -26453,7 +26473,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1" t="s">
         <v>451</v>
       </c>
@@ -26619,7 +26639,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
         <v>657</v>
       </c>
@@ -26778,7 +26798,7 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1" t="s">
         <v>653</v>
       </c>
@@ -26944,7 +26964,7 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
         <v>208</v>
       </c>
@@ -27143,7 +27163,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
         <v>746</v>
       </c>
@@ -27347,7 +27367,7 @@
         <v>[40.52369,-105.03435],</v>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1" t="s">
         <v>665</v>
       </c>
@@ -27506,7 +27526,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1" t="s">
         <v>170</v>
       </c>
@@ -27711,7 +27731,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
         <v>43</v>
       </c>
@@ -27910,7 +27930,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
         <v>210</v>
       </c>
@@ -28124,7 +28144,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1" t="s">
         <v>59</v>
       </c>
@@ -28290,7 +28310,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
         <v>452</v>
       </c>
@@ -28456,7 +28476,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1" t="s">
         <v>666</v>
       </c>
@@ -28612,7 +28632,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1" t="s">
         <v>213</v>
       </c>
@@ -28778,7 +28798,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
         <v>479</v>
       </c>
@@ -28944,7 +28964,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
         <v>654</v>
       </c>
@@ -29148,7 +29168,7 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1" t="s">
         <v>755</v>
       </c>
@@ -29302,7 +29322,7 @@
         <v>[40.563256,-105.077464],</v>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
         <v>398</v>
       </c>
@@ -29468,7 +29488,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
         <v>379</v>
       </c>
@@ -29676,7 +29696,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
         <v>655</v>
       </c>
@@ -29865,7 +29885,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
         <v>216</v>
       </c>
@@ -30076,7 +30096,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
         <v>286</v>
       </c>
@@ -30287,7 +30307,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
         <v>103</v>
       </c>
@@ -30492,7 +30512,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
         <v>137</v>
       </c>
@@ -30664,7 +30684,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
         <v>118</v>
       </c>
@@ -30830,7 +30850,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">
         <v>626</v>
       </c>
@@ -30986,7 +31006,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
         <v>40</v>
       </c>
@@ -31161,7 +31181,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1" t="s">
         <v>37</v>
       </c>
@@ -31372,7 +31392,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1" t="s">
         <v>667</v>
       </c>
@@ -31525,7 +31545,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1" t="s">
         <v>376</v>
       </c>
@@ -31691,7 +31711,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1" t="s">
         <v>538</v>
       </c>
@@ -31896,7 +31916,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1" t="s">
         <v>669</v>
       </c>
@@ -32055,7 +32075,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1" t="s">
         <v>112</v>
       </c>
@@ -32251,7 +32271,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1" t="s">
         <v>545</v>
       </c>
@@ -32453,7 +32473,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
         <v>80</v>
       </c>
@@ -32626,7 +32646,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
         <v>670</v>
       </c>
@@ -32782,7 +32802,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1" t="s">
         <v>453</v>
       </c>
@@ -32948,7 +32968,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
         <v>100</v>
       </c>
@@ -33114,7 +33134,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
         <v>629</v>
       </c>
@@ -33267,7 +33287,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1" t="s">
         <v>83</v>
       </c>
@@ -33436,7 +33456,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
         <v>218</v>
       </c>
@@ -33635,7 +33655,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
         <v>631</v>
       </c>
@@ -33815,7 +33835,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1" t="s">
         <v>173</v>
       </c>
@@ -34014,7 +34034,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1" t="s">
         <v>574</v>
       </c>
@@ -34179,7 +34199,7 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1" t="s">
         <v>757</v>
       </c>
@@ -34330,7 +34350,7 @@
         <v>[40.586451,-105.078568],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1" t="s">
         <v>702</v>
       </c>
@@ -34531,7 +34551,7 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1" t="s">
         <v>634</v>
       </c>
@@ -34687,7 +34707,7 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1" t="s">
         <v>567</v>
       </c>
@@ -34849,7 +34869,7 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
         <v>637</v>
       </c>
@@ -35008,7 +35028,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
         <v>454</v>
       </c>
@@ -35174,7 +35194,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
         <v>220</v>
       </c>
@@ -35388,7 +35408,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1" t="s">
         <v>381</v>
       </c>
@@ -35590,7 +35610,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
         <v>223</v>
       </c>
@@ -35756,7 +35776,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1" t="s">
         <v>556</v>
       </c>
@@ -35952,7 +35972,7 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
         <v>639</v>
       </c>
@@ -36105,7 +36125,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
         <v>288</v>
       </c>
@@ -36316,7 +36336,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
         <v>402</v>
       </c>
@@ -36485,7 +36505,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1" t="s">
         <v>753</v>
       </c>
@@ -36636,7 +36656,7 @@
         <v>[40.523973,-105.025125],</v>
       </c>
     </row>
-    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1" t="s">
         <v>751</v>
       </c>
@@ -36790,7 +36810,7 @@
         <v>[40.589425,-105.076553],</v>
       </c>
     </row>
-    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1" t="s">
         <v>641</v>
       </c>
@@ -36946,7 +36966,7 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
         <v>663</v>
       </c>
@@ -37099,7 +37119,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1" t="s">
         <v>128</v>
       </c>
@@ -37271,7 +37291,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1" t="s">
         <v>553</v>
       </c>
@@ -37436,7 +37456,7 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1" t="s">
         <v>644</v>
       </c>
@@ -37605,7 +37625,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="190" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1" t="s">
         <v>225</v>
       </c>
@@ -37763,7 +37783,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="17" t="s">
         <v>49</v>
       </c>
@@ -37921,7 +37941,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1" t="s">
         <v>648</v>
       </c>
@@ -38076,7 +38096,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1" t="s">
         <v>227</v>
       </c>
@@ -38241,77 +38261,77 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C188"/>
-  <sortState ref="B2:BL195">
+  <autoFilter ref="C2:C188" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BL195">
     <sortCondition ref="B2:B195"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G133" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
-    <hyperlink ref="AR42" r:id="rId2"/>
-    <hyperlink ref="AR96" r:id="rId3"/>
-    <hyperlink ref="AR28" r:id="rId4"/>
-    <hyperlink ref="AR112" r:id="rId5"/>
-    <hyperlink ref="AR20" r:id="rId6"/>
-    <hyperlink ref="AR8" r:id="rId7"/>
-    <hyperlink ref="AR54" r:id="rId8"/>
-    <hyperlink ref="AR34" r:id="rId9"/>
-    <hyperlink ref="AR63" r:id="rId10"/>
-    <hyperlink ref="AR46" r:id="rId11"/>
-    <hyperlink ref="AR160" r:id="rId12"/>
-    <hyperlink ref="AR53" r:id="rId13"/>
-    <hyperlink ref="AR123" r:id="rId14"/>
-    <hyperlink ref="AR92" r:id="rId15"/>
-    <hyperlink ref="AR62" r:id="rId16"/>
-    <hyperlink ref="AR163" r:id="rId17"/>
-    <hyperlink ref="AR148" r:id="rId18"/>
-    <hyperlink ref="AR19" r:id="rId19"/>
-    <hyperlink ref="AR10" r:id="rId20"/>
-    <hyperlink ref="AR158" r:id="rId21"/>
-    <hyperlink ref="AR89" r:id="rId22"/>
-    <hyperlink ref="AR150" r:id="rId23"/>
-    <hyperlink ref="AR110" r:id="rId24"/>
-    <hyperlink ref="AR187" r:id="rId25"/>
-    <hyperlink ref="AR91" r:id="rId26"/>
-    <hyperlink ref="AR15" r:id="rId27"/>
-    <hyperlink ref="AR84" r:id="rId28"/>
-    <hyperlink ref="AR5" r:id="rId29"/>
-    <hyperlink ref="AR7" r:id="rId30"/>
-    <hyperlink ref="AR43" r:id="rId31"/>
-    <hyperlink ref="AR45" r:id="rId32"/>
-    <hyperlink ref="AR56" r:id="rId33"/>
-    <hyperlink ref="AR81" r:id="rId34"/>
-    <hyperlink ref="AR103" r:id="rId35"/>
-    <hyperlink ref="AR111" r:id="rId36"/>
-    <hyperlink ref="AR113" r:id="rId37"/>
-    <hyperlink ref="AR133" r:id="rId38"/>
-    <hyperlink ref="AR16" r:id="rId39"/>
-    <hyperlink ref="AR24" r:id="rId40"/>
-    <hyperlink ref="AR61" r:id="rId41"/>
-    <hyperlink ref="AR79" r:id="rId42"/>
-    <hyperlink ref="AR83" r:id="rId43"/>
-    <hyperlink ref="AR107" r:id="rId44"/>
-    <hyperlink ref="AR125" r:id="rId45"/>
-    <hyperlink ref="AR135" r:id="rId46"/>
-    <hyperlink ref="AR139" r:id="rId47"/>
-    <hyperlink ref="AR146" r:id="rId48"/>
-    <hyperlink ref="AR166" r:id="rId49"/>
-    <hyperlink ref="AR178" r:id="rId50"/>
-    <hyperlink ref="AR193" r:id="rId51"/>
-    <hyperlink ref="AR23" r:id="rId52"/>
-    <hyperlink ref="AR57" r:id="rId53"/>
-    <hyperlink ref="AR65" r:id="rId54"/>
-    <hyperlink ref="AR66" r:id="rId55"/>
-    <hyperlink ref="AR76" r:id="rId56"/>
-    <hyperlink ref="AR98" r:id="rId57"/>
-    <hyperlink ref="AR147" r:id="rId58"/>
-    <hyperlink ref="AR181" r:id="rId59"/>
-    <hyperlink ref="AR58" r:id="rId60"/>
-    <hyperlink ref="AR78" r:id="rId61"/>
-    <hyperlink ref="AR47" r:id="rId62"/>
-    <hyperlink ref="AR9" r:id="rId63"/>
-    <hyperlink ref="AR171" r:id="rId64"/>
-    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
-    <hyperlink ref="AR169" r:id="rId66"/>
+    <hyperlink ref="G133" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AR42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AR96" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR112" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AR54" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AR63" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AR46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AR160" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AR53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AR123" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AR92" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AR62" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AR163" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR148" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AR158" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AR89" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AR150" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AR110" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AR187" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR91" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AR84" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AR43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AR56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AR81" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AR103" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AR111" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AR113" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AR133" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AR16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AR24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AR61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR79" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AR83" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AR107" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AR125" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR135" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AR139" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AR146" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AR166" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR178" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR193" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AR23" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AR57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AR65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AR66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AR76" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AR98" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AR147" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AR181" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AR58" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR78" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR47" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR171" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AR169" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -38319,19 +38339,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
         <v>772</v>
       </c>
@@ -38348,7 +38368,7 @@
         <v>-105.076553</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>775</v>
       </c>
@@ -38365,7 +38385,7 @@
         <v>-105.076497</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>776</v>
       </c>
@@ -38382,7 +38402,7 @@
         <v>-105.025125</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>778</v>
       </c>
@@ -38399,7 +38419,7 @@
         <v>-105.05831000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>780</v>
       </c>
@@ -38416,7 +38436,7 @@
         <v>-105.07746400000001</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>781</v>
       </c>
@@ -38433,7 +38453,7 @@
         <v>-105.07761600000001</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>782</v>
       </c>
@@ -38450,12 +38470,12 @@
         <v>-105.078568</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -38469,14 +38489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61255A-3D6F-41CB-B3DA-62CFEB33DB54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$188</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -773,9 +772,6 @@
     <t>Numerous food and drink specials including a wide selection of oysters, mussels, and shrimp</t>
   </si>
   <si>
-    <t>Extensive menu of discounted &amp; Happy Hour only food items as well as sixteen different half price wines and discounts on draft beer and cocktails</t>
-  </si>
-  <si>
     <t>Big Al's Burgers &amp; Dogs</t>
   </si>
   <si>
@@ -2390,12 +2386,15 @@
   </si>
   <si>
     <t>$5 cocktails including Gin and Tonics, Lavendar Sours, Colorado Mules, Bee Stings, and Don Drapers</t>
+  </si>
+  <si>
+    <t>Ceviche $11 &lt;Br&gt;Red Rock Cod Tacos $3 Each&lt;Br&gt;East Coast Oysters On The Half Shell $1.25 Per Oyster&lt;Br&gt;Steamers $7&lt;Br&gt; Ahi Tuna Poke $14&lt;Br&gt;Calamari $7&lt;Br&gt;Cioppino $14&lt;Br&gt;Peel And Eat Shrimp $10&lt;Br&gt;Pub Chips $3&lt;Br&gt;Chicharones $3&lt;Br&gt; Wines $2.88-$4.75/Glass&lt;Br&gt;14oz Draft Pint Of Beer $5.50 &lt;br&gt;$2 Off Select Cocktails</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2975,12 +2974,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="37"/>
+    <cellStyle name="60% - Accent2" xfId="38"/>
+    <cellStyle name="60% - Accent3" xfId="39"/>
+    <cellStyle name="60% - Accent4" xfId="40"/>
+    <cellStyle name="60% - Accent5" xfId="41"/>
+    <cellStyle name="60% - Accent6" xfId="42"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2999,11 +2998,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Neutral" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title" xfId="35"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -3032,7 +3031,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3344,38 +3343,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BF53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="BR56" sqref="BR56"/>
+      <selection pane="bottomRight" activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.54296875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="42" width="10.26953125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.81640625" style="1" customWidth="1"/>
-    <col min="44" max="49" width="9.1796875" style="1"/>
-    <col min="50" max="50" width="90.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.1796875" style="1"/>
-    <col min="53" max="53" width="10.1796875" style="1" customWidth="1"/>
-    <col min="54" max="56" width="9.1796875" style="1"/>
-    <col min="57" max="57" width="53.54296875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.453125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.1796875" style="1"/>
+    <col min="40" max="42" width="10.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" style="1" customWidth="1"/>
+    <col min="44" max="49" width="9.140625" style="1"/>
+    <col min="50" max="50" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="1"/>
+    <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
+    <col min="54" max="56" width="9.140625" style="1"/>
+    <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3440,79 +3439,79 @@
         <v>16</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="AK1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="AU1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>21</v>
@@ -3522,39 +3521,39 @@
       </c>
       <c r="AY1" s="6"/>
       <c r="BD1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="BF1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="H2" s="1">
         <v>1600</v>
@@ -3683,10 +3682,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV2" s="1" t="b">
         <v>1</v>
@@ -3755,21 +3754,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>142</v>
@@ -3901,16 +3900,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV3" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX3" s="6" t="str">
         <f t="shared" si="21"/>
@@ -3966,18 +3965,18 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4064,16 +4063,16 @@
         <v/>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX4" s="6" t="str">
         <f t="shared" si="21"/>
@@ -4125,12 +4124,12 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>147</v>
@@ -4226,16 +4225,16 @@
         <v/>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX5" s="6" t="str">
         <f t="shared" si="21"/>
@@ -4291,21 +4290,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4396,10 +4395,10 @@
         <v>28</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX6" s="6" t="str">
         <f t="shared" si="21"/>
@@ -4455,18 +4454,18 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>150</v>
@@ -4556,22 +4555,22 @@
         <v/>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX7" s="6" t="str">
         <f t="shared" si="21"/>
@@ -4627,18 +4626,18 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>67</v>
@@ -4686,7 +4685,7 @@
         <v>1800</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="0"/>
@@ -4773,19 +4772,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX8" s="6" t="str">
         <f t="shared" si="21"/>
@@ -4841,21 +4840,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="H9" s="1">
         <v>1500</v>
@@ -4900,7 +4899,7 @@
         <v>1800</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="0"/>
@@ -4987,19 +4986,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX9" s="6" t="str">
         <f t="shared" si="21"/>
@@ -5055,18 +5054,18 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>111</v>
@@ -5114,7 +5113,7 @@
         <v>2400</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="0"/>
@@ -5201,19 +5200,19 @@
         <v>9am-12am</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW10" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW10" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX10" s="6" t="str">
         <f t="shared" si="21"/>
@@ -5269,21 +5268,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5370,16 +5369,16 @@
         <v/>
       </c>
       <c r="AR11" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW11" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX11" s="6" t="str">
         <f t="shared" si="21"/>
@@ -5431,21 +5430,21 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5533,13 +5532,13 @@
       </c>
       <c r="AR12" s="4"/>
       <c r="AU12" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW12" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX12" s="6" t="str">
         <f t="shared" si="21"/>
@@ -5595,18 +5594,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5694,13 +5693,13 @@
       </c>
       <c r="AR13" s="4"/>
       <c r="AU13" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX13" s="6" t="str">
         <f t="shared" si="21"/>
@@ -5756,18 +5755,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>724</v>
       </c>
       <c r="H14" s="1">
         <v>1500</v>
@@ -5812,7 +5811,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="0"/>
@@ -5899,19 +5898,19 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV14" s="18" t="s">
         <v>730</v>
       </c>
-      <c r="AS14" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AV14" s="18" t="s">
-        <v>731</v>
-      </c>
       <c r="AW14" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX14" s="6" t="str">
         <f t="shared" si="21"/>
@@ -5963,12 +5962,12 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>119</v>
@@ -6065,16 +6064,16 @@
         <v/>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AU15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX15" s="6" t="str">
         <f t="shared" si="21"/>
@@ -6130,18 +6129,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>177</v>
@@ -6177,7 +6176,7 @@
         <v>1900</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6264,19 +6263,19 @@
         <v/>
       </c>
       <c r="AR16" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX16" s="6" t="str">
         <f t="shared" si="21"/>
@@ -6332,18 +6331,18 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>583</v>
-      </c>
       <c r="V17" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6430,13 +6429,13 @@
         <v/>
       </c>
       <c r="AR17" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV17" s="1" t="b">
         <v>0</v>
@@ -6494,18 +6493,18 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>58</v>
@@ -6553,7 +6552,7 @@
         <v>1800</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="0"/>
@@ -6643,16 +6642,16 @@
         <v>239</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW18" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW18" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX18" s="6" t="str">
         <f t="shared" si="21"/>
@@ -6711,15 +6710,15 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>106</v>
@@ -6773,7 +6772,7 @@
         <v>2400</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="0"/>
@@ -6860,16 +6859,16 @@
         <v>4pm-12am</v>
       </c>
       <c r="AR19" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV19" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX19" s="6" t="str">
         <f t="shared" si="21"/>
@@ -6925,12 +6924,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>53</v>
@@ -7026,16 +7025,16 @@
         <v/>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW20" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX20" s="6" t="str">
         <f t="shared" si="21"/>
@@ -7091,21 +7090,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J21" s="1">
         <v>1500</v>
@@ -7138,7 +7137,7 @@
         <v>1900</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7225,16 +7224,16 @@
         <v/>
       </c>
       <c r="AR21" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW21" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX21" s="6" t="str">
         <f t="shared" si="21"/>
@@ -7290,18 +7289,18 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>152</v>
@@ -7349,7 +7348,7 @@
         <v>1700</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="0"/>
@@ -7436,19 +7435,19 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR22" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV22" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW22" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW22" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX22" s="6" t="str">
         <f t="shared" si="21"/>
@@ -7507,24 +7506,24 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J23" s="1">
         <v>1000</v>
@@ -7563,7 +7562,7 @@
         <v>1600</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7650,16 +7649,16 @@
         <v>11am-4pm</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV23" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW23" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX23" s="6" t="str">
         <f t="shared" si="21"/>
@@ -7718,21 +7717,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>179</v>
@@ -7768,7 +7767,7 @@
         <v>1800</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7855,19 +7854,19 @@
         <v/>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV24" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW24" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW24" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX24" s="6" t="str">
         <f t="shared" si="21"/>
@@ -7923,18 +7922,18 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P25" s="1">
         <v>2000</v>
@@ -7955,7 +7954,7 @@
         <v>2000</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8042,16 +8041,16 @@
         <v>6pm-8pm</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW25" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX25" s="6" t="str">
         <f t="shared" si="21"/>
@@ -8103,21 +8102,21 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P26" s="1">
         <v>1500</v>
@@ -8138,7 +8137,7 @@
         <v>1800</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8225,13 +8224,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV26" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW26" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW26" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX26" s="6" t="str">
         <f t="shared" si="21"/>
@@ -8287,21 +8286,21 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8388,13 +8387,13 @@
         <v/>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV27" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW27" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX27" s="6" t="str">
         <f t="shared" si="21"/>
@@ -8450,12 +8449,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>78</v>
@@ -8551,16 +8550,16 @@
         <v/>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV28" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW28" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX28" s="6" t="str">
         <f t="shared" si="21"/>
@@ -8619,21 +8618,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8723,10 +8722,10 @@
         <v>28</v>
       </c>
       <c r="AV29" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW29" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX29" s="6" t="str">
         <f t="shared" si="21"/>
@@ -8778,18 +8777,18 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8877,13 +8876,13 @@
       </c>
       <c r="AR30" s="4"/>
       <c r="AU30" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV30" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW30" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX30" s="6" t="str">
         <f t="shared" si="21"/>
@@ -8939,18 +8938,18 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9041,10 +9040,10 @@
         <v>28</v>
       </c>
       <c r="AV31" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW31" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX31" s="6" t="str">
         <f t="shared" si="21"/>
@@ -9100,15 +9099,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>585</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>586</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9195,10 +9194,10 @@
         <v/>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV32" s="1" t="b">
         <v>0</v>
@@ -9256,15 +9255,15 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>588</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>589</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9351,10 +9350,10 @@
         <v/>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV33" s="1" t="b">
         <v>0</v>
@@ -9419,21 +9418,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>72</v>
@@ -9469,7 +9468,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W34" s="1" t="str">
         <f t="shared" ref="W34:W63" si="33">IF(H34&gt;0,H34/100,"")</f>
@@ -9556,19 +9555,19 @@
         <v/>
       </c>
       <c r="AR34" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX34" s="6" t="str">
         <f t="shared" ref="AX34:AX65" si="54">CONCATENATE("{
@@ -9628,15 +9627,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>591</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>592</v>
       </c>
       <c r="W35" s="1" t="str">
         <f t="shared" si="33"/>
@@ -9723,7 +9722,7 @@
         <v/>
       </c>
       <c r="AR35" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU35" s="1" t="s">
         <v>28</v>
@@ -9784,21 +9783,21 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H36" s="1">
         <v>1600</v>
@@ -9843,7 +9842,7 @@
         <v>1800</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" si="33"/>
@@ -9930,19 +9929,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV36" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW36" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX36" s="6" t="str">
         <f t="shared" si="54"/>
@@ -9998,18 +9997,18 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H37" s="1">
         <v>2100</v>
@@ -10054,7 +10053,7 @@
         <v>2300</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W37" s="1">
         <f t="shared" si="33"/>
@@ -10141,19 +10140,19 @@
         <v>9pm-11pm</v>
       </c>
       <c r="AR37" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV37" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW37" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX37" s="6" t="str">
         <f t="shared" si="54"/>
@@ -10212,21 +10211,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>182</v>
@@ -10262,7 +10261,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="33"/>
@@ -10349,19 +10348,19 @@
         <v/>
       </c>
       <c r="AR38" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AS38" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV38" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW38" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX38" s="6" t="str">
         <f t="shared" si="54"/>
@@ -10417,15 +10416,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>595</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="33"/>
@@ -10512,10 +10511,10 @@
         <v/>
       </c>
       <c r="AR39" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV39" s="1" t="b">
         <v>0</v>
@@ -10573,12 +10572,12 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
@@ -10674,19 +10673,19 @@
         <v/>
       </c>
       <c r="AR40" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AS40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AU40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV40" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW40" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX40" s="6" t="str">
         <f t="shared" si="54"/>
@@ -10742,18 +10741,18 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="H41" s="1">
         <v>1600</v>
@@ -10798,7 +10797,7 @@
         <v>1800</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" si="33"/>
@@ -10885,16 +10884,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR41" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AU41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV41" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW41" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX41" s="6" t="str">
         <f t="shared" si="54"/>
@@ -10950,18 +10949,18 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>32</v>
@@ -11063,16 +11062,16 @@
         <v>230</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV42" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW42" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW42" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX42" s="6" t="str">
         <f t="shared" si="54"/>
@@ -11128,18 +11127,18 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>155</v>
@@ -11229,16 +11228,16 @@
         <v/>
       </c>
       <c r="AR43" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AU43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV43" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW43" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX43" s="6" t="str">
         <f t="shared" si="54"/>
@@ -11294,18 +11293,18 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>29</v>
@@ -11341,7 +11340,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="33"/>
@@ -11431,19 +11430,19 @@
         <v>229</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV44" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW44" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW44" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX44" s="6" t="str">
         <f t="shared" si="54"/>
@@ -11499,18 +11498,18 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>158</v>
@@ -11534,7 +11533,7 @@
         <v>2100</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W45" s="1">
         <f t="shared" si="33"/>
@@ -11621,19 +11620,19 @@
         <v/>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AS45" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW45" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX45" s="6" t="str">
         <f t="shared" si="54"/>
@@ -11689,18 +11688,18 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>79</v>
@@ -11748,7 +11747,7 @@
         <v>2400</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W46" s="1">
         <f t="shared" si="33"/>
@@ -11835,19 +11834,19 @@
         <v>10pm-12am</v>
       </c>
       <c r="AR46" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AS46" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV46" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW46" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW46" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX46" s="6" t="str">
         <f t="shared" si="54"/>
@@ -11903,18 +11902,18 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J47" s="1">
         <v>1500</v>
@@ -11947,7 +11946,7 @@
         <v>1800</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W47" s="1" t="str">
         <f t="shared" si="33"/>
@@ -12034,7 +12033,7 @@
         <v/>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU47" s="1" t="s">
         <v>28</v>
@@ -12102,21 +12101,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL47" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W48" s="1" t="str">
         <f t="shared" si="33"/>
@@ -12203,7 +12202,7 @@
         <v/>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV48" s="1" t="b">
         <v>0</v>
@@ -12268,21 +12267,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL48" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>184</v>
@@ -12402,19 +12401,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR49" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AS49" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX49" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12470,18 +12469,18 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="33"/>
@@ -12568,16 +12567,16 @@
         <v/>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV50" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX50" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12629,18 +12628,18 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="33"/>
@@ -12727,19 +12726,19 @@
         <v/>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AS51" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV51" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX51" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12791,18 +12790,18 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H52" s="1">
         <v>1600</v>
@@ -12835,7 +12834,7 @@
         <v>1900</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="33"/>
@@ -12922,16 +12921,16 @@
         <v/>
       </c>
       <c r="AR52" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV52" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW52" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW52" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX52" s="6" t="str">
         <f t="shared" si="54"/>
@@ -12983,18 +12982,18 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>88</v>
@@ -13084,16 +13083,16 @@
         <v/>
       </c>
       <c r="AR53" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV53" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX53" s="6" t="str">
         <f t="shared" si="54"/>
@@ -13149,18 +13148,18 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>70</v>
@@ -13250,16 +13249,16 @@
         <v/>
       </c>
       <c r="AR54" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV54" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW54" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX54" s="6" t="str">
         <f t="shared" si="54"/>
@@ -13315,18 +13314,18 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L55" s="1">
         <v>1600</v>
@@ -13359,7 +13358,7 @@
         <v>1800</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W55" s="1" t="str">
         <f t="shared" si="33"/>
@@ -13446,16 +13445,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV55" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW55" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX55" s="6" t="str">
         <f t="shared" si="54"/>
@@ -13507,18 +13506,18 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>161</v>
@@ -13536,7 +13535,7 @@
         <v>1800</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="W56" s="1" t="str">
         <f t="shared" si="33"/>
@@ -13623,19 +13622,19 @@
         <v/>
       </c>
       <c r="AR56" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS56" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV56" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW56" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX56" s="6" t="str">
         <f t="shared" si="54"/>
@@ -13691,21 +13690,21 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J57" s="1">
         <v>1630</v>
@@ -13738,7 +13737,7 @@
         <v>1900</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="33"/>
@@ -13825,16 +13824,16 @@
         <v/>
       </c>
       <c r="AR57" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV57" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW57" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX57" s="6" t="str">
         <f t="shared" si="54"/>
@@ -13890,21 +13889,21 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="H58" s="1">
         <v>1500</v>
@@ -13949,7 +13948,7 @@
         <v>1800</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W58" s="1">
         <f t="shared" si="33"/>
@@ -14036,16 +14035,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR58" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV58" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW58" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX58" s="6" t="str">
         <f t="shared" si="54"/>
@@ -14101,18 +14100,18 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="33"/>
@@ -14199,16 +14198,16 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV59" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW59" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX59" s="6" t="str">
         <f t="shared" si="54"/>
@@ -14260,18 +14259,18 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="33"/>
@@ -14358,7 +14357,7 @@
         <v/>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV60" s="1" t="b">
         <v>0</v>
@@ -14423,21 +14422,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL60" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>186</v>
@@ -14527,16 +14526,16 @@
         <v/>
       </c>
       <c r="AR61" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV61" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW61" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX61" s="6" t="str">
         <f t="shared" si="54"/>
@@ -14592,12 +14591,12 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>93</v>
@@ -14651,7 +14650,7 @@
         <v>1800</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>246</v>
+        <v>784</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" si="33"/>
@@ -14738,23 +14737,23 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR62" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AU62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV62" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW62" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX62" s="6" t="str">
         <f t="shared" si="54"/>
         <v>{
     'name': "Fish Restaurant",
     'area': "old",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Extensive menu of discounted &amp; Happy Hour only food items as well as sixteen different half price wines and discounts on draft beer and cocktails", 'link':"http://www.fishmkt.com", 'pricing':"high",   'phone-number': "", 'address': "150 W Oak Street, Fort Collins 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Ceviche $11 &lt;Br&gt;Red Rock Cod Tacos $3 Each&lt;Br&gt;East Coast Oysters On The Half Shell $1.25 Per Oyster&lt;Br&gt;Steamers $7&lt;Br&gt; Ahi Tuna Poke $14&lt;Br&gt;Calamari $7&lt;Br&gt;Cioppino $14&lt;Br&gt;Peel And Eat Shrimp $10&lt;Br&gt;Pub Chips $3&lt;Br&gt;Chicharones $3&lt;Br&gt; Wines $2.88-$4.75/Glass&lt;Br&gt;14oz Draft Pint Of Beer $5.50 &lt;br&gt;$2 Off Select Cocktails", 'link':"http://www.fishmkt.com", 'pricing':"high",   'phone-number': "", 'address': "150 W Oak Street, Fort Collins 80524", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY62" s="1" t="str">
         <f t="shared" si="55"/>
@@ -14803,12 +14802,12 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>75</v>
@@ -14904,16 +14903,16 @@
         <v/>
       </c>
       <c r="AR63" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV63" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW63" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX63" s="6" t="str">
         <f t="shared" si="54"/>
@@ -14969,18 +14968,18 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="W64" s="1" t="str">
         <f t="shared" ref="W64:W89" si="65">IF(H64&gt;0,H64/100,"")</f>
@@ -15059,19 +15058,19 @@
         <v/>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AS64" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV64" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW64" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX64" s="6" t="str">
         <f t="shared" si="54"/>
@@ -15123,21 +15122,21 @@
         <v>[40.58976,-105.076497],</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H65" s="1">
         <v>1400</v>
@@ -15182,7 +15181,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W65" s="1">
         <f t="shared" si="65"/>
@@ -15269,19 +15268,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR65" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AS65" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV65" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW65" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW65" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX65" s="6" t="str">
         <f t="shared" si="54"/>
@@ -15337,21 +15336,21 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J66" s="1">
         <v>1500</v>
@@ -15384,7 +15383,7 @@
         <v>1800</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="W66" s="1" t="str">
         <f t="shared" si="65"/>
@@ -15471,16 +15470,16 @@
         <v/>
       </c>
       <c r="AR66" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV66" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW66" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX66" s="6" t="str">
         <f t="shared" ref="AX66:AX97" si="84">CONCATENATE("{
@@ -15540,18 +15539,18 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="65"/>
@@ -15630,10 +15629,10 @@
         <v/>
       </c>
       <c r="AR67" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV67" s="1" t="b">
         <v>0</v>
@@ -15691,15 +15690,15 @@
         <v>[40.551049,-105.05831],</v>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="65"/>
@@ -15790,10 +15789,10 @@
         <v>28</v>
       </c>
       <c r="AV68" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW68" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX68" s="6" t="str">
         <f t="shared" si="84"/>
@@ -15849,12 +15848,12 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>53</v>
@@ -15902,7 +15901,7 @@
         <v>2400</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="W69" s="1">
         <f t="shared" si="65"/>
@@ -15989,16 +15988,16 @@
         <v>8am-12am</v>
       </c>
       <c r="AR69" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV69" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW69" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX69" s="6" t="str">
         <f t="shared" si="84"/>
@@ -16055,12 +16054,12 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>53</v>
@@ -16108,7 +16107,7 @@
         <v>2400</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W70" s="1" t="str">
         <f t="shared" si="65"/>
@@ -16195,16 +16194,16 @@
         <v>8am-12am</v>
       </c>
       <c r="AR70" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV70" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW70" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX70" s="6" t="str">
         <f t="shared" si="84"/>
@@ -16260,18 +16259,18 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W71" s="1" t="str">
         <f t="shared" si="65"/>
@@ -16358,7 +16357,7 @@
         <v/>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV71" s="1" t="b">
         <v>0</v>
@@ -16423,21 +16422,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL71" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>192</v>
@@ -16527,19 +16526,19 @@
         <v/>
       </c>
       <c r="AR72" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AS72" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV72" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW72" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX72" s="6" t="str">
         <f t="shared" si="84"/>
@@ -16595,18 +16594,18 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>597</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>598</v>
       </c>
       <c r="H73" s="1">
         <v>1600</v>
@@ -16651,7 +16650,7 @@
         <v>1800</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" si="65"/>
@@ -16738,16 +16737,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR73" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AS73" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV73" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW73" s="1" t="b">
         <v>0</v>
@@ -16802,18 +16801,18 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="W74" s="1" t="str">
         <f t="shared" si="65"/>
@@ -16901,13 +16900,13 @@
       </c>
       <c r="AR74" s="8"/>
       <c r="AU74" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV74" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW74" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX74" s="6" t="str">
         <f t="shared" si="84"/>
@@ -16963,18 +16962,18 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H75" s="1">
         <v>1500</v>
@@ -17019,7 +17018,7 @@
         <v>1800</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" si="65"/>
@@ -17106,16 +17105,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR75" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV75" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW75" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX75" s="6" t="str">
         <f t="shared" si="84"/>
@@ -17167,21 +17166,21 @@
         <v>[40.47964,-104.90192],</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="J76" s="1">
         <v>1600</v>
@@ -17220,7 +17219,7 @@
         <v>1900</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W76" s="1" t="str">
         <f t="shared" si="65"/>
@@ -17307,16 +17306,16 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR76" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV76" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW76" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW76" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX76" s="6" t="str">
         <f t="shared" si="84"/>
@@ -17372,18 +17371,18 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="65"/>
@@ -17470,16 +17469,16 @@
         <v/>
       </c>
       <c r="AR77" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV77" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW77" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX77" s="6" t="str">
         <f t="shared" si="84"/>
@@ -17531,21 +17530,21 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H78" s="1">
         <v>1600</v>
@@ -17578,7 +17577,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" si="65"/>
@@ -17665,22 +17664,22 @@
         <v/>
       </c>
       <c r="AR78" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AS78" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT78" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU78" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV78" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="AU78" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AV78" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="AW78" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX78" s="6" t="str">
         <f t="shared" si="84"/>
@@ -17739,21 +17738,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL78" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>194</v>
@@ -17843,22 +17842,22 @@
         <v/>
       </c>
       <c r="AR79" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AS79" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT79" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV79" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW79" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX79" s="6" t="str">
         <f t="shared" si="84"/>
@@ -17914,18 +17913,18 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>48</v>
@@ -18018,13 +18017,13 @@
         <v>237</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV80" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW80" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX80" s="6" t="str">
         <f t="shared" si="84"/>
@@ -18080,12 +18079,12 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>53</v>
@@ -18139,7 +18138,7 @@
         <v>2000</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W81" s="1">
         <f t="shared" si="65"/>
@@ -18226,19 +18225,19 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR81" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AS81" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV81" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW81" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX81" s="6" t="str">
         <f t="shared" si="84"/>
@@ -18294,18 +18293,18 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W82" s="1" t="str">
         <f t="shared" si="65"/>
@@ -18392,7 +18391,7 @@
         <v/>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV82" s="1" t="b">
         <v>0</v>
@@ -18457,21 +18456,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL82" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>196</v>
@@ -18561,16 +18560,16 @@
         <v/>
       </c>
       <c r="AR83" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV83" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW83" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX83" s="6" t="str">
         <f t="shared" si="84"/>
@@ -18626,18 +18625,18 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>136</v>
@@ -18685,7 +18684,7 @@
         <v>1900</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="65"/>
@@ -18772,16 +18771,16 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR84" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV84" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW84" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW84" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX84" s="6" t="str">
         <f t="shared" si="84"/>
@@ -18840,21 +18839,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL84" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W85" s="1" t="str">
         <f t="shared" si="65"/>
@@ -18941,13 +18940,13 @@
         <v/>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV85" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW85" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX85" s="6" t="str">
         <f t="shared" si="84"/>
@@ -18999,15 +18998,15 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>600</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>601</v>
       </c>
       <c r="H86" s="1">
         <v>1100</v>
@@ -19052,7 +19051,7 @@
         <v>1300</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" si="65"/>
@@ -19139,10 +19138,10 @@
         <v>11am-1pm</v>
       </c>
       <c r="AR86" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AS86" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU86" s="1" t="s">
         <v>28</v>
@@ -19203,12 +19202,12 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>93</v>
@@ -19352,16 +19351,16 @@
         <v>244</v>
       </c>
       <c r="AS87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV87" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW87" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX87" s="6" t="str">
         <f t="shared" si="84"/>
@@ -19417,12 +19416,12 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>34</v>
@@ -19476,7 +19475,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="65"/>
@@ -19566,16 +19565,16 @@
         <v>232</v>
       </c>
       <c r="AS88" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV88" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW88" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW88" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX88" s="6" t="str">
         <f t="shared" si="84"/>
@@ -19631,24 +19630,24 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>117</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="65"/>
@@ -19735,19 +19734,19 @@
         <v/>
       </c>
       <c r="AR89" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AS89" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV89" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW89" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX89" s="6" t="str">
         <f t="shared" si="84"/>
@@ -19803,33 +19802,33 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G90" s="18" t="s">
         <v>720</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G90" s="18" t="s">
+      <c r="AR90" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="AR90" s="4" t="s">
-        <v>722</v>
-      </c>
       <c r="AS90" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU90" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV90" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW90" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX90" s="6" t="str">
         <f t="shared" si="84"/>
@@ -19881,12 +19880,12 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>132</v>
@@ -19982,16 +19981,16 @@
         <v/>
       </c>
       <c r="AR91" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AU91" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV91" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW91" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX91" s="6" t="str">
         <f t="shared" si="84"/>
@@ -20047,12 +20046,12 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>96</v>
@@ -20148,16 +20147,16 @@
         <v/>
       </c>
       <c r="AR92" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV92" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW92" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX92" s="6" t="str">
         <f t="shared" si="84"/>
@@ -20213,21 +20212,21 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H93" s="1">
         <v>1600</v>
@@ -20272,7 +20271,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="97"/>
@@ -20359,19 +20358,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR93" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AS93" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV93" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW93" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX93" s="6" t="str">
         <f t="shared" si="84"/>
@@ -20427,15 +20426,15 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G94" s="9" t="s">
         <v>604</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>605</v>
       </c>
       <c r="H94" s="1">
         <v>1500</v>
@@ -20480,7 +20479,7 @@
         <v>1800</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" si="97"/>
@@ -20567,7 +20566,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR94" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AU94" s="1" t="s">
         <v>28</v>
@@ -20628,27 +20627,21 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="H95" s="1">
-        <v>1600</v>
-      </c>
-      <c r="I95" s="1">
-        <v>1900</v>
+        <v>392</v>
       </c>
       <c r="J95" s="1">
         <v>1600</v>
@@ -20681,15 +20674,15 @@
         <v>1900</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="W95" s="1">
+        <v>498</v>
+      </c>
+      <c r="W95" s="1" t="str">
         <f t="shared" si="97"/>
-        <v>16</v>
-      </c>
-      <c r="X95" s="1">
+        <v/>
+      </c>
+      <c r="X95" s="1" t="str">
         <f t="shared" si="98"/>
-        <v>19</v>
+        <v/>
       </c>
       <c r="Y95" s="1">
         <f t="shared" si="99"/>
@@ -20741,7 +20734,7 @@
       </c>
       <c r="AK95" s="1" t="str">
         <f t="shared" si="111"/>
-        <v>4pm-7pm</v>
+        <v/>
       </c>
       <c r="AL95" s="1" t="str">
         <f t="shared" si="112"/>
@@ -20768,23 +20761,23 @@
         <v/>
       </c>
       <c r="AR95" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV95" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW95" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX95" s="6" t="str">
         <f t="shared" si="84"/>
         <v>{
     'name': "Longhorn Steakhouse",
     'area': "midtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Cocktails: $5 &lt;br&gt; Wine: $4 &lt;br&gt; Domestic Drafts: $3 &lt;br&gt; Chili Cheese Fries: $5 &lt;br&gt; Spicy Chicken Bites: $4 &lt;br&gt; Fried Pickles: $3", 'link':"https://www.longhornsteakhouse.com/home", 'pricing':"med",   'phone-number': "", 'address': " 3450 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Cocktails: $5 &lt;br&gt; Wine: $4 &lt;br&gt; Domestic Drafts: $3 &lt;br&gt; Chili Cheese Fries: $5 &lt;br&gt; Spicy Chicken Bites: $4 &lt;br&gt; Fried Pickles: $3", 'link':"https://www.longhornsteakhouse.com/home", 'pricing':"med",   'phone-number': "", 'address': " 3450 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY95" s="1" t="str">
         <f t="shared" si="85"/>
@@ -20833,18 +20826,18 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>108</v>
@@ -20892,7 +20885,7 @@
         <v>1800</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W96" s="1">
         <f t="shared" si="97"/>
@@ -20979,19 +20972,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR96" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AS96" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU96" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV96" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW96" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW96" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX96" s="6" t="str">
         <f t="shared" si="84"/>
@@ -21047,15 +21040,15 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G97" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>609</v>
       </c>
       <c r="W97" s="1" t="str">
         <f t="shared" si="97"/>
@@ -21142,7 +21135,7 @@
         <v/>
       </c>
       <c r="AR97" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU97" s="1" t="s">
         <v>28</v>
@@ -21203,21 +21196,21 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G98" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="H98" s="1">
         <v>1100</v>
@@ -21262,7 +21255,7 @@
         <v>1900</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W98" s="1">
         <f t="shared" si="97"/>
@@ -21349,16 +21342,16 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR98" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV98" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW98" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX98" s="6" t="str">
         <f t="shared" ref="AX98:AX128" si="118">CONCATENATE("{
@@ -21418,15 +21411,15 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G99" s="9" t="s">
         <v>611</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>612</v>
       </c>
       <c r="W99" s="1" t="str">
         <f t="shared" si="97"/>
@@ -21513,10 +21506,10 @@
         <v/>
       </c>
       <c r="AR99" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV99" s="1" t="b">
         <v>0</v>
@@ -21574,15 +21567,15 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G100" s="9" t="s">
         <v>614</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>615</v>
       </c>
       <c r="W100" s="1" t="str">
         <f t="shared" si="97"/>
@@ -21727,21 +21720,21 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L101" s="1">
         <v>1600</v>
@@ -21858,19 +21851,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR101" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AS101" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU101" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV101" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW101" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX101" s="6" t="str">
         <f t="shared" si="118"/>
@@ -21926,18 +21919,18 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="97"/>
@@ -22024,16 +22017,16 @@
         <v/>
       </c>
       <c r="AR102" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AU102" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV102" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW102" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX102" s="6" t="str">
         <f t="shared" si="118"/>
@@ -22085,15 +22078,15 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>54</v>
@@ -22186,22 +22179,22 @@
         <v/>
       </c>
       <c r="AR103" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AS103" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT103" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV103" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW103" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX103" s="6" t="str">
         <f t="shared" si="118"/>
@@ -22257,15 +22250,15 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G104" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>617</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="97"/>
@@ -22352,10 +22345,10 @@
         <v/>
       </c>
       <c r="AR104" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV104" s="1" t="b">
         <v>0</v>
@@ -22413,21 +22406,21 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H105" s="1">
         <v>1400</v>
@@ -22472,7 +22465,7 @@
         <v>1700</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W105" s="1">
         <f t="shared" si="97"/>
@@ -22559,16 +22552,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR105" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV105" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW105" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX105" s="6" t="str">
         <f t="shared" si="118"/>
@@ -22620,12 +22613,12 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>63</v>
@@ -22727,10 +22720,10 @@
         <v>28</v>
       </c>
       <c r="AV106" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW106" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX106" s="6" t="str">
         <f t="shared" si="118"/>
@@ -22786,18 +22779,18 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>199</v>
@@ -22887,16 +22880,16 @@
         <v/>
       </c>
       <c r="AR107" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AU107" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV107" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW107" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX107" s="6" t="str">
         <f t="shared" si="118"/>
@@ -22952,21 +22945,21 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W108" s="1" t="str">
         <f t="shared" si="97"/>
@@ -23053,19 +23046,19 @@
         <v/>
       </c>
       <c r="AR108" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS108" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU108" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV108" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW108" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX108" s="6" t="str">
         <f t="shared" si="118"/>
@@ -23124,21 +23117,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL108" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H109" s="1">
         <v>1600</v>
@@ -23183,7 +23176,7 @@
         <v>1900</v>
       </c>
       <c r="V109" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" si="97"/>
@@ -23270,19 +23263,19 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AS109" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV109" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW109" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX109" s="6" t="str">
         <f t="shared" si="118"/>
@@ -23335,12 +23328,12 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>104</v>
@@ -23394,7 +23387,7 @@
         <v>1800</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="97"/>
@@ -23481,19 +23474,19 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR110" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AS110" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV110" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW110" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX110" s="6" t="str">
         <f t="shared" si="118"/>
@@ -23549,12 +23542,12 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>154</v>
@@ -23608,7 +23601,7 @@
         <v>1900</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W111" s="1">
         <f t="shared" si="97"/>
@@ -23695,16 +23688,16 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR111" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV111" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW111" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW111" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX111" s="6" t="str">
         <f t="shared" si="118"/>
@@ -23760,18 +23753,18 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>201</v>
@@ -23861,22 +23854,22 @@
         <v/>
       </c>
       <c r="AR112" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AS112" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT112" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV112" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW112" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX112" s="6" t="str">
         <f t="shared" si="118"/>
@@ -23932,18 +23925,18 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>169</v>
@@ -23979,7 +23972,7 @@
         <v>1800</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="W113" s="1" t="str">
         <f t="shared" si="97"/>
@@ -24066,19 +24059,19 @@
         <v/>
       </c>
       <c r="AR113" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS113" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV113" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW113" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX113" s="6" t="str">
         <f t="shared" si="118"/>
@@ -24137,21 +24130,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL113" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="97"/>
@@ -24238,16 +24231,16 @@
         <v/>
       </c>
       <c r="AR114" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV114" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW114" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX114" s="6" t="str">
         <f t="shared" si="118"/>
@@ -24299,18 +24292,18 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>125</v>
@@ -24400,16 +24393,16 @@
         <v/>
       </c>
       <c r="AR115" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV115" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW115" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX115" s="6" t="str">
         <f t="shared" si="118"/>
@@ -24465,18 +24458,18 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="W116" s="1" t="str">
         <f t="shared" si="97"/>
@@ -24563,16 +24556,16 @@
         <v/>
       </c>
       <c r="AT116" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV116" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW116" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX116" s="6" t="str">
         <f t="shared" si="118"/>
@@ -24624,18 +24617,18 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>203</v>
@@ -24725,22 +24718,22 @@
         <v/>
       </c>
       <c r="AR117" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AS117" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT117" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU117" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV117" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW117" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX117" s="6" t="str">
         <f t="shared" si="118"/>
@@ -24796,18 +24789,18 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>145</v>
@@ -24897,16 +24890,16 @@
         <v/>
       </c>
       <c r="AR118" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV118" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW118" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX118" s="6" t="str">
         <f t="shared" si="118"/>
@@ -24962,18 +24955,18 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W119" s="1" t="str">
         <f t="shared" si="97"/>
@@ -25060,7 +25053,7 @@
         <v/>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV119" s="1" t="b">
         <v>0</v>
@@ -25125,21 +25118,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL119" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="W120" s="1" t="str">
         <f t="shared" ref="W120:W150" si="128">IF(H120&gt;0,H120/100,"")</f>
@@ -25218,10 +25211,10 @@
         <v/>
       </c>
       <c r="AR120" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV120" s="1" t="b">
         <v>0</v>
@@ -25279,15 +25272,15 @@
         <v>[40.527959,-105.077616],</v>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G121" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>620</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -25332,7 +25325,7 @@
         <v>1800</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="128"/>
@@ -25419,13 +25412,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR121" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AS121" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV121" s="1" t="b">
         <v>1</v>
@@ -25483,15 +25476,15 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G122" s="9" t="s">
         <v>623</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>624</v>
       </c>
       <c r="H122" s="1">
         <v>1500</v>
@@ -25536,7 +25529,7 @@
         <v>1800</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W122" s="1">
         <f t="shared" si="128"/>
@@ -25623,7 +25616,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR122" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AU122" s="1" t="s">
         <v>28</v>
@@ -25684,12 +25677,12 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>90</v>
@@ -25830,19 +25823,19 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR123" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AS123" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV123" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW123" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW123" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX123" s="6" t="str">
         <f t="shared" si="118"/>
@@ -25898,21 +25891,21 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="J124" s="1">
         <v>1700</v>
@@ -25945,7 +25938,7 @@
         <v>2400</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="W124" s="1" t="str">
         <f t="shared" si="128"/>
@@ -26032,16 +26025,16 @@
         <v/>
       </c>
       <c r="AR124" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV124" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW124" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW124" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX124" s="6" t="str">
         <f t="shared" si="118"/>
@@ -26093,18 +26086,18 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>205</v>
@@ -26152,7 +26145,7 @@
         <v>1800</v>
       </c>
       <c r="V125" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W125" s="1">
         <f t="shared" si="128"/>
@@ -26239,16 +26232,16 @@
         <v>10am-6pm</v>
       </c>
       <c r="AR125" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AU125" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV125" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW125" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX125" s="6" t="str">
         <f t="shared" si="118"/>
@@ -26304,18 +26297,18 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>207</v>
@@ -26405,19 +26398,19 @@
         <v/>
       </c>
       <c r="AR126" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AS126" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV126" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW126" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX126" s="6" t="str">
         <f t="shared" si="118"/>
@@ -26473,18 +26466,18 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W127" s="1" t="str">
         <f t="shared" si="128"/>
@@ -26571,7 +26564,7 @@
         <v/>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV127" s="1" t="b">
         <v>1</v>
@@ -26636,21 +26629,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL127" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="W128" s="1" t="str">
         <f t="shared" si="128"/>
@@ -26737,16 +26730,16 @@
         <v/>
       </c>
       <c r="AR128" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AU128" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV128" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW128" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX128" s="6" t="str">
         <f t="shared" si="118"/>
@@ -26798,18 +26791,18 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="128"/>
@@ -26896,19 +26889,19 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AS129" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU129" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV129" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW129" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX129" s="6" t="str">
         <f t="shared" ref="AX129:AX159" si="149">CONCATENATE("{
@@ -26964,18 +26957,18 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>209</v>
@@ -27005,7 +26998,7 @@
         <v>1600</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="128"/>
@@ -27092,22 +27085,22 @@
         <v/>
       </c>
       <c r="AR130" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AS130" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT130" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV130" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW130" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX130" s="6" t="str">
         <f t="shared" si="149"/>
@@ -27163,18 +27156,18 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="H131" s="1">
         <v>1500</v>
@@ -27219,7 +27212,7 @@
         <v>1800</v>
       </c>
       <c r="V131" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="W131" s="1">
         <f t="shared" si="128"/>
@@ -27306,16 +27299,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR131" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV131" s="5" t="b">
         <v>1</v>
       </c>
       <c r="AW131" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX131" s="6" t="str">
         <f t="shared" si="149"/>
@@ -27367,18 +27360,18 @@
         <v>[40.52369,-105.03435],</v>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="128"/>
@@ -27465,16 +27458,16 @@
         <v/>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AU132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV132" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW132" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX132" s="6" t="str">
         <f t="shared" si="149"/>
@@ -27526,12 +27519,12 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>171</v>
@@ -27579,7 +27572,7 @@
         <v>1800</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W133" s="1" t="str">
         <f t="shared" si="128"/>
@@ -27666,16 +27659,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR133" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV133" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW133" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX133" s="6" t="str">
         <f t="shared" si="149"/>
@@ -27731,18 +27724,18 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>45</v>
@@ -27865,16 +27858,16 @@
         <v>236</v>
       </c>
       <c r="AS134" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV134" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW134" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX134" s="6" t="str">
         <f t="shared" si="149"/>
@@ -27930,18 +27923,18 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>212</v>
@@ -27989,7 +27982,7 @@
         <v>2000</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W135" s="1">
         <f t="shared" si="128"/>
@@ -28076,19 +28069,19 @@
         <v>4pm-8pm</v>
       </c>
       <c r="AR135" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AS135" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV135" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW135" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX135" s="6" t="str">
         <f t="shared" si="149"/>
@@ -28144,12 +28137,12 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>60</v>
@@ -28248,13 +28241,13 @@
         <v>240</v>
       </c>
       <c r="AU136" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV136" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW136" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX136" s="6" t="str">
         <f t="shared" si="149"/>
@@ -28310,18 +28303,18 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W137" s="1" t="str">
         <f t="shared" si="128"/>
@@ -28408,7 +28401,7 @@
         <v/>
       </c>
       <c r="AU137" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV137" s="1" t="b">
         <v>1</v>
@@ -28473,21 +28466,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL137" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="128"/>
@@ -28574,13 +28567,13 @@
         <v/>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV138" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW138" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX138" s="6" t="str">
         <f t="shared" si="149"/>
@@ -28632,18 +28625,18 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>215</v>
@@ -28733,16 +28726,16 @@
         <v/>
       </c>
       <c r="AR139" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AU139" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV139" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW139" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX139" s="6" t="str">
         <f t="shared" si="149"/>
@@ -28798,18 +28791,18 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W140" s="1" t="str">
         <f t="shared" si="128"/>
@@ -28896,7 +28889,7 @@
         <v/>
       </c>
       <c r="AU140" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV140" s="1" t="b">
         <v>0</v>
@@ -28961,21 +28954,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL140" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H141" s="1">
         <v>1500</v>
@@ -29020,7 +29013,7 @@
         <v>1800</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" si="128"/>
@@ -29107,16 +29100,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR141" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV141" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW141" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX141" s="6" t="str">
         <f t="shared" si="149"/>
@@ -29168,18 +29161,18 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="128"/>
@@ -29258,10 +29251,10 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AS142" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU142" s="1" t="s">
         <v>28</v>
@@ -29322,21 +29315,21 @@
         <v>[40.563256,-105.077464],</v>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="128"/>
@@ -29423,16 +29416,16 @@
         <v/>
       </c>
       <c r="AR143" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU143" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV143" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW143" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX143" s="6" t="str">
         <f t="shared" si="149"/>
@@ -29488,21 +29481,21 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H144" s="1">
         <v>1100</v>
@@ -29541,7 +29534,7 @@
         <v>1800</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W144" s="1">
         <f t="shared" si="128"/>
@@ -29628,19 +29621,19 @@
         <v/>
       </c>
       <c r="AR144" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AS144" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV144" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW144" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX144" s="6" t="str">
         <f t="shared" si="149"/>
@@ -29696,18 +29689,18 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J145" s="1">
         <v>1500</v>
@@ -29740,7 +29733,7 @@
         <v>1800</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="W145" s="1" t="str">
         <f t="shared" si="128"/>
@@ -29830,10 +29823,10 @@
         <v>28</v>
       </c>
       <c r="AV145" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW145" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW145" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX145" s="6" t="str">
         <f t="shared" si="149"/>
@@ -29885,18 +29878,18 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>217</v>
@@ -29938,7 +29931,7 @@
         <v>2000</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W146" s="1">
         <f t="shared" si="128"/>
@@ -30025,22 +30018,22 @@
         <v>12pm-8pm</v>
       </c>
       <c r="AR146" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AS146" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT146" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU146" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV146" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="AU146" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AV146" s="5" t="s">
+      <c r="AW146" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW146" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX146" s="6" t="str">
         <f t="shared" si="149"/>
@@ -30096,12 +30089,12 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>221</v>
@@ -30110,7 +30103,7 @@
         <v>35</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H147" s="1">
         <v>1600</v>
@@ -30155,7 +30148,7 @@
         <v>1800</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W147" s="1">
         <f t="shared" si="128"/>
@@ -30242,16 +30235,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR147" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AU147" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV147" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW147" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX147" s="6" t="str">
         <f t="shared" si="149"/>
@@ -30307,12 +30300,12 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>104</v>
@@ -30360,7 +30353,7 @@
         <v>1900</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W148" s="1">
         <f t="shared" si="128"/>
@@ -30447,16 +30440,16 @@
         <v/>
       </c>
       <c r="AR148" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AU148" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV148" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW148" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX148" s="6" t="str">
         <f t="shared" si="149"/>
@@ -30512,12 +30505,12 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>138</v>
@@ -30613,16 +30606,16 @@
         <v/>
       </c>
       <c r="AR149" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU149" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV149" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW149" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX149" s="6" t="str">
         <f t="shared" si="149"/>
@@ -30681,15 +30674,15 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL149" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>119</v>
@@ -30785,16 +30778,16 @@
         <v/>
       </c>
       <c r="AR150" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AU150" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV150" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW150" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX150" s="6" t="str">
         <f t="shared" si="149"/>
@@ -30850,15 +30843,15 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G151" s="9" t="s">
         <v>626</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>627</v>
       </c>
       <c r="W151" s="1" t="str">
         <f t="shared" ref="W151:W182" si="162">IF(H151&gt;0,H151/100,"")</f>
@@ -30945,10 +30938,10 @@
         <v/>
       </c>
       <c r="AR151" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU151" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV151" s="1" t="b">
         <v>0</v>
@@ -31006,18 +30999,18 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>42</v>
@@ -31110,16 +31103,16 @@
         <v>235</v>
       </c>
       <c r="AS152" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU152" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV152" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW152" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX152" s="6" t="str">
         <f t="shared" si="149"/>
@@ -31178,21 +31171,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL152" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>39</v>
@@ -31333,10 +31326,10 @@
         <v>28</v>
       </c>
       <c r="AV153" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW153" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX153" s="6" t="str">
         <f t="shared" si="149"/>
@@ -31392,15 +31385,15 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W154" s="1" t="str">
         <f t="shared" si="162"/>
@@ -31487,13 +31480,13 @@
         <v/>
       </c>
       <c r="AU154" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV154" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW154" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX154" s="6" t="str">
         <f t="shared" si="149"/>
@@ -31545,21 +31538,21 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W155" s="1" t="str">
         <f t="shared" si="162"/>
@@ -31646,16 +31639,16 @@
         <v/>
       </c>
       <c r="AR155" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AU155" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV155" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW155" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX155" s="6" t="str">
         <f t="shared" si="149"/>
@@ -31711,18 +31704,18 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H156" s="1">
         <v>1500</v>
@@ -31767,7 +31760,7 @@
         <v>2400</v>
       </c>
       <c r="V156" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W156" s="1">
         <f t="shared" si="162"/>
@@ -31854,13 +31847,13 @@
         <v>3pm-12am</v>
       </c>
       <c r="AU156" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV156" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW156" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX156" s="6" t="str">
         <f t="shared" si="149"/>
@@ -31916,18 +31909,18 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W157" s="1" t="str">
         <f t="shared" si="162"/>
@@ -32014,16 +32007,16 @@
         <v/>
       </c>
       <c r="AS157" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU157" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV157" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW157" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX157" s="6" t="str">
         <f t="shared" si="149"/>
@@ -32075,18 +32068,18 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>114</v>
@@ -32206,16 +32199,16 @@
         <v/>
       </c>
       <c r="AR158" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU158" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV158" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW158" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX158" s="6" t="str">
         <f t="shared" si="149"/>
@@ -32271,21 +32264,21 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G159" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="H159" s="1">
         <v>1130</v>
@@ -32318,7 +32311,7 @@
         <v>1800</v>
       </c>
       <c r="V159" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W159" s="1">
         <f t="shared" si="162"/>
@@ -32405,19 +32398,19 @@
         <v/>
       </c>
       <c r="AR159" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AS159" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU159" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV159" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW159" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX159" s="6" t="str">
         <f t="shared" si="149"/>
@@ -32473,18 +32466,18 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>82</v>
@@ -32574,19 +32567,19 @@
         <v/>
       </c>
       <c r="AR160" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AS160" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU160" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV160" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW160" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX160" s="6" t="str">
         <f t="shared" ref="AX160:AX191" si="181">CONCATENATE("{
@@ -32646,18 +32639,18 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="W161" s="1" t="str">
         <f t="shared" si="162"/>
@@ -32744,13 +32737,13 @@
         <v/>
       </c>
       <c r="AU161" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV161" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW161" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX161" s="6" t="str">
         <f t="shared" si="181"/>
@@ -32802,18 +32795,18 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W162" s="1" t="str">
         <f t="shared" si="162"/>
@@ -32900,7 +32893,7 @@
         <v/>
       </c>
       <c r="AU162" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV162" s="1" t="b">
         <v>0</v>
@@ -32965,15 +32958,15 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL162" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>101</v>
@@ -33069,16 +33062,16 @@
         <v/>
       </c>
       <c r="AR163" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AU163" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV163" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW163" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX163" s="6" t="str">
         <f t="shared" si="181"/>
@@ -33134,15 +33127,15 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G164" s="9" t="s">
         <v>629</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G164" s="9" t="s">
-        <v>630</v>
       </c>
       <c r="W164" s="1" t="str">
         <f t="shared" si="162"/>
@@ -33229,7 +33222,7 @@
         <v/>
       </c>
       <c r="AU164" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV164" s="1" t="b">
         <v>0</v>
@@ -33287,12 +33280,12 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>84</v>
@@ -33391,16 +33384,16 @@
         <v>242</v>
       </c>
       <c r="AS165" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU165" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV165" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW165" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX165" s="6" t="str">
         <f t="shared" si="181"/>
@@ -33456,18 +33449,18 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>219</v>
@@ -33503,7 +33496,7 @@
         <v>1800</v>
       </c>
       <c r="V166" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W166" s="1" t="str">
         <f t="shared" si="162"/>
@@ -33590,16 +33583,16 @@
         <v/>
       </c>
       <c r="AR166" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AU166" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV166" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW166" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX166" s="6" t="str">
         <f t="shared" si="181"/>
@@ -33655,15 +33648,15 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G167" s="9" t="s">
         <v>631</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>632</v>
       </c>
       <c r="L167" s="1">
         <v>1600</v>
@@ -33774,10 +33767,10 @@
         <v/>
       </c>
       <c r="AR167" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AU167" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV167" s="1" t="b">
         <v>0</v>
@@ -33835,12 +33828,12 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>174</v>
@@ -33882,7 +33875,7 @@
         <v>1800</v>
       </c>
       <c r="V168" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W168" s="1" t="str">
         <f t="shared" si="162"/>
@@ -33969,16 +33962,16 @@
         <v/>
       </c>
       <c r="AR168" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AU168" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV168" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW168" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX168" s="6" t="str">
         <f t="shared" si="181"/>
@@ -34034,21 +34027,21 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="W169" s="1" t="str">
         <f t="shared" si="162"/>
@@ -34135,19 +34128,19 @@
         <v/>
       </c>
       <c r="AR169" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AS169" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU169" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AV169" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW169" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX169" s="6" t="str">
         <f t="shared" si="181"/>
@@ -34199,18 +34192,18 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="W170" s="1" t="str">
         <f t="shared" si="162"/>
@@ -34289,10 +34282,10 @@
         <v/>
       </c>
       <c r="AR170" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU170" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV170" s="1" t="b">
         <v>0</v>
@@ -34350,21 +34343,21 @@
         <v>[40.586451,-105.078568],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J171" s="1">
         <v>1100</v>
@@ -34403,7 +34396,7 @@
         <v>1700</v>
       </c>
       <c r="V171" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W171" s="1" t="str">
         <f t="shared" si="162"/>
@@ -34490,16 +34483,16 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR171" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AU171" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV171" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW171" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX171" s="6" t="str">
         <f t="shared" si="181"/>
@@ -34551,15 +34544,15 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G172" s="9" t="s">
         <v>634</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>635</v>
       </c>
       <c r="W172" s="1" t="str">
         <f t="shared" si="162"/>
@@ -34646,10 +34639,10 @@
         <v/>
       </c>
       <c r="AR172" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AU172" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV172" s="1" t="b">
         <v>0</v>
@@ -34707,21 +34700,21 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W173" s="1" t="str">
         <f t="shared" si="162"/>
@@ -34808,16 +34801,16 @@
         <v/>
       </c>
       <c r="AR173" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU173" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV173" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW173" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX173" s="6" t="str">
         <f t="shared" si="181"/>
@@ -34869,15 +34862,15 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G174" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G174" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="W174" s="1" t="str">
         <f t="shared" si="162"/>
@@ -34964,13 +34957,13 @@
         <v/>
       </c>
       <c r="AR174" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AS174" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU174" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV174" s="1" t="b">
         <v>0</v>
@@ -35028,18 +35021,18 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W175" s="1" t="str">
         <f t="shared" si="162"/>
@@ -35126,7 +35119,7 @@
         <v/>
       </c>
       <c r="AU175" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV175" s="1" t="b">
         <v>0</v>
@@ -35191,21 +35184,21 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL175" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>222</v>
@@ -35253,7 +35246,7 @@
         <v>1900</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W176" s="1">
         <f t="shared" si="162"/>
@@ -35340,19 +35333,19 @@
         <v>9.3am-7pm</v>
       </c>
       <c r="AR176" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AS176" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU176" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV176" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW176" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX176" s="6" t="str">
         <f t="shared" si="181"/>
@@ -35408,21 +35401,21 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J177" s="1">
         <v>1500</v>
@@ -35455,7 +35448,7 @@
         <v>1900</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W177" s="1" t="str">
         <f t="shared" si="162"/>
@@ -35542,19 +35535,19 @@
         <v/>
       </c>
       <c r="AR177" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AS177" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU177" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV177" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW177" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AX177" s="6" t="str">
         <f t="shared" si="181"/>
@@ -35610,18 +35603,18 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>224</v>
@@ -35711,16 +35704,16 @@
         <v/>
       </c>
       <c r="AR178" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AU178" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV178" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW178" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX178" s="6" t="str">
         <f t="shared" si="181"/>
@@ -35776,21 +35769,21 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J179" s="1">
         <v>1500</v>
@@ -35914,13 +35907,13 @@
       </c>
       <c r="AR179" s="4"/>
       <c r="AU179" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV179" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW179" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="AW179" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="AX179" s="6" t="str">
         <f t="shared" si="181"/>
@@ -35972,15 +35965,15 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G180" s="9" t="s">
         <v>639</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>640</v>
       </c>
       <c r="W180" s="1" t="str">
         <f t="shared" si="162"/>
@@ -36125,21 +36118,21 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H181" s="1">
         <v>1100</v>
@@ -36184,7 +36177,7 @@
         <v>1900</v>
       </c>
       <c r="V181" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W181" s="1">
         <f t="shared" si="162"/>
@@ -36271,16 +36264,16 @@
         <v>11am-7pm</v>
       </c>
       <c r="AR181" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AU181" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV181" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW181" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX181" s="6" t="str">
         <f t="shared" si="181"/>
@@ -36336,21 +36329,21 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W182" s="1" t="str">
         <f t="shared" si="162"/>
@@ -36437,19 +36430,19 @@
         <v/>
       </c>
       <c r="AR182" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AS182" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU182" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV182" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW182" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX182" s="6" t="str">
         <f t="shared" si="181"/>
@@ -36505,18 +36498,18 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W183" s="1" t="str">
         <f t="shared" ref="W183:W193" si="193">IF(H183&gt;0,H183/100,"")</f>
@@ -36595,10 +36588,10 @@
         <v/>
       </c>
       <c r="AR183" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AU183" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV183" s="5" t="b">
         <v>0</v>
@@ -36656,18 +36649,18 @@
         <v>[40.523973,-105.025125],</v>
       </c>
     </row>
-    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="W184" s="1" t="str">
         <f t="shared" si="193"/>
@@ -36746,19 +36739,19 @@
         <v/>
       </c>
       <c r="AR184" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AS184" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU184" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV184" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW184" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX184" s="6" t="str">
         <f t="shared" si="181"/>
@@ -36810,15 +36803,15 @@
         <v>[40.589425,-105.076553],</v>
       </c>
     </row>
-    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G185" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G185" s="9" t="s">
-        <v>642</v>
       </c>
       <c r="W185" s="1" t="str">
         <f t="shared" si="193"/>
@@ -36905,7 +36898,7 @@
         <v/>
       </c>
       <c r="AR185" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AU185" s="1" t="s">
         <v>28</v>
@@ -36966,15 +36959,15 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="W186" s="1" t="str">
         <f t="shared" si="193"/>
@@ -37061,13 +37054,13 @@
         <v/>
       </c>
       <c r="AU186" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV186" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW186" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX186" s="6" t="str">
         <f t="shared" si="181"/>
@@ -37119,12 +37112,12 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>129</v>
@@ -37220,22 +37213,22 @@
         <v/>
       </c>
       <c r="AR187" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AS187" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT187" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU187" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV187" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW187" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX187" s="6" t="str">
         <f t="shared" si="181"/>
@@ -37291,21 +37284,21 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="W188" s="1" t="str">
         <f t="shared" si="193"/>
@@ -37392,19 +37385,19 @@
         <v/>
       </c>
       <c r="AR188" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AS188" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU188" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV188" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW188" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX188" s="6" t="str">
         <f t="shared" si="181"/>
@@ -37456,15 +37449,15 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G189" s="9" t="s">
         <v>644</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G189" s="9" t="s">
-        <v>645</v>
       </c>
       <c r="J189" s="1">
         <v>1100</v>
@@ -37485,7 +37478,7 @@
         <v>2400</v>
       </c>
       <c r="V189" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W189" s="1" t="str">
         <f t="shared" si="193"/>
@@ -37564,10 +37557,10 @@
         <v/>
       </c>
       <c r="AR189" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AU189" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV189" s="1" t="b">
         <v>0</v>
@@ -37625,18 +37618,18 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="190" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>226</v>
@@ -37718,16 +37711,16 @@
         <v/>
       </c>
       <c r="AR190" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AU190" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV190" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW190" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX190" s="6" t="str">
         <f t="shared" si="181"/>
@@ -37783,18 +37776,18 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>51</v>
@@ -37879,13 +37872,13 @@
         <v>238</v>
       </c>
       <c r="AU191" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AV191" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW191" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX191" s="6" t="str">
         <f t="shared" si="181"/>
@@ -37941,15 +37934,15 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G192" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>649</v>
       </c>
       <c r="W192" s="1" t="str">
         <f t="shared" si="193"/>
@@ -38028,10 +38021,10 @@
         <v/>
       </c>
       <c r="AR192" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AS192" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU192" s="1" t="s">
         <v>28</v>
@@ -38096,18 +38089,18 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>228</v>
@@ -38189,22 +38182,22 @@
         <v/>
       </c>
       <c r="AR193" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AS193" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT193" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU193" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AV193" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW193" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX193" s="6" t="str">
         <f t="shared" si="213"/>
@@ -38261,77 +38254,77 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C188" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BL195">
+  <autoFilter ref="C2:C188"/>
+  <sortState ref="B2:BL195">
     <sortCondition ref="B2:B195"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G133" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AR42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AR96" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AR112" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AR54" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AR63" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AR46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AR160" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AR53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AR123" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AR92" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AR62" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AR163" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR148" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AR158" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AR89" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AR150" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AR110" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AR187" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR91" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AR84" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AR43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AR56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AR81" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AR103" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AR111" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AR113" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="AR133" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AR16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="AR24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AR61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR79" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AR83" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AR107" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AR125" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR135" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AR139" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AR146" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AR166" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR178" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR193" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR23" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AR57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="AR65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AR66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AR76" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AR98" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AR147" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="AR181" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR58" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR78" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR47" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR171" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AR169" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G133" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
+    <hyperlink ref="AR42" r:id="rId2"/>
+    <hyperlink ref="AR96" r:id="rId3"/>
+    <hyperlink ref="AR28" r:id="rId4"/>
+    <hyperlink ref="AR112" r:id="rId5"/>
+    <hyperlink ref="AR20" r:id="rId6"/>
+    <hyperlink ref="AR8" r:id="rId7"/>
+    <hyperlink ref="AR54" r:id="rId8"/>
+    <hyperlink ref="AR34" r:id="rId9"/>
+    <hyperlink ref="AR63" r:id="rId10"/>
+    <hyperlink ref="AR46" r:id="rId11"/>
+    <hyperlink ref="AR160" r:id="rId12"/>
+    <hyperlink ref="AR53" r:id="rId13"/>
+    <hyperlink ref="AR123" r:id="rId14"/>
+    <hyperlink ref="AR92" r:id="rId15"/>
+    <hyperlink ref="AR62" r:id="rId16"/>
+    <hyperlink ref="AR163" r:id="rId17"/>
+    <hyperlink ref="AR148" r:id="rId18"/>
+    <hyperlink ref="AR19" r:id="rId19"/>
+    <hyperlink ref="AR10" r:id="rId20"/>
+    <hyperlink ref="AR158" r:id="rId21"/>
+    <hyperlink ref="AR89" r:id="rId22"/>
+    <hyperlink ref="AR150" r:id="rId23"/>
+    <hyperlink ref="AR110" r:id="rId24"/>
+    <hyperlink ref="AR187" r:id="rId25"/>
+    <hyperlink ref="AR91" r:id="rId26"/>
+    <hyperlink ref="AR15" r:id="rId27"/>
+    <hyperlink ref="AR84" r:id="rId28"/>
+    <hyperlink ref="AR5" r:id="rId29"/>
+    <hyperlink ref="AR7" r:id="rId30"/>
+    <hyperlink ref="AR43" r:id="rId31"/>
+    <hyperlink ref="AR45" r:id="rId32"/>
+    <hyperlink ref="AR56" r:id="rId33"/>
+    <hyperlink ref="AR81" r:id="rId34"/>
+    <hyperlink ref="AR103" r:id="rId35"/>
+    <hyperlink ref="AR111" r:id="rId36"/>
+    <hyperlink ref="AR113" r:id="rId37"/>
+    <hyperlink ref="AR133" r:id="rId38"/>
+    <hyperlink ref="AR16" r:id="rId39"/>
+    <hyperlink ref="AR24" r:id="rId40"/>
+    <hyperlink ref="AR61" r:id="rId41"/>
+    <hyperlink ref="AR79" r:id="rId42"/>
+    <hyperlink ref="AR83" r:id="rId43"/>
+    <hyperlink ref="AR107" r:id="rId44"/>
+    <hyperlink ref="AR125" r:id="rId45"/>
+    <hyperlink ref="AR135" r:id="rId46"/>
+    <hyperlink ref="AR139" r:id="rId47"/>
+    <hyperlink ref="AR146" r:id="rId48"/>
+    <hyperlink ref="AR166" r:id="rId49"/>
+    <hyperlink ref="AR178" r:id="rId50"/>
+    <hyperlink ref="AR193" r:id="rId51"/>
+    <hyperlink ref="AR23" r:id="rId52"/>
+    <hyperlink ref="AR57" r:id="rId53"/>
+    <hyperlink ref="AR65" r:id="rId54"/>
+    <hyperlink ref="AR66" r:id="rId55"/>
+    <hyperlink ref="AR76" r:id="rId56"/>
+    <hyperlink ref="AR98" r:id="rId57"/>
+    <hyperlink ref="AR147" r:id="rId58"/>
+    <hyperlink ref="AR181" r:id="rId59"/>
+    <hyperlink ref="AR58" r:id="rId60"/>
+    <hyperlink ref="AR78" r:id="rId61"/>
+    <hyperlink ref="AR47" r:id="rId62"/>
+    <hyperlink ref="AR9" r:id="rId63"/>
+    <hyperlink ref="AR171" r:id="rId64"/>
+    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
+    <hyperlink ref="AR169" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -38339,27 +38332,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>773</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>774</v>
       </c>
       <c r="E1" s="11">
         <v>40.589424999999999</v>
@@ -38368,15 +38361,15 @@
         <v>-105.076553</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>773</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>774</v>
       </c>
       <c r="E2" s="11">
         <v>40.589759999999998</v>
@@ -38385,15 +38378,15 @@
         <v>-105.076497</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>777</v>
       </c>
       <c r="E3" s="11">
         <v>40.523972999999998</v>
@@ -38402,15 +38395,15 @@
         <v>-105.025125</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>778</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>779</v>
       </c>
       <c r="E4" s="11">
         <v>40.551048999999999</v>
@@ -38419,15 +38412,15 @@
         <v>-105.05831000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E5" s="11">
         <v>40.563256000000003</v>
@@ -38436,15 +38429,15 @@
         <v>-105.07746400000001</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E6" s="11">
         <v>40.527959000000003</v>
@@ -38453,15 +38446,15 @@
         <v>-105.07761600000001</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>773</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>774</v>
       </c>
       <c r="E7">
         <v>40.586450999999997</v>
@@ -38470,12 +38463,12 @@
         <v>-105.078568</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -38489,14 +38482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="787">
   <si>
     <t>Name</t>
   </si>
@@ -2389,6 +2389,12 @@
   </si>
   <si>
     <t>Ceviche $11 &lt;Br&gt;Red Rock Cod Tacos $3 Each&lt;Br&gt;East Coast Oysters On The Half Shell $1.25 Per Oyster&lt;Br&gt;Steamers $7&lt;Br&gt; Ahi Tuna Poke $14&lt;Br&gt;Calamari $7&lt;Br&gt;Cioppino $14&lt;Br&gt;Peel And Eat Shrimp $10&lt;Br&gt;Pub Chips $3&lt;Br&gt;Chicharones $3&lt;Br&gt; Wines $2.88-$4.75/Glass&lt;Br&gt;14oz Draft Pint Of Beer $5.50 &lt;br&gt;$2 Off Select Cocktails</t>
+  </si>
+  <si>
+    <t>Weekly Specials&lt;br&gt;Mondays - 2 for 1 Growler Fills&lt;br&gt;Tuesdays - $8 Crowlers (carry out only)&lt;br&gt;Wednesdays - Lucky 7 Six Pack - Buy a 6 pack but get 7 bottles!&lt;br&gt; $9.99 Liter Boots of Beer</t>
+  </si>
+  <si>
+    <t>Every Monday from 6pm to 9pm, $3 off your bier if you buy it in a 1 liter MaB glass &lt;br&gt;Tuesday Countdown Special - From 1pm to 2pm you get $3 off growler fills, 2pm to 3pm you get $2 off growler fills, from 3pm to 4pm you get $1 off growler fills.</t>
   </si>
 </sst>
 </file>
@@ -3347,10 +3353,10 @@
   <dimension ref="B1:BL193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AK174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V63" sqref="V63"/>
+      <selection pane="bottomRight" activeCell="AV194" sqref="AV194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26313,6 +26319,33 @@
       <c r="G126" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="J126" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K126" s="1">
+        <v>2200</v>
+      </c>
+      <c r="L126" s="1">
+        <v>1200</v>
+      </c>
+      <c r="M126" s="1">
+        <v>2200</v>
+      </c>
+      <c r="N126" s="1">
+        <v>1200</v>
+      </c>
+      <c r="O126" s="1">
+        <v>2200</v>
+      </c>
+      <c r="P126" s="1">
+        <v>1200</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V126" s="2" t="s">
+        <v>785</v>
+      </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="128"/>
         <v/>
@@ -26321,37 +26354,37 @@
         <f t="shared" si="129"/>
         <v/>
       </c>
-      <c r="Y126" s="1" t="str">
+      <c r="Y126" s="1">
         <f t="shared" si="130"/>
-        <v/>
-      </c>
-      <c r="Z126" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="Z126" s="1">
         <f t="shared" si="131"/>
-        <v/>
-      </c>
-      <c r="AA126" s="1" t="str">
+        <v>22</v>
+      </c>
+      <c r="AA126" s="1">
         <f t="shared" si="132"/>
-        <v/>
-      </c>
-      <c r="AB126" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="AB126" s="1">
         <f t="shared" si="133"/>
-        <v/>
-      </c>
-      <c r="AC126" s="1" t="str">
+        <v>22</v>
+      </c>
+      <c r="AC126" s="1">
         <f t="shared" si="134"/>
-        <v/>
-      </c>
-      <c r="AD126" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="AD126" s="1">
         <f t="shared" si="135"/>
-        <v/>
-      </c>
-      <c r="AE126" s="1" t="str">
+        <v>22</v>
+      </c>
+      <c r="AE126" s="1">
         <f t="shared" si="140"/>
-        <v/>
-      </c>
-      <c r="AF126" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="AF126" s="1">
         <f t="shared" si="141"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AG126" s="1" t="str">
         <f t="shared" si="136"/>
@@ -26375,19 +26408,19 @@
       </c>
       <c r="AL126" s="1" t="str">
         <f t="shared" si="143"/>
-        <v/>
+        <v>12pm-10pm</v>
       </c>
       <c r="AM126" s="1" t="str">
         <f t="shared" si="144"/>
-        <v/>
+        <v>12pm-10pm</v>
       </c>
       <c r="AN126" s="1" t="str">
         <f t="shared" si="145"/>
-        <v/>
+        <v>12pm-10pm</v>
       </c>
       <c r="AO126" s="1" t="str">
         <f t="shared" si="146"/>
-        <v/>
+        <v>12pm-12am</v>
       </c>
       <c r="AP126" s="1" t="str">
         <f t="shared" si="147"/>
@@ -26407,7 +26440,7 @@
         <v>298</v>
       </c>
       <c r="AV126" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW126" s="5" t="s">
         <v>307</v>
@@ -26417,7 +26450,7 @@
         <v>{
     'name': "Prost Brewing Company",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://prostbrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "321 Old Firehouse Alley, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1200", 'monday-end':"2200", 'tuesday-start':"1200", 'tuesday-end':"2200", 'wednesday-start':"1200", 'wednesday-end':"2200", 'thursday-start':"1200", 'thursday-end':"2400", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Weekly Specials&lt;br&gt;Mondays - 2 for 1 Growler Fills&lt;br&gt;Tuesdays - $8 Crowlers (carry out only)&lt;br&gt;Wednesdays - Lucky 7 Six Pack - Buy a 6 pack but get 7 bottles!&lt;br&gt; $9.99 Liter Boots of Beer", 'link':"https://prostbrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "321 Old Firehouse Alley, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','hard'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY126" s="1" t="str">
         <f t="shared" si="119"/>
@@ -26433,7 +26466,7 @@
       </c>
       <c r="BB126" s="1" t="str">
         <f t="shared" si="122"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC126" s="1" t="str">
         <f t="shared" si="123"/>
@@ -26441,11 +26474,11 @@
       </c>
       <c r="BD126" s="1" t="str">
         <f t="shared" si="124"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/hard.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/hard.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE126" s="1" t="str">
         <f t="shared" si="125"/>
-        <v>outdoor hard med old</v>
+        <v>outdoor drink hard med old</v>
       </c>
       <c r="BF126" s="1" t="str">
         <f t="shared" si="126"/>
@@ -38105,6 +38138,21 @@
       <c r="G193" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="J193" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K193" s="1">
+        <v>2100</v>
+      </c>
+      <c r="L193" s="1">
+        <v>1300</v>
+      </c>
+      <c r="M193" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V193" s="1" t="s">
+        <v>786</v>
+      </c>
       <c r="W193" s="1" t="str">
         <f t="shared" si="193"/>
         <v/>
@@ -38113,21 +38161,21 @@
         <f t="shared" si="194"/>
         <v/>
       </c>
-      <c r="Y193" s="1" t="str">
+      <c r="Y193" s="1">
         <f t="shared" si="195"/>
-        <v/>
-      </c>
-      <c r="Z193" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="Z193" s="1">
         <f t="shared" si="196"/>
-        <v/>
-      </c>
-      <c r="AA193" s="1" t="str">
+        <v>21</v>
+      </c>
+      <c r="AA193" s="1">
         <f t="shared" si="197"/>
-        <v/>
-      </c>
-      <c r="AB193" s="1" t="str">
+        <v>13</v>
+      </c>
+      <c r="AB193" s="1">
         <f t="shared" si="198"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="AC193" s="1" t="str">
         <f t="shared" si="199"/>
@@ -38159,11 +38207,11 @@
       </c>
       <c r="AL193" s="1" t="str">
         <f t="shared" si="207"/>
-        <v/>
+        <v>6pm-9pm</v>
       </c>
       <c r="AM193" s="1" t="str">
         <f t="shared" si="208"/>
-        <v/>
+        <v>1pm-4pm</v>
       </c>
       <c r="AN193" s="1" t="str">
         <f t="shared" si="209"/>
@@ -38194,7 +38242,7 @@
         <v>28</v>
       </c>
       <c r="AV193" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW193" s="5" t="s">
         <v>307</v>
@@ -38204,7 +38252,7 @@
         <v>{
     'name': "Zwei Brewing",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.zweibrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "4612 S. Mason St., Suite 120, Fort Collins, CO 80525", 'other-amenities': ['outdoor','pets','medium'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1800", 'monday-end':"2100", 'tuesday-start':"1300", 'tuesday-end':"1600", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Every Monday from 6pm to 9pm, $3 off your bier if you buy it in a 1 liter MaB glass &lt;br&gt;Tuesday Countdown Special - From 1pm to 2pm you get $3 off growler fills, 2pm to 3pm you get $2 off growler fills, from 3pm to 4pm you get $1 off growler fills.", 'link':"http://www.zweibrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "4612 S. Mason St., Suite 120, Fort Collins, CO 80525", 'other-amenities': ['outdoor','pets','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY193" s="1" t="str">
         <f t="shared" si="182"/>
@@ -38220,7 +38268,7 @@
       </c>
       <c r="BB193" s="1" t="str">
         <f t="shared" si="185"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC193" s="1" t="str">
         <f t="shared" si="186"/>
@@ -38228,11 +38276,11 @@
       </c>
       <c r="BD193" s="1" t="str">
         <f t="shared" si="214"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/medium.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE193" s="1" t="str">
         <f t="shared" si="188"/>
-        <v>outdoor pet medium med sfoco</v>
+        <v>outdoor pet drink medium med sfoco</v>
       </c>
       <c r="BF193" s="1" t="str">
         <f t="shared" si="189"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1513,9 +1513,6 @@
     <t>$2 PBR and Bud Lite &lt;br&gt; $3 Wells &lt;br&gt; $3.25 drafts &lt;br&gt; $3.50 wine</t>
   </si>
   <si>
-    <t>$1 Off Drafts &lt;br&gt; $5 House Wine &lt;br&gt; Happy Hour Food Menu</t>
-  </si>
-  <si>
     <t>$2.50 Coors Lights &amp; Coors Drafts &lt;br&gt; $3.50 Select Craft Drafts &lt;br&gt; $4 House Margaritas &lt;br&gt; $3 Wells &lt;br&gt; Free Chips and Salsa w/ Bar purchase</t>
   </si>
   <si>
@@ -2404,6 +2401,9 @@
   </si>
   <si>
     <t>1015 S. Taft Hill Road Fort Collins</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Drink Specials&lt;/b&gt;&lt;br&gt;$1 off 8oz pours&lt;br&gt;$2 off 12oz pours&lt;br&gt;$3 off 16oz pours  &lt;br&gt;$5 glasses of wine&lt;br&gt;&lt;b&gt;Food Specials&lt;/b&gt;&lt;br&gt;$1 wings (up to 24)&lt;br&gt;$3 chips &amp; salsa (no refill)&lt;br&gt;$4 fire &amp; ice&lt;br&gt;$5 artisan flatbreads&lt;br&gt;$5 nachos&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3365,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V92" sqref="V92"/>
+      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3769,7 +3769,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3982,7 +3982,7 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>426</v>
@@ -3991,7 +3991,7 @@
         <v>431</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4078,7 +4078,7 @@
         <v/>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>298</v>
@@ -4307,19 +4307,19 @@
     </row>
     <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4700,7 +4700,7 @@
         <v>1800</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="0"/>
@@ -4857,19 +4857,19 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H9" s="1">
         <v>1500</v>
@@ -4914,7 +4914,7 @@
         <v>1800</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="0"/>
@@ -5285,19 +5285,19 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5384,7 +5384,7 @@
         <v/>
       </c>
       <c r="AR11" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>28</v>
@@ -5447,19 +5447,19 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>427</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>426</v>
@@ -5620,7 +5620,7 @@
         <v>431</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>309</v>
@@ -5781,7 +5781,7 @@
         <v>431</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H14" s="1">
         <v>1500</v>
@@ -5826,7 +5826,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="0"/>
@@ -5913,7 +5913,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>295</v>
@@ -5922,7 +5922,7 @@
         <v>299</v>
       </c>
       <c r="AV14" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AW14" s="5" t="s">
         <v>306</v>
@@ -6191,7 +6191,7 @@
         <v>1900</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6348,16 +6348,16 @@
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6444,7 +6444,7 @@
         <v/>
       </c>
       <c r="AR17" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>295</v>
@@ -6567,7 +6567,7 @@
         <v>1800</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="0"/>
@@ -6787,7 +6787,7 @@
         <v>2400</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="0"/>
@@ -7363,7 +7363,7 @@
         <v>1700</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="0"/>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>426</v>
@@ -7948,7 +7948,7 @@
         <v>431</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P25" s="1">
         <v>2000</v>
@@ -7969,7 +7969,7 @@
         <v>2000</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8056,7 +8056,7 @@
         <v>6pm-8pm</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AU25" s="1" t="s">
         <v>298</v>
@@ -8303,19 +8303,19 @@
     </row>
     <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>309</v>
@@ -8647,7 +8647,7 @@
         <v>431</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8794,7 +8794,7 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>428</v>
@@ -8803,7 +8803,7 @@
         <v>431</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>308</v>
@@ -8964,7 +8964,7 @@
         <v>431</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9116,13 +9116,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9209,7 +9209,7 @@
         <v/>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AU32" s="1" t="s">
         <v>299</v>
@@ -9272,13 +9272,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9365,7 +9365,7 @@
         <v/>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AU33" s="1" t="s">
         <v>299</v>
@@ -9483,7 +9483,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W34" s="1" t="str">
         <f t="shared" ref="W34:W63" si="33">IF(H34&gt;0,H34/100,"")</f>
@@ -9644,13 +9644,13 @@
     </row>
     <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>426</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="W35" s="1" t="str">
         <f t="shared" si="33"/>
@@ -9737,7 +9737,7 @@
         <v/>
       </c>
       <c r="AR35" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU35" s="1" t="s">
         <v>28</v>
@@ -10226,7 +10226,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10433,13 +10433,13 @@
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="33"/>
@@ -10526,7 +10526,7 @@
         <v/>
       </c>
       <c r="AR39" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AU39" s="1" t="s">
         <v>299</v>
@@ -10758,16 +10758,16 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H41" s="1">
         <v>1600</v>
@@ -10812,7 +10812,7 @@
         <v>1800</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" si="33"/>
@@ -10899,7 +10899,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR41" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AU41" s="1" t="s">
         <v>28</v>
@@ -11355,7 +11355,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="33"/>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>428</v>
@@ -12486,7 +12486,7 @@
     </row>
     <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>426</v>
@@ -12495,7 +12495,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="33"/>
@@ -12582,7 +12582,7 @@
         <v/>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AU50" s="1" t="s">
         <v>298</v>
@@ -12645,7 +12645,7 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>426</v>
@@ -12654,7 +12654,7 @@
         <v>431</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="33"/>
@@ -12741,7 +12741,7 @@
         <v/>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AS51" s="1" t="s">
         <v>295</v>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>309</v>
@@ -12816,7 +12816,7 @@
         <v>431</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H52" s="1">
         <v>1600</v>
@@ -12849,7 +12849,7 @@
         <v>1900</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="33"/>
@@ -12936,7 +12936,7 @@
         <v/>
       </c>
       <c r="AR52" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AU52" s="1" t="s">
         <v>299</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>427</v>
@@ -13340,7 +13340,7 @@
         <v>431</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L55" s="1">
         <v>1600</v>
@@ -13373,7 +13373,7 @@
         <v>1800</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W55" s="1" t="str">
         <f t="shared" si="33"/>
@@ -13460,7 +13460,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AU55" s="1" t="s">
         <v>299</v>
@@ -13550,7 +13550,7 @@
         <v>1800</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="W56" s="1" t="str">
         <f t="shared" si="33"/>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>426</v>
@@ -14126,7 +14126,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="33"/>
@@ -14213,7 +14213,7 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AU59" s="1" t="s">
         <v>298</v>
@@ -14665,7 +14665,7 @@
         <v>1800</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" si="33"/>
@@ -14985,7 +14985,7 @@
     </row>
     <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>426</v>
@@ -14994,7 +14994,7 @@
         <v>54</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="W64" s="1" t="str">
         <f t="shared" ref="W64:W89" si="65">IF(H64&gt;0,H64/100,"")</f>
@@ -15073,7 +15073,7 @@
         <v/>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AS64" s="1" t="s">
         <v>295</v>
@@ -15398,7 +15398,7 @@
         <v>1800</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="W66" s="1" t="str">
         <f t="shared" si="65"/>
@@ -15556,7 +15556,7 @@
     </row>
     <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>309</v>
@@ -15565,7 +15565,7 @@
         <v>431</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="65"/>
@@ -15644,7 +15644,7 @@
         <v/>
       </c>
       <c r="AR67" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AU67" s="1" t="s">
         <v>299</v>
@@ -15707,13 +15707,13 @@
     </row>
     <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>426</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="65"/>
@@ -15916,7 +15916,7 @@
         <v>2400</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="W69" s="1">
         <f t="shared" si="65"/>
@@ -16122,7 +16122,7 @@
         <v>2400</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W70" s="1" t="str">
         <f t="shared" si="65"/>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>426</v>
@@ -16620,7 +16620,7 @@
         <v>431</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H73" s="1">
         <v>1600</v>
@@ -16665,7 +16665,7 @@
         <v>1800</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" si="65"/>
@@ -16752,7 +16752,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR73" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>295</v>
@@ -16818,16 +16818,16 @@
     </row>
     <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W74" s="1" t="str">
         <f t="shared" si="65"/>
@@ -16979,16 +16979,16 @@
     </row>
     <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H75" s="1">
         <v>1500</v>
@@ -17033,7 +17033,7 @@
         <v>1800</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" si="65"/>
@@ -17120,7 +17120,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR75" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AU75" s="1" t="s">
         <v>299</v>
@@ -17388,7 +17388,7 @@
     </row>
     <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>426</v>
@@ -17397,7 +17397,7 @@
         <v>431</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="65"/>
@@ -17484,7 +17484,7 @@
         <v/>
       </c>
       <c r="AR77" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AU77" s="1" t="s">
         <v>298</v>
@@ -17565,7 +17565,7 @@
         <v>1600</v>
       </c>
       <c r="I78" s="1">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="J78" s="1">
         <v>1600</v>
@@ -17592,7 +17592,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>493</v>
+        <v>789</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" si="65"/>
@@ -17600,7 +17600,7 @@
       </c>
       <c r="X78" s="1">
         <f t="shared" si="66"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" si="67"/>
@@ -17652,7 +17652,7 @@
       </c>
       <c r="AK78" s="1" t="str">
         <f t="shared" si="77"/>
-        <v>4pm-6pm</v>
+        <v>4pm-10pm</v>
       </c>
       <c r="AL78" s="1" t="str">
         <f t="shared" si="78"/>
@@ -17701,7 +17701,7 @@
         <v>{
     'name': "Hop Grenade",
     'area': "midtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$1 Off Drafts &lt;br&gt; $5 House Wine &lt;br&gt; Happy Hour Food Menu", 'link':"https://www.hopgrenadefoco.com/", 'pricing':"med",   'phone-number': "", 'address': "347 E. FOOTHILLS PKWY,  #120 FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"2200", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;Drink Specials&lt;/b&gt;&lt;br&gt;$1 off 8oz pours&lt;br&gt;$2 off 12oz pours&lt;br&gt;$3 off 16oz pours  &lt;br&gt;$5 glasses of wine&lt;br&gt;&lt;b&gt;Food Specials&lt;/b&gt;&lt;br&gt;$1 wings (up to 24)&lt;br&gt;$3 chips &amp; salsa (no refill)&lt;br&gt;$4 fire &amp; ice&lt;br&gt;$5 artisan flatbreads&lt;br&gt;$5 nachos&lt;br&gt;", 'link':"https://www.hopgrenadefoco.com/", 'pricing':"med",   'phone-number': "", 'address': "347 E. FOOTHILLS PKWY,  #120 FORT COLLINS, CO 80525", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY78" s="1" t="str">
         <f t="shared" si="85"/>
@@ -17753,7 +17753,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL78" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -18153,7 +18153,7 @@
         <v>2000</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W81" s="1">
         <f t="shared" si="65"/>
@@ -18699,7 +18699,7 @@
         <v>1900</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="65"/>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>428</v>
@@ -18868,7 +18868,7 @@
         <v>431</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="W85" s="1" t="str">
         <f t="shared" si="65"/>
@@ -19015,13 +19015,13 @@
     </row>
     <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H86" s="1">
         <v>1100</v>
@@ -19066,7 +19066,7 @@
         <v>1300</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" si="65"/>
@@ -19153,7 +19153,7 @@
         <v>11am-1pm</v>
       </c>
       <c r="AR86" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AS86" s="1" t="s">
         <v>295</v>
@@ -19490,7 +19490,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="65"/>
@@ -19662,7 +19662,7 @@
         <v>117</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="65"/>
@@ -19819,7 +19819,7 @@
     </row>
     <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>309</v>
@@ -19828,10 +19828,10 @@
         <v>431</v>
       </c>
       <c r="G90" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="AR90" s="4" t="s">
         <v>720</v>
-      </c>
-      <c r="AR90" s="4" t="s">
-        <v>721</v>
       </c>
       <c r="AS90" s="1" t="s">
         <v>295</v>
@@ -20063,7 +20063,7 @@
     </row>
     <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>429</v>
@@ -20072,7 +20072,7 @@
         <v>54</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J92" s="1">
         <v>1100</v>
@@ -20105,7 +20105,7 @@
         <v>1400</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" ref="W92" si="118">IF(H92&gt;0,H92/100,"")</f>
@@ -20423,7 +20423,7 @@
     </row>
     <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>428</v>
@@ -20435,7 +20435,7 @@
         <v>431</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H94" s="1">
         <v>1600</v>
@@ -20480,7 +20480,7 @@
         <v>1800</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" si="97"/>
@@ -20567,7 +20567,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR94" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AS94" s="1" t="s">
         <v>295</v>
@@ -20637,13 +20637,13 @@
     </row>
     <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>428</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H95" s="1">
         <v>1500</v>
@@ -20688,7 +20688,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="97"/>
@@ -20775,7 +20775,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR95" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU95" s="1" t="s">
         <v>28</v>
@@ -20883,7 +20883,7 @@
         <v>1900</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="97"/>
@@ -21094,7 +21094,7 @@
         <v>1800</v>
       </c>
       <c r="V97" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" si="97"/>
@@ -21251,13 +21251,13 @@
     </row>
     <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>426</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="97"/>
@@ -21344,7 +21344,7 @@
         <v/>
       </c>
       <c r="AR98" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AU98" s="1" t="s">
         <v>28</v>
@@ -21464,7 +21464,7 @@
         <v>1900</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="97"/>
@@ -21622,13 +21622,13 @@
     </row>
     <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>426</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W100" s="1" t="str">
         <f t="shared" si="97"/>
@@ -21715,7 +21715,7 @@
         <v/>
       </c>
       <c r="AR100" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AU100" s="1" t="s">
         <v>298</v>
@@ -21778,13 +21778,13 @@
     </row>
     <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W101" s="1" t="str">
         <f t="shared" si="97"/>
@@ -22130,7 +22130,7 @@
     </row>
     <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>308</v>
@@ -22139,7 +22139,7 @@
         <v>431</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W103" s="1" t="str">
         <f t="shared" si="97"/>
@@ -22226,7 +22226,7 @@
         <v/>
       </c>
       <c r="AR103" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AU103" s="1" t="s">
         <v>28</v>
@@ -22461,13 +22461,13 @@
     </row>
     <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="97"/>
@@ -22554,7 +22554,7 @@
         <v/>
       </c>
       <c r="AR105" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AU105" s="1" t="s">
         <v>299</v>
@@ -22617,19 +22617,19 @@
     </row>
     <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H106" s="1">
         <v>1400</v>
@@ -22674,7 +22674,7 @@
         <v>1700</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" si="97"/>
@@ -22761,7 +22761,7 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR106" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AU106" s="1" t="s">
         <v>299</v>
@@ -23331,7 +23331,7 @@
     </row>
     <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>429</v>
@@ -23340,7 +23340,7 @@
         <v>431</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H110" s="1">
         <v>1600</v>
@@ -23385,7 +23385,7 @@
         <v>1900</v>
       </c>
       <c r="V110" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="97"/>
@@ -23472,7 +23472,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR110" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AS110" s="1" t="s">
         <v>295</v>
@@ -23596,7 +23596,7 @@
         <v>1800</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W111" s="1">
         <f t="shared" si="97"/>
@@ -23810,7 +23810,7 @@
         <v>1900</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W112" s="1">
         <f t="shared" si="97"/>
@@ -24181,7 +24181,7 @@
         <v>1800</v>
       </c>
       <c r="V114" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="97"/>
@@ -24344,7 +24344,7 @@
     </row>
     <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>427</v>
@@ -24353,7 +24353,7 @@
         <v>431</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="97"/>
@@ -24440,7 +24440,7 @@
         <v/>
       </c>
       <c r="AR115" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AU115" s="1" t="s">
         <v>299</v>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>309</v>
@@ -24678,7 +24678,7 @@
         <v>54</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W117" s="1" t="str">
         <f t="shared" si="97"/>
@@ -25332,7 +25332,7 @@
     </row>
     <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>309</v>
@@ -25341,7 +25341,7 @@
         <v>431</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="W121" s="1" t="str">
         <f t="shared" ref="W121:W151" si="158">IF(H121&gt;0,H121/100,"")</f>
@@ -25420,7 +25420,7 @@
         <v/>
       </c>
       <c r="AR121" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AU121" s="1" t="s">
         <v>299</v>
@@ -25483,13 +25483,13 @@
     </row>
     <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>428</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H122" s="1">
         <v>1500</v>
@@ -25534,7 +25534,7 @@
         <v>1800</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W122" s="1">
         <f t="shared" si="158"/>
@@ -25621,7 +25621,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR122" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AS122" s="1" t="s">
         <v>295</v>
@@ -25687,13 +25687,13 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H123" s="1">
         <v>1500</v>
@@ -25825,7 +25825,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR123" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AU123" s="1" t="s">
         <v>28</v>
@@ -26102,19 +26102,19 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J125" s="1">
         <v>1700</v>
@@ -26147,7 +26147,7 @@
         <v>2400</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W125" s="1" t="str">
         <f t="shared" si="158"/>
@@ -26234,7 +26234,7 @@
         <v/>
       </c>
       <c r="AR125" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AU125" s="1" t="s">
         <v>298</v>
@@ -26354,7 +26354,7 @@
         <v>1800</v>
       </c>
       <c r="V126" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W126" s="1">
         <f t="shared" si="158"/>
@@ -26547,7 +26547,7 @@
         <v>2400</v>
       </c>
       <c r="V127" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="W127" s="1" t="str">
         <f t="shared" si="158"/>
@@ -26870,7 +26870,7 @@
     </row>
     <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>308</v>
@@ -26879,7 +26879,7 @@
         <v>54</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="158"/>
@@ -26966,7 +26966,7 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AU129" s="1" t="s">
         <v>28</v>
@@ -27029,7 +27029,7 @@
     </row>
     <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>308</v>
@@ -27038,7 +27038,7 @@
         <v>431</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="158"/>
@@ -27125,7 +27125,7 @@
         <v/>
       </c>
       <c r="AR130" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AS130" s="1" t="s">
         <v>295</v>
@@ -27234,7 +27234,7 @@
         <v>1600</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="W131" s="1" t="str">
         <f t="shared" si="158"/>
@@ -27394,7 +27394,7 @@
     </row>
     <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>309</v>
@@ -27403,7 +27403,7 @@
         <v>431</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H132" s="1">
         <v>1500</v>
@@ -27448,7 +27448,7 @@
         <v>1800</v>
       </c>
       <c r="V132" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="W132" s="1">
         <f t="shared" si="158"/>
@@ -27535,7 +27535,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AU132" s="1" t="s">
         <v>299</v>
@@ -27598,7 +27598,7 @@
     </row>
     <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>308</v>
@@ -27607,7 +27607,7 @@
         <v>54</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W133" s="1" t="str">
         <f t="shared" si="158"/>
@@ -27694,7 +27694,7 @@
         <v/>
       </c>
       <c r="AR133" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AU133" s="1" t="s">
         <v>28</v>
@@ -28218,7 +28218,7 @@
         <v>2000</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W136" s="1">
         <f t="shared" si="158"/>
@@ -28707,7 +28707,7 @@
     </row>
     <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>309</v>
@@ -28716,7 +28716,7 @@
         <v>54</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="158"/>
@@ -29195,7 +29195,7 @@
     </row>
     <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>309</v>
@@ -29204,7 +29204,7 @@
         <v>431</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H142" s="1">
         <v>1500</v>
@@ -29249,7 +29249,7 @@
         <v>1800</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W142" s="1">
         <f t="shared" si="158"/>
@@ -29336,7 +29336,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AU142" s="1" t="s">
         <v>299</v>
@@ -29399,7 +29399,7 @@
     </row>
     <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>309</v>
@@ -29408,7 +29408,7 @@
         <v>431</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="158"/>
@@ -29487,7 +29487,7 @@
         <v/>
       </c>
       <c r="AR143" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AS143" s="1" t="s">
         <v>295</v>
@@ -29927,7 +29927,7 @@
     </row>
     <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>308</v>
@@ -29936,7 +29936,7 @@
         <v>431</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J146" s="1">
         <v>1500</v>
@@ -29969,7 +29969,7 @@
         <v>1800</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W146" s="1" t="str">
         <f t="shared" si="158"/>
@@ -30167,7 +30167,7 @@
         <v>2000</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W147" s="1">
         <f t="shared" si="158"/>
@@ -30589,7 +30589,7 @@
         <v>1900</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W149" s="1">
         <f t="shared" si="158"/>
@@ -31081,13 +31081,13 @@
     </row>
     <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>426</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W152" s="1" t="str">
         <f t="shared" ref="W152:W183" si="192">IF(H152&gt;0,H152/100,"")</f>
@@ -31174,7 +31174,7 @@
         <v/>
       </c>
       <c r="AR152" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU152" s="1" t="s">
         <v>298</v>
@@ -31623,13 +31623,13 @@
     </row>
     <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W155" s="1" t="str">
         <f t="shared" si="192"/>
@@ -31942,7 +31942,7 @@
     </row>
     <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>426</v>
@@ -31951,7 +31951,7 @@
         <v>431</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H157" s="1">
         <v>1500</v>
@@ -31996,7 +31996,7 @@
         <v>2400</v>
       </c>
       <c r="V157" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W157" s="1">
         <f t="shared" si="192"/>
@@ -32147,7 +32147,7 @@
     </row>
     <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>427</v>
@@ -32156,7 +32156,7 @@
         <v>54</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="W158" s="1" t="str">
         <f t="shared" si="192"/>
@@ -32502,7 +32502,7 @@
     </row>
     <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>426</v>
@@ -32514,7 +32514,7 @@
         <v>431</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H160" s="1">
         <v>1130</v>
@@ -32547,7 +32547,7 @@
         <v>1800</v>
       </c>
       <c r="V160" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W160" s="1">
         <f t="shared" si="192"/>
@@ -32634,7 +32634,7 @@
         <v/>
       </c>
       <c r="AR160" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AS160" s="1" t="s">
         <v>295</v>
@@ -32877,7 +32877,7 @@
     </row>
     <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>427</v>
@@ -32886,7 +32886,7 @@
         <v>431</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="W162" s="1" t="str">
         <f t="shared" si="192"/>
@@ -33365,13 +33365,13 @@
     </row>
     <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="W165" s="1" t="str">
         <f t="shared" si="192"/>
@@ -33732,7 +33732,7 @@
         <v>1800</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W167" s="1" t="str">
         <f t="shared" si="192"/>
@@ -33886,13 +33886,13 @@
     </row>
     <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L168" s="1">
         <v>1600</v>
@@ -34003,7 +34003,7 @@
         <v/>
       </c>
       <c r="AR168" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AU168" s="1" t="s">
         <v>299</v>
@@ -34111,7 +34111,7 @@
         <v>1800</v>
       </c>
       <c r="V169" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W169" s="1" t="str">
         <f t="shared" si="192"/>
@@ -34265,19 +34265,19 @@
     </row>
     <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W170" s="1" t="str">
         <f t="shared" si="192"/>
@@ -34364,7 +34364,7 @@
         <v/>
       </c>
       <c r="AR170" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AS170" s="1" t="s">
         <v>295</v>
@@ -34430,7 +34430,7 @@
     </row>
     <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>426</v>
@@ -34439,7 +34439,7 @@
         <v>431</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="W171" s="1" t="str">
         <f t="shared" si="192"/>
@@ -34518,7 +34518,7 @@
         <v/>
       </c>
       <c r="AR171" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AU171" s="1" t="s">
         <v>298</v>
@@ -34581,19 +34581,19 @@
     </row>
     <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J172" s="1">
         <v>1100</v>
@@ -34632,7 +34632,7 @@
         <v>1700</v>
       </c>
       <c r="V172" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W172" s="1" t="str">
         <f t="shared" si="192"/>
@@ -34719,7 +34719,7 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR172" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU172" s="1" t="s">
         <v>298</v>
@@ -34782,13 +34782,13 @@
     </row>
     <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>426</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W173" s="1" t="str">
         <f t="shared" si="192"/>
@@ -34875,7 +34875,7 @@
         <v/>
       </c>
       <c r="AR173" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AU173" s="1" t="s">
         <v>298</v>
@@ -34938,19 +34938,19 @@
     </row>
     <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W174" s="1" t="str">
         <f t="shared" si="192"/>
@@ -35037,7 +35037,7 @@
         <v/>
       </c>
       <c r="AR174" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AU174" s="1" t="s">
         <v>298</v>
@@ -35100,13 +35100,13 @@
     </row>
     <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>426</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W175" s="1" t="str">
         <f t="shared" si="192"/>
@@ -35193,7 +35193,7 @@
         <v/>
       </c>
       <c r="AR175" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AS175" s="1" t="s">
         <v>295</v>
@@ -35482,7 +35482,7 @@
         <v>1900</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W177" s="1">
         <f t="shared" si="192"/>
@@ -35684,7 +35684,7 @@
         <v>1900</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W178" s="1" t="str">
         <f t="shared" si="192"/>
@@ -36007,7 +36007,7 @@
     </row>
     <row r="180" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>426</v>
@@ -36019,7 +36019,7 @@
         <v>54</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J180" s="1">
         <v>1500</v>
@@ -36203,13 +36203,13 @@
     </row>
     <row r="181" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W181" s="1" t="str">
         <f t="shared" si="192"/>
@@ -36413,7 +36413,7 @@
         <v>1900</v>
       </c>
       <c r="V182" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W182" s="1">
         <f t="shared" si="192"/>
@@ -36736,7 +36736,7 @@
     </row>
     <row r="184" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>426</v>
@@ -36745,7 +36745,7 @@
         <v>431</v>
       </c>
       <c r="G184" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="W184" s="1" t="str">
         <f t="shared" ref="W184:W194" si="223">IF(H184&gt;0,H184/100,"")</f>
@@ -36824,7 +36824,7 @@
         <v/>
       </c>
       <c r="AR184" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AU184" s="1" t="s">
         <v>299</v>
@@ -36887,7 +36887,7 @@
     </row>
     <row r="185" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>426</v>
@@ -36896,7 +36896,7 @@
         <v>54</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="W185" s="1" t="str">
         <f t="shared" si="223"/>
@@ -36975,7 +36975,7 @@
         <v/>
       </c>
       <c r="AR185" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AS185" s="1" t="s">
         <v>295</v>
@@ -37041,13 +37041,13 @@
     </row>
     <row r="186" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W186" s="1" t="str">
         <f t="shared" si="223"/>
@@ -37134,7 +37134,7 @@
         <v/>
       </c>
       <c r="AR186" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AU186" s="1" t="s">
         <v>28</v>
@@ -37197,13 +37197,13 @@
     </row>
     <row r="187" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="W187" s="1" t="str">
         <f t="shared" si="223"/>
@@ -37522,7 +37522,7 @@
     </row>
     <row r="189" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>309</v>
@@ -37534,7 +37534,7 @@
         <v>431</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W189" s="1" t="str">
         <f t="shared" si="223"/>
@@ -37621,7 +37621,7 @@
         <v/>
       </c>
       <c r="AR189" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AS189" s="1" t="s">
         <v>295</v>
@@ -37687,13 +37687,13 @@
     </row>
     <row r="190" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J190" s="1">
         <v>1100</v>
@@ -37714,7 +37714,7 @@
         <v>2400</v>
       </c>
       <c r="V190" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W190" s="1" t="str">
         <f t="shared" si="223"/>
@@ -37793,7 +37793,7 @@
         <v/>
       </c>
       <c r="AR190" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AU190" s="1" t="s">
         <v>299</v>
@@ -38172,13 +38172,13 @@
     </row>
     <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="W193" s="1" t="str">
         <f t="shared" si="223"/>
@@ -38257,7 +38257,7 @@
         <v/>
       </c>
       <c r="AR193" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AS193" s="1" t="s">
         <v>295</v>
@@ -38354,7 +38354,7 @@
         <v>1600</v>
       </c>
       <c r="V194" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="W194" s="1" t="str">
         <f t="shared" si="223"/>
@@ -38597,13 +38597,13 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>772</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>773</v>
       </c>
       <c r="E1" s="11">
         <v>40.589424999999999</v>
@@ -38614,13 +38614,13 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>772</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>773</v>
       </c>
       <c r="E2" s="11">
         <v>40.589759999999998</v>
@@ -38631,13 +38631,13 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>775</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>776</v>
       </c>
       <c r="E3" s="11">
         <v>40.523972999999998</v>
@@ -38648,13 +38648,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>777</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>778</v>
       </c>
       <c r="E4" s="11">
         <v>40.551048999999999</v>
@@ -38665,13 +38665,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E5" s="11">
         <v>40.563256000000003</v>
@@ -38682,13 +38682,13 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E6" s="11">
         <v>40.527959000000003</v>
@@ -38699,13 +38699,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>772</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>773</v>
       </c>
       <c r="E7">
         <v>40.586450999999997</v>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B93326-36EF-483D-BED7-473A2809C5DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$191</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="799">
   <si>
     <t>Name</t>
   </si>
@@ -2420,9 +2419,6 @@
   </si>
   <si>
     <t>234 N College Ave #3a, Fort Collins, CO 80524</t>
-  </si>
-  <si>
-    <t>!600</t>
   </si>
   <si>
     <t>$5 Glasses of Wine</t>
@@ -2440,7 +2436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3023,12 +3019,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="37"/>
+    <cellStyle name="60% - Accent2" xfId="38"/>
+    <cellStyle name="60% - Accent3" xfId="39"/>
+    <cellStyle name="60% - Accent4" xfId="40"/>
+    <cellStyle name="60% - Accent5" xfId="41"/>
+    <cellStyle name="60% - Accent6" xfId="42"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -3047,11 +3043,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Neutral" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title" xfId="35"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -3080,7 +3076,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3392,33 +3388,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BB38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AE74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="BG48" sqref="BG48"/>
+      <selection pane="bottomRight" activeCell="AU85" sqref="AU85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="36" width="6" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" customWidth="1"/>
-    <col min="38" max="38" width="13.54296875" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.26953125" customWidth="1"/>
-    <col min="43" max="43" width="15.81640625" customWidth="1"/>
-    <col min="50" max="50" width="90.54296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.1796875" customWidth="1"/>
-    <col min="57" max="57" width="53.54296875" customWidth="1"/>
-    <col min="58" max="58" width="19.453125" customWidth="1"/>
+    <col min="40" max="42" width="10.28515625" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" customWidth="1"/>
+    <col min="50" max="50" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.140625" customWidth="1"/>
+    <col min="57" max="57" width="53.5703125" customWidth="1"/>
+    <col min="58" max="58" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +3582,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>454</v>
       </c>
@@ -3801,7 +3797,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>140</v>
       </c>
@@ -4009,7 +4005,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>671</v>
       </c>
@@ -4168,7 +4164,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>146</v>
       </c>
@@ -4334,7 +4330,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>509</v>
       </c>
@@ -4498,7 +4494,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>149</v>
       </c>
@@ -4670,7 +4666,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -4884,7 +4880,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>513</v>
       </c>
@@ -5098,7 +5094,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>109</v>
       </c>
@@ -5312,7 +5308,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>568</v>
       </c>
@@ -5474,7 +5470,7 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>516</v>
       </c>
@@ -5638,7 +5634,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>518</v>
       </c>
@@ -5799,7 +5795,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>720</v>
       </c>
@@ -6006,7 +6002,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>134</v>
       </c>
@@ -6173,7 +6169,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -6375,7 +6371,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>579</v>
       </c>
@@ -6537,7 +6533,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -6757,7 +6753,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>246</v>
       </c>
@@ -6968,7 +6964,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -7134,7 +7130,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>301</v>
       </c>
@@ -7333,7 +7329,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>151</v>
       </c>
@@ -7553,7 +7549,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>266</v>
       </c>
@@ -7764,7 +7760,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>178</v>
       </c>
@@ -7966,7 +7962,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>659</v>
       </c>
@@ -8146,7 +8142,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>267</v>
       </c>
@@ -8330,7 +8326,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>520</v>
       </c>
@@ -8493,7 +8489,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>180</v>
       </c>
@@ -8665,7 +8661,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>648</v>
       </c>
@@ -8821,7 +8817,7 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>523</v>
       </c>
@@ -8982,7 +8978,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>525</v>
       </c>
@@ -9143,7 +9139,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>582</v>
       </c>
@@ -9299,7 +9295,7 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>585</v>
       </c>
@@ -9465,7 +9461,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>366</v>
       </c>
@@ -9671,7 +9667,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>588</v>
       </c>
@@ -9827,7 +9823,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>387</v>
       </c>
@@ -10041,7 +10037,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>275</v>
       </c>
@@ -10258,7 +10254,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>274</v>
       </c>
@@ -10460,7 +10456,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>591</v>
       </c>
@@ -10616,7 +10612,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>126</v>
       </c>
@@ -10785,7 +10781,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>731</v>
       </c>
@@ -10993,7 +10989,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -11171,7 +11167,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>153</v>
       </c>
@@ -11337,7 +11333,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>26</v>
       </c>
@@ -11542,7 +11538,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>156</v>
       </c>
@@ -11732,7 +11728,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -11946,9 +11942,9 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C47" t="s">
         <v>426</v>
@@ -11957,7 +11953,7 @@
         <v>431</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" ref="W47" si="59">IF(H47&gt;0,H47/100,"")</f>
@@ -12048,7 +12044,7 @@
         <v>295</v>
       </c>
       <c r="AT47" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AU47" t="s">
         <v>298</v>
@@ -12113,7 +12109,7 @@
         <v>[40.589825,-105.076497],</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>444</v>
       </c>
@@ -12315,7 +12311,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>445</v>
       </c>
@@ -12481,7 +12477,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>540</v>
       </c>
@@ -12680,7 +12676,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>661</v>
       </c>
@@ -12839,7 +12835,7 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>658</v>
       </c>
@@ -13001,7 +12997,7 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>656</v>
       </c>
@@ -13193,7 +13189,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>86</v>
       </c>
@@ -13359,7 +13355,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>68</v>
       </c>
@@ -13525,7 +13521,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>649</v>
       </c>
@@ -13717,7 +13713,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>159</v>
       </c>
@@ -13901,7 +13897,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>269</v>
       </c>
@@ -14100,7 +14096,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
         <v>367</v>
       </c>
@@ -14311,7 +14307,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>670</v>
       </c>
@@ -14470,7 +14466,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>446</v>
       </c>
@@ -14636,7 +14632,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>257</v>
       </c>
@@ -14802,7 +14798,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>98</v>
       </c>
@@ -15013,7 +15009,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>73</v>
       </c>
@@ -15179,7 +15175,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>749</v>
       </c>
@@ -15333,7 +15329,7 @@
         <v>[40.58976,-105.076497],</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>270</v>
       </c>
@@ -15547,7 +15543,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>278</v>
       </c>
@@ -15750,7 +15746,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>751</v>
       </c>
@@ -15901,7 +15897,7 @@
         <v>[40.551049,-105.05831],</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>530</v>
       </c>
@@ -16059,7 +16055,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>187</v>
       </c>
@@ -16265,7 +16261,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>189</v>
       </c>
@@ -16470,7 +16466,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>447</v>
       </c>
@@ -16636,7 +16632,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>191</v>
       </c>
@@ -16805,7 +16801,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>594</v>
       </c>
@@ -17012,7 +17008,7 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>532</v>
       </c>
@@ -17173,7 +17169,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>736</v>
       </c>
@@ -17377,7 +17373,7 @@
         <v>[40.47964,-104.90192],</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>280</v>
       </c>
@@ -17582,7 +17578,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>668</v>
       </c>
@@ -17741,7 +17737,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>379</v>
       </c>
@@ -17952,7 +17948,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>193</v>
       </c>
@@ -18124,7 +18120,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>46</v>
       </c>
@@ -18290,7 +18286,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>162</v>
       </c>
@@ -18504,7 +18500,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>448</v>
       </c>
@@ -18670,7 +18666,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>793</v>
       </c>
@@ -18683,78 +18679,78 @@
       <c r="G84" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="J84" t="s">
-        <v>795</v>
+      <c r="J84">
+        <v>1600</v>
       </c>
       <c r="K84">
         <v>1800</v>
       </c>
-      <c r="L84" t="s">
-        <v>795</v>
+      <c r="L84">
+        <v>1600</v>
       </c>
       <c r="M84">
         <v>1800</v>
       </c>
-      <c r="N84" t="s">
-        <v>795</v>
+      <c r="N84">
+        <v>1600</v>
       </c>
       <c r="O84">
         <v>1800</v>
       </c>
-      <c r="P84" t="s">
-        <v>795</v>
+      <c r="P84">
+        <v>1600</v>
       </c>
       <c r="Q84">
         <v>1800</v>
       </c>
-      <c r="R84" t="s">
-        <v>795</v>
+      <c r="R84">
+        <v>1600</v>
       </c>
       <c r="S84">
         <v>1800</v>
       </c>
       <c r="V84" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" ref="X84" si="121">IF(I84&gt;0,I84/100,"")</f>
         <v/>
       </c>
-      <c r="Y84" t="e">
+      <c r="Y84">
         <f t="shared" ref="Y84" si="122">IF(J84&gt;0,J84/100,"")</f>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="Z84">
         <f t="shared" ref="Z84" si="123">IF(K84&gt;0,K84/100,"")</f>
         <v>18</v>
       </c>
-      <c r="AA84" t="e">
+      <c r="AA84">
         <f t="shared" ref="AA84" si="124">IF(L84&gt;0,L84/100,"")</f>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="AB84">
         <f t="shared" ref="AB84" si="125">IF(M84&gt;0,M84/100,"")</f>
         <v>18</v>
       </c>
-      <c r="AC84" t="e">
+      <c r="AC84">
         <f t="shared" ref="AC84" si="126">IF(N84&gt;0,N84/100,"")</f>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="AD84">
         <f t="shared" ref="AD84" si="127">IF(O84&gt;0,O84/100,"")</f>
         <v>18</v>
       </c>
-      <c r="AE84" t="e">
+      <c r="AE84">
         <f t="shared" ref="AE84" si="128">IF(P84&gt;0,P84/100,"")</f>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="AF84">
         <f t="shared" ref="AF84" si="129">IF(Q84&gt;0,Q84/100,"")</f>
         <v>18</v>
       </c>
-      <c r="AG84" t="e">
+      <c r="AG84">
         <f t="shared" ref="AG84" si="130">IF(R84&gt;0,R84/100,"")</f>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="AH84">
         <f t="shared" ref="AH84" si="131">IF(S84&gt;0,S84/100,"")</f>
@@ -18772,25 +18768,25 @@
         <f t="shared" ref="AK84" si="134">IF(H84&gt;0,CONCATENATE(IF(W84&lt;=12,W84,W84-12),IF(OR(W84&lt;12,W84=24),"am","pm"),"-",IF(X84&lt;=12,X84,X84-12),IF(OR(X84&lt;12,X84=24),"am","pm")),"")</f>
         <v/>
       </c>
-      <c r="AL84" t="e">
+      <c r="AL84" t="str">
         <f t="shared" ref="AL84" si="135">IF(J84&gt;0,CONCATENATE(IF(Y84&lt;=12,Y84,Y84-12),IF(OR(Y84&lt;12,Y84=24),"am","pm"),"-",IF(Z84&lt;=12,Z84,Z84-12),IF(OR(Z84&lt;12,Z84=24),"am","pm")),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM84" t="e">
+        <v>4pm-6pm</v>
+      </c>
+      <c r="AM84" t="str">
         <f t="shared" ref="AM84" si="136">IF(L84&gt;0,CONCATENATE(IF(AA84&lt;=12,AA84,AA84-12),IF(OR(AA84&lt;12,AA84=24),"am","pm"),"-",IF(AB84&lt;=12,AB84,AB84-12),IF(OR(AB84&lt;12,AB84=24),"am","pm")),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN84" t="e">
+        <v>4pm-6pm</v>
+      </c>
+      <c r="AN84" t="str">
         <f t="shared" ref="AN84" si="137">IF(N84&gt;0,CONCATENATE(IF(AC84&lt;=12,AC84,AC84-12),IF(OR(AC84&lt;12,AC84=24),"am","pm"),"-",IF(AD84&lt;=12,AD84,AD84-12),IF(OR(AD84&lt;12,AD84=24),"am","pm")),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO84" t="e">
+        <v>4pm-6pm</v>
+      </c>
+      <c r="AO84" t="str">
         <f t="shared" ref="AO84" si="138">IF(P84&gt;0,CONCATENATE(IF(AE84&lt;=12,AE84,AE84-12),IF(OR(AE84&lt;12,AE84=24),"am","pm"),"-",IF(AF84&lt;=12,AF84,AF84-12),IF(OR(AF84&lt;12,AF84=24),"am","pm")),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP84" t="e">
+        <v>4pm-6pm</v>
+      </c>
+      <c r="AP84" t="str">
         <f t="shared" ref="AP84" si="139">IF(R84&gt;0,CONCATENATE(IF(AG84&lt;=12,AG84,AG84-12),IF(OR(AG84&lt;12,AG84=24),"am","pm"),"-",IF(AH84&lt;=12,AH84,AH84-12),IF(OR(AH84&lt;12,AH84=24),"am","pm")),"")</f>
-        <v>#VALUE!</v>
+        <v>4pm-6pm</v>
       </c>
       <c r="AQ84" t="str">
         <f t="shared" ref="AQ84" si="140">IF(T84&gt;0,CONCATENATE(IF(AI84&lt;=12,AI84,AI84-12),IF(OR(AI84&lt;12,AI84=24),"am","pm"),"-",IF(AJ84&lt;=12,AJ84,AJ84-12),IF(OR(AJ84&lt;12,AJ84=24),"am","pm")),"")</f>
@@ -18798,6 +18794,9 @@
       </c>
       <c r="AS84" t="s">
         <v>295</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>28</v>
       </c>
       <c r="AV84" s="3" t="s">
         <v>306</v>
@@ -18814,7 +18813,7 @@
         <v>{
     'name': "Infinite Monkey Theorem",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"!600", 'monday-end':"1800", 'tuesday-start':"!600", 'tuesday-end':"1800", 'wednesday-start':"!600", 'wednesday-end':"1800", 'thursday-start':"!600", 'thursday-end':"1800", 'friday-start':"!600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Glasses of Wine", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "234 N College Ave #3a, Fort Collins, CO 80524", 'other-amenities': ['outdoor','',''], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Glasses of Wine", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "234 N College Ave #3a, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY84" t="str">
         <f t="shared" ref="AY84" si="142">IF(AS84&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -18826,7 +18825,7 @@
       </c>
       <c r="BA84" t="str">
         <f t="shared" ref="BA84" si="144">IF(AU84="hard","&lt;img src=@img/hard.png@&gt;",IF(AU84="medium","&lt;img src=@img/medium.png@&gt;",IF(AU84="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
-        <v/>
+        <v>&lt;img src=@img/medium.png@&gt;</v>
       </c>
       <c r="BB84" t="str">
         <f t="shared" ref="BB84" si="145">IF(AV84="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
@@ -18838,11 +18837,11 @@
       </c>
       <c r="BD84" t="str">
         <f t="shared" ref="BD84" si="147">CONCATENATE(AY84,AZ84,BA84,BB84,BC84,BK84)</f>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE84" t="str">
         <f t="shared" ref="BE84" si="148">CONCATENATE(IF(AS84&gt;0,"outdoor ",""),IF(AT84&gt;0,"pet ",""),IF(AV84="true","drink ",""),IF(AW84="true","food ",""),AU84," ",E84," ",C84,IF(BJ84=TRUE," kid",""))</f>
-        <v>outdoor drink  med old</v>
+        <v>outdoor drink medium med old</v>
       </c>
       <c r="BF84" t="str">
         <f t="shared" ref="BF84" si="149">IF(C84="old","Old Town",IF(C84="campus","Near Campus",IF(C84="sfoco","South Foco",IF(C84="nfoco","North Foco",IF(C84="midtown","Midtown",IF(C84="cwest","Campus West",IF(C84="efoco","East FoCo",IF(C84="windsor","Windsor",""))))))))</f>
@@ -18863,7 +18862,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>195</v>
       </c>
@@ -19029,7 +19028,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>24</v>
       </c>
@@ -19246,7 +19245,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>669</v>
       </c>
@@ -19402,7 +19401,7 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>597</v>
       </c>
@@ -19606,7 +19605,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -19820,7 +19819,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>33</v>
       </c>
@@ -20034,7 +20033,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>115</v>
       </c>
@@ -20206,7 +20205,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>717</v>
       </c>
@@ -20312,7 +20311,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>131</v>
       </c>
@@ -20478,7 +20477,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>785</v>
       </c>
@@ -20672,7 +20671,7 @@
         <v>[40.5738693,-105.1169419],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>95</v>
       </c>
@@ -20838,7 +20837,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>546</v>
       </c>
@@ -21052,7 +21051,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>601</v>
       </c>
@@ -21253,7 +21252,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>376</v>
       </c>
@@ -21452,7 +21451,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>197</v>
       </c>
@@ -21666,7 +21665,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>605</v>
       </c>
@@ -21822,7 +21821,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>282</v>
       </c>
@@ -22037,7 +22036,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>608</v>
       </c>
@@ -22193,7 +22192,7 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>611</v>
       </c>
@@ -22346,7 +22345,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>371</v>
       </c>
@@ -22548,7 +22547,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>665</v>
       </c>
@@ -22707,7 +22706,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>164</v>
       </c>
@@ -22879,7 +22878,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>613</v>
       </c>
@@ -23035,7 +23034,7 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>559</v>
       </c>
@@ -23242,7 +23241,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>62</v>
       </c>
@@ -23408,7 +23407,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>198</v>
       </c>
@@ -23574,7 +23573,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>394</v>
       </c>
@@ -23749,7 +23748,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>657</v>
       </c>
@@ -23957,7 +23956,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>121</v>
       </c>
@@ -24171,7 +24170,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>166</v>
       </c>
@@ -24382,7 +24381,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>200</v>
       </c>
@@ -24554,7 +24553,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>168</v>
       </c>
@@ -24762,7 +24761,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>655</v>
       </c>
@@ -24921,7 +24920,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>123</v>
       </c>
@@ -25087,7 +25086,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>653</v>
       </c>
@@ -25246,7 +25245,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>202</v>
       </c>
@@ -25418,7 +25417,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>143</v>
       </c>
@@ -25584,7 +25583,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>449</v>
       </c>
@@ -25750,7 +25749,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>753</v>
       </c>
@@ -25901,7 +25900,7 @@
         <v>[40.527959,-105.077616],</v>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>616</v>
       </c>
@@ -26105,7 +26104,7 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>620</v>
       </c>
@@ -26306,7 +26305,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>89</v>
       </c>
@@ -26520,7 +26519,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>574</v>
       </c>
@@ -26715,7 +26714,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>204</v>
       </c>
@@ -26926,7 +26925,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>206</v>
       </c>
@@ -27122,7 +27121,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>450</v>
       </c>
@@ -27288,7 +27287,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>654</v>
       </c>
@@ -27447,7 +27446,7 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>650</v>
       </c>
@@ -27613,7 +27612,7 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>208</v>
       </c>
@@ -27812,7 +27811,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>743</v>
       </c>
@@ -28016,7 +28015,7 @@
         <v>[40.52369,-105.03435],</v>
       </c>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>662</v>
       </c>
@@ -28175,7 +28174,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>170</v>
       </c>
@@ -28380,7 +28379,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>43</v>
       </c>
@@ -28579,7 +28578,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>210</v>
       </c>
@@ -28793,7 +28792,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>59</v>
       </c>
@@ -28959,7 +28958,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>451</v>
       </c>
@@ -29125,7 +29124,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>663</v>
       </c>
@@ -29281,7 +29280,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>213</v>
       </c>
@@ -29447,7 +29446,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>478</v>
       </c>
@@ -29613,7 +29612,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>651</v>
       </c>
@@ -29817,7 +29816,7 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>752</v>
       </c>
@@ -29971,7 +29970,7 @@
         <v>[40.563256,-105.077464],</v>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>397</v>
       </c>
@@ -30137,7 +30136,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>378</v>
       </c>
@@ -30345,7 +30344,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>652</v>
       </c>
@@ -30534,7 +30533,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>216</v>
       </c>
@@ -30745,7 +30744,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>285</v>
       </c>
@@ -30956,7 +30955,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>103</v>
       </c>
@@ -31161,7 +31160,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>137</v>
       </c>
@@ -31333,7 +31332,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>118</v>
       </c>
@@ -31499,7 +31498,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>623</v>
       </c>
@@ -31655,7 +31654,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>40</v>
       </c>
@@ -31830,7 +31829,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>37</v>
       </c>
@@ -32041,7 +32040,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>664</v>
       </c>
@@ -32194,7 +32193,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>375</v>
       </c>
@@ -32360,7 +32359,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>536</v>
       </c>
@@ -32565,7 +32564,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>666</v>
       </c>
@@ -32724,7 +32723,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>112</v>
       </c>
@@ -32920,7 +32919,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>542</v>
       </c>
@@ -33122,7 +33121,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>80</v>
       </c>
@@ -33295,7 +33294,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>667</v>
       </c>
@@ -33463,7 +33462,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>452</v>
       </c>
@@ -33629,7 +33628,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>100</v>
       </c>
@@ -33795,7 +33794,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>626</v>
       </c>
@@ -33948,7 +33947,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>83</v>
       </c>
@@ -34117,7 +34116,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>218</v>
       </c>
@@ -34316,7 +34315,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>628</v>
       </c>
@@ -34496,7 +34495,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>173</v>
       </c>
@@ -34695,7 +34694,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>571</v>
       </c>
@@ -34860,7 +34859,7 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>754</v>
       </c>
@@ -35011,7 +35010,7 @@
         <v>[40.586451,-105.078568],</v>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>699</v>
       </c>
@@ -35212,7 +35211,7 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>631</v>
       </c>
@@ -35368,7 +35367,7 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>564</v>
       </c>
@@ -35530,7 +35529,7 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="177" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>634</v>
       </c>
@@ -35689,7 +35688,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="178" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>453</v>
       </c>
@@ -35855,7 +35854,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="179" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>220</v>
       </c>
@@ -36069,7 +36068,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>380</v>
       </c>
@@ -36271,7 +36270,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>223</v>
       </c>
@@ -36437,7 +36436,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>553</v>
       </c>
@@ -36633,7 +36632,7 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="183" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>636</v>
       </c>
@@ -36786,7 +36785,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="184" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>287</v>
       </c>
@@ -36997,7 +36996,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>401</v>
       </c>
@@ -37166,7 +37165,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>750</v>
       </c>
@@ -37317,7 +37316,7 @@
         <v>[40.523973,-105.025125],</v>
       </c>
     </row>
-    <row r="187" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>748</v>
       </c>
@@ -37471,7 +37470,7 @@
         <v>[40.589425,-105.076553],</v>
       </c>
     </row>
-    <row r="188" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>638</v>
       </c>
@@ -37627,7 +37626,7 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="189" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>660</v>
       </c>
@@ -37780,7 +37779,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="190" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>128</v>
       </c>
@@ -37952,7 +37951,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>550</v>
       </c>
@@ -38117,7 +38116,7 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="192" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>641</v>
       </c>
@@ -38286,7 +38285,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>225</v>
       </c>
@@ -38444,7 +38443,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>49</v>
       </c>
@@ -38602,7 +38601,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>645</v>
       </c>
@@ -38757,7 +38756,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="196" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>227</v>
       </c>
@@ -38937,77 +38936,77 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C191" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BL197">
+  <autoFilter ref="C2:C191"/>
+  <sortState ref="B2:BL197">
     <sortCondition ref="B2:B197"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G136" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AR42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AR99" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AR115" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AR55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AR64" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AR46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AR163" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AR54" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AR126" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AR95" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AR63" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AR166" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR151" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AR161" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AR91" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AR153" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AR113" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AR190" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR93" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AR86" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AR43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AR57" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AR82" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AR106" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AR114" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AR116" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="AR136" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AR16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="AR24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AR62" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR80" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AR85" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AR110" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AR128" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR138" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AR142" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AR149" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AR169" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR181" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR196" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR23" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AR58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="AR66" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AR67" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AR77" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AR101" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AR150" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="AR184" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR48" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR174" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AR172" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G136" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
+    <hyperlink ref="AR42" r:id="rId2"/>
+    <hyperlink ref="AR99" r:id="rId3"/>
+    <hyperlink ref="AR28" r:id="rId4"/>
+    <hyperlink ref="AR115" r:id="rId5"/>
+    <hyperlink ref="AR20" r:id="rId6"/>
+    <hyperlink ref="AR8" r:id="rId7"/>
+    <hyperlink ref="AR55" r:id="rId8"/>
+    <hyperlink ref="AR34" r:id="rId9"/>
+    <hyperlink ref="AR64" r:id="rId10"/>
+    <hyperlink ref="AR46" r:id="rId11"/>
+    <hyperlink ref="AR163" r:id="rId12"/>
+    <hyperlink ref="AR54" r:id="rId13"/>
+    <hyperlink ref="AR126" r:id="rId14"/>
+    <hyperlink ref="AR95" r:id="rId15"/>
+    <hyperlink ref="AR63" r:id="rId16"/>
+    <hyperlink ref="AR166" r:id="rId17"/>
+    <hyperlink ref="AR151" r:id="rId18"/>
+    <hyperlink ref="AR19" r:id="rId19"/>
+    <hyperlink ref="AR10" r:id="rId20"/>
+    <hyperlink ref="AR161" r:id="rId21"/>
+    <hyperlink ref="AR91" r:id="rId22"/>
+    <hyperlink ref="AR153" r:id="rId23"/>
+    <hyperlink ref="AR113" r:id="rId24"/>
+    <hyperlink ref="AR190" r:id="rId25"/>
+    <hyperlink ref="AR93" r:id="rId26"/>
+    <hyperlink ref="AR15" r:id="rId27"/>
+    <hyperlink ref="AR86" r:id="rId28"/>
+    <hyperlink ref="AR5" r:id="rId29"/>
+    <hyperlink ref="AR7" r:id="rId30"/>
+    <hyperlink ref="AR43" r:id="rId31"/>
+    <hyperlink ref="AR45" r:id="rId32"/>
+    <hyperlink ref="AR57" r:id="rId33"/>
+    <hyperlink ref="AR82" r:id="rId34"/>
+    <hyperlink ref="AR106" r:id="rId35"/>
+    <hyperlink ref="AR114" r:id="rId36"/>
+    <hyperlink ref="AR116" r:id="rId37"/>
+    <hyperlink ref="AR136" r:id="rId38"/>
+    <hyperlink ref="AR16" r:id="rId39"/>
+    <hyperlink ref="AR24" r:id="rId40"/>
+    <hyperlink ref="AR62" r:id="rId41"/>
+    <hyperlink ref="AR80" r:id="rId42"/>
+    <hyperlink ref="AR85" r:id="rId43"/>
+    <hyperlink ref="AR110" r:id="rId44"/>
+    <hyperlink ref="AR128" r:id="rId45"/>
+    <hyperlink ref="AR138" r:id="rId46"/>
+    <hyperlink ref="AR142" r:id="rId47"/>
+    <hyperlink ref="AR149" r:id="rId48"/>
+    <hyperlink ref="AR169" r:id="rId49"/>
+    <hyperlink ref="AR181" r:id="rId50"/>
+    <hyperlink ref="AR196" r:id="rId51"/>
+    <hyperlink ref="AR23" r:id="rId52"/>
+    <hyperlink ref="AR58" r:id="rId53"/>
+    <hyperlink ref="AR66" r:id="rId54"/>
+    <hyperlink ref="AR67" r:id="rId55"/>
+    <hyperlink ref="AR77" r:id="rId56"/>
+    <hyperlink ref="AR101" r:id="rId57"/>
+    <hyperlink ref="AR150" r:id="rId58"/>
+    <hyperlink ref="AR184" r:id="rId59"/>
+    <hyperlink ref="AR59" r:id="rId60"/>
+    <hyperlink ref="AR79" r:id="rId61"/>
+    <hyperlink ref="AR48" r:id="rId62"/>
+    <hyperlink ref="AR9" r:id="rId63"/>
+    <hyperlink ref="AR174" r:id="rId64"/>
+    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
+    <hyperlink ref="AR172" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -39015,19 +39014,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>769</v>
       </c>
@@ -39044,7 +39043,7 @@
         <v>-105.076553</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>772</v>
       </c>
@@ -39061,7 +39060,7 @@
         <v>-105.076497</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>773</v>
       </c>
@@ -39078,7 +39077,7 @@
         <v>-105.025125</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>775</v>
       </c>
@@ -39095,7 +39094,7 @@
         <v>-105.05831000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>777</v>
       </c>
@@ -39112,7 +39111,7 @@
         <v>-105.07746400000001</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>778</v>
       </c>
@@ -39129,7 +39128,7 @@
         <v>-105.07761600000001</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>779</v>
       </c>
@@ -39155,14 +39154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="800">
   <si>
     <t>Name</t>
   </si>
@@ -2431,6 +2431,9 @@
   </si>
   <si>
     <t>pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ride Your Bike For $1 Off All Draft Beer&lt;br&gt;2 Live Music Stages - Indoor And Outdoor&lt;br&gt;Happy Hour 2-7pm - Monday - Friday&lt;br&gt;Open Mic Every Wednesday Night </t>
   </si>
 </sst>
 </file>
@@ -3392,10 +3395,10 @@
   <dimension ref="B1:BL196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AE74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AE140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AU85" sqref="AU85"/>
+      <selection pane="bottomRight" activeCell="AV161" sqref="AV161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32577,6 +32580,39 @@
       <c r="G160" t="s">
         <v>694</v>
       </c>
+      <c r="J160">
+        <v>1400</v>
+      </c>
+      <c r="K160">
+        <v>1900</v>
+      </c>
+      <c r="L160">
+        <v>1400</v>
+      </c>
+      <c r="M160">
+        <v>1900</v>
+      </c>
+      <c r="N160">
+        <v>1400</v>
+      </c>
+      <c r="O160">
+        <v>1900</v>
+      </c>
+      <c r="P160">
+        <v>1400</v>
+      </c>
+      <c r="Q160">
+        <v>1900</v>
+      </c>
+      <c r="R160">
+        <v>1400</v>
+      </c>
+      <c r="S160">
+        <v>1900</v>
+      </c>
+      <c r="V160" s="4" t="s">
+        <v>799</v>
+      </c>
       <c r="W160" t="str">
         <f t="shared" si="232"/>
         <v/>
@@ -32585,45 +32621,45 @@
         <f t="shared" si="233"/>
         <v/>
       </c>
-      <c r="Y160" t="str">
+      <c r="Y160">
         <f t="shared" si="234"/>
-        <v/>
-      </c>
-      <c r="Z160" t="str">
+        <v>14</v>
+      </c>
+      <c r="Z160">
         <f t="shared" si="235"/>
-        <v/>
-      </c>
-      <c r="AA160" t="str">
+        <v>19</v>
+      </c>
+      <c r="AA160">
         <f t="shared" si="236"/>
-        <v/>
-      </c>
-      <c r="AB160" t="str">
+        <v>14</v>
+      </c>
+      <c r="AB160">
         <f t="shared" si="237"/>
-        <v/>
-      </c>
-      <c r="AC160" t="str">
+        <v>19</v>
+      </c>
+      <c r="AC160">
         <f t="shared" si="238"/>
-        <v/>
-      </c>
-      <c r="AD160" t="str">
+        <v>14</v>
+      </c>
+      <c r="AD160">
         <f t="shared" si="239"/>
-        <v/>
-      </c>
-      <c r="AE160" t="str">
+        <v>19</v>
+      </c>
+      <c r="AE160">
         <f t="shared" si="230"/>
-        <v/>
-      </c>
-      <c r="AF160" t="str">
+        <v>14</v>
+      </c>
+      <c r="AF160">
         <f t="shared" si="231"/>
-        <v/>
-      </c>
-      <c r="AG160" t="str">
+        <v>19</v>
+      </c>
+      <c r="AG160">
         <f t="shared" si="240"/>
-        <v/>
-      </c>
-      <c r="AH160" t="str">
+        <v>14</v>
+      </c>
+      <c r="AH160">
         <f t="shared" si="241"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="AI160" t="str">
         <f t="shared" si="242"/>
@@ -32639,23 +32675,23 @@
       </c>
       <c r="AL160" t="str">
         <f t="shared" si="223"/>
-        <v/>
+        <v>2pm-7pm</v>
       </c>
       <c r="AM160" t="str">
         <f t="shared" si="224"/>
-        <v/>
+        <v>2pm-7pm</v>
       </c>
       <c r="AN160" t="str">
         <f t="shared" si="225"/>
-        <v/>
+        <v>2pm-7pm</v>
       </c>
       <c r="AO160" t="str">
         <f t="shared" si="226"/>
-        <v/>
+        <v>2pm-7pm</v>
       </c>
       <c r="AP160" t="str">
         <f t="shared" si="227"/>
-        <v/>
+        <v>2pm-7pm</v>
       </c>
       <c r="AQ160" t="str">
         <f t="shared" si="228"/>
@@ -32668,7 +32704,7 @@
         <v>28</v>
       </c>
       <c r="AV160" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AW160" s="3" t="s">
         <v>307</v>
@@ -32678,7 +32714,7 @@
         <v>{
     'name': "Swing Station",
     'area': "nfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "3311 Co Road 54G Laporte CO", 'other-amenities': ['outdoor','','medium'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1900", 'tuesday-start':"1400", 'tuesday-end':"1900", 'wednesday-start':"1400", 'wednesday-end':"1900", 'thursday-start':"1400", 'thursday-end':"1900", 'friday-start':"1400", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Ride Your Bike For $1 Off All Draft Beer&lt;br&gt;2 Live Music Stages - Indoor And Outdoor&lt;br&gt;Happy Hour 2-7pm - Monday - Friday&lt;br&gt;Open Mic Every Wednesday Night ", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "3311 Co Road 54G Laporte CO", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY160" t="str">
         <f t="shared" si="213"/>
@@ -32694,7 +32730,7 @@
       </c>
       <c r="BB160" t="str">
         <f t="shared" si="216"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC160" t="str">
         <f t="shared" si="217"/>
@@ -32702,11 +32738,11 @@
       </c>
       <c r="BD160" t="str">
         <f t="shared" si="218"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE160" t="str">
         <f t="shared" si="219"/>
-        <v>outdoor medium low nfoco</v>
+        <v>outdoor drink medium low nfoco</v>
       </c>
       <c r="BF160" t="str">
         <f t="shared" si="220"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="800">
   <si>
     <t>Name</t>
   </si>
@@ -3395,10 +3395,10 @@
   <dimension ref="B1:BL196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AE140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AE162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AV161" sqref="AV161"/>
+      <selection pane="bottomRight" activeCell="AW1" sqref="AW1:AW1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3730,11 +3730,11 @@
       <c r="AU2" t="s">
         <v>299</v>
       </c>
-      <c r="AV2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="b">
-        <v>1</v>
+      <c r="AV2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX2" s="4" t="str">
         <f t="shared" ref="AX2:AX33" si="15">CONCATENATE("{
@@ -3745,7 +3745,7 @@
         <v>{
     'name': "3 Margaritas",
     'area': "sfoco",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"https://www.3margaritasfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "4010 S College Ave Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"https://www.3margaritasfortcollins.com/", 'pricing':"med",   'phone-number': "", 'address': "4010 S College Ave Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY2" t="str">
         <f t="shared" ref="AY2:AY33" si="16">IF(AS2&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -3761,19 +3761,19 @@
       </c>
       <c r="BB2" t="str">
         <f t="shared" ref="BB2:BB33" si="19">IF(AV2="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC2" t="str">
         <f t="shared" ref="BC2:BC33" si="20">IF(AW2="true","&lt;img src=@img/foodicon.png@&gt;","")</f>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD2" t="str">
         <f t="shared" ref="BD2:BD33" si="21">CONCATENATE(AY2,AZ2,BA2,BB2,BC2,BK2)</f>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
+        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BE2" t="str">
         <f t="shared" ref="BE2:BE33" si="22">CONCATENATE(IF(AS2&gt;0,"outdoor ",""),IF(AT2&gt;0,"pet ",""),IF(AV2="true","drink ",""),IF(AW2="true","food ",""),AU2," ",E2," ",C2,IF(BJ2=TRUE," kid",""))</f>
-        <v>easy med sfoco kid</v>
+        <v>drink food easy med sfoco kid</v>
       </c>
       <c r="BF2" t="str">
         <f t="shared" ref="BF2:BF33" si="23">IF(C2="old","Old Town",IF(C2="campus","Near Campus",IF(C2="sfoco","South Foco",IF(C2="nfoco","North Foco",IF(C2="midtown","Midtown",IF(C2="cwest","Campus West",IF(C2="efoco","East FoCo",IF(C2="windsor","Windsor",""))))))))</f>
@@ -6480,18 +6480,18 @@
       <c r="AU17" t="s">
         <v>299</v>
       </c>
-      <c r="AV17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="b">
-        <v>0</v>
+      <c r="AV17" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW17" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX17" s="4" t="str">
         <f t="shared" si="15"/>
         <v>{
     'name': "Bawarchi Biryanis",
     'area': "campus",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$4 Queso with chips ", 'link':"https://www.bawarchifortcollins.com", 'pricing':"",   'phone-number': "", 'address': "1611 S College Ave #100, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$4 Queso with chips ", 'link':"https://www.bawarchifortcollins.com", 'pricing':"",   'phone-number': "", 'address': "1611 S College Ave #100, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY17" t="str">
         <f t="shared" si="16"/>
@@ -9242,18 +9242,18 @@
       <c r="AU32" t="s">
         <v>299</v>
       </c>
-      <c r="AV32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="b">
-        <v>0</v>
+      <c r="AV32" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW32" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX32" s="4" t="str">
         <f t="shared" si="15"/>
         <v>{
     'name': "Cafe de Bangkok",
     'area': "cwest",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.allmenus.com/co/fort-collins/389523-cafe-de-bangkok/menu/", 'pricing':"",   'phone-number': "", 'address': "1232 W Elizabeth St C-7, Fort Collins, CO 80521", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.allmenus.com/co/fort-collins/389523-cafe-de-bangkok/menu/", 'pricing':"",   'phone-number': "", 'address': "1232 W Elizabeth St C-7, Fort Collins, CO 80521", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY32" t="str">
         <f t="shared" si="16"/>
@@ -9398,18 +9398,18 @@
       <c r="AU33" t="s">
         <v>299</v>
       </c>
-      <c r="AV33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="b">
-        <v>0</v>
+      <c r="AV33" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW33" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX33" s="4" t="str">
         <f t="shared" si="15"/>
         <v>{
     'name': "Cafe Mexicali",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.cafemexicali.com/", 'pricing':"",   'phone-number': "", 'address': "2925 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.cafemexicali.com/", 'pricing':"",   'phone-number': "", 'address': "2925 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY33" t="str">
         <f t="shared" si="16"/>
@@ -9770,18 +9770,18 @@
       <c r="AU35" t="s">
         <v>28</v>
       </c>
-      <c r="AV35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW35" t="b">
-        <v>0</v>
+      <c r="AV35" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW35" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX35" s="4" t="str">
         <f t="shared" si="48"/>
         <v>{
     'name': "Caninos",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.caninositalianrestaurant.com/", 'pricing':"",   'phone-number': "", 'address': "613 S College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.caninositalianrestaurant.com/", 'pricing':"",   'phone-number': "", 'address': "613 S College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY35" t="str">
         <f t="shared" si="49"/>
@@ -10559,18 +10559,18 @@
       <c r="AU39" t="s">
         <v>299</v>
       </c>
-      <c r="AV39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="b">
-        <v>0</v>
+      <c r="AV39" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW39" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX39" s="4" t="str">
         <f t="shared" si="48"/>
         <v>{
     'name': "Charco Broiler",
     'area': "nfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.charcobroiler.com", 'pricing':"",   'phone-number': "", 'address': "1716 E Mulberry St, Fort Collins, CO 80524", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.charcobroiler.com", 'pricing':"",   'phone-number': "", 'address': "1716 E Mulberry St, Fort Collins, CO 80524", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY39" t="str">
         <f t="shared" si="49"/>
@@ -12248,18 +12248,18 @@
       <c r="AU48" t="s">
         <v>28</v>
       </c>
-      <c r="AV48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW48" t="b">
-        <v>1</v>
+      <c r="AV48" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW48" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX48" s="4" t="str">
         <f t="shared" si="48"/>
         <v>{
     'name': "DC Oaks",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 select brews &lt;br&gt; $4 wells &lt;br&gt; $5 house wines", 'link':"https://www.dcoakesbrewhouse.com/", 'pricing':"med",   'phone-number': "", 'address': "3581 E. Harmony Road Fort Collins CO", 'other-amenities': ['','','medium'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 select brews &lt;br&gt; $4 wells &lt;br&gt; $5 house wines", 'link':"https://www.dcoakesbrewhouse.com/", 'pricing':"med",   'phone-number': "", 'address': "3581 E. Harmony Road Fort Collins CO", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY48" t="str">
         <f t="shared" si="49"/>
@@ -12275,19 +12275,19 @@
       </c>
       <c r="BB48" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC48" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD48" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;img src=@img/medium.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
+        <v>&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BE48" t="str">
         <f t="shared" si="55"/>
-        <v>medium med sfoco kid</v>
+        <v>drink food medium med sfoco kid</v>
       </c>
       <c r="BF48" t="str">
         <f t="shared" si="56"/>
@@ -12414,18 +12414,18 @@
       <c r="AU49" t="s">
         <v>299</v>
       </c>
-      <c r="AV49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW49" t="b">
-        <v>0</v>
+      <c r="AV49" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW49" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX49" s="4" t="str">
         <f t="shared" si="48"/>
         <v>{
     'name': "Dickies BBQ",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2721 S. College Ave. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2721 S. College Ave. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY49" t="str">
         <f t="shared" si="49"/>
@@ -14569,18 +14569,18 @@
       <c r="AU61" t="s">
         <v>299</v>
       </c>
-      <c r="AV61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW61" t="b">
-        <v>0</v>
+      <c r="AV61" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW61" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX61" s="4" t="str">
         <f t="shared" si="48"/>
         <v>{
     'name': "Famous Dave's BBQ",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2880 E. Harmony Road Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2880 E. Harmony Road Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY61" t="str">
         <f t="shared" si="49"/>
@@ -15844,18 +15844,18 @@
       <c r="AU68" t="s">
         <v>299</v>
       </c>
-      <c r="AV68" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW68" t="b">
-        <v>0</v>
+      <c r="AV68" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW68" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX68" s="4" t="str">
         <f t="shared" si="101"/>
         <v>{
     'name': "Friendly Nicks Butcher",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.fnbutcher.com/", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave #4, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.fnbutcher.com/", 'pricing':"med",   'phone-number': "", 'address': "2601 S Lemay Ave #4, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY68" t="str">
         <f t="shared" si="102"/>
@@ -16569,18 +16569,18 @@
       <c r="AU72" t="s">
         <v>299</v>
       </c>
-      <c r="AV72" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW72" t="b">
-        <v>0</v>
+      <c r="AV72" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW72" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX72" s="4" t="str">
         <f t="shared" si="101"/>
         <v>{
     'name': "Garlic Knot",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "2601 S. Lemay Ave Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "2601 S. Lemay Ave Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY72" t="str">
         <f t="shared" si="102"/>
@@ -16958,15 +16958,15 @@
       <c r="AV74" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AW74" t="b">
-        <v>0</v>
+      <c r="AW74" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX74" s="4" t="str">
         <f t="shared" si="101"/>
         <v>{
     'name': "Ginger and Baker",
     'area': "old",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "All sorts of great happy hour small plates!&lt;br&gt;Draught beers at $4/glass&lt;br&gt;Select wines at $5/glass&lt;br&gt;House cocktails at $6/glass&lt;br&gt;Private parking lot! Makes parking a snap!", 'link':"ttps://gingerandbaker.com", 'pricing':"med",   'phone-number': "", 'address': "359 Linden St, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':FALSE},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "All sorts of great happy hour small plates!&lt;br&gt;Draught beers at $4/glass&lt;br&gt;Select wines at $5/glass&lt;br&gt;House cocktails at $6/glass&lt;br&gt;Private parking lot! Makes parking a snap!", 'link':"ttps://gingerandbaker.com", 'pricing':"med",   'phone-number': "", 'address': "359 Linden St, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY74" t="str">
         <f t="shared" si="102"/>
@@ -18606,15 +18606,15 @@
       <c r="AV83" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AW83" t="b">
-        <v>0</v>
+      <c r="AW83" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX83" s="4" t="str">
         <f t="shared" si="101"/>
         <v>{
     'name': "Inca",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "2413 South College Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "2413 South College Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY83" t="str">
         <f t="shared" si="102"/>
@@ -19552,18 +19552,18 @@
       <c r="AU88" t="s">
         <v>28</v>
       </c>
-      <c r="AV88" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW88" t="b">
-        <v>1</v>
+      <c r="AV88" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW88" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX88" s="4" t="str">
         <f t="shared" si="101"/>
         <v>{
     'name': "JAWS Sushi",
     'area': "cwest",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1300", 'monday-start':"1100", 'monday-end':"1300", 'tuesday-start':"1100", 'tuesday-end':"1300", 'wednesday-start':"1100", 'wednesday-end':"1300", 'thursday-start':"1100", 'thursday-end':"1300", 'friday-start':"1100", 'friday-end':"1300", 'saturday-start':"1100", 'saturday-end':"1300"},  'description': "$4 large hot sakes &lt;br&gt; $3 Domestic Drafts &lt;br&gt; Daily Lunch Specials", 'link':"https://www.facebook.com/jawsfoco/", 'pricing':"",   'phone-number': "", 'address': "1205 W Elizabeth St, Fort Collins, CO 80521", 'other-amenities': ['outdoor','','medium'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"1100", 'sunday-end':"1300", 'monday-start':"1100", 'monday-end':"1300", 'tuesday-start':"1100", 'tuesday-end':"1300", 'wednesday-start':"1100", 'wednesday-end':"1300", 'thursday-start':"1100", 'thursday-end':"1300", 'friday-start':"1100", 'friday-end':"1300", 'saturday-start':"1100", 'saturday-end':"1300"},  'description': "$4 large hot sakes &lt;br&gt; $3 Domestic Drafts &lt;br&gt; Daily Lunch Specials", 'link':"https://www.facebook.com/jawsfoco/", 'pricing':"",   'phone-number': "", 'address': "1205 W Elizabeth St, Fort Collins, CO 80521", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY88" t="str">
         <f t="shared" si="102"/>
@@ -19579,19 +19579,19 @@
       </c>
       <c r="BB88" t="str">
         <f t="shared" si="105"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC88" t="str">
         <f t="shared" si="106"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD88" t="str">
         <f t="shared" si="107"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE88" t="str">
         <f t="shared" si="108"/>
-        <v>outdoor medium  cwest</v>
+        <v>outdoor drink food medium  cwest</v>
       </c>
       <c r="BF88" t="str">
         <f t="shared" si="109"/>
@@ -21199,18 +21199,18 @@
       <c r="AU97" t="s">
         <v>28</v>
       </c>
-      <c r="AV97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW97" t="b">
-        <v>1</v>
+      <c r="AV97" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW97" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX97" s="4" t="str">
         <f t="shared" si="101"/>
         <v>{
     'name': "Locality Kitchen and Bar",
     'area': "sfoco",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 Colorado Drafts &lt;br&gt; $2-4 Wine by the Glass &lt;br&gt; $5 Sangria &lt;br&gt; Wide range of appetizers", 'link':"localityfoco.com/", 'pricing':"",   'phone-number': "", 'address': "2350 E Harmony Rd #1, Fort Collins, CO 80528", 'other-amenities': ['','','medium'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 Colorado Drafts &lt;br&gt; $2-4 Wine by the Glass &lt;br&gt; $5 Sangria &lt;br&gt; Wide range of appetizers", 'link':"localityfoco.com/", 'pricing':"",   'phone-number': "", 'address': "2350 E Harmony Rd #1, Fort Collins, CO 80528", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY97" t="str">
         <f t="shared" si="102"/>
@@ -21226,19 +21226,19 @@
       </c>
       <c r="BB97" t="str">
         <f t="shared" si="105"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC97" t="str">
         <f t="shared" si="106"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD97" t="str">
         <f t="shared" si="107"/>
-        <v>&lt;img src=@img/medium.png@&gt;</v>
+        <v>&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE97" t="str">
         <f t="shared" si="108"/>
-        <v>medium  sfoco</v>
+        <v>drink food medium  sfoco</v>
       </c>
       <c r="BF97" t="str">
         <f t="shared" si="109"/>
@@ -21768,18 +21768,18 @@
       <c r="AU100" t="s">
         <v>28</v>
       </c>
-      <c r="AV100" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW100" t="b">
-        <v>0</v>
+      <c r="AV100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW100" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX100" s="4" t="str">
         <f t="shared" si="101"/>
         <v>{
     'name': "Lost Cajun",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://thelostcajun.com/locations/fort-collins-colorado", 'pricing':"",   'phone-number': "", 'address': "331 S Meldrum St #100, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://thelostcajun.com/locations/fort-collins-colorado", 'pricing':"",   'phone-number': "", 'address': "331 S Meldrum St #100, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY100" t="str">
         <f t="shared" si="102"/>
@@ -22139,18 +22139,18 @@
       <c r="AU102" t="s">
         <v>298</v>
       </c>
-      <c r="AV102" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW102" t="b">
-        <v>0</v>
+      <c r="AV102" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW102" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX102" s="4" t="str">
         <f t="shared" si="188"/>
         <v>{
     'name': "LuLu Asian Bistro",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.lulufc.com/", 'pricing':"",   'phone-number': "", 'address': "117 S College Ave, Fort Collins, CO 80521", 'other-amenities': ['','','hard'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.lulufc.com/", 'pricing':"",   'phone-number': "", 'address': "117 S College Ave, Fort Collins, CO 80521", 'other-amenities': ['','','hard'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY102" t="str">
         <f t="shared" si="189"/>
@@ -22292,18 +22292,18 @@
       <c r="AU103" t="s">
         <v>28</v>
       </c>
-      <c r="AV103" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW103" t="b">
-        <v>0</v>
+      <c r="AV103" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW103" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX103" s="4" t="str">
         <f t="shared" si="188"/>
         <v>{
     'name': "Lupitas Mexican Restaurant",
     'area': "cwest",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1720 W Mulberry St, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1720 W Mulberry St, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY103" t="str">
         <f t="shared" si="189"/>
@@ -22981,18 +22981,18 @@
       <c r="AU107" t="s">
         <v>299</v>
       </c>
-      <c r="AV107" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW107" t="b">
-        <v>0</v>
+      <c r="AV107" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW107" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX107" s="4" t="str">
         <f t="shared" si="188"/>
         <v>{
     'name': "Maza Kabob",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.mazakabob.com/", 'pricing':"",   'phone-number': "", 'address': "2427 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.mazakabob.com/", 'pricing':"",   'phone-number': "", 'address': "2427 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY107" t="str">
         <f t="shared" si="189"/>
@@ -25686,18 +25686,18 @@
       <c r="AU122" t="s">
         <v>299</v>
       </c>
-      <c r="AV122" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW122" t="b">
-        <v>0</v>
+      <c r="AV122" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW122" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX122" s="4" t="str">
         <f t="shared" si="188"/>
         <v>{
     'name': "Old Chicago Timberline",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "4709 S. Timberline Rd. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "4709 S. Timberline Rd. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY122" t="str">
         <f t="shared" si="189"/>
@@ -25847,18 +25847,18 @@
       <c r="AU123" t="s">
         <v>299</v>
       </c>
-      <c r="AV123" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW123" t="b">
-        <v>0</v>
+      <c r="AV123" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW123" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX123" s="4" t="str">
         <f t="shared" si="188"/>
         <v>{
     'name': "Oreganos",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://oreganos.com/locations/fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "4235 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://oreganos.com/locations/fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "4235 S College Ave, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY123" t="str">
         <f t="shared" si="189"/>
@@ -26051,18 +26051,18 @@
       <c r="AU124" t="s">
         <v>299</v>
       </c>
-      <c r="AV124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW124" t="b">
-        <v>1</v>
+      <c r="AV124" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW124" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX124" s="4" t="str">
         <f t="shared" si="188"/>
         <v>{
     'name': "otto PINT",
     'area': "sfoco",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$5 Margs &lt;br&gt; $5 Ottom Press &lt;br&gt; $5 Taster Tray &lt;br&gt; $5 bar bites including stuffed pretzels, olive bowls, and pepper teaser tray", 'link':"www.ottopint.com/", 'pricing':"",   'phone-number': "", 'address': "1100 Oakridge Dr, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$5 Margs &lt;br&gt; $5 Ottom Press &lt;br&gt; $5 Taster Tray &lt;br&gt; $5 bar bites including stuffed pretzels, olive bowls, and pepper teaser tray", 'link':"www.ottopint.com/", 'pricing':"",   'phone-number': "", 'address': "1100 Oakridge Dr, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY124" t="str">
         <f t="shared" si="189"/>
@@ -26078,19 +26078,19 @@
       </c>
       <c r="BB124" t="str">
         <f t="shared" si="192"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC124" t="str">
         <f t="shared" si="193"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD124" t="str">
         <f t="shared" si="194"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE124" t="str">
         <f t="shared" si="195"/>
-        <v>outdoor easy  sfoco</v>
+        <v>outdoor drink food easy  sfoco</v>
       </c>
       <c r="BF124" t="str">
         <f t="shared" si="196"/>
@@ -26252,18 +26252,18 @@
       <c r="AU125" t="s">
         <v>28</v>
       </c>
-      <c r="AV125" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW125" t="b">
-        <v>1</v>
+      <c r="AV125" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW125" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX125" s="4" t="str">
         <f t="shared" si="188"/>
         <v>{
     'name': "Paninos Italian Restaurant",
     'area': "campus",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Wide range of food and drink specials", 'link':"www.fortcollinspaninos.com", 'pricing':"",   'phone-number': "", 'address': "310 W Prospect Rd, Fort Collins, CO 80526", 'other-amenities': ['','','medium'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Wide range of food and drink specials", 'link':"www.fortcollinspaninos.com", 'pricing':"",   'phone-number': "", 'address': "310 W Prospect Rd, Fort Collins, CO 80526", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY125" t="str">
         <f t="shared" si="189"/>
@@ -26279,19 +26279,19 @@
       </c>
       <c r="BB125" t="str">
         <f t="shared" si="192"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC125" t="str">
         <f t="shared" si="193"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD125" t="str">
         <f t="shared" si="194"/>
-        <v>&lt;img src=@img/medium.png@&gt;</v>
+        <v>&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE125" t="str">
         <f t="shared" si="195"/>
-        <v>medium  campus</v>
+        <v>drink food medium  campus</v>
       </c>
       <c r="BF125" t="str">
         <f t="shared" si="196"/>
@@ -27224,18 +27224,18 @@
       <c r="AU130" t="s">
         <v>298</v>
       </c>
-      <c r="AV130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW130" t="b">
-        <v>1</v>
+      <c r="AV130" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW130" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX130" s="4" t="str">
         <f t="shared" si="188"/>
         <v>{
     'name': "Pueblo Viejo",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "185 N College Ave Fort Collins CO", 'other-amenities': ['','','hard'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "185 N College Ave Fort Collins CO", 'other-amenities': ['','','hard'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY130" t="str">
         <f t="shared" si="189"/>
@@ -27251,19 +27251,19 @@
       </c>
       <c r="BB130" t="str">
         <f t="shared" si="192"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC130" t="str">
         <f t="shared" si="193"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD130" t="str">
         <f t="shared" si="194"/>
-        <v>&lt;img src=@img/hard.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
+        <v>&lt;img src=@img/hard.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BE130" t="str">
         <f t="shared" si="195"/>
-        <v>hard med old kid</v>
+        <v>drink food hard med old kid</v>
       </c>
       <c r="BF130" t="str">
         <f t="shared" si="196"/>
@@ -27962,8 +27962,8 @@
       <c r="AU134" t="s">
         <v>299</v>
       </c>
-      <c r="AV134" s="3" t="b">
-        <v>1</v>
+      <c r="AV134" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AW134" s="3" t="s">
         <v>306</v>
@@ -27973,7 +27973,7 @@
         <v>{
     'name': "Rally5 Street Eats and Bar",
     'area': "midtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 Well Drinks and Micro drafts&lt;br&gt;$4 Wine by the glass, Premium Drafts, Mules, Classics, Mojitos and Margs&lt;br&gt;$5 Shareable Plates", 'link':"https://www.rally5streeteats.com/", 'pricing':"med",   'phone-number': "", 'address': "2310 E Harmony Rd, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':TRUE, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 Well Drinks and Micro drafts&lt;br&gt;$4 Wine by the glass, Premium Drafts, Mules, Classics, Mojitos and Margs&lt;br&gt;$5 Shareable Plates", 'link':"https://www.rally5streeteats.com/", 'pricing':"med",   'phone-number': "", 'address': "2310 E Harmony Rd, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY134" t="str">
         <f t="shared" si="213"/>
@@ -27989,7 +27989,7 @@
       </c>
       <c r="BB134" t="str">
         <f t="shared" si="216"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC134" t="str">
         <f t="shared" si="217"/>
@@ -27997,11 +27997,11 @@
       </c>
       <c r="BD134" t="str">
         <f t="shared" si="218"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE134" t="str">
         <f t="shared" si="219"/>
-        <v>food easy med midtown</v>
+        <v>drink food easy med midtown</v>
       </c>
       <c r="BF134" t="str">
         <f t="shared" si="220"/>
@@ -29061,18 +29061,18 @@
       <c r="AU140" t="s">
         <v>299</v>
       </c>
-      <c r="AV140" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW140" t="b">
-        <v>1</v>
+      <c r="AV140" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW140" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX140" s="4" t="str">
         <f t="shared" si="212"/>
         <v>{
     'name': "Ryan's Sports Grill",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "925 East Harmony Road Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "925 East Harmony Road Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY140" t="str">
         <f t="shared" si="213"/>
@@ -29088,19 +29088,19 @@
       </c>
       <c r="BB140" t="str">
         <f t="shared" si="216"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC140" t="str">
         <f t="shared" si="217"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD140" t="str">
         <f t="shared" si="218"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
+        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BE140" t="str">
         <f t="shared" si="219"/>
-        <v>easy med sfoco kid</v>
+        <v>drink food easy med sfoco kid</v>
       </c>
       <c r="BF140" t="str">
         <f t="shared" si="220"/>
@@ -29549,18 +29549,18 @@
       <c r="AU143" t="s">
         <v>299</v>
       </c>
-      <c r="AV143" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW143" t="b">
-        <v>0</v>
+      <c r="AV143" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW143" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX143" s="4" t="str">
         <f t="shared" si="212"/>
         <v>{
     'name': "Serious Texas BBQ",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2001 S. Timberline Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2001 S. Timberline Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY143" t="str">
         <f t="shared" si="213"/>
@@ -29917,18 +29917,18 @@
       <c r="AU145" t="s">
         <v>28</v>
       </c>
-      <c r="AV145" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW145" t="b">
-        <v>1</v>
+      <c r="AV145" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW145" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX145" s="4" t="str">
         <f t="shared" si="212"/>
         <v>{
     'name': "Sips Grub and Pub",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.facebook.com/sipsgrub/", 'pricing':"med",   'phone-number': "", 'address': "1801 S College Ave unit d, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','medium'], 'has-drink':TRUE, 'has-food':TRUE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.facebook.com/sipsgrub/", 'pricing':"med",   'phone-number': "", 'address': "1801 S College Ave unit d, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY145" t="str">
         <f t="shared" si="213"/>
@@ -29944,19 +29944,19 @@
       </c>
       <c r="BB145" t="str">
         <f t="shared" si="216"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC145" t="str">
         <f t="shared" si="217"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD145" t="str">
         <f t="shared" si="218"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/medium.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE145" t="str">
         <f t="shared" si="219"/>
-        <v>outdoor medium med midtown</v>
+        <v>outdoor drink food medium med midtown</v>
       </c>
       <c r="BF145" t="str">
         <f t="shared" si="220"/>
@@ -31601,18 +31601,18 @@
       <c r="AU154" t="s">
         <v>298</v>
       </c>
-      <c r="AV154" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW154" t="b">
-        <v>0</v>
+      <c r="AV154" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW154" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX154" s="4" t="str">
         <f t="shared" si="212"/>
         <v>{
     'name': "Steak-Out Saloon",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"steakoutsaloon.com/", 'pricing':"",   'phone-number': "", 'address': "152 W Mountain Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"steakoutsaloon.com/", 'pricing':"",   'phone-number': "", 'address': "152 W Mountain Ave, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY154" t="str">
         <f t="shared" si="213"/>
@@ -33442,8 +33442,8 @@
       <c r="AU164" t="s">
         <v>299</v>
       </c>
-      <c r="AV164" s="3" t="b">
-        <v>1</v>
+      <c r="AV164" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AW164" s="3" t="s">
         <v>307</v>
@@ -33453,7 +33453,7 @@
         <v>{
     'name': "Ten Bears Winery",
     'area': "nfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1200", 'wednesday-end':"1700", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Wine Wednesdays - 10 percent off all purchases on Hump Day!", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "5114 County Rd 23E Laporte CO", 'other-amenities': ['out','','easy'], 'has-drink':TRUE, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1200", 'wednesday-end':"1700", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Wine Wednesdays - 10 percent off all purchases on Hump Day!", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "5114 County Rd 23E Laporte CO", 'other-amenities': ['out','','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY164" t="str">
         <f t="shared" si="245"/>
@@ -33469,7 +33469,7 @@
       </c>
       <c r="BB164" t="str">
         <f t="shared" si="248"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC164" t="str">
         <f t="shared" si="249"/>
@@ -33477,11 +33477,11 @@
       </c>
       <c r="BD164" t="str">
         <f t="shared" si="250"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE164" t="str">
         <f t="shared" si="251"/>
-        <v>outdoor easy med nfoco</v>
+        <v>outdoor drink easy med nfoco</v>
       </c>
       <c r="BF164" t="str">
         <f t="shared" si="252"/>
@@ -33598,18 +33598,18 @@
       <c r="AU165" t="s">
         <v>299</v>
       </c>
-      <c r="AV165" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW165" t="b">
-        <v>0</v>
+      <c r="AV165" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW165" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX165" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "Texas Roadhouse",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "4633 Timberline Rd. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"med",   'phone-number': "", 'address': "4633 Timberline Rd. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY165" t="str">
         <f t="shared" si="245"/>
@@ -33927,18 +33927,18 @@
       <c r="AU167" t="s">
         <v>299</v>
       </c>
-      <c r="AV167" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW167" t="b">
-        <v>0</v>
+      <c r="AV167" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW167" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX167" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "Thai Station",
     'area': "cwest",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "626 S College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "626 S College Ave, Fort Collins, CO 80524", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY167" t="str">
         <f t="shared" si="245"/>
@@ -34475,18 +34475,18 @@
       <c r="AU170" t="s">
         <v>299</v>
       </c>
-      <c r="AV170" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW170" t="b">
-        <v>0</v>
+      <c r="AV170" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW170" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX170" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "The Farmhouse at Jessup Farm",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.farmhousefc.com", 'pricing':"",   'phone-number': "", 'address': "1957 Jessup Dr, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"www.farmhousefc.com", 'pricing':"",   'phone-number': "", 'address': "1957 Jessup Dr, Fort Collins, CO 80525", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY170" t="str">
         <f t="shared" si="245"/>
@@ -34990,18 +34990,18 @@
       <c r="AU173" t="s">
         <v>298</v>
       </c>
-      <c r="AV173" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW173" t="b">
-        <v>0</v>
+      <c r="AV173" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW173" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX173" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "The Regional",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.theregionalfood.com/", 'pricing':"med",   'phone-number': "", 'address': "130 S Mason St, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.theregionalfood.com/", 'pricing':"med",   'phone-number': "", 'address': "130 S Mason St, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY173" t="str">
         <f t="shared" si="245"/>
@@ -35347,18 +35347,18 @@
       <c r="AU175" t="s">
         <v>298</v>
       </c>
-      <c r="AV175" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW175" t="b">
-        <v>0</v>
+      <c r="AV175" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW175" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX175" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "The Welsh Rabbit Cheese Bistro",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.thewelshrabbit.com/bistro", 'pricing':"",   'phone-number': "", 'address': "200 B Walnut Street, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.thewelshrabbit.com/bistro", 'pricing':"",   'phone-number': "", 'address': "200 B Walnut Street, Fort Collins, CO 80524", 'other-amenities': ['','','hard'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY175" t="str">
         <f t="shared" si="245"/>
@@ -35668,18 +35668,18 @@
       <c r="AU177" t="s">
         <v>298</v>
       </c>
-      <c r="AV177" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW177" t="b">
-        <v>0</v>
+      <c r="AV177" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW177" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX177" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "The Yeti Bar and Grill",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"The Yeti Bar and Grill", 'pricing':"",   'phone-number': "", 'address': "23 Old Town Square, Fort Collins, CO 80521", 'other-amenities': ['outdoor','','hard'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"The Yeti Bar and Grill", 'pricing':"",   'phone-number': "", 'address': "23 Old Town Square, Fort Collins, CO 80521", 'other-amenities': ['outdoor','','hard'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY177" t="str">
         <f t="shared" si="245"/>
@@ -35824,18 +35824,18 @@
       <c r="AU178" t="s">
         <v>299</v>
       </c>
-      <c r="AV178" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW178" t="b">
-        <v>0</v>
+      <c r="AV178" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW178" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX178" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "Tom and Chee",
     'area': "sfoco",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2909 E. Harmony Rd. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"low",   'phone-number': "", 'address': "2909 E. Harmony Rd. Fort Collins CO", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY178" t="str">
         <f t="shared" si="245"/>
@@ -36765,18 +36765,18 @@
       <c r="AU183" t="s">
         <v>28</v>
       </c>
-      <c r="AV183" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW183" t="b">
-        <v>0</v>
+      <c r="AV183" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW183" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX183" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "Toys Thai Cafe ",
     'area': "campus",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "128 W Laurel St, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "128 W Laurel St, Fort Collins, CO 80524", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY183" t="str">
         <f t="shared" si="245"/>
@@ -37296,18 +37296,18 @@
       <c r="AU186" t="s">
         <v>299</v>
       </c>
-      <c r="AV186" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW186" t="b">
-        <v>0</v>
+      <c r="AV186" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW186" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX186" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "Urban Bricks",
     'area': "old",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.urbanbricks.com/", 'pricing':"med",   'phone-number': "", 'address': "2860 E Harmony Rd #110, Fort Collins, CO 80528", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.urbanbricks.com/", 'pricing':"med",   'phone-number': "", 'address': "2860 E Harmony Rd #110, Fort Collins, CO 80528", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY186" t="str">
         <f t="shared" si="245"/>
@@ -37606,18 +37606,18 @@
       <c r="AU188" t="s">
         <v>28</v>
       </c>
-      <c r="AV188" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW188" t="b">
-        <v>0</v>
+      <c r="AV188" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW188" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX188" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "Waltzing Kangaroo",
     'area': "cwest",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://waltzingkangaroo.com/", 'pricing':"",   'phone-number': "", 'address': "1109 W Elizabeth St, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://waltzingkangaroo.com/", 'pricing':"",   'phone-number': "", 'address': "1109 W Elizabeth St, Fort Collins, CO 80521", 'other-amenities': ['','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY188" t="str">
         <f t="shared" si="245"/>
@@ -38265,18 +38265,18 @@
       <c r="AU192" t="s">
         <v>299</v>
       </c>
-      <c r="AV192" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW192" t="b">
-        <v>1</v>
+      <c r="AV192" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW192" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AX192" s="4" t="str">
         <f t="shared" si="244"/>
         <v>{
     'name': "Wing Shack Fort Collins",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1100", 'monday-end':"2400", 'tuesday-start':"1100", 'tuesday-end':"2400", 'wednesday-start':"1100", 'wednesday-end':"2400", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Monday: $0.60 wings &lt;br&gt; Tuesday: $0.60 Boneless wings &lt;br&gt; Wednesday: $1.00 off all beers ", 'link':"https://wingshackwings.com/", 'pricing':"",   'phone-number': "", 'address': "1011 S Lemay Ave, Fort Collins, CO 80524", 'other-amenities': ['','','easy'], 'has-drink':FALSE, 'has-food':TRUE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1100", 'monday-end':"2400", 'tuesday-start':"1100", 'tuesday-end':"2400", 'wednesday-start':"1100", 'wednesday-end':"2400", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Monday: $0.60 wings &lt;br&gt; Tuesday: $0.60 Boneless wings &lt;br&gt; Wednesday: $1.00 off all beers ", 'link':"https://wingshackwings.com/", 'pricing':"",   'phone-number': "", 'address': "1011 S Lemay Ave, Fort Collins, CO 80524", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':true},</v>
       </c>
       <c r="AY192" t="str">
         <f t="shared" si="245"/>
@@ -38296,15 +38296,15 @@
       </c>
       <c r="BC192" t="str">
         <f t="shared" si="249"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD192" t="str">
         <f t="shared" si="250"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE192" t="str">
         <f t="shared" si="251"/>
-        <v>easy  midtown</v>
+        <v>food easy  midtown</v>
       </c>
       <c r="BF192" t="str">
         <f t="shared" si="252"/>
@@ -38732,11 +38732,11 @@
       <c r="AU195" t="s">
         <v>28</v>
       </c>
-      <c r="AV195" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW195" t="b">
-        <v>0</v>
+      <c r="AV195" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW195" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="AX195" s="4" t="str">
         <f t="shared" ref="AX195:AX196" si="269">CONCATENATE("{
@@ -38747,7 +38747,7 @@
         <v>{
     'name': "Yum Yums Bar",
     'area': "cwest",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"yumyumsfortcollins.com", 'pricing':"",   'phone-number': "", 'address': "1300 W Elizabeth St, Fort Collins, CO 80521", 'other-amenities': ['outdoor','','medium'], 'has-drink':FALSE, 'has-food':FALSE},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"yumyumsfortcollins.com", 'pricing':"",   'phone-number': "", 'address': "1300 W Elizabeth St, Fort Collins, CO 80521", 'other-amenities': ['outdoor','','medium'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY195" t="str">
         <f t="shared" si="245"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA8DF3-42A9-4C1A-A5AA-3C4A87A37B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$191</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2439,7 +2441,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3022,12 +3024,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -3046,11 +3048,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -3079,7 +3081,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3391,33 +3393,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AE162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AW1" sqref="AW1:AW1048576"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
     <col min="4" max="36" width="6" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" customWidth="1"/>
-    <col min="50" max="50" width="90.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" customWidth="1"/>
-    <col min="57" max="57" width="53.5703125" customWidth="1"/>
-    <col min="58" max="58" width="19.42578125" customWidth="1"/>
+    <col min="40" max="42" width="10.26953125" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" customWidth="1"/>
+    <col min="50" max="50" width="90.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.1796875" customWidth="1"/>
+    <col min="57" max="57" width="53.54296875" customWidth="1"/>
+    <col min="58" max="58" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>454</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>140</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>671</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>146</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>509</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>149</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -4883,7 +4885,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>513</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>109</v>
       </c>
@@ -5311,7 +5313,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>568</v>
       </c>
@@ -5473,7 +5475,7 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>516</v>
       </c>
@@ -5637,7 +5639,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>518</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>720</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>134</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>579</v>
       </c>
@@ -6536,7 +6538,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -6756,7 +6758,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>246</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -7133,7 +7135,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>301</v>
       </c>
@@ -7332,7 +7334,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>151</v>
       </c>
@@ -7349,133 +7351,133 @@
         <v>152</v>
       </c>
       <c r="H22">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I22">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J22">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K22">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L22">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M22">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N22">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O22">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P22">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q22">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="R22">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="S22">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="T22">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="U22">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="V22" t="s">
         <v>747</v>
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y22">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z22">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA22">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB22">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC22">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE22">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF22">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG22">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH22">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI22">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="str">
         <f t="shared" si="25"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AL22" t="str">
         <f t="shared" si="26"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM22" t="str">
         <f t="shared" si="27"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AN22" t="str">
         <f t="shared" si="28"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO22" t="str">
         <f t="shared" si="29"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AP22" t="str">
         <f t="shared" si="30"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AQ22" t="str">
         <f t="shared" si="31"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AR22" s="8" t="s">
         <v>273</v>
@@ -7497,7 +7499,7 @@
         <v>{
     'name': "Black Bottle Brewing",
     'area': "campus",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Monday-Sunday&lt;br&gt;2pm-5pm:&lt;br&gt;$1 off Black Bottle Beers&lt;br&gt;$3 well drinks&lt;br&gt;$5 Moscow Mules&lt;br&gt;&lt;br&gt;Toddler Tuesdays: &lt;br&gt;Kids eat FREE!&lt;br&gt;&lt;br&gt;Wednesday and Sunday: &lt;br&gt;1/2 PRICE GROWLER FILLS", 'link':"https://blackbottleCraft Beer.com/", 'pricing':"med",   'phone-number': "", 'address': "1611 S. College Ave., Ste 1609, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Monday-Sunday&lt;br&gt;2pm-5pm:&lt;br&gt;$1 off Black Bottle Beers&lt;br&gt;$3 well drinks&lt;br&gt;$5 Moscow Mules&lt;br&gt;&lt;br&gt;Toddler Tuesdays: &lt;br&gt;Kids eat FREE!&lt;br&gt;&lt;br&gt;Wednesday and Sunday: &lt;br&gt;1/2 PRICE GROWLER FILLS", 'link':"https://blackbottleCraft Beer.com/", 'pricing':"med",   'phone-number': "", 'address': "1611 S. College Ave., Ste 1609, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY22" t="str">
         <f t="shared" si="16"/>
@@ -7552,7 +7554,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>266</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>178</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>659</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>267</v>
       </c>
@@ -8329,7 +8331,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>520</v>
       </c>
@@ -8492,7 +8494,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>180</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>648</v>
       </c>
@@ -8820,7 +8822,7 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>523</v>
       </c>
@@ -8981,7 +8983,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>525</v>
       </c>
@@ -9142,7 +9144,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>582</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>585</v>
       </c>
@@ -9464,7 +9466,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>366</v>
       </c>
@@ -9670,7 +9672,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>588</v>
       </c>
@@ -9826,7 +9828,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>387</v>
       </c>
@@ -10040,7 +10042,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>275</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>274</v>
       </c>
@@ -10459,7 +10461,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>591</v>
       </c>
@@ -10615,7 +10617,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>126</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>731</v>
       </c>
@@ -10992,7 +10994,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -11170,7 +11172,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>153</v>
       </c>
@@ -11336,7 +11338,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>26</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>156</v>
       </c>
@@ -11731,7 +11733,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -11945,7 +11947,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>796</v>
       </c>
@@ -12112,7 +12114,7 @@
         <v>[40.589825,-105.076497],</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>444</v>
       </c>
@@ -12314,7 +12316,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>445</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>540</v>
       </c>
@@ -12679,7 +12681,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>661</v>
       </c>
@@ -12838,7 +12840,7 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>658</v>
       </c>
@@ -13000,7 +13002,7 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>656</v>
       </c>
@@ -13192,7 +13194,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>86</v>
       </c>
@@ -13358,7 +13360,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>68</v>
       </c>
@@ -13524,7 +13526,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>649</v>
       </c>
@@ -13716,7 +13718,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>159</v>
       </c>
@@ -13900,7 +13902,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>269</v>
       </c>
@@ -14099,7 +14101,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="5" t="s">
         <v>367</v>
       </c>
@@ -14310,7 +14312,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>670</v>
       </c>
@@ -14469,7 +14471,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>446</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>257</v>
       </c>
@@ -14801,7 +14803,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>98</v>
       </c>
@@ -15012,7 +15014,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>73</v>
       </c>
@@ -15178,7 +15180,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>749</v>
       </c>
@@ -15332,7 +15334,7 @@
         <v>[40.58976,-105.076497],</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>270</v>
       </c>
@@ -15546,7 +15548,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>278</v>
       </c>
@@ -15749,7 +15751,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>751</v>
       </c>
@@ -15900,7 +15902,7 @@
         <v>[40.551049,-105.05831],</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>530</v>
       </c>
@@ -16058,7 +16060,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>187</v>
       </c>
@@ -16264,7 +16266,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>189</v>
       </c>
@@ -16469,7 +16471,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>447</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>191</v>
       </c>
@@ -16804,7 +16806,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>594</v>
       </c>
@@ -17011,7 +17013,7 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>532</v>
       </c>
@@ -17172,7 +17174,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>736</v>
       </c>
@@ -17376,7 +17378,7 @@
         <v>[40.47964,-104.90192],</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>280</v>
       </c>
@@ -17581,7 +17583,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>668</v>
       </c>
@@ -17740,7 +17742,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>379</v>
       </c>
@@ -17951,7 +17953,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>193</v>
       </c>
@@ -18123,7 +18125,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>46</v>
       </c>
@@ -18289,7 +18291,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>162</v>
       </c>
@@ -18503,7 +18505,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>448</v>
       </c>
@@ -18669,7 +18671,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>793</v>
       </c>
@@ -18865,7 +18867,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>195</v>
       </c>
@@ -19031,7 +19033,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>24</v>
       </c>
@@ -19248,7 +19250,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>669</v>
       </c>
@@ -19404,7 +19406,7 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>597</v>
       </c>
@@ -19608,7 +19610,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -19822,7 +19824,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>33</v>
       </c>
@@ -20036,7 +20038,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>115</v>
       </c>
@@ -20208,7 +20210,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>717</v>
       </c>
@@ -20314,7 +20316,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>131</v>
       </c>
@@ -20480,7 +20482,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>785</v>
       </c>
@@ -20674,7 +20676,7 @@
         <v>[40.5738693,-105.1169419],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>95</v>
       </c>
@@ -20840,7 +20842,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>546</v>
       </c>
@@ -21054,7 +21056,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>601</v>
       </c>
@@ -21255,7 +21257,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>376</v>
       </c>
@@ -21454,7 +21456,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>197</v>
       </c>
@@ -21668,7 +21670,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>605</v>
       </c>
@@ -21824,7 +21826,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>282</v>
       </c>
@@ -22039,7 +22041,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>608</v>
       </c>
@@ -22195,7 +22197,7 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>611</v>
       </c>
@@ -22348,7 +22350,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>371</v>
       </c>
@@ -22550,7 +22552,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>665</v>
       </c>
@@ -22709,7 +22711,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>164</v>
       </c>
@@ -22881,7 +22883,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>613</v>
       </c>
@@ -23037,7 +23039,7 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>559</v>
       </c>
@@ -23244,7 +23246,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>62</v>
       </c>
@@ -23410,7 +23412,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>198</v>
       </c>
@@ -23576,7 +23578,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>394</v>
       </c>
@@ -23751,7 +23753,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>657</v>
       </c>
@@ -23959,7 +23961,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>121</v>
       </c>
@@ -24173,7 +24175,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>166</v>
       </c>
@@ -24384,7 +24386,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>200</v>
       </c>
@@ -24556,7 +24558,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>168</v>
       </c>
@@ -24764,7 +24766,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>655</v>
       </c>
@@ -24923,7 +24925,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>123</v>
       </c>
@@ -25089,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>653</v>
       </c>
@@ -25248,7 +25250,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>202</v>
       </c>
@@ -25420,7 +25422,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>143</v>
       </c>
@@ -25586,7 +25588,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>449</v>
       </c>
@@ -25752,7 +25754,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>753</v>
       </c>
@@ -25903,7 +25905,7 @@
         <v>[40.527959,-105.077616],</v>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>616</v>
       </c>
@@ -26107,7 +26109,7 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>620</v>
       </c>
@@ -26308,7 +26310,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>89</v>
       </c>
@@ -26522,7 +26524,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>574</v>
       </c>
@@ -26717,7 +26719,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>204</v>
       </c>
@@ -26928,7 +26930,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>206</v>
       </c>
@@ -27124,7 +27126,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>450</v>
       </c>
@@ -27290,7 +27292,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>654</v>
       </c>
@@ -27449,7 +27451,7 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>650</v>
       </c>
@@ -27615,7 +27617,7 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>208</v>
       </c>
@@ -27814,7 +27816,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>743</v>
       </c>
@@ -28018,7 +28020,7 @@
         <v>[40.52369,-105.03435],</v>
       </c>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>662</v>
       </c>
@@ -28177,7 +28179,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>170</v>
       </c>
@@ -28382,7 +28384,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>43</v>
       </c>
@@ -28581,7 +28583,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>210</v>
       </c>
@@ -28795,7 +28797,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>59</v>
       </c>
@@ -28961,7 +28963,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>451</v>
       </c>
@@ -29127,7 +29129,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>663</v>
       </c>
@@ -29283,7 +29285,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>213</v>
       </c>
@@ -29449,7 +29451,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>478</v>
       </c>
@@ -29615,7 +29617,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>651</v>
       </c>
@@ -29819,7 +29821,7 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>752</v>
       </c>
@@ -29973,7 +29975,7 @@
         <v>[40.563256,-105.077464],</v>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>397</v>
       </c>
@@ -30139,7 +30141,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>378</v>
       </c>
@@ -30347,7 +30349,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>652</v>
       </c>
@@ -30536,7 +30538,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>216</v>
       </c>
@@ -30747,7 +30749,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>285</v>
       </c>
@@ -30958,7 +30960,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>103</v>
       </c>
@@ -31163,7 +31165,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>137</v>
       </c>
@@ -31335,7 +31337,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>118</v>
       </c>
@@ -31501,7 +31503,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>623</v>
       </c>
@@ -31657,7 +31659,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>40</v>
       </c>
@@ -31832,7 +31834,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>37</v>
       </c>
@@ -32043,7 +32045,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>664</v>
       </c>
@@ -32196,7 +32198,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>375</v>
       </c>
@@ -32362,7 +32364,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>536</v>
       </c>
@@ -32567,7 +32569,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>666</v>
       </c>
@@ -32759,7 +32761,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>112</v>
       </c>
@@ -32955,7 +32957,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>542</v>
       </c>
@@ -33157,7 +33159,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>80</v>
       </c>
@@ -33330,7 +33332,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>667</v>
       </c>
@@ -33498,7 +33500,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>452</v>
       </c>
@@ -33664,7 +33666,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>100</v>
       </c>
@@ -33830,7 +33832,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>626</v>
       </c>
@@ -33983,7 +33985,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>83</v>
       </c>
@@ -34152,7 +34154,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>218</v>
       </c>
@@ -34351,7 +34353,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>628</v>
       </c>
@@ -34531,7 +34533,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>173</v>
       </c>
@@ -34730,7 +34732,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>571</v>
       </c>
@@ -34895,7 +34897,7 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>754</v>
       </c>
@@ -35046,7 +35048,7 @@
         <v>[40.586451,-105.078568],</v>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>699</v>
       </c>
@@ -35247,7 +35249,7 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>631</v>
       </c>
@@ -35403,7 +35405,7 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>564</v>
       </c>
@@ -35565,7 +35567,7 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="177" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>634</v>
       </c>
@@ -35724,7 +35726,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="178" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>453</v>
       </c>
@@ -35890,7 +35892,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="179" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>220</v>
       </c>
@@ -36104,7 +36106,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>380</v>
       </c>
@@ -36306,7 +36308,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>223</v>
       </c>
@@ -36472,7 +36474,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>553</v>
       </c>
@@ -36668,7 +36670,7 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="183" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>636</v>
       </c>
@@ -36821,7 +36823,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="184" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>287</v>
       </c>
@@ -37032,7 +37034,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>401</v>
       </c>
@@ -37201,7 +37203,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>750</v>
       </c>
@@ -37352,7 +37354,7 @@
         <v>[40.523973,-105.025125],</v>
       </c>
     </row>
-    <row r="187" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>748</v>
       </c>
@@ -37506,7 +37508,7 @@
         <v>[40.589425,-105.076553],</v>
       </c>
     </row>
-    <row r="188" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>638</v>
       </c>
@@ -37662,7 +37664,7 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="189" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>660</v>
       </c>
@@ -37815,7 +37817,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="190" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>128</v>
       </c>
@@ -37987,7 +37989,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>550</v>
       </c>
@@ -38152,7 +38154,7 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="192" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>641</v>
       </c>
@@ -38321,7 +38323,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>225</v>
       </c>
@@ -38479,7 +38481,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>49</v>
       </c>
@@ -38637,7 +38639,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>645</v>
       </c>
@@ -38792,7 +38794,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="196" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>227</v>
       </c>
@@ -38972,77 +38974,77 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C191"/>
-  <sortState ref="B2:BL197">
+  <autoFilter ref="C2:C191" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BL197">
     <sortCondition ref="B2:B197"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G136" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
-    <hyperlink ref="AR42" r:id="rId2"/>
-    <hyperlink ref="AR99" r:id="rId3"/>
-    <hyperlink ref="AR28" r:id="rId4"/>
-    <hyperlink ref="AR115" r:id="rId5"/>
-    <hyperlink ref="AR20" r:id="rId6"/>
-    <hyperlink ref="AR8" r:id="rId7"/>
-    <hyperlink ref="AR55" r:id="rId8"/>
-    <hyperlink ref="AR34" r:id="rId9"/>
-    <hyperlink ref="AR64" r:id="rId10"/>
-    <hyperlink ref="AR46" r:id="rId11"/>
-    <hyperlink ref="AR163" r:id="rId12"/>
-    <hyperlink ref="AR54" r:id="rId13"/>
-    <hyperlink ref="AR126" r:id="rId14"/>
-    <hyperlink ref="AR95" r:id="rId15"/>
-    <hyperlink ref="AR63" r:id="rId16"/>
-    <hyperlink ref="AR166" r:id="rId17"/>
-    <hyperlink ref="AR151" r:id="rId18"/>
-    <hyperlink ref="AR19" r:id="rId19"/>
-    <hyperlink ref="AR10" r:id="rId20"/>
-    <hyperlink ref="AR161" r:id="rId21"/>
-    <hyperlink ref="AR91" r:id="rId22"/>
-    <hyperlink ref="AR153" r:id="rId23"/>
-    <hyperlink ref="AR113" r:id="rId24"/>
-    <hyperlink ref="AR190" r:id="rId25"/>
-    <hyperlink ref="AR93" r:id="rId26"/>
-    <hyperlink ref="AR15" r:id="rId27"/>
-    <hyperlink ref="AR86" r:id="rId28"/>
-    <hyperlink ref="AR5" r:id="rId29"/>
-    <hyperlink ref="AR7" r:id="rId30"/>
-    <hyperlink ref="AR43" r:id="rId31"/>
-    <hyperlink ref="AR45" r:id="rId32"/>
-    <hyperlink ref="AR57" r:id="rId33"/>
-    <hyperlink ref="AR82" r:id="rId34"/>
-    <hyperlink ref="AR106" r:id="rId35"/>
-    <hyperlink ref="AR114" r:id="rId36"/>
-    <hyperlink ref="AR116" r:id="rId37"/>
-    <hyperlink ref="AR136" r:id="rId38"/>
-    <hyperlink ref="AR16" r:id="rId39"/>
-    <hyperlink ref="AR24" r:id="rId40"/>
-    <hyperlink ref="AR62" r:id="rId41"/>
-    <hyperlink ref="AR80" r:id="rId42"/>
-    <hyperlink ref="AR85" r:id="rId43"/>
-    <hyperlink ref="AR110" r:id="rId44"/>
-    <hyperlink ref="AR128" r:id="rId45"/>
-    <hyperlink ref="AR138" r:id="rId46"/>
-    <hyperlink ref="AR142" r:id="rId47"/>
-    <hyperlink ref="AR149" r:id="rId48"/>
-    <hyperlink ref="AR169" r:id="rId49"/>
-    <hyperlink ref="AR181" r:id="rId50"/>
-    <hyperlink ref="AR196" r:id="rId51"/>
-    <hyperlink ref="AR23" r:id="rId52"/>
-    <hyperlink ref="AR58" r:id="rId53"/>
-    <hyperlink ref="AR66" r:id="rId54"/>
-    <hyperlink ref="AR67" r:id="rId55"/>
-    <hyperlink ref="AR77" r:id="rId56"/>
-    <hyperlink ref="AR101" r:id="rId57"/>
-    <hyperlink ref="AR150" r:id="rId58"/>
-    <hyperlink ref="AR184" r:id="rId59"/>
-    <hyperlink ref="AR59" r:id="rId60"/>
-    <hyperlink ref="AR79" r:id="rId61"/>
-    <hyperlink ref="AR48" r:id="rId62"/>
-    <hyperlink ref="AR9" r:id="rId63"/>
-    <hyperlink ref="AR174" r:id="rId64"/>
-    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
-    <hyperlink ref="AR172" r:id="rId66"/>
+    <hyperlink ref="G136" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AR42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AR99" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR115" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AR55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AR64" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AR46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AR163" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AR54" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AR126" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AR95" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AR63" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AR166" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR151" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AR161" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AR91" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AR153" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AR113" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AR190" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR93" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AR86" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AR43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AR57" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AR82" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AR106" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AR114" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AR116" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AR136" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AR16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AR24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AR62" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR80" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AR85" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AR110" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AR128" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR138" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AR142" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AR149" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AR169" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR181" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR196" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AR23" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AR58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AR66" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AR67" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AR77" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AR101" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AR150" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AR184" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AR59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR48" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR174" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AR172" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -39050,19 +39052,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>769</v>
       </c>
@@ -39079,7 +39081,7 @@
         <v>-105.076553</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>772</v>
       </c>
@@ -39096,7 +39098,7 @@
         <v>-105.076497</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>773</v>
       </c>
@@ -39113,7 +39115,7 @@
         <v>-105.025125</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>775</v>
       </c>
@@ -39130,7 +39132,7 @@
         <v>-105.05831000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>777</v>
       </c>
@@ -39147,7 +39149,7 @@
         <v>-105.07746400000001</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>778</v>
       </c>
@@ -39164,7 +39166,7 @@
         <v>-105.07761600000001</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>779</v>
       </c>
@@ -39190,14 +39192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA8DF3-42A9-4C1A-A5AA-3C4A87A37B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$191</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1845,9 +1843,6 @@
     <t>2350 E Harmony Rd #1, Fort Collins, CO 80528</t>
   </si>
   <si>
-    <t>$3 Colorado Drafts &lt;br&gt; $2-4 Wine by the Glass &lt;br&gt; $5 Sangria &lt;br&gt; Wide range of appetizers</t>
-  </si>
-  <si>
     <t>localityfoco.com/</t>
   </si>
   <si>
@@ -2436,12 +2431,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ride Your Bike For $1 Off All Draft Beer&lt;br&gt;2 Live Music Stages - Indoor And Outdoor&lt;br&gt;Happy Hour 2-7pm - Monday - Friday&lt;br&gt;Open Mic Every Wednesday Night </t>
+  </si>
+  <si>
+    <t>$4 Colorado Drafts &lt;br&gt; $5 Select Glasses of Wine, $2 off all other wines by the glass &lt;br&gt; $5 Sangria &lt;br&gt; &lt;b&gt;Food&lt;/b&gt;&lt;br&gt; Cheese board - $14&lt;br&gt;Charcuterie - $15&lt;br&gt;Sliders - $5&lt;br&gt;Fried Pickles -$5&lt;br&gt;Brussel Sprouts - $7&lt;br&gt;Marinated Olivers - $5&lt;br&gt;Shrimp Piccata - $7&lt;br&gt;Patatas Bravas - $6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3024,12 +3022,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="37"/>
+    <cellStyle name="60% - Accent2" xfId="38"/>
+    <cellStyle name="60% - Accent3" xfId="39"/>
+    <cellStyle name="60% - Accent4" xfId="40"/>
+    <cellStyle name="60% - Accent5" xfId="41"/>
+    <cellStyle name="60% - Accent6" xfId="42"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -3048,11 +3046,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Neutral" xfId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title" xfId="35"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -3081,7 +3079,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3393,33 +3391,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22:U22"/>
+      <selection pane="bottomRight" activeCell="V97" sqref="V97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="36" width="6" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" customWidth="1"/>
-    <col min="38" max="38" width="13.54296875" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" customWidth="1"/>
     <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="42" width="10.26953125" customWidth="1"/>
-    <col min="43" max="43" width="15.81640625" customWidth="1"/>
-    <col min="50" max="50" width="90.54296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.1796875" customWidth="1"/>
-    <col min="57" max="57" width="53.54296875" customWidth="1"/>
-    <col min="58" max="58" width="19.453125" customWidth="1"/>
+    <col min="40" max="42" width="10.28515625" customWidth="1"/>
+    <col min="43" max="43" width="15.85546875" customWidth="1"/>
+    <col min="50" max="50" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.140625" customWidth="1"/>
+    <col min="57" max="57" width="53.5703125" customWidth="1"/>
+    <col min="58" max="58" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3585,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>454</v>
       </c>
@@ -3802,7 +3800,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>140</v>
       </c>
@@ -4010,9 +4008,9 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C4" t="s">
         <v>426</v>
@@ -4021,7 +4019,7 @@
         <v>431</v>
       </c>
       <c r="G4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
@@ -4108,7 +4106,7 @@
         <v/>
       </c>
       <c r="AR4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AU4" t="s">
         <v>298</v>
@@ -4169,7 +4167,7 @@
         <v>[40.58526,-105.07653],</v>
       </c>
     </row>
-    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>146</v>
       </c>
@@ -4335,7 +4333,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>509</v>
       </c>
@@ -4499,7 +4497,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>149</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -4885,7 +4883,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>513</v>
       </c>
@@ -5099,7 +5097,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>109</v>
       </c>
@@ -5313,7 +5311,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>568</v>
       </c>
@@ -5475,7 +5473,7 @@
         <v>[40.57561,-105.07659],</v>
       </c>
     </row>
-    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>516</v>
       </c>
@@ -5639,7 +5637,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>518</v>
       </c>
@@ -5800,9 +5798,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C14" t="s">
         <v>309</v>
@@ -5811,7 +5809,7 @@
         <v>431</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H14">
         <v>1500</v>
@@ -5856,7 +5854,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
@@ -5943,7 +5941,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AS14" t="s">
         <v>295</v>
@@ -5952,7 +5950,7 @@
         <v>299</v>
       </c>
       <c r="AV14" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AW14" s="3" t="s">
         <v>306</v>
@@ -6007,7 +6005,7 @@
         <v>[40.543718,-105.074853],</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>134</v>
       </c>
@@ -6174,7 +6172,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -6221,7 +6219,7 @@
         <v>1900</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="0"/>
@@ -6376,7 +6374,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>579</v>
       </c>
@@ -6387,7 +6385,7 @@
         <v>580</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="0"/>
@@ -6538,7 +6536,7 @@
         <v>[40.56626,-105.07835],</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -6597,7 +6595,7 @@
         <v>1800</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W18">
         <f t="shared" si="0"/>
@@ -6758,7 +6756,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>246</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>2400</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W19">
         <f t="shared" si="0"/>
@@ -6969,7 +6967,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -7135,7 +7133,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>301</v>
       </c>
@@ -7334,7 +7332,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>151</v>
       </c>
@@ -7393,7 +7391,7 @@
         <v>1800</v>
       </c>
       <c r="V22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
@@ -7554,7 +7552,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>266</v>
       </c>
@@ -7765,7 +7763,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>178</v>
       </c>
@@ -7967,9 +7965,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C25" t="s">
         <v>426</v>
@@ -7978,7 +7976,7 @@
         <v>431</v>
       </c>
       <c r="G25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P25">
         <v>2000</v>
@@ -7999,7 +7997,7 @@
         <v>2000</v>
       </c>
       <c r="V25" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="0"/>
@@ -8086,7 +8084,7 @@
         <v>6pm-8pm</v>
       </c>
       <c r="AR25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AU25" t="s">
         <v>298</v>
@@ -8147,7 +8145,7 @@
         <v>[40.58814,-105.07477],</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>267</v>
       </c>
@@ -8331,7 +8329,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>520</v>
       </c>
@@ -8494,7 +8492,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>180</v>
       </c>
@@ -8666,9 +8664,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C29" t="s">
         <v>309</v>
@@ -8677,7 +8675,7 @@
         <v>431</v>
       </c>
       <c r="G29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="0"/>
@@ -8822,7 +8820,7 @@
         <v>[40.562466,-105.037963],</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>523</v>
       </c>
@@ -8983,7 +8981,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>525</v>
       </c>
@@ -9144,7 +9142,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>582</v>
       </c>
@@ -9300,7 +9298,7 @@
         <v>[40.57515,-105.09912],</v>
       </c>
     </row>
-    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>585</v>
       </c>
@@ -9466,7 +9464,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>366</v>
       </c>
@@ -9672,7 +9670,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>588</v>
       </c>
@@ -9828,7 +9826,7 @@
         <v>[40.57951,-105.07766],</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>387</v>
       </c>
@@ -10042,7 +10040,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>275</v>
       </c>
@@ -10256,10 +10254,10 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
-    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>274</v>
       </c>
@@ -10461,7 +10459,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>591</v>
       </c>
@@ -10617,7 +10615,7 @@
         <v>[40.58152,-105.04595],</v>
       </c>
     </row>
-    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>126</v>
       </c>
@@ -10786,18 +10784,18 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>730</v>
+      </c>
+      <c r="C41" t="s">
         <v>731</v>
-      </c>
-      <c r="C41" t="s">
-        <v>732</v>
       </c>
       <c r="E41" t="s">
         <v>431</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H41">
         <v>1600</v>
@@ -10842,7 +10840,7 @@
         <v>1800</v>
       </c>
       <c r="V41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="W41">
         <f t="shared" si="34"/>
@@ -10929,7 +10927,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR41" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AU41" t="s">
         <v>28</v>
@@ -10994,7 +10992,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -11172,7 +11170,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>153</v>
       </c>
@@ -11338,7 +11336,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>26</v>
       </c>
@@ -11543,7 +11541,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>156</v>
       </c>
@@ -11733,7 +11731,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -11947,9 +11945,9 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C47" t="s">
         <v>426</v>
@@ -11958,7 +11956,7 @@
         <v>431</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" ref="W47" si="59">IF(H47&gt;0,H47/100,"")</f>
@@ -12049,7 +12047,7 @@
         <v>295</v>
       </c>
       <c r="AT47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AU47" t="s">
         <v>298</v>
@@ -12114,7 +12112,7 @@
         <v>[40.589825,-105.076497],</v>
       </c>
     </row>
-    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>444</v>
       </c>
@@ -12316,7 +12314,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>445</v>
       </c>
@@ -12482,7 +12480,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>540</v>
       </c>
@@ -12681,9 +12679,9 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C51" t="s">
         <v>426</v>
@@ -12692,7 +12690,7 @@
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="34"/>
@@ -12779,7 +12777,7 @@
         <v/>
       </c>
       <c r="AR51" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AU51" t="s">
         <v>298</v>
@@ -12840,9 +12838,9 @@
         <v>[40.58875,-105.07418],</v>
       </c>
     </row>
-    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C52" t="s">
         <v>426</v>
@@ -12851,7 +12849,7 @@
         <v>431</v>
       </c>
       <c r="G52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="34"/>
@@ -12938,7 +12936,7 @@
         <v/>
       </c>
       <c r="AR52" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AS52" t="s">
         <v>295</v>
@@ -13002,9 +13000,9 @@
         <v>[40.58587,-105.07762],</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C53" t="s">
         <v>309</v>
@@ -13013,7 +13011,7 @@
         <v>431</v>
       </c>
       <c r="G53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H53">
         <v>1600</v>
@@ -13046,7 +13044,7 @@
         <v>1900</v>
       </c>
       <c r="V53" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W53">
         <f t="shared" si="34"/>
@@ -13133,7 +13131,7 @@
         <v/>
       </c>
       <c r="AR53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AU53" t="s">
         <v>299</v>
@@ -13194,7 +13192,7 @@
         <v>[40.5666,-105.05774],</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>86</v>
       </c>
@@ -13360,7 +13358,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>68</v>
       </c>
@@ -13526,9 +13524,9 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C56" t="s">
         <v>427</v>
@@ -13537,7 +13535,7 @@
         <v>431</v>
       </c>
       <c r="G56" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L56">
         <v>1600</v>
@@ -13570,7 +13568,7 @@
         <v>1800</v>
       </c>
       <c r="V56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="34"/>
@@ -13657,7 +13655,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AU56" t="s">
         <v>299</v>
@@ -13718,7 +13716,7 @@
         <v>[40.60892,-105.0743],</v>
       </c>
     </row>
-    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>159</v>
       </c>
@@ -13747,7 +13745,7 @@
         <v>1800</v>
       </c>
       <c r="V57" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="34"/>
@@ -13902,7 +13900,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>269</v>
       </c>
@@ -14101,7 +14099,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
         <v>367</v>
       </c>
@@ -14312,9 +14310,9 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C60" t="s">
         <v>426</v>
@@ -14323,7 +14321,7 @@
         <v>54</v>
       </c>
       <c r="G60" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="34"/>
@@ -14410,7 +14408,7 @@
         <v/>
       </c>
       <c r="AR60" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AU60" t="s">
         <v>298</v>
@@ -14471,7 +14469,7 @@
         <v>[40.58602,-105.07859],</v>
       </c>
     </row>
-    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>446</v>
       </c>
@@ -14637,7 +14635,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>257</v>
       </c>
@@ -14803,7 +14801,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>98</v>
       </c>
@@ -14862,7 +14860,7 @@
         <v>1800</v>
       </c>
       <c r="V63" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="W63">
         <f t="shared" si="34"/>
@@ -15014,7 +15012,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>73</v>
       </c>
@@ -15180,9 +15178,9 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C65" t="s">
         <v>426</v>
@@ -15191,7 +15189,7 @@
         <v>54</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" ref="W65:W91" si="89">IF(H65&gt;0,H65/100,"")</f>
@@ -15270,7 +15268,7 @@
         <v/>
       </c>
       <c r="AR65" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AS65" t="s">
         <v>295</v>
@@ -15334,7 +15332,7 @@
         <v>[40.58976,-105.076497],</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>270</v>
       </c>
@@ -15548,7 +15546,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>278</v>
       </c>
@@ -15595,7 +15593,7 @@
         <v>1800</v>
       </c>
       <c r="V67" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="89"/>
@@ -15751,9 +15749,9 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C68" t="s">
         <v>309</v>
@@ -15762,7 +15760,7 @@
         <v>431</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="89"/>
@@ -15841,7 +15839,7 @@
         <v/>
       </c>
       <c r="AR68" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AU68" t="s">
         <v>299</v>
@@ -15902,7 +15900,7 @@
         <v>[40.551049,-105.05831],</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>530</v>
       </c>
@@ -16060,7 +16058,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>187</v>
       </c>
@@ -16113,7 +16111,7 @@
         <v>2400</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="W70">
         <f t="shared" si="89"/>
@@ -16266,7 +16264,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>189</v>
       </c>
@@ -16471,7 +16469,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>447</v>
       </c>
@@ -16637,7 +16635,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>191</v>
       </c>
@@ -16806,7 +16804,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>594</v>
       </c>
@@ -16862,7 +16860,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="W74">
         <f t="shared" si="89"/>
@@ -17013,12 +17011,12 @@
         <v>[40.59003,-105.07363],</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>532</v>
       </c>
       <c r="C75" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E75" t="s">
         <v>431</v>
@@ -17174,18 +17172,18 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C76" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E76" t="s">
         <v>431</v>
       </c>
       <c r="G76" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H76">
         <v>1500</v>
@@ -17230,7 +17228,7 @@
         <v>1800</v>
       </c>
       <c r="V76" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="W76">
         <f t="shared" si="89"/>
@@ -17317,7 +17315,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR76" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AU76" t="s">
         <v>299</v>
@@ -17378,7 +17376,7 @@
         <v>[40.47964,-104.90192],</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>280</v>
       </c>
@@ -17583,9 +17581,9 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C78" t="s">
         <v>426</v>
@@ -17594,7 +17592,7 @@
         <v>431</v>
       </c>
       <c r="G78" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W78" t="str">
         <f t="shared" si="89"/>
@@ -17681,7 +17679,7 @@
         <v/>
       </c>
       <c r="AR78" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AU78" t="s">
         <v>298</v>
@@ -17742,7 +17740,7 @@
         <v>[40.58839,-105.0776],</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>379</v>
       </c>
@@ -17789,7 +17787,7 @@
         <v>1800</v>
       </c>
       <c r="V79" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="W79">
         <f t="shared" si="89"/>
@@ -17953,7 +17951,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>193</v>
       </c>
@@ -18125,7 +18123,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>46</v>
       </c>
@@ -18291,7 +18289,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>162</v>
       </c>
@@ -18505,7 +18503,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>448</v>
       </c>
@@ -18671,9 +18669,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C84" t="s">
         <v>426</v>
@@ -18682,7 +18680,7 @@
         <v>431</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J84">
         <v>1600</v>
@@ -18715,7 +18713,7 @@
         <v>1800</v>
       </c>
       <c r="V84" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" ref="X84" si="121">IF(I84&gt;0,I84/100,"")</f>
@@ -18867,7 +18865,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>195</v>
       </c>
@@ -19033,7 +19031,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>24</v>
       </c>
@@ -19250,9 +19248,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C87" t="s">
         <v>428</v>
@@ -19261,7 +19259,7 @@
         <v>431</v>
       </c>
       <c r="G87" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W87" t="str">
         <f t="shared" si="89"/>
@@ -19406,7 +19404,7 @@
         <v>[40.5315,-105.11594],</v>
       </c>
     </row>
-    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>597</v>
       </c>
@@ -19610,7 +19608,7 @@
         <v>[40.57428,-105.09835],</v>
       </c>
     </row>
-    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -19824,7 +19822,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>33</v>
       </c>
@@ -20038,7 +20036,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>115</v>
       </c>
@@ -20210,9 +20208,9 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C92" t="s">
         <v>309</v>
@@ -20221,7 +20219,7 @@
         <v>431</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AK92" t="str">
         <f t="shared" si="111"/>
@@ -20252,7 +20250,7 @@
         <v/>
       </c>
       <c r="AR92" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AS92" t="s">
         <v>295</v>
@@ -20316,7 +20314,7 @@
         <v>[40.562046,-105.038001],</v>
       </c>
     </row>
-    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>131</v>
       </c>
@@ -20482,9 +20480,9 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C94" t="s">
         <v>429</v>
@@ -20493,7 +20491,7 @@
         <v>54</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J94">
         <v>1100</v>
@@ -20526,7 +20524,7 @@
         <v>1400</v>
       </c>
       <c r="V94" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="W94" t="str">
         <f t="shared" ref="W94" si="165">IF(H94&gt;0,H94/100,"")</f>
@@ -20676,7 +20674,7 @@
         <v>[40.5738693,-105.1169419],</v>
       </c>
     </row>
-    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>95</v>
       </c>
@@ -20842,7 +20840,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>546</v>
       </c>
@@ -21056,7 +21054,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>601</v>
       </c>
@@ -21067,53 +21065,53 @@
         <v>602</v>
       </c>
       <c r="H97">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="I97">
         <v>1800</v>
       </c>
       <c r="J97">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K97">
         <v>1800</v>
       </c>
       <c r="L97">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="M97">
         <v>1800</v>
       </c>
       <c r="N97">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="O97">
         <v>1800</v>
       </c>
       <c r="P97">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="Q97">
         <v>1800</v>
       </c>
       <c r="R97">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="S97">
         <v>1800</v>
       </c>
       <c r="T97">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="U97">
         <v>1800</v>
       </c>
       <c r="V97" t="s">
-        <v>603</v>
+        <v>799</v>
       </c>
       <c r="W97">
         <f t="shared" si="151"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X97">
         <f t="shared" si="152"/>
@@ -21121,7 +21119,7 @@
       </c>
       <c r="Y97">
         <f t="shared" si="153"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z97">
         <f t="shared" si="154"/>
@@ -21129,7 +21127,7 @@
       </c>
       <c r="AA97">
         <f t="shared" si="155"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB97">
         <f t="shared" si="156"/>
@@ -21137,7 +21135,7 @@
       </c>
       <c r="AC97">
         <f t="shared" si="157"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD97">
         <f t="shared" si="158"/>
@@ -21145,7 +21143,7 @@
       </c>
       <c r="AE97">
         <f t="shared" si="159"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF97">
         <f t="shared" si="160"/>
@@ -21153,7 +21151,7 @@
       </c>
       <c r="AG97">
         <f t="shared" si="161"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH97">
         <f t="shared" si="162"/>
@@ -21161,7 +21159,7 @@
       </c>
       <c r="AI97">
         <f t="shared" si="163"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ97">
         <f t="shared" si="164"/>
@@ -21169,34 +21167,34 @@
       </c>
       <c r="AK97" t="str">
         <f t="shared" si="111"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AL97" t="str">
         <f t="shared" si="112"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AM97" t="str">
         <f t="shared" si="113"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AN97" t="str">
         <f t="shared" si="114"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AO97" t="str">
         <f t="shared" si="115"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AP97" t="str">
         <f t="shared" si="116"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AQ97" t="str">
         <f t="shared" si="117"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AR97" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AU97" t="s">
         <v>28</v>
@@ -21212,7 +21210,7 @@
         <v>{
     'name': "Locality Kitchen and Bar",
     'area': "sfoco",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 Colorado Drafts &lt;br&gt; $2-4 Wine by the Glass &lt;br&gt; $5 Sangria &lt;br&gt; Wide range of appetizers", 'link':"localityfoco.com/", 'pricing':"",   'phone-number': "", 'address': "2350 E Harmony Rd #1, Fort Collins, CO 80528", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"1800", 'monday-start':"1100", 'monday-end':"1800", 'tuesday-start':"1100", 'tuesday-end':"1800", 'wednesday-start':"1100", 'wednesday-end':"1800", 'thursday-start':"1100", 'thursday-end':"1800", 'friday-start':"1100", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1800"},  'description': "$4 Colorado Drafts &lt;br&gt; $5 Select Glasses of Wine, $2 off all other wines by the glass &lt;br&gt; $5 Sangria &lt;br&gt; &lt;b&gt;Food&lt;/b&gt;&lt;br&gt; Cheese board - $14&lt;br&gt;Charcuterie - $15&lt;br&gt;Sliders - $5&lt;br&gt;Fried Pickles -$5&lt;br&gt;Brussel Sprouts - $7&lt;br&gt;Marinated Olivers - $5&lt;br&gt;Shrimp Piccata - $7&lt;br&gt;Patatas Bravas - $6", 'link':"localityfoco.com/", 'pricing':"",   'phone-number': "", 'address': "2350 E Harmony Rd #1, Fort Collins, CO 80528", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY97" t="str">
         <f t="shared" si="102"/>
@@ -21257,7 +21255,7 @@
         <v>[40.52366,-105.03402],</v>
       </c>
     </row>
-    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>376</v>
       </c>
@@ -21456,7 +21454,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>197</v>
       </c>
@@ -21670,15 +21668,15 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C100" t="s">
         <v>426</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W100" t="str">
         <f t="shared" si="151"/>
@@ -21765,7 +21763,7 @@
         <v/>
       </c>
       <c r="AR100" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AU100" t="s">
         <v>28</v>
@@ -21826,7 +21824,7 @@
         <v>[40.5831,-105.08285],</v>
       </c>
     </row>
-    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>282</v>
       </c>
@@ -22041,15 +22039,15 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C102" t="s">
         <v>426</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="W102" t="str">
         <f t="shared" si="151"/>
@@ -22136,7 +22134,7 @@
         <v/>
       </c>
       <c r="AR102" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU102" t="s">
         <v>298</v>
@@ -22197,15 +22195,15 @@
         <v>[40.58653,-105.07751],</v>
       </c>
     </row>
-    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C103" t="s">
         <v>429</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="W103" t="str">
         <f t="shared" si="151"/>
@@ -22350,7 +22348,7 @@
         <v>[40.58231,-105.10714],</v>
       </c>
     </row>
-    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>371</v>
       </c>
@@ -22397,7 +22395,7 @@
         <v>1800</v>
       </c>
       <c r="V104" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="W104" t="str">
         <f t="shared" si="151"/>
@@ -22552,9 +22550,9 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C105" t="s">
         <v>308</v>
@@ -22563,7 +22561,7 @@
         <v>431</v>
       </c>
       <c r="G105" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W105" t="str">
         <f t="shared" si="151"/>
@@ -22650,7 +22648,7 @@
         <v/>
       </c>
       <c r="AR105" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AU105" t="s">
         <v>28</v>
@@ -22711,7 +22709,7 @@
         <v>[40.57914,-105.07946],</v>
       </c>
     </row>
-    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>164</v>
       </c>
@@ -22883,15 +22881,15 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C107" t="s">
         <v>309</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W107" t="str">
         <f t="shared" si="151"/>
@@ -22978,7 +22976,7 @@
         <v/>
       </c>
       <c r="AR107" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AU107" t="s">
         <v>299</v>
@@ -23039,7 +23037,7 @@
         <v>[40.55511,-105.07836],</v>
       </c>
     </row>
-    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>559</v>
       </c>
@@ -23246,7 +23244,7 @@
         <v>[40.57291,-105.1154],</v>
       </c>
     </row>
-    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>62</v>
       </c>
@@ -23412,7 +23410,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>198</v>
       </c>
@@ -23578,7 +23576,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>394</v>
       </c>
@@ -23753,9 +23751,9 @@
         <v>438</v>
       </c>
     </row>
-    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C112" t="s">
         <v>429</v>
@@ -23764,7 +23762,7 @@
         <v>431</v>
       </c>
       <c r="G112" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H112">
         <v>1600</v>
@@ -23809,7 +23807,7 @@
         <v>1900</v>
       </c>
       <c r="V112" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W112">
         <f t="shared" si="151"/>
@@ -23896,7 +23894,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR112" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AS112" t="s">
         <v>295</v>
@@ -23961,7 +23959,7 @@
         <v>[40.57532,-105.10038],</v>
       </c>
     </row>
-    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>121</v>
       </c>
@@ -24175,7 +24173,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>166</v>
       </c>
@@ -24386,7 +24384,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>200</v>
       </c>
@@ -24558,7 +24556,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>168</v>
       </c>
@@ -24605,7 +24603,7 @@
         <v>1800</v>
       </c>
       <c r="V116" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="151"/>
@@ -24766,9 +24764,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C117" t="s">
         <v>427</v>
@@ -24777,7 +24775,7 @@
         <v>431</v>
       </c>
       <c r="G117" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W117" t="str">
         <f t="shared" si="151"/>
@@ -24864,7 +24862,7 @@
         <v/>
       </c>
       <c r="AR117" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AU117" t="s">
         <v>299</v>
@@ -24925,7 +24923,7 @@
         <v>[40.58358,-105.04801],</v>
       </c>
     </row>
-    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>123</v>
       </c>
@@ -25091,9 +25089,9 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C119" t="s">
         <v>309</v>
@@ -25102,7 +25100,7 @@
         <v>54</v>
       </c>
       <c r="G119" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W119" t="str">
         <f t="shared" si="151"/>
@@ -25250,7 +25248,7 @@
         <v>[40.55065,-105.04275],</v>
       </c>
     </row>
-    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>202</v>
       </c>
@@ -25422,7 +25420,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>143</v>
       </c>
@@ -25588,7 +25586,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>449</v>
       </c>
@@ -25754,9 +25752,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C123" t="s">
         <v>309</v>
@@ -25765,7 +25763,7 @@
         <v>431</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="W123" t="str">
         <f t="shared" ref="W123:W153" si="198">IF(H123&gt;0,H123/100,"")</f>
@@ -25844,7 +25842,7 @@
         <v/>
       </c>
       <c r="AR123" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AU123" t="s">
         <v>299</v>
@@ -25905,15 +25903,15 @@
         <v>[40.527959,-105.077616],</v>
       </c>
     </row>
-    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C124" t="s">
         <v>428</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H124">
         <v>1500</v>
@@ -25958,7 +25956,7 @@
         <v>1800</v>
       </c>
       <c r="V124" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="W124">
         <f t="shared" si="198"/>
@@ -26045,7 +26043,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR124" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AS124" t="s">
         <v>295</v>
@@ -26109,15 +26107,15 @@
         <v>[40.52143,-105.05755],</v>
       </c>
     </row>
-    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C125" t="s">
         <v>308</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H125">
         <v>1500</v>
@@ -26249,7 +26247,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR125" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU125" t="s">
         <v>28</v>
@@ -26310,7 +26308,7 @@
         <v>[40.56741,-105.08268],</v>
       </c>
     </row>
-    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>89</v>
       </c>
@@ -26524,7 +26522,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>574</v>
       </c>
@@ -26719,7 +26717,7 @@
         <v>[40.58998,-105.0731],</v>
       </c>
     </row>
-    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>204</v>
       </c>
@@ -26930,7 +26928,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>206</v>
       </c>
@@ -26971,7 +26969,7 @@
         <v>2400</v>
       </c>
       <c r="V129" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="W129" t="str">
         <f t="shared" si="198"/>
@@ -27126,7 +27124,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>450</v>
       </c>
@@ -27292,9 +27290,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C131" t="s">
         <v>308</v>
@@ -27303,7 +27301,7 @@
         <v>54</v>
       </c>
       <c r="G131" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="W131" t="str">
         <f t="shared" si="198"/>
@@ -27390,7 +27388,7 @@
         <v/>
       </c>
       <c r="AR131" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AU131" t="s">
         <v>28</v>
@@ -27451,9 +27449,9 @@
         <v>[40.57789,-105.0766],</v>
       </c>
     </row>
-    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C132" t="s">
         <v>308</v>
@@ -27462,7 +27460,7 @@
         <v>431</v>
       </c>
       <c r="G132" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W132" t="str">
         <f t="shared" si="198"/>
@@ -27549,7 +27547,7 @@
         <v/>
       </c>
       <c r="AR132" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AS132" t="s">
         <v>295</v>
@@ -27617,7 +27615,7 @@
         <v>[40.57855,-105.07975],</v>
       </c>
     </row>
-    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>208</v>
       </c>
@@ -27658,7 +27656,7 @@
         <v>1600</v>
       </c>
       <c r="V133" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="W133" t="str">
         <f t="shared" si="198"/>
@@ -27816,9 +27814,9 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C134" t="s">
         <v>309</v>
@@ -27827,7 +27825,7 @@
         <v>431</v>
       </c>
       <c r="G134" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H134">
         <v>1500</v>
@@ -27872,7 +27870,7 @@
         <v>1800</v>
       </c>
       <c r="V134" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W134">
         <f t="shared" si="198"/>
@@ -27959,7 +27957,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR134" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AU134" t="s">
         <v>299</v>
@@ -28020,9 +28018,9 @@
         <v>[40.52369,-105.03435],</v>
       </c>
     </row>
-    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C135" t="s">
         <v>308</v>
@@ -28031,7 +28029,7 @@
         <v>54</v>
       </c>
       <c r="G135" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="W135" t="str">
         <f t="shared" si="198"/>
@@ -28118,7 +28116,7 @@
         <v/>
       </c>
       <c r="AR135" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AU135" t="s">
         <v>28</v>
@@ -28179,7 +28177,7 @@
         <v>[40.573785,-105.0833606],</v>
       </c>
     </row>
-    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>170</v>
       </c>
@@ -28384,7 +28382,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>43</v>
       </c>
@@ -28583,7 +28581,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>210</v>
       </c>
@@ -28797,7 +28795,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>59</v>
       </c>
@@ -28963,7 +28961,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>451</v>
       </c>
@@ -29129,9 +29127,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C141" t="s">
         <v>309</v>
@@ -29140,7 +29138,7 @@
         <v>54</v>
       </c>
       <c r="G141" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="W141" t="str">
         <f t="shared" si="198"/>
@@ -29285,7 +29283,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>213</v>
       </c>
@@ -29451,7 +29449,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>478</v>
       </c>
@@ -29617,9 +29615,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C144" t="s">
         <v>309</v>
@@ -29628,7 +29626,7 @@
         <v>431</v>
       </c>
       <c r="G144" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H144">
         <v>1500</v>
@@ -29673,7 +29671,7 @@
         <v>1800</v>
       </c>
       <c r="V144" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="W144">
         <f t="shared" si="198"/>
@@ -29760,7 +29758,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR144" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AU144" t="s">
         <v>299</v>
@@ -29821,9 +29819,9 @@
         <v>[40.55475,-105.09774],</v>
       </c>
     </row>
-    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C145" t="s">
         <v>309</v>
@@ -29832,7 +29830,7 @@
         <v>431</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="W145" t="str">
         <f t="shared" si="198"/>
@@ -29911,7 +29909,7 @@
         <v/>
       </c>
       <c r="AR145" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AS145" t="s">
         <v>295</v>
@@ -29975,7 +29973,7 @@
         <v>[40.563256,-105.077464],</v>
       </c>
     </row>
-    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>397</v>
       </c>
@@ -30141,7 +30139,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>378</v>
       </c>
@@ -30349,9 +30347,9 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C148" t="s">
         <v>308</v>
@@ -30360,7 +30358,7 @@
         <v>431</v>
       </c>
       <c r="G148" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J148">
         <v>1500</v>
@@ -30393,7 +30391,7 @@
         <v>1800</v>
       </c>
       <c r="V148" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="W148" t="str">
         <f t="shared" si="198"/>
@@ -30538,7 +30536,7 @@
         <v>[40.5635177,-105.077318],</v>
       </c>
     </row>
-    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>216</v>
       </c>
@@ -30749,7 +30747,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>285</v>
       </c>
@@ -30960,7 +30958,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>103</v>
       </c>
@@ -31165,7 +31163,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>137</v>
       </c>
@@ -31337,7 +31335,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>118</v>
       </c>
@@ -31503,15 +31501,15 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C154" t="s">
         <v>426</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W154" t="str">
         <f t="shared" ref="W154:W185" si="232">IF(H154&gt;0,H154/100,"")</f>
@@ -31598,7 +31596,7 @@
         <v/>
       </c>
       <c r="AR154" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AU154" t="s">
         <v>298</v>
@@ -31659,7 +31657,7 @@
         <v>[40.58742,-105.0784],</v>
       </c>
     </row>
-    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>40</v>
       </c>
@@ -31834,7 +31832,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>37</v>
       </c>
@@ -32045,15 +32043,15 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E157" t="s">
         <v>431</v>
       </c>
       <c r="G157" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="W157" t="str">
         <f t="shared" si="232"/>
@@ -32198,7 +32196,7 @@
         <v>[40.58213,-105.02703],</v>
       </c>
     </row>
-    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>375</v>
       </c>
@@ -32364,7 +32362,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>536</v>
       </c>
@@ -32569,9 +32567,9 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C160" t="s">
         <v>427</v>
@@ -32580,7 +32578,7 @@
         <v>54</v>
       </c>
       <c r="G160" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J160">
         <v>1400</v>
@@ -32613,7 +32611,7 @@
         <v>1900</v>
       </c>
       <c r="V160" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="W160" t="str">
         <f t="shared" si="232"/>
@@ -32761,7 +32759,7 @@
         <v>[40.62701,-105.13785],</v>
       </c>
     </row>
-    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>112</v>
       </c>
@@ -32957,7 +32955,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>542</v>
       </c>
@@ -33159,7 +33157,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>80</v>
       </c>
@@ -33332,9 +33330,9 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C164" t="s">
         <v>427</v>
@@ -33343,7 +33341,7 @@
         <v>431</v>
       </c>
       <c r="G164" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N164">
         <v>1200</v>
@@ -33352,7 +33350,7 @@
         <v>1700</v>
       </c>
       <c r="V164" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="W164" t="str">
         <f t="shared" si="232"/>
@@ -33439,7 +33437,7 @@
         <v/>
       </c>
       <c r="AS164" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AU164" t="s">
         <v>299</v>
@@ -33500,7 +33498,7 @@
         <v>[40.66018,-105.161719],</v>
       </c>
     </row>
-    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>452</v>
       </c>
@@ -33666,7 +33664,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>100</v>
       </c>
@@ -33832,15 +33830,15 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C167" t="s">
         <v>429</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="W167" t="str">
         <f t="shared" si="232"/>
@@ -33985,7 +33983,7 @@
         <v>[40.57906,-105.07656],</v>
       </c>
     </row>
-    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>83</v>
       </c>
@@ -34154,7 +34152,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>218</v>
       </c>
@@ -34353,15 +34351,15 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C170" t="s">
         <v>309</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L170">
         <v>1600</v>
@@ -34472,7 +34470,7 @@
         <v/>
       </c>
       <c r="AR170" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AU170" t="s">
         <v>299</v>
@@ -34533,7 +34531,7 @@
         <v>[40.56208,-105.03864],</v>
       </c>
     </row>
-    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>173</v>
       </c>
@@ -34732,7 +34730,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>571</v>
       </c>
@@ -34897,9 +34895,9 @@
         <v>[40.57891,-105.07843],</v>
       </c>
     </row>
-    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C173" t="s">
         <v>426</v>
@@ -34908,7 +34906,7 @@
         <v>431</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="W173" t="str">
         <f t="shared" si="232"/>
@@ -34987,7 +34985,7 @@
         <v/>
       </c>
       <c r="AR173" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AU173" t="s">
         <v>298</v>
@@ -35048,9 +35046,9 @@
         <v>[40.586451,-105.078568],</v>
       </c>
     </row>
-    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C174" t="s">
         <v>426</v>
@@ -35249,15 +35247,15 @@
         <v>[40.58815,-105.07761],</v>
       </c>
     </row>
-    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C175" t="s">
         <v>426</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="W175" t="str">
         <f t="shared" si="232"/>
@@ -35344,7 +35342,7 @@
         <v/>
       </c>
       <c r="AR175" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AU175" t="s">
         <v>298</v>
@@ -35405,7 +35403,7 @@
         <v>[40.58899,-105.07637],</v>
       </c>
     </row>
-    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>564</v>
       </c>
@@ -35567,15 +35565,15 @@
         <v>[40.58487,-105.0765],</v>
       </c>
     </row>
-    <row r="177" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C177" t="s">
         <v>426</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W177" t="str">
         <f t="shared" si="232"/>
@@ -35662,7 +35660,7 @@
         <v/>
       </c>
       <c r="AR177" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AS177" t="s">
         <v>295</v>
@@ -35726,7 +35724,7 @@
         <v>[40.58758,-105.07636],</v>
       </c>
     </row>
-    <row r="178" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>453</v>
       </c>
@@ -35892,7 +35890,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="179" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>220</v>
       </c>
@@ -36106,7 +36104,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>380</v>
       </c>
@@ -36308,7 +36306,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>223</v>
       </c>
@@ -36474,7 +36472,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>553</v>
       </c>
@@ -36670,15 +36668,15 @@
         <v>[40.58741,-105.07661],</v>
       </c>
     </row>
-    <row r="183" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C183" t="s">
         <v>308</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W183" t="str">
         <f t="shared" si="232"/>
@@ -36823,7 +36821,7 @@
         <v>[40.57844,-105.07856],</v>
       </c>
     </row>
-    <row r="184" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>287</v>
       </c>
@@ -37034,7 +37032,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>401</v>
       </c>
@@ -37203,9 +37201,9 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C186" t="s">
         <v>426</v>
@@ -37214,7 +37212,7 @@
         <v>431</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="W186" t="str">
         <f t="shared" ref="W186:W196" si="256">IF(H186&gt;0,H186/100,"")</f>
@@ -37293,7 +37291,7 @@
         <v/>
       </c>
       <c r="AR186" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AU186" t="s">
         <v>299</v>
@@ -37354,9 +37352,9 @@
         <v>[40.523973,-105.025125],</v>
       </c>
     </row>
-    <row r="187" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C187" t="s">
         <v>426</v>
@@ -37365,7 +37363,7 @@
         <v>54</v>
       </c>
       <c r="G187" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="W187" t="str">
         <f t="shared" si="256"/>
@@ -37444,7 +37442,7 @@
         <v/>
       </c>
       <c r="AR187" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AS187" t="s">
         <v>295</v>
@@ -37508,15 +37506,15 @@
         <v>[40.589425,-105.076553],</v>
       </c>
     </row>
-    <row r="188" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C188" t="s">
         <v>429</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W188" t="str">
         <f t="shared" si="256"/>
@@ -37603,7 +37601,7 @@
         <v/>
       </c>
       <c r="AR188" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AU188" t="s">
         <v>28</v>
@@ -37664,15 +37662,15 @@
         <v>[40.57429,-105.0971],</v>
       </c>
     </row>
-    <row r="189" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E189" t="s">
         <v>431</v>
       </c>
       <c r="G189" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="W189" t="str">
         <f t="shared" si="256"/>
@@ -37817,7 +37815,7 @@
         <v>[40.55258,-105.09673],</v>
       </c>
     </row>
-    <row r="190" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>128</v>
       </c>
@@ -37989,7 +37987,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>550</v>
       </c>
@@ -38154,15 +38152,15 @@
         <v>[40.55197,-105.03718],</v>
       </c>
     </row>
-    <row r="192" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C192" t="s">
         <v>309</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J192">
         <v>1100</v>
@@ -38183,7 +38181,7 @@
         <v>2400</v>
       </c>
       <c r="V192" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W192" t="str">
         <f t="shared" si="256"/>
@@ -38262,7 +38260,7 @@
         <v/>
       </c>
       <c r="AR192" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AU192" t="s">
         <v>299</v>
@@ -38323,7 +38321,7 @@
         <v>[40.57358,-105.05826],</v>
       </c>
     </row>
-    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>225</v>
       </c>
@@ -38481,7 +38479,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>49</v>
       </c>
@@ -38639,15 +38637,15 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C195" t="s">
         <v>429</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W195" t="str">
         <f t="shared" si="256"/>
@@ -38726,7 +38724,7 @@
         <v/>
       </c>
       <c r="AR195" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AS195" t="s">
         <v>295</v>
@@ -38794,7 +38792,7 @@
         <v>[40.57488,-105.10039],</v>
       </c>
     </row>
-    <row r="196" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>227</v>
       </c>
@@ -38823,7 +38821,7 @@
         <v>1600</v>
       </c>
       <c r="V196" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="W196" t="str">
         <f t="shared" si="256"/>
@@ -38974,77 +38972,77 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C191" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BL197">
+  <autoFilter ref="C2:C191"/>
+  <sortState ref="B2:BL197">
     <sortCondition ref="B2:B197"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G136" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AR42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AR99" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AR28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AR115" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AR20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AR8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AR55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AR34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AR64" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AR46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AR163" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AR54" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AR126" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AR95" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AR63" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AR166" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR151" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AR19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AR10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AR161" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AR91" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AR153" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AR113" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AR190" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR93" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AR15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AR86" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AR7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AR43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AR57" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AR82" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AR106" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AR114" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AR116" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="AR136" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AR16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="AR24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AR62" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR80" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AR85" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AR110" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AR128" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR138" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AR142" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AR149" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AR169" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR181" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR196" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR23" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AR58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="AR66" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AR67" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AR77" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AR101" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AR150" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="AR184" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR48" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR174" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AR172" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G136" r:id="rId1" display="https://www.google.com/maps/dir/Current+Location/101 S. College Avenue, Fort Collins, CO 80524"/>
+    <hyperlink ref="AR42" r:id="rId2"/>
+    <hyperlink ref="AR99" r:id="rId3"/>
+    <hyperlink ref="AR28" r:id="rId4"/>
+    <hyperlink ref="AR115" r:id="rId5"/>
+    <hyperlink ref="AR20" r:id="rId6"/>
+    <hyperlink ref="AR8" r:id="rId7"/>
+    <hyperlink ref="AR55" r:id="rId8"/>
+    <hyperlink ref="AR34" r:id="rId9"/>
+    <hyperlink ref="AR64" r:id="rId10"/>
+    <hyperlink ref="AR46" r:id="rId11"/>
+    <hyperlink ref="AR163" r:id="rId12"/>
+    <hyperlink ref="AR54" r:id="rId13"/>
+    <hyperlink ref="AR126" r:id="rId14"/>
+    <hyperlink ref="AR95" r:id="rId15"/>
+    <hyperlink ref="AR63" r:id="rId16"/>
+    <hyperlink ref="AR166" r:id="rId17"/>
+    <hyperlink ref="AR151" r:id="rId18"/>
+    <hyperlink ref="AR19" r:id="rId19"/>
+    <hyperlink ref="AR10" r:id="rId20"/>
+    <hyperlink ref="AR161" r:id="rId21"/>
+    <hyperlink ref="AR91" r:id="rId22"/>
+    <hyperlink ref="AR153" r:id="rId23"/>
+    <hyperlink ref="AR113" r:id="rId24"/>
+    <hyperlink ref="AR190" r:id="rId25"/>
+    <hyperlink ref="AR93" r:id="rId26"/>
+    <hyperlink ref="AR15" r:id="rId27"/>
+    <hyperlink ref="AR86" r:id="rId28"/>
+    <hyperlink ref="AR5" r:id="rId29"/>
+    <hyperlink ref="AR7" r:id="rId30"/>
+    <hyperlink ref="AR43" r:id="rId31"/>
+    <hyperlink ref="AR45" r:id="rId32"/>
+    <hyperlink ref="AR57" r:id="rId33"/>
+    <hyperlink ref="AR82" r:id="rId34"/>
+    <hyperlink ref="AR106" r:id="rId35"/>
+    <hyperlink ref="AR114" r:id="rId36"/>
+    <hyperlink ref="AR116" r:id="rId37"/>
+    <hyperlink ref="AR136" r:id="rId38"/>
+    <hyperlink ref="AR16" r:id="rId39"/>
+    <hyperlink ref="AR24" r:id="rId40"/>
+    <hyperlink ref="AR62" r:id="rId41"/>
+    <hyperlink ref="AR80" r:id="rId42"/>
+    <hyperlink ref="AR85" r:id="rId43"/>
+    <hyperlink ref="AR110" r:id="rId44"/>
+    <hyperlink ref="AR128" r:id="rId45"/>
+    <hyperlink ref="AR138" r:id="rId46"/>
+    <hyperlink ref="AR142" r:id="rId47"/>
+    <hyperlink ref="AR149" r:id="rId48"/>
+    <hyperlink ref="AR169" r:id="rId49"/>
+    <hyperlink ref="AR181" r:id="rId50"/>
+    <hyperlink ref="AR196" r:id="rId51"/>
+    <hyperlink ref="AR23" r:id="rId52"/>
+    <hyperlink ref="AR58" r:id="rId53"/>
+    <hyperlink ref="AR66" r:id="rId54"/>
+    <hyperlink ref="AR67" r:id="rId55"/>
+    <hyperlink ref="AR77" r:id="rId56"/>
+    <hyperlink ref="AR101" r:id="rId57"/>
+    <hyperlink ref="AR150" r:id="rId58"/>
+    <hyperlink ref="AR184" r:id="rId59"/>
+    <hyperlink ref="AR59" r:id="rId60"/>
+    <hyperlink ref="AR79" r:id="rId61"/>
+    <hyperlink ref="AR48" r:id="rId62"/>
+    <hyperlink ref="AR9" r:id="rId63"/>
+    <hyperlink ref="AR174" r:id="rId64"/>
+    <hyperlink ref="B11" r:id="rId65" display="https://www.yelp.com/biz/avuncular-bobs-beerhouse-fort-collins"/>
+    <hyperlink ref="AR172" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -39052,27 +39050,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C1" t="s">
         <v>769</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>770</v>
-      </c>
-      <c r="D1" t="s">
-        <v>771</v>
       </c>
       <c r="E1">
         <v>40.589424999999999</v>
@@ -39081,15 +39079,15 @@
         <v>-105.076553</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D2" t="s">
         <v>770</v>
-      </c>
-      <c r="D2" t="s">
-        <v>771</v>
       </c>
       <c r="E2">
         <v>40.589759999999998</v>
@@ -39098,15 +39096,15 @@
         <v>-105.076497</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D3" t="s">
         <v>773</v>
-      </c>
-      <c r="C3" t="s">
-        <v>770</v>
-      </c>
-      <c r="D3" t="s">
-        <v>774</v>
       </c>
       <c r="E3">
         <v>40.523972999999998</v>
@@ -39115,15 +39113,15 @@
         <v>-105.025125</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D4" t="s">
         <v>775</v>
-      </c>
-      <c r="C4" t="s">
-        <v>770</v>
-      </c>
-      <c r="D4" t="s">
-        <v>776</v>
       </c>
       <c r="E4">
         <v>40.551048999999999</v>
@@ -39132,15 +39130,15 @@
         <v>-105.05831000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E5">
         <v>40.563256000000003</v>
@@ -39149,15 +39147,15 @@
         <v>-105.07746400000001</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E6">
         <v>40.527959000000003</v>
@@ -39166,15 +39164,15 @@
         <v>-105.07761600000001</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D7" t="s">
         <v>770</v>
-      </c>
-      <c r="D7" t="s">
-        <v>771</v>
       </c>
       <c r="E7">
         <v>40.586450999999997</v>
@@ -39192,14 +39190,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -2433,7 +2433,7 @@
     <t xml:space="preserve">Ride Your Bike For $1 Off All Draft Beer&lt;br&gt;2 Live Music Stages - Indoor And Outdoor&lt;br&gt;Happy Hour 2-7pm - Monday - Friday&lt;br&gt;Open Mic Every Wednesday Night </t>
   </si>
   <si>
-    <t>$4 Colorado Drafts &lt;br&gt; $5 Select Glasses of Wine, $2 off all other wines by the glass &lt;br&gt; $5 Sangria &lt;br&gt; &lt;b&gt;Food&lt;/b&gt;&lt;br&gt; Cheese board - $14&lt;br&gt;Charcuterie - $15&lt;br&gt;Sliders - $5&lt;br&gt;Fried Pickles -$5&lt;br&gt;Brussel Sprouts - $7&lt;br&gt;Marinated Olivers - $5&lt;br&gt;Shrimp Piccata - $7&lt;br&gt;Patatas Bravas - $6</t>
+    <t>Drink Specials 11am - 6pm&lt;br&gt;Food Specials 3pm-6pm&lt;br&gt;$4 Colorado Drafts &lt;br&gt; $5 Select Glasses of Wine, $2 off all other wines by the glass &lt;br&gt; $5 Sangria &lt;br&gt; &lt;b&gt;Food&lt;/b&gt;&lt;br&gt; Cheese board - $14&lt;br&gt;Charcuterie - $15&lt;br&gt;Sliders - $5&lt;br&gt;Fried Pickles -$5&lt;br&gt;Brussel Sprouts - $7&lt;br&gt;Marinated Olivers - $5&lt;br&gt;Shrimp Piccata - $7&lt;br&gt;Patatas Bravas - $6</t>
   </si>
 </sst>
 </file>
@@ -3395,7 +3395,7 @@
   <dimension ref="B1:BL196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
       <selection pane="bottomRight" activeCell="V97" sqref="V97"/>
@@ -21210,7 +21210,7 @@
         <v>{
     'name': "Locality Kitchen and Bar",
     'area': "sfoco",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1800", 'monday-start':"1100", 'monday-end':"1800", 'tuesday-start':"1100", 'tuesday-end':"1800", 'wednesday-start':"1100", 'wednesday-end':"1800", 'thursday-start':"1100", 'thursday-end':"1800", 'friday-start':"1100", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1800"},  'description': "$4 Colorado Drafts &lt;br&gt; $5 Select Glasses of Wine, $2 off all other wines by the glass &lt;br&gt; $5 Sangria &lt;br&gt; &lt;b&gt;Food&lt;/b&gt;&lt;br&gt; Cheese board - $14&lt;br&gt;Charcuterie - $15&lt;br&gt;Sliders - $5&lt;br&gt;Fried Pickles -$5&lt;br&gt;Brussel Sprouts - $7&lt;br&gt;Marinated Olivers - $5&lt;br&gt;Shrimp Piccata - $7&lt;br&gt;Patatas Bravas - $6", 'link':"localityfoco.com/", 'pricing':"",   'phone-number': "", 'address': "2350 E Harmony Rd #1, Fort Collins, CO 80528", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"1800", 'monday-start':"1100", 'monday-end':"1800", 'tuesday-start':"1100", 'tuesday-end':"1800", 'wednesday-start':"1100", 'wednesday-end':"1800", 'thursday-start':"1100", 'thursday-end':"1800", 'friday-start':"1100", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1800"},  'description': "Drink Specials 11am - 6pm&lt;br&gt;Food Specials 3pm-6pm&lt;br&gt;$4 Colorado Drafts &lt;br&gt; $5 Select Glasses of Wine, $2 off all other wines by the glass &lt;br&gt; $5 Sangria &lt;br&gt; &lt;b&gt;Food&lt;/b&gt;&lt;br&gt; Cheese board - $14&lt;br&gt;Charcuterie - $15&lt;br&gt;Sliders - $5&lt;br&gt;Fried Pickles -$5&lt;br&gt;Brussel Sprouts - $7&lt;br&gt;Marinated Olivers - $5&lt;br&gt;Shrimp Piccata - $7&lt;br&gt;Patatas Bravas - $6", 'link':"localityfoco.com/", 'pricing':"",   'phone-number': "", 'address': "2350 E Harmony Rd #1, Fort Collins, CO 80528", 'other-amenities': ['','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY97" t="str">
         <f t="shared" si="102"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -2373,9 +2373,6 @@
     <t>130 S Mason St</t>
   </si>
   <si>
-    <t>Mondays: Happy Hour All Day! $5 pints – $4 12oz. Buy a Rally King T-shirt and get a free beer! FREE fresh-baked, chocolate chip cookies  5pm-8 pm &lt;br&gt;Tuesdays: Wear Rally King gear for BOGO beers!&lt;br&gt;Wednesdays:Happy Hour 2pm-4pm&lt;br&gt;Thursdays:Happy Hour 2pm-4pm</t>
-  </si>
-  <si>
     <t>$5 cocktails including Gin and Tonics, Lavendar Sours, Colorado Mules, Bee Stings, and Don Drapers</t>
   </si>
   <si>
@@ -2434,6 +2431,9 @@
   </si>
   <si>
     <t>Drink Specials 11am - 6pm&lt;br&gt;Food Specials 3pm-6pm&lt;br&gt;$4 Colorado Drafts &lt;br&gt; $5 Select Glasses of Wine, $2 off all other wines by the glass &lt;br&gt; $5 Sangria &lt;br&gt; &lt;b&gt;Food&lt;/b&gt;&lt;br&gt; Cheese board - $14&lt;br&gt;Charcuterie - $15&lt;br&gt;Sliders - $5&lt;br&gt;Fried Pickles -$5&lt;br&gt;Brussel Sprouts - $7&lt;br&gt;Marinated Olivers - $5&lt;br&gt;Shrimp Piccata - $7&lt;br&gt;Patatas Bravas - $6</t>
+  </si>
+  <si>
+    <t>Mondays: Happy Hour All Day! $5 pints - $4 12oz. Buy a Rally King T-shirt and get a free beer! FREE fresh-baked, chocolate chip cookies  5pm-8 pm &lt;br&gt;Tuesdays: Wear Rally King gear for BOGO beers!&lt;br&gt;Wednesdays:Happy Hour 2pm-4pm&lt;br&gt;Thursdays:Happy Hour 2pm-4pm&lt;br&gt;Fridays: Sour Fridays! Small batch sours released every Friday @2:00pm</t>
   </si>
 </sst>
 </file>
@@ -3395,10 +3395,10 @@
   <dimension ref="B1:BL196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V97" sqref="V97"/>
+      <selection pane="bottomRight" activeCell="AA128" sqref="AA128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C47" t="s">
         <v>426</v>
@@ -11956,7 +11956,7 @@
         <v>431</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" ref="W47" si="59">IF(H47&gt;0,H47/100,"")</f>
@@ -12047,7 +12047,7 @@
         <v>295</v>
       </c>
       <c r="AT47" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AU47" t="s">
         <v>298</v>
@@ -13745,7 +13745,7 @@
         <v>1800</v>
       </c>
       <c r="V57" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="34"/>
@@ -14860,7 +14860,7 @@
         <v>1800</v>
       </c>
       <c r="V63" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="W63">
         <f t="shared" si="34"/>
@@ -17787,7 +17787,7 @@
         <v>1800</v>
       </c>
       <c r="V79" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="W79">
         <f t="shared" si="89"/>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C84" t="s">
         <v>426</v>
@@ -18680,7 +18680,7 @@
         <v>431</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J84">
         <v>1600</v>
@@ -18713,7 +18713,7 @@
         <v>1800</v>
       </c>
       <c r="V84" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" ref="X84" si="121">IF(I84&gt;0,I84/100,"")</f>
@@ -20482,7 +20482,7 @@
     </row>
     <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C94" t="s">
         <v>429</v>
@@ -20491,7 +20491,7 @@
         <v>54</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J94">
         <v>1100</v>
@@ -20524,7 +20524,7 @@
         <v>1400</v>
       </c>
       <c r="V94" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="W94" t="str">
         <f t="shared" ref="W94" si="165">IF(H94&gt;0,H94/100,"")</f>
@@ -21107,7 +21107,7 @@
         <v>1800</v>
       </c>
       <c r="V97" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="W97">
         <f t="shared" si="151"/>
@@ -22395,7 +22395,7 @@
         <v>1800</v>
       </c>
       <c r="V104" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="W104" t="str">
         <f t="shared" si="151"/>
@@ -24603,7 +24603,7 @@
         <v>1800</v>
       </c>
       <c r="V116" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="151"/>
@@ -26969,7 +26969,7 @@
         <v>2400</v>
       </c>
       <c r="V129" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="W129" t="str">
         <f t="shared" si="198"/>
@@ -27656,7 +27656,7 @@
         <v>1600</v>
       </c>
       <c r="V133" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="W133" t="str">
         <f t="shared" si="198"/>
@@ -27765,7 +27765,7 @@
         <v>{
     'name': "Rally King Brewing",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"2100", 'tuesday-start':"1400", 'tuesday-end':"2100", 'wednesday-start':"1400", 'wednesday-end':"1600", 'thursday-start':"1400", 'thursday-end':"1600", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Mondays: Happy Hour All Day! $5 pints – $4 12oz. Buy a Rally King T-shirt and get a free beer! FREE fresh-baked, chocolate chip cookies  5pm-8 pm &lt;br&gt;Tuesdays: Wear Rally King gear for BOGO beers!&lt;br&gt;Wednesdays:Happy Hour 2pm-4pm&lt;br&gt;Thursdays:Happy Hour 2pm-4pm", 'link':"https://rallykingbrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "1624 S Lemay Ave #4, Fort Collins, CO", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"2100", 'tuesday-start':"1400", 'tuesday-end':"2100", 'wednesday-start':"1400", 'wednesday-end':"1600", 'thursday-start':"1400", 'thursday-end':"1600", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Mondays: Happy Hour All Day! $5 pints - $4 12oz. Buy a Rally King T-shirt and get a free beer! FREE fresh-baked, chocolate chip cookies  5pm-8 pm &lt;br&gt;Tuesdays: Wear Rally King gear for BOGO beers!&lt;br&gt;Wednesdays:Happy Hour 2pm-4pm&lt;br&gt;Thursdays:Happy Hour 2pm-4pm&lt;br&gt;Fridays: Sour Fridays! Small batch sours released every Friday @2:00pm", 'link':"https://rallykingbrewing.com/", 'pricing':"med",   'phone-number': "", 'address': "1624 S Lemay Ave #4, Fort Collins, CO", 'other-amenities': ['outdoor','pets','easy'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY133" t="str">
         <f t="shared" si="213"/>
@@ -32611,7 +32611,7 @@
         <v>1900</v>
       </c>
       <c r="V160" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="W160" t="str">
         <f t="shared" si="232"/>
@@ -33350,7 +33350,7 @@
         <v>1700</v>
       </c>
       <c r="V164" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="W164" t="str">
         <f t="shared" si="232"/>
@@ -33437,7 +33437,7 @@
         <v/>
       </c>
       <c r="AS164" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AU164" t="s">
         <v>299</v>
@@ -38821,7 +38821,7 @@
         <v>1600</v>
       </c>
       <c r="V196" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="W196" t="str">
         <f t="shared" si="256"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1498,9 +1498,6 @@
     <t>$4 drafts &lt;br&gt; $4.50 wells &lt;br&gt; $6 wine</t>
   </si>
   <si>
-    <t>Sundays: $2 off Bloody Mary’s &lt;br&gt; Wed-Thur: &lt;br&gt; $6 select cocktails including mules &lt;br&gt; $2 off select appetizers</t>
-  </si>
-  <si>
     <t>Premium Wells: $3.50 &lt;br&gt; Martini’s &amp; Manhattan's: $5.00  &lt;br&gt; Select Draft Beers: $3.50 &lt;br&gt; House Wines: $3.50 &lt;br&gt; A range of food specials</t>
   </si>
   <si>
@@ -2198,9 +2195,6 @@
     <t>347 E Foothills Pkwy #110, Fort Collins, CO 80525</t>
   </si>
   <si>
-    <t>$4 Green Chile Cheese Tots </t>
-  </si>
-  <si>
     <t>$4 Queso with chips </t>
   </si>
   <si>
@@ -2434,13 +2428,19 @@
   </si>
   <si>
     <t>Mondays: Happy Hour All Day! $5 pints - $4 12oz. Buy a Rally King T-shirt and get a free beer! FREE fresh-baked, chocolate chip cookies  5pm-8 pm &lt;br&gt;Tuesdays: Wear Rally King gear for BOGO beers!&lt;br&gt;Wednesdays:Happy Hour 2pm-4pm&lt;br&gt;Thursdays:Happy Hour 2pm-4pm&lt;br&gt;Fridays: Sour Fridays! Small batch sours released every Friday @2:00pm</t>
+  </si>
+  <si>
+    <t>Sundays: $2 off Bloody Mary’s &lt;br&gt; Wed-Thur: &lt;br&gt; $6 select cocktails including mules &lt;br&gt; Spinach Artichoke Dip $8&lt;br&gt;Bacon Wrapped Scallops $13&lt;br&gt;Meat and Cheese Board $13</t>
+  </si>
+  <si>
+    <t>$3.50 All 14 oz Drafts&lt;br&gt;$4.50 Wines by the Glass&lt;br&gt;$5.50 Signauture Martinis&lt;br&gt;Half Off Select Appetizers and Flatbreads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2635,6 +2635,11 @@
       <u/>
       <sz val="6"/>
       <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2981,7 +2986,7 @@
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3008,6 +3013,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -3395,10 +3401,10 @@
   <dimension ref="B1:BL196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AA128" sqref="AA128"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3797,7 +3803,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL2" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4010,7 +4016,7 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C4" t="s">
         <v>426</v>
@@ -4019,7 +4025,7 @@
         <v>431</v>
       </c>
       <c r="G4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
@@ -4106,7 +4112,7 @@
         <v/>
       </c>
       <c r="AR4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AU4" t="s">
         <v>298</v>
@@ -4335,19 +4341,19 @@
     </row>
     <row r="6" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C6" t="s">
         <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E6" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="0"/>
@@ -4728,7 +4734,7 @@
         <v>1800</v>
       </c>
       <c r="V8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
@@ -4885,19 +4891,19 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" t="s">
         <v>426</v>
       </c>
       <c r="D9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E9" t="s">
         <v>431</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H9">
         <v>1500</v>
@@ -4942,7 +4948,7 @@
         <v>1800</v>
       </c>
       <c r="V9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
@@ -5313,19 +5319,19 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C11" t="s">
         <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E11" t="s">
         <v>431</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="0"/>
@@ -5412,7 +5418,7 @@
         <v/>
       </c>
       <c r="AR11" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU11" t="s">
         <v>28</v>
@@ -5475,19 +5481,19 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C12" t="s">
         <v>427</v>
       </c>
       <c r="D12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E12" t="s">
         <v>431</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="0"/>
@@ -5639,7 +5645,7 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
         <v>426</v>
@@ -5648,7 +5654,7 @@
         <v>431</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="0"/>
@@ -5800,7 +5806,7 @@
     </row>
     <row r="14" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C14" t="s">
         <v>309</v>
@@ -5809,7 +5815,7 @@
         <v>431</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H14">
         <v>1500</v>
@@ -5854,7 +5860,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
@@ -5941,7 +5947,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AS14" t="s">
         <v>295</v>
@@ -5950,7 +5956,7 @@
         <v>299</v>
       </c>
       <c r="AV14" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AW14" s="3" t="s">
         <v>306</v>
@@ -6218,8 +6224,8 @@
       <c r="S16">
         <v>1900</v>
       </c>
-      <c r="V16" s="14" t="s">
-        <v>721</v>
+      <c r="V16" s="16" t="s">
+        <v>799</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="0"/>
@@ -6325,7 +6331,7 @@
         <v>{
     'name': "Bar Louie",
     'area': "midtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$4 Green Chile Cheese Tots ", 'link':"http://www.barlouie.com/locations/states/colorado/foothills-mall-fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "321 E Foothills Pkwy, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$3.50 All 14 oz Drafts&lt;br&gt;$4.50 Wines by the Glass&lt;br&gt;$5.50 Signauture Martinis&lt;br&gt;Half Off Select Appetizers and Flatbreads", 'link':"http://www.barlouie.com/locations/states/colorado/foothills-mall-fort-collins/", 'pricing':"med",   'phone-number': "", 'address': "321 E Foothills Pkwy, Fort Collins, CO 80525", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY16" t="str">
         <f t="shared" si="16"/>
@@ -6376,16 +6382,16 @@
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C17" t="s">
         <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="0"/>
@@ -6472,7 +6478,7 @@
         <v/>
       </c>
       <c r="AR17" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AS17" t="s">
         <v>295</v>
@@ -6595,7 +6601,7 @@
         <v>1800</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W18">
         <f t="shared" si="0"/>
@@ -6815,7 +6821,7 @@
         <v>2400</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="W19">
         <f t="shared" si="0"/>
@@ -7391,7 +7397,7 @@
         <v>1800</v>
       </c>
       <c r="V22" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
@@ -7967,7 +7973,7 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C25" t="s">
         <v>426</v>
@@ -7976,7 +7982,7 @@
         <v>431</v>
       </c>
       <c r="G25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P25">
         <v>2000</v>
@@ -7997,7 +8003,7 @@
         <v>2000</v>
       </c>
       <c r="V25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="0"/>
@@ -8084,7 +8090,7 @@
         <v>6pm-8pm</v>
       </c>
       <c r="AR25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AU25" t="s">
         <v>298</v>
@@ -8331,19 +8337,19 @@
     </row>
     <row r="27" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C27" t="s">
         <v>309</v>
       </c>
       <c r="D27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E27" t="s">
         <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="0"/>
@@ -8666,7 +8672,7 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C29" t="s">
         <v>309</v>
@@ -8675,7 +8681,7 @@
         <v>431</v>
       </c>
       <c r="G29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="0"/>
@@ -8822,7 +8828,7 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C30" t="s">
         <v>428</v>
@@ -8831,7 +8837,7 @@
         <v>431</v>
       </c>
       <c r="G30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="0"/>
@@ -8983,7 +8989,7 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C31" t="s">
         <v>308</v>
@@ -8992,7 +8998,7 @@
         <v>431</v>
       </c>
       <c r="G31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="0"/>
@@ -9144,13 +9150,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C32" t="s">
         <v>429</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="0"/>
@@ -9237,7 +9243,7 @@
         <v/>
       </c>
       <c r="AR32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AU32" t="s">
         <v>299</v>
@@ -9300,13 +9306,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C33" t="s">
         <v>309</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="0"/>
@@ -9393,7 +9399,7 @@
         <v/>
       </c>
       <c r="AR33" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AU33" t="s">
         <v>299</v>
@@ -9511,7 +9517,7 @@
         <v>1800</v>
       </c>
       <c r="V34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" ref="W34:W64" si="34">IF(H34&gt;0,H34/100,"")</f>
@@ -9672,13 +9678,13 @@
     </row>
     <row r="35" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C35" t="s">
         <v>426</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="34"/>
@@ -9765,7 +9771,7 @@
         <v/>
       </c>
       <c r="AR35" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AU35" t="s">
         <v>28</v>
@@ -10254,7 +10260,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10461,13 +10467,13 @@
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C39" t="s">
         <v>427</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="34"/>
@@ -10554,7 +10560,7 @@
         <v/>
       </c>
       <c r="AR39" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU39" t="s">
         <v>299</v>
@@ -10786,16 +10792,16 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C41" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E41" t="s">
         <v>431</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H41">
         <v>1600</v>
@@ -10840,7 +10846,7 @@
         <v>1800</v>
       </c>
       <c r="V41" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="W41">
         <f t="shared" si="34"/>
@@ -10927,7 +10933,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR41" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AU41" t="s">
         <v>28</v>
@@ -11383,7 +11389,7 @@
         <v>1800</v>
       </c>
       <c r="V44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W44" t="str">
         <f t="shared" si="34"/>
@@ -11576,7 +11582,7 @@
         <v>2100</v>
       </c>
       <c r="V45" t="s">
-        <v>488</v>
+        <v>798</v>
       </c>
       <c r="W45">
         <f t="shared" si="34"/>
@@ -11682,7 +11688,7 @@
         <v>{
     'name': "CopperMuse Distillery",
     'area': "old",'hours': {
-      'sunday-start':"1200", 'sunday-end':"1900", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"2100", 'thursday-start':"1600", 'thursday-end':"2100", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Sundays: $2 off Bloody Mary’s &lt;br&gt; Wed-Thur: &lt;br&gt; $6 select cocktails including mules &lt;br&gt; $2 off select appetizers", 'link':"http://www.coppermuse.com/", 'pricing':"med",   'phone-number': "", 'address': "244 N. College Ave, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1200", 'sunday-end':"1900", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"2100", 'thursday-start':"1600", 'thursday-end':"2100", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Sundays: $2 off Bloody Mary’s &lt;br&gt; Wed-Thur: &lt;br&gt; $6 select cocktails including mules &lt;br&gt; Spinach Artichoke Dip $8&lt;br&gt;Bacon Wrapped Scallops $13&lt;br&gt;Meat and Cheese Board $13", 'link':"http://www.coppermuse.com/", 'pricing':"med",   'phone-number': "", 'address': "244 N. College Ave, Fort Collins, CO 80524", 'other-amenities': ['outdoor','','medium'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY45" t="str">
         <f t="shared" si="49"/>
@@ -11790,7 +11796,7 @@
         <v>2400</v>
       </c>
       <c r="V46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W46">
         <f t="shared" si="34"/>
@@ -11947,7 +11953,7 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C47" t="s">
         <v>426</v>
@@ -11956,7 +11962,7 @@
         <v>431</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" ref="W47" si="59">IF(H47&gt;0,H47/100,"")</f>
@@ -12047,7 +12053,7 @@
         <v>295</v>
       </c>
       <c r="AT47" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AU47" t="s">
         <v>298</v>
@@ -12482,7 +12488,7 @@
     </row>
     <row r="50" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C50" t="s">
         <v>428</v>
@@ -12681,7 +12687,7 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C51" t="s">
         <v>426</v>
@@ -12690,7 +12696,7 @@
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="34"/>
@@ -12777,7 +12783,7 @@
         <v/>
       </c>
       <c r="AR51" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AU51" t="s">
         <v>298</v>
@@ -12840,7 +12846,7 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C52" t="s">
         <v>426</v>
@@ -12849,7 +12855,7 @@
         <v>431</v>
       </c>
       <c r="G52" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="34"/>
@@ -12936,7 +12942,7 @@
         <v/>
       </c>
       <c r="AR52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AS52" t="s">
         <v>295</v>
@@ -13002,7 +13008,7 @@
     </row>
     <row r="53" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C53" t="s">
         <v>309</v>
@@ -13011,7 +13017,7 @@
         <v>431</v>
       </c>
       <c r="G53" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H53">
         <v>1600</v>
@@ -13044,7 +13050,7 @@
         <v>1900</v>
       </c>
       <c r="V53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="W53">
         <f t="shared" si="34"/>
@@ -13131,7 +13137,7 @@
         <v/>
       </c>
       <c r="AR53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AU53" t="s">
         <v>299</v>
@@ -13526,7 +13532,7 @@
     </row>
     <row r="56" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C56" t="s">
         <v>427</v>
@@ -13535,7 +13541,7 @@
         <v>431</v>
       </c>
       <c r="G56" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L56">
         <v>1600</v>
@@ -13568,7 +13574,7 @@
         <v>1800</v>
       </c>
       <c r="V56" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="34"/>
@@ -13655,7 +13661,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AU56" t="s">
         <v>299</v>
@@ -13745,7 +13751,7 @@
         <v>1800</v>
       </c>
       <c r="V57" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="34"/>
@@ -13947,7 +13953,7 @@
         <v>1900</v>
       </c>
       <c r="V58" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="34"/>
@@ -14158,7 +14164,7 @@
         <v>1800</v>
       </c>
       <c r="V59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W59">
         <f t="shared" si="34"/>
@@ -14312,7 +14318,7 @@
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C60" t="s">
         <v>426</v>
@@ -14321,7 +14327,7 @@
         <v>54</v>
       </c>
       <c r="G60" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="34"/>
@@ -14408,7 +14414,7 @@
         <v/>
       </c>
       <c r="AR60" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AU60" t="s">
         <v>298</v>
@@ -14860,7 +14866,7 @@
         <v>1800</v>
       </c>
       <c r="V63" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="W63">
         <f t="shared" si="34"/>
@@ -15180,7 +15186,7 @@
     </row>
     <row r="65" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C65" t="s">
         <v>426</v>
@@ -15189,7 +15195,7 @@
         <v>54</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" ref="W65:W91" si="89">IF(H65&gt;0,H65/100,"")</f>
@@ -15268,7 +15274,7 @@
         <v/>
       </c>
       <c r="AR65" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AS65" t="s">
         <v>295</v>
@@ -15593,7 +15599,7 @@
         <v>1800</v>
       </c>
       <c r="V67" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="89"/>
@@ -15751,7 +15757,7 @@
     </row>
     <row r="68" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C68" t="s">
         <v>309</v>
@@ -15760,7 +15766,7 @@
         <v>431</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="89"/>
@@ -15839,7 +15845,7 @@
         <v/>
       </c>
       <c r="AR68" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AU68" t="s">
         <v>299</v>
@@ -15902,13 +15908,13 @@
     </row>
     <row r="69" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C69" t="s">
         <v>426</v>
       </c>
       <c r="G69" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="89"/>
@@ -16111,7 +16117,7 @@
         <v>2400</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="W70">
         <f t="shared" si="89"/>
@@ -16317,7 +16323,7 @@
         <v>2400</v>
       </c>
       <c r="V71" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W71" t="str">
         <f t="shared" si="89"/>
@@ -16806,7 +16812,7 @@
     </row>
     <row r="74" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C74" t="s">
         <v>426</v>
@@ -16815,7 +16821,7 @@
         <v>431</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H74">
         <v>1600</v>
@@ -16860,7 +16866,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="W74">
         <f t="shared" si="89"/>
@@ -16947,7 +16953,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR74" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AS74" t="s">
         <v>295</v>
@@ -17013,16 +17019,16 @@
     </row>
     <row r="75" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C75" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E75" t="s">
         <v>431</v>
       </c>
       <c r="G75" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W75" t="str">
         <f t="shared" si="89"/>
@@ -17174,16 +17180,16 @@
     </row>
     <row r="76" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C76" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E76" t="s">
         <v>431</v>
       </c>
       <c r="G76" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H76">
         <v>1500</v>
@@ -17228,7 +17234,7 @@
         <v>1800</v>
       </c>
       <c r="V76" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="W76">
         <f t="shared" si="89"/>
@@ -17315,7 +17321,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR76" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AU76" t="s">
         <v>299</v>
@@ -17429,7 +17435,7 @@
         <v>1900</v>
       </c>
       <c r="V77" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W77" t="str">
         <f t="shared" si="89"/>
@@ -17583,7 +17589,7 @@
     </row>
     <row r="78" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C78" t="s">
         <v>426</v>
@@ -17592,7 +17598,7 @@
         <v>431</v>
       </c>
       <c r="G78" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W78" t="str">
         <f t="shared" si="89"/>
@@ -17679,7 +17685,7 @@
         <v/>
       </c>
       <c r="AR78" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AU78" t="s">
         <v>298</v>
@@ -17787,7 +17793,7 @@
         <v>1800</v>
       </c>
       <c r="V79" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="W79">
         <f t="shared" si="89"/>
@@ -17948,7 +17954,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL79" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="80" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -18348,7 +18354,7 @@
         <v>2000</v>
       </c>
       <c r="V82" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W82">
         <f t="shared" si="89"/>
@@ -18671,7 +18677,7 @@
     </row>
     <row r="84" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C84" t="s">
         <v>426</v>
@@ -18680,7 +18686,7 @@
         <v>431</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J84">
         <v>1600</v>
@@ -18713,7 +18719,7 @@
         <v>1800</v>
       </c>
       <c r="V84" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" ref="X84" si="121">IF(I84&gt;0,I84/100,"")</f>
@@ -19090,7 +19096,7 @@
         <v>1900</v>
       </c>
       <c r="V86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W86">
         <f t="shared" si="89"/>
@@ -19250,7 +19256,7 @@
     </row>
     <row r="87" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C87" t="s">
         <v>428</v>
@@ -19259,7 +19265,7 @@
         <v>431</v>
       </c>
       <c r="G87" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W87" t="str">
         <f t="shared" si="89"/>
@@ -19406,13 +19412,13 @@
     </row>
     <row r="88" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C88" t="s">
         <v>429</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H88">
         <v>1100</v>
@@ -19457,7 +19463,7 @@
         <v>1300</v>
       </c>
       <c r="V88" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="W88">
         <f t="shared" si="89"/>
@@ -19544,7 +19550,7 @@
         <v>11am-1pm</v>
       </c>
       <c r="AR88" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AS88" t="s">
         <v>295</v>
@@ -19881,7 +19887,7 @@
         <v>1800</v>
       </c>
       <c r="V90" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W90">
         <f t="shared" si="89"/>
@@ -20053,7 +20059,7 @@
         <v>117</v>
       </c>
       <c r="V91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W91" t="str">
         <f t="shared" si="89"/>
@@ -20210,7 +20216,7 @@
     </row>
     <row r="92" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C92" t="s">
         <v>309</v>
@@ -20219,7 +20225,7 @@
         <v>431</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AK92" t="str">
         <f t="shared" si="111"/>
@@ -20250,7 +20256,7 @@
         <v/>
       </c>
       <c r="AR92" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AS92" t="s">
         <v>295</v>
@@ -20482,7 +20488,7 @@
     </row>
     <row r="94" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C94" t="s">
         <v>429</v>
@@ -20491,7 +20497,7 @@
         <v>54</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J94">
         <v>1100</v>
@@ -20524,7 +20530,7 @@
         <v>1400</v>
       </c>
       <c r="V94" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="W94" t="str">
         <f t="shared" ref="W94" si="165">IF(H94&gt;0,H94/100,"")</f>
@@ -20842,7 +20848,7 @@
     </row>
     <row r="96" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C96" t="s">
         <v>428</v>
@@ -20854,7 +20860,7 @@
         <v>431</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H96">
         <v>1600</v>
@@ -20899,7 +20905,7 @@
         <v>1800</v>
       </c>
       <c r="V96" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W96">
         <f t="shared" si="151"/>
@@ -20986,7 +20992,7 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR96" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AS96" t="s">
         <v>295</v>
@@ -21056,13 +21062,13 @@
     </row>
     <row r="97" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C97" t="s">
         <v>428</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H97">
         <v>1100</v>
@@ -21107,7 +21113,7 @@
         <v>1800</v>
       </c>
       <c r="V97" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="W97">
         <f t="shared" si="151"/>
@@ -21194,7 +21200,7 @@
         <v>11am-6pm</v>
       </c>
       <c r="AR97" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AU97" t="s">
         <v>28</v>
@@ -21302,7 +21308,7 @@
         <v>1900</v>
       </c>
       <c r="V98" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W98" t="str">
         <f t="shared" si="151"/>
@@ -21513,7 +21519,7 @@
         <v>1800</v>
       </c>
       <c r="V99" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W99">
         <f t="shared" si="151"/>
@@ -21670,13 +21676,13 @@
     </row>
     <row r="100" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C100" t="s">
         <v>426</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="W100" t="str">
         <f t="shared" si="151"/>
@@ -21763,7 +21769,7 @@
         <v/>
       </c>
       <c r="AR100" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU100" t="s">
         <v>28</v>
@@ -21883,7 +21889,7 @@
         <v>1900</v>
       </c>
       <c r="V101" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W101">
         <f t="shared" si="151"/>
@@ -22041,13 +22047,13 @@
     </row>
     <row r="102" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C102" t="s">
         <v>426</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="W102" t="str">
         <f t="shared" si="151"/>
@@ -22134,7 +22140,7 @@
         <v/>
       </c>
       <c r="AR102" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AU102" t="s">
         <v>298</v>
@@ -22197,13 +22203,13 @@
     </row>
     <row r="103" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C103" t="s">
         <v>429</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W103" t="str">
         <f t="shared" si="151"/>
@@ -22395,7 +22401,7 @@
         <v>1800</v>
       </c>
       <c r="V104" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="W104" t="str">
         <f t="shared" si="151"/>
@@ -22552,7 +22558,7 @@
     </row>
     <row r="105" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C105" t="s">
         <v>308</v>
@@ -22561,7 +22567,7 @@
         <v>431</v>
       </c>
       <c r="G105" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="W105" t="str">
         <f t="shared" si="151"/>
@@ -22648,7 +22654,7 @@
         <v/>
       </c>
       <c r="AR105" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AU105" t="s">
         <v>28</v>
@@ -22883,13 +22889,13 @@
     </row>
     <row r="107" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C107" t="s">
         <v>309</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W107" t="str">
         <f t="shared" si="151"/>
@@ -22976,7 +22982,7 @@
         <v/>
       </c>
       <c r="AR107" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AU107" t="s">
         <v>299</v>
@@ -23039,19 +23045,19 @@
     </row>
     <row r="108" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C108" t="s">
         <v>309</v>
       </c>
       <c r="D108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E108" t="s">
         <v>54</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H108">
         <v>1400</v>
@@ -23096,7 +23102,7 @@
         <v>1700</v>
       </c>
       <c r="V108" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W108">
         <f t="shared" si="151"/>
@@ -23183,7 +23189,7 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR108" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AU108" t="s">
         <v>299</v>
@@ -23753,7 +23759,7 @@
     </row>
     <row r="112" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C112" t="s">
         <v>429</v>
@@ -23762,7 +23768,7 @@
         <v>431</v>
       </c>
       <c r="G112" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H112">
         <v>1600</v>
@@ -23807,7 +23813,7 @@
         <v>1900</v>
       </c>
       <c r="V112" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W112">
         <f t="shared" si="151"/>
@@ -23894,7 +23900,7 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR112" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AS112" t="s">
         <v>295</v>
@@ -24018,7 +24024,7 @@
         <v>1800</v>
       </c>
       <c r="V113" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W113">
         <f t="shared" si="151"/>
@@ -24232,7 +24238,7 @@
         <v>1900</v>
       </c>
       <c r="V114" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W114">
         <f t="shared" si="151"/>
@@ -24603,7 +24609,7 @@
         <v>1800</v>
       </c>
       <c r="V116" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="151"/>
@@ -24766,7 +24772,7 @@
     </row>
     <row r="117" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C117" t="s">
         <v>427</v>
@@ -24775,7 +24781,7 @@
         <v>431</v>
       </c>
       <c r="G117" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="W117" t="str">
         <f t="shared" si="151"/>
@@ -24862,7 +24868,7 @@
         <v/>
       </c>
       <c r="AR117" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AU117" t="s">
         <v>299</v>
@@ -25091,7 +25097,7 @@
     </row>
     <row r="119" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C119" t="s">
         <v>309</v>
@@ -25100,7 +25106,7 @@
         <v>54</v>
       </c>
       <c r="G119" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="W119" t="str">
         <f t="shared" si="151"/>
@@ -25754,7 +25760,7 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C123" t="s">
         <v>309</v>
@@ -25763,7 +25769,7 @@
         <v>431</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="W123" t="str">
         <f t="shared" ref="W123:W153" si="198">IF(H123&gt;0,H123/100,"")</f>
@@ -25842,7 +25848,7 @@
         <v/>
       </c>
       <c r="AR123" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AU123" t="s">
         <v>299</v>
@@ -25905,13 +25911,13 @@
     </row>
     <row r="124" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C124" t="s">
         <v>428</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H124">
         <v>1500</v>
@@ -25956,7 +25962,7 @@
         <v>1800</v>
       </c>
       <c r="V124" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="W124">
         <f t="shared" si="198"/>
@@ -26043,7 +26049,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR124" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AS124" t="s">
         <v>295</v>
@@ -26109,13 +26115,13 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C125" t="s">
         <v>308</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H125">
         <v>1500</v>
@@ -26247,7 +26253,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR125" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AU125" t="s">
         <v>28</v>
@@ -26524,19 +26530,19 @@
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C127" t="s">
         <v>426</v>
       </c>
       <c r="D127" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E127" t="s">
         <v>431</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J127">
         <v>1700</v>
@@ -26569,7 +26575,7 @@
         <v>2400</v>
       </c>
       <c r="V127" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W127" t="str">
         <f t="shared" si="198"/>
@@ -26656,7 +26662,7 @@
         <v/>
       </c>
       <c r="AR127" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AU127" t="s">
         <v>298</v>
@@ -26776,7 +26782,7 @@
         <v>1800</v>
       </c>
       <c r="V128" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W128">
         <f t="shared" si="198"/>
@@ -26969,7 +26975,7 @@
         <v>2400</v>
       </c>
       <c r="V129" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="W129" t="str">
         <f t="shared" si="198"/>
@@ -27292,7 +27298,7 @@
     </row>
     <row r="131" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C131" t="s">
         <v>308</v>
@@ -27301,7 +27307,7 @@
         <v>54</v>
       </c>
       <c r="G131" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W131" t="str">
         <f t="shared" si="198"/>
@@ -27388,7 +27394,7 @@
         <v/>
       </c>
       <c r="AR131" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AU131" t="s">
         <v>28</v>
@@ -27451,7 +27457,7 @@
     </row>
     <row r="132" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C132" t="s">
         <v>308</v>
@@ -27460,7 +27466,7 @@
         <v>431</v>
       </c>
       <c r="G132" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W132" t="str">
         <f t="shared" si="198"/>
@@ -27547,7 +27553,7 @@
         <v/>
       </c>
       <c r="AR132" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AS132" t="s">
         <v>295</v>
@@ -27656,7 +27662,7 @@
         <v>1600</v>
       </c>
       <c r="V133" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="W133" t="str">
         <f t="shared" si="198"/>
@@ -27816,7 +27822,7 @@
     </row>
     <row r="134" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C134" t="s">
         <v>309</v>
@@ -27825,7 +27831,7 @@
         <v>431</v>
       </c>
       <c r="G134" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H134">
         <v>1500</v>
@@ -27870,7 +27876,7 @@
         <v>1800</v>
       </c>
       <c r="V134" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="W134">
         <f t="shared" si="198"/>
@@ -27957,7 +27963,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR134" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AU134" t="s">
         <v>299</v>
@@ -28020,7 +28026,7 @@
     </row>
     <row r="135" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C135" t="s">
         <v>308</v>
@@ -28029,7 +28035,7 @@
         <v>54</v>
       </c>
       <c r="G135" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="W135" t="str">
         <f t="shared" si="198"/>
@@ -28116,7 +28122,7 @@
         <v/>
       </c>
       <c r="AR135" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AU135" t="s">
         <v>28</v>
@@ -28640,7 +28646,7 @@
         <v>2000</v>
       </c>
       <c r="V138" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W138">
         <f t="shared" si="198"/>
@@ -29129,7 +29135,7 @@
     </row>
     <row r="141" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C141" t="s">
         <v>309</v>
@@ -29138,7 +29144,7 @@
         <v>54</v>
       </c>
       <c r="G141" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="W141" t="str">
         <f t="shared" si="198"/>
@@ -29617,7 +29623,7 @@
     </row>
     <row r="144" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C144" t="s">
         <v>309</v>
@@ -29626,7 +29632,7 @@
         <v>431</v>
       </c>
       <c r="G144" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H144">
         <v>1500</v>
@@ -29671,7 +29677,7 @@
         <v>1800</v>
       </c>
       <c r="V144" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="W144">
         <f t="shared" si="198"/>
@@ -29758,7 +29764,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR144" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AU144" t="s">
         <v>299</v>
@@ -29821,7 +29827,7 @@
     </row>
     <row r="145" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C145" t="s">
         <v>309</v>
@@ -29830,7 +29836,7 @@
         <v>431</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="W145" t="str">
         <f t="shared" si="198"/>
@@ -29909,7 +29915,7 @@
         <v/>
       </c>
       <c r="AR145" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AS145" t="s">
         <v>295</v>
@@ -30349,7 +30355,7 @@
     </row>
     <row r="148" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C148" t="s">
         <v>308</v>
@@ -30358,7 +30364,7 @@
         <v>431</v>
       </c>
       <c r="G148" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J148">
         <v>1500</v>
@@ -30391,7 +30397,7 @@
         <v>1800</v>
       </c>
       <c r="V148" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="W148" t="str">
         <f t="shared" si="198"/>
@@ -30589,7 +30595,7 @@
         <v>2000</v>
       </c>
       <c r="V149" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W149">
         <f t="shared" si="198"/>
@@ -31011,7 +31017,7 @@
         <v>1900</v>
       </c>
       <c r="V151" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W151">
         <f t="shared" si="198"/>
@@ -31503,13 +31509,13 @@
     </row>
     <row r="154" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C154" t="s">
         <v>426</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="W154" t="str">
         <f t="shared" ref="W154:W185" si="232">IF(H154&gt;0,H154/100,"")</f>
@@ -31596,7 +31602,7 @@
         <v/>
       </c>
       <c r="AR154" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AU154" t="s">
         <v>298</v>
@@ -32045,13 +32051,13 @@
     </row>
     <row r="157" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E157" t="s">
         <v>431</v>
       </c>
       <c r="G157" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="W157" t="str">
         <f t="shared" si="232"/>
@@ -32364,7 +32370,7 @@
     </row>
     <row r="159" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C159" t="s">
         <v>426</v>
@@ -32373,7 +32379,7 @@
         <v>431</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H159">
         <v>1500</v>
@@ -32418,7 +32424,7 @@
         <v>2400</v>
       </c>
       <c r="V159" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W159">
         <f t="shared" si="232"/>
@@ -32569,7 +32575,7 @@
     </row>
     <row r="160" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C160" t="s">
         <v>427</v>
@@ -32578,7 +32584,7 @@
         <v>54</v>
       </c>
       <c r="G160" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J160">
         <v>1400</v>
@@ -32611,7 +32617,7 @@
         <v>1900</v>
       </c>
       <c r="V160" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="W160" t="str">
         <f t="shared" si="232"/>
@@ -32957,7 +32963,7 @@
     </row>
     <row r="162" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C162" t="s">
         <v>426</v>
@@ -32969,7 +32975,7 @@
         <v>431</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H162">
         <v>1130</v>
@@ -33002,7 +33008,7 @@
         <v>1800</v>
       </c>
       <c r="V162" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W162">
         <f t="shared" si="232"/>
@@ -33089,7 +33095,7 @@
         <v/>
       </c>
       <c r="AR162" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AS162" t="s">
         <v>295</v>
@@ -33332,7 +33338,7 @@
     </row>
     <row r="164" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C164" t="s">
         <v>427</v>
@@ -33341,7 +33347,7 @@
         <v>431</v>
       </c>
       <c r="G164" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N164">
         <v>1200</v>
@@ -33350,7 +33356,7 @@
         <v>1700</v>
       </c>
       <c r="V164" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="W164" t="str">
         <f t="shared" si="232"/>
@@ -33437,7 +33443,7 @@
         <v/>
       </c>
       <c r="AS164" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AU164" t="s">
         <v>299</v>
@@ -33832,13 +33838,13 @@
     </row>
     <row r="167" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C167" t="s">
         <v>429</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W167" t="str">
         <f t="shared" si="232"/>
@@ -34199,7 +34205,7 @@
         <v>1800</v>
       </c>
       <c r="V169" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W169" t="str">
         <f t="shared" si="232"/>
@@ -34353,13 +34359,13 @@
     </row>
     <row r="170" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C170" t="s">
         <v>309</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L170">
         <v>1600</v>
@@ -34470,7 +34476,7 @@
         <v/>
       </c>
       <c r="AR170" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AU170" t="s">
         <v>299</v>
@@ -34578,7 +34584,7 @@
         <v>1800</v>
       </c>
       <c r="V171" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W171" t="str">
         <f t="shared" si="232"/>
@@ -34732,19 +34738,19 @@
     </row>
     <row r="172" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C172" t="s">
         <v>426</v>
       </c>
       <c r="D172" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E172" t="s">
         <v>431</v>
       </c>
       <c r="G172" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W172" t="str">
         <f t="shared" si="232"/>
@@ -34831,7 +34837,7 @@
         <v/>
       </c>
       <c r="AR172" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AS172" t="s">
         <v>295</v>
@@ -34897,7 +34903,7 @@
     </row>
     <row r="173" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C173" t="s">
         <v>426</v>
@@ -34906,7 +34912,7 @@
         <v>431</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="W173" t="str">
         <f t="shared" si="232"/>
@@ -34985,7 +34991,7 @@
         <v/>
       </c>
       <c r="AR173" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AU173" t="s">
         <v>298</v>
@@ -35048,19 +35054,19 @@
     </row>
     <row r="174" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C174" t="s">
         <v>426</v>
       </c>
       <c r="D174" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E174" t="s">
         <v>35</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J174">
         <v>1100</v>
@@ -35099,7 +35105,7 @@
         <v>1700</v>
       </c>
       <c r="V174" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W174" t="str">
         <f t="shared" si="232"/>
@@ -35186,7 +35192,7 @@
         <v>11am-5pm</v>
       </c>
       <c r="AR174" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU174" t="s">
         <v>298</v>
@@ -35249,13 +35255,13 @@
     </row>
     <row r="175" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C175" t="s">
         <v>426</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W175" t="str">
         <f t="shared" si="232"/>
@@ -35342,7 +35348,7 @@
         <v/>
       </c>
       <c r="AR175" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AU175" t="s">
         <v>298</v>
@@ -35405,19 +35411,19 @@
     </row>
     <row r="176" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C176" t="s">
         <v>426</v>
       </c>
       <c r="D176" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E176" t="s">
         <v>35</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W176" t="str">
         <f t="shared" si="232"/>
@@ -35504,7 +35510,7 @@
         <v/>
       </c>
       <c r="AR176" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AU176" t="s">
         <v>298</v>
@@ -35567,13 +35573,13 @@
     </row>
     <row r="177" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C177" t="s">
         <v>426</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W177" t="str">
         <f t="shared" si="232"/>
@@ -35660,7 +35666,7 @@
         <v/>
       </c>
       <c r="AR177" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AS177" t="s">
         <v>295</v>
@@ -35949,7 +35955,7 @@
         <v>1900</v>
       </c>
       <c r="V179" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W179">
         <f t="shared" si="232"/>
@@ -36151,7 +36157,7 @@
         <v>1900</v>
       </c>
       <c r="V180" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W180" t="str">
         <f t="shared" si="232"/>
@@ -36474,7 +36480,7 @@
     </row>
     <row r="182" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C182" t="s">
         <v>426</v>
@@ -36486,7 +36492,7 @@
         <v>54</v>
       </c>
       <c r="G182" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J182">
         <v>1500</v>
@@ -36670,13 +36676,13 @@
     </row>
     <row r="183" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C183" t="s">
         <v>308</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W183" t="str">
         <f t="shared" si="232"/>
@@ -36880,7 +36886,7 @@
         <v>1900</v>
       </c>
       <c r="V184" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W184">
         <f t="shared" si="232"/>
@@ -37203,7 +37209,7 @@
     </row>
     <row r="186" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C186" t="s">
         <v>426</v>
@@ -37212,7 +37218,7 @@
         <v>431</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="W186" t="str">
         <f t="shared" ref="W186:W196" si="256">IF(H186&gt;0,H186/100,"")</f>
@@ -37291,7 +37297,7 @@
         <v/>
       </c>
       <c r="AR186" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AU186" t="s">
         <v>299</v>
@@ -37354,7 +37360,7 @@
     </row>
     <row r="187" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C187" t="s">
         <v>426</v>
@@ -37363,7 +37369,7 @@
         <v>54</v>
       </c>
       <c r="G187" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="W187" t="str">
         <f t="shared" si="256"/>
@@ -37442,7 +37448,7 @@
         <v/>
       </c>
       <c r="AR187" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AS187" t="s">
         <v>295</v>
@@ -37508,13 +37514,13 @@
     </row>
     <row r="188" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C188" t="s">
         <v>429</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="W188" t="str">
         <f t="shared" si="256"/>
@@ -37601,7 +37607,7 @@
         <v/>
       </c>
       <c r="AR188" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AU188" t="s">
         <v>28</v>
@@ -37664,13 +37670,13 @@
     </row>
     <row r="189" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E189" t="s">
         <v>431</v>
       </c>
       <c r="G189" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="W189" t="str">
         <f t="shared" si="256"/>
@@ -37989,7 +37995,7 @@
     </row>
     <row r="191" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C191" t="s">
         <v>309</v>
@@ -38001,7 +38007,7 @@
         <v>431</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W191" t="str">
         <f t="shared" si="256"/>
@@ -38088,7 +38094,7 @@
         <v/>
       </c>
       <c r="AR191" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AS191" t="s">
         <v>295</v>
@@ -38154,13 +38160,13 @@
     </row>
     <row r="192" spans="2:64" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C192" t="s">
         <v>309</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J192">
         <v>1100</v>
@@ -38181,7 +38187,7 @@
         <v>2400</v>
       </c>
       <c r="V192" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W192" t="str">
         <f t="shared" si="256"/>
@@ -38260,7 +38266,7 @@
         <v/>
       </c>
       <c r="AR192" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AU192" t="s">
         <v>299</v>
@@ -38639,13 +38645,13 @@
     </row>
     <row r="195" spans="2:63" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C195" t="s">
         <v>429</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W195" t="str">
         <f t="shared" si="256"/>
@@ -38724,7 +38730,7 @@
         <v/>
       </c>
       <c r="AR195" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS195" t="s">
         <v>295</v>
@@ -38821,7 +38827,7 @@
         <v>1600</v>
       </c>
       <c r="V196" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="W196" t="str">
         <f t="shared" si="256"/>
@@ -39064,13 +39070,13 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1" t="s">
         <v>768</v>
-      </c>
-      <c r="C1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D1" t="s">
-        <v>770</v>
       </c>
       <c r="E1">
         <v>40.589424999999999</v>
@@ -39081,13 +39087,13 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E2">
         <v>40.589759999999998</v>
@@ -39098,13 +39104,13 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E3">
         <v>40.523972999999998</v>
@@ -39115,13 +39121,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E4">
         <v>40.551048999999999</v>
@@ -39132,13 +39138,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E5">
         <v>40.563256000000003</v>
@@ -39149,13 +39155,13 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E6">
         <v>40.527959000000003</v>
@@ -39166,13 +39172,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E7">
         <v>40.586450999999997</v>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B2D675-7614-4A3F-8344-C04EB861B986}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$191</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="801">
   <si>
     <t>Name</t>
   </si>
@@ -2434,12 +2435,15 @@
   </si>
   <si>
     <t>$3.50 All 14 oz Drafts&lt;br&gt;$4.50 Wines by the Glass&lt;br&gt;$5.50 Signauture Martinis&lt;br&gt;Half Off Select Appetizers and Flatbreads</t>
+  </si>
+  <si>
+    <t>$1 Tenders&lt;br&gt;$4 Beer &amp; keg cocktails</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3028,12 +3032,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle nam